--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="178">
   <si>
     <t>论文名</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Discrepancy problem: Differences between training on true previous values and inference on generated values, leading to error accumulation
 - 2. Signal path problem: Difficulty in preserving long-term dependencies over many timesteps, especially with RNN models
 </t>
@@ -1473,7 +1479,8 @@
     <t>Grad-TTS</t>
   </si>
   <si>
-    <t>Russia Higher School of Economics、Huawei Noah’s Ark Lab</t>
+    <t>(1) Russia Higher School of Economics
+(2) Huawei Noah’s Ark Lab</t>
   </si>
   <si>
     <t>ICML 2021</t>
@@ -1528,7 +1535,8 @@
     <t>GraphGDP</t>
   </si>
   <si>
-    <t>Beihang University, Beijing, China; University of Central Florida, Florida, USA</t>
+    <t>(1) Beihang University, Beijing, China;
+(2) University of Central Florida, Florida, USA</t>
   </si>
   <si>
     <t>ICDM 2022</t>
@@ -1541,6 +1549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Graph data
 </t>
     </r>
@@ -1587,15 +1601,22 @@
   </si>
   <si>
     <r>
-      <t>挑战：</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>由于图数据的离散和高维特性，以及图数据在节点排序上的置换不变性，使得建模和理解图数据的生成过程变得具有挑战性，现有的自回归模型由于依赖于生成顺序，无法捕捉图的置换不变性质，并且计算复杂度较高。</t>
     </r>
     <r>
@@ -1615,6 +1636,219 @@
         <charset val="134"/>
       </rPr>
       <t>作者提出了一个连续时间生成扩散过程来生成排列不变图来解决上述问题。</t>
+    </r>
+  </si>
+  <si>
+    <t>VFusion3D: Learning Scalable 3D Generative Models from Video Diffusion Models</t>
+  </si>
+  <si>
+    <t>VFusion3D</t>
+  </si>
+  <si>
+    <t>(1) GenAI, Meta
+(2) Torr Vision Group, University of Oxford</t>
+  </si>
+  <si>
+    <t>ECCV 2024</t>
+  </si>
+  <si>
+    <t>图像生成（3D）</t>
+  </si>
+  <si>
+    <t>(1) Objaverse
+(2) MVImageNet
+(3) internal dataset of 100K 3D objects crafted by 3D modeling artists
+(4) GSO</t>
+  </si>
+  <si>
+    <t>single image, 3D data, text</t>
+  </si>
+  <si>
+    <t>Single image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3D asset reconstruction</t>
+  </si>
+  <si>
+    <t>Text prompt</t>
+  </si>
+  <si>
+    <t>3D asset reconstruction</t>
+  </si>
+  <si>
+    <t>Opacity Loss, LPIPS loss, MSE loss</t>
+  </si>
+  <si>
+    <t>(1) Single Image 3D Reconstruction
+(2) Text-to-3D Generation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Difficulty in obtaining 3D data requires specialized equipment and technology, and 3D modeling is also cumbersome, resulting in limited publicly available 3D assets
+(2) The 3D assets generated by existing methods have low-quality texture and geometric issues, and perform poorly in handling some complex tasks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) Generate 3D data using video diffusion model
+(2) Improved 3D generative model training strategy (VFusion3D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) CLIP text similarity scores 
+(2) CLIP image similarity scores
+(3) SSIM
+(4) LPIPS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：后两个用于消融实验</t>
+    </r>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2403.12034</t>
+  </si>
+  <si>
+    <t>@inproceedings{han2025vfusion3d,
+  title={Vfusion3d: Learning scalable 3d generative models from video diffusion models},
+  author={Han, Junlin and Kokkinos, Filippos and Torr, Philip},
+  booktitle={European Conference on Computer Vision},
+  pages={333--350},
+  year={2025},
+  organization={Springer}
+}</t>
+  </si>
+  <si>
+    <t>128 NVIDIA A100 (80G) GPUs</t>
+  </si>
+  <si>
+    <t>(1) Improvements in video diffusion models 
+(2) stronger multi-view consistency constraints 
+(3) expansion of 3D data</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：3D 数据稀缺问题；现有 3D 生成模型的不足。
+作者利用视频扩散模型（EMU video）生成 3D 数据，并对LRM进行改进，训练得到 VFusion3D 模型</t>
+    </r>
+  </si>
+  <si>
+    <t>CSDI: Conditional Score-based Diffusion Models for
+Probabilistic Time Series Imputation</t>
+  </si>
+  <si>
+    <t>CSDI（Conditional Score-based Diffusion Models for Imputation）</t>
+  </si>
+  <si>
+    <t>(1) Stanford University
+(2) Mitsubishi UFJ Trust Investment Technology Institute
+(3) Japan Digital Design</t>
+  </si>
+  <si>
+    <t>NeurIPS 2021</t>
+  </si>
+  <si>
+    <t>时序数据生成</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) healthcare dataset in PhysioNet Challenge 2012
+(2) Air quality dataset (PM2.5 measurements in Beijing)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：仅有引用，分别是[1]和[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Time series data with missing values</t>
+  </si>
+  <si>
+    <t>Random noise for diffusion process</t>
+  </si>
+  <si>
+    <t>Interpolation data generated through the inverse process of the conditional diffusion model</t>
+  </si>
+  <si>
+    <t>(1) Time series imputation
+(2) Interpolation of irregularly sampled time series
+(3) Probabilistic forecasting</t>
+  </si>
+  <si>
+    <t>(1) continuous ranking probability score， CRPS
+(2)  the mean absolute error, MAE</t>
+  </si>
+  <si>
+    <t>https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/ermongroup/CSDI</t>
+  </si>
+  <si>
+    <t>@article{tashiro2021csdi,
+  title={Csdi: Conditional score-based diffusion models for probabilistic time series imputation},
+  author={Tashiro, Yusuke and Song, Jiaming and Song, Yang and Ermon, Stefano},
+  journal={Advances in Neural Information Processing Systems},
+  volume={34},
+  pages={24804--24816},
+  year={2021}
+}</t>
+  </si>
+  <si>
+    <t>(1) improve the computation efficiency
+(2) extend CSDI to downstream tasks such as classifications</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">时间序列在各个领域广泛存在，由于设备故障和人为错误等原因，常常包含缺失值。缺失值会影响对时间序列的解释，因此需要进行插补。基于深度学习的时间序列插补方法取得了很大的成功，但现有基于分数的扩散模型通常用于数据生成，没有明确地针对插补任务进行训练，也没有充分利用观察值之间的相关性。
+作者提出了CSDI ，一种基于条件分数扩散模型的概率插补方法
+</t>
     </r>
   </si>
 </sst>
@@ -1628,7 +1862,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1875,12 +2109,27 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1891,21 +2140,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF175CEB"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1927,6 +2167,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,7 +2558,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2330,16 +2582,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2348,89 +2600,89 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2446,37 +2698,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2491,7 +2725,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,7 +2737,31 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2527,17 +2785,14 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2545,21 +2800,30 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2569,13 +2833,25 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3111,12 +3387,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -3126,390 +3402,390 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:29">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="375" spans="1:28">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="9" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="9" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="9" t="s">
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:28">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="13" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="13" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34">
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38">
         <v>0</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:28">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="17" t="s">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="41" t="s">
+      <c r="V4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="47">
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="54">
         <v>5</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:28">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="21" t="s">
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="23" t="s">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="21" t="s">
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="30" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3519,7 +3795,7 @@
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="360" spans="1:29">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3540,10 +3816,10 @@
       <c r="G20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="V20" s="43" t="s">
+      <c r="V20" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="W20" s="43" t="s">
+      <c r="W20" s="47" t="s">
         <v>110</v>
       </c>
       <c r="X20" s="2" t="s">
@@ -3560,7 +3836,7 @@
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="360" spans="1:27">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="32" t="s">
         <v>114</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3587,16 +3863,14 @@
       <c r="O21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="P21" s="3"/>
       <c r="U21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="V21" s="44" t="s">
+      <c r="V21" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="W21" s="44" t="s">
+      <c r="W21" s="48" t="s">
         <v>125</v>
       </c>
       <c r="X21" s="3" t="s">
@@ -3610,7 +3884,7 @@
       </c>
     </row>
     <row r="22" s="4" customFormat="1" ht="345" spans="1:29">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="33" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3634,10 +3908,10 @@
       <c r="U22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="V22" s="45" t="s">
+      <c r="V22" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="W22" s="45" t="s">
+      <c r="W22" s="49" t="s">
         <v>137</v>
       </c>
       <c r="X22" s="4" t="s">
@@ -3646,14 +3920,144 @@
       <c r="Z22" s="4">
         <v>45</v>
       </c>
-      <c r="AA22" s="48" t="s">
+      <c r="AA22" s="55" t="s">
         <v>139</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AC22" s="31" t="s">
+      <c r="AC22" s="33" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="408" customHeight="1" spans="1:29">
+      <c r="A23" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="V23" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="W23" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>12</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC23" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="360" spans="1:29">
+      <c r="A24" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="V24" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="W24" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>417</v>
+      </c>
+      <c r="AA24" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC24" s="35" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3677,6 +4081,9 @@
     <hyperlink ref="W21" r:id="rId9" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
     <hyperlink ref="V22" r:id="rId10" display="https://arxiv.org/pdf/2212.01842" tooltip="https://arxiv.org/pdf/2212.01842"/>
     <hyperlink ref="W22" r:id="rId11" display="https://github.com/GRAPH-0/GraphGDP" tooltip="https://github.com/GRAPH-0/GraphGDP"/>
+    <hyperlink ref="V23" r:id="rId12" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
+    <hyperlink ref="W24" r:id="rId13" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
+    <hyperlink ref="V24" r:id="rId14" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="182">
   <si>
     <t>论文名</t>
   </si>
@@ -1401,6 +1401,13 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) difficulties in controlling language model behavior in natural language generation, especially in complex and fine-grained control 
+(1) </t>
+  </si>
+  <si>
+    <t>lm-score</t>
   </si>
   <si>
     <t>https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf</t>
@@ -1425,13 +1432,17 @@
   </si>
   <si>
     <r>
+      <t>挑战：</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">提出一个名为 </t>
+      <t xml:space="preserve">自然语言生成中控制语言模型行为存在困难，尤其是复杂、细粒度的控制（如句法结构）进展不大，现有方法在这方面存在诸多局限。
+提出一个名为 </t>
     </r>
     <r>
       <rPr>
@@ -1548,26 +1559,7 @@
     <t>Community-small, Ego-small, Ego, Enzymes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Graph data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备注：不确定</t>
-    </r>
+    <t>Graph data</t>
   </si>
   <si>
     <t>(1) Maximum Mean Discrepancy (MMD)
@@ -1711,6 +1703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) CLIP text similarity scores 
 (2) CLIP image similarity scores
 (3) SSIM
@@ -1750,6 +1748,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战</t>
     </r>
     <r>
@@ -1783,6 +1788,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) healthcare dataset in PhysioNet Challenge 2012
 (2) Air quality dataset (PM2.5 measurements in Beijing)
 </t>
@@ -1798,18 +1809,52 @@
     </r>
   </si>
   <si>
-    <t>Time series data with missing values</t>
-  </si>
-  <si>
-    <t>Random noise for diffusion process</t>
-  </si>
-  <si>
-    <t>Interpolation data generated through the inverse process of the conditional diffusion model</t>
+    <t>Time series with missing values</t>
+  </si>
+  <si>
+    <t>(1) Observed time series values
+(2) Noisy targets</t>
+  </si>
+  <si>
+    <t>(1) Imputed values
+(2) Probability distribution</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MSE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：具体表达式见 4.2 Training of CSDI</t>
+    </r>
   </si>
   <si>
     <t>(1) Time series imputation
 (2) Interpolation of irregularly sampled time series
 (3) Probabilistic forecasting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Missing values in time series data can hinder the correct interpretation and analysis of the data
+(2) The limitations of existing time series interpolation methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) Imputes missing values in time series using conditional diffusion models
+(2) Adopting self supervised training methods</t>
+    </r>
   </si>
   <si>
     <t>(1) continuous ranking probability score， CRPS
@@ -1837,6 +1882,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -1862,7 +1914,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,13 +2166,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="微软雅黑"/>
@@ -2135,13 +2180,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00A3F5"/>
-      <name val="Microsoft YaHei"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF00A3F5"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3389,10 +3434,10 @@
   <sheetPr/>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -3816,248 +3861,262 @@
       <c r="G20" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="T20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="V20" s="47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W20" s="47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z20" s="2">
         <v>609</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AC20" s="31" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="360" spans="1:27">
       <c r="A21" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P21" s="3"/>
       <c r="U21" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V21" s="48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W21" s="48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z21" s="3">
         <v>485</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" ht="345" spans="1:29">
       <c r="A22" s="33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="W22" s="49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z22" s="4">
         <v>45</v>
       </c>
       <c r="AA22" s="55" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC22" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" ht="408" customHeight="1" spans="1:29">
       <c r="A23" s="34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V23" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W23" s="51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Z23" s="5">
         <v>12</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC23" s="34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="360" spans="1:29">
       <c r="A24" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>74</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="V24" s="52" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="W24" s="52" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Z24" s="6">
         <v>417</v>
       </c>
       <c r="AA24" s="56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AC24" s="35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -1403,8 +1403,19 @@
     <t>text</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) difficulties in controlling language model behavior in natural language generation, especially in complex and fine-grained control 
-(1) </t>
+    <r>
+      <t xml:space="preserve">(1) difficulties in controlling language model behavior in natural language generation, especially in complex and fine-grained control 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) </t>
+    </r>
   </si>
   <si>
     <t>lm-score</t>
@@ -1432,6 +1443,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -1676,6 +1694,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Difficulty in obtaining 3D data requires specialized equipment and technology, and 3D modeling is also cumbersome, resulting in limited publicly available 3D assets
 (2) The 3D assets generated by existing methods have low-quality texture and geometric issues, and perform poorly in handling some complex tasks
 </t>
@@ -1821,6 +1845,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">MSE
 </t>
     </r>
@@ -1841,6 +1871,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Missing values in time series data can hinder the correct interpretation and analysis of the data
 (2) The limitations of existing time series interpolation methods
 </t>
@@ -2161,6 +2197,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -2172,20 +2213,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF175CEB"/>
+      <color rgb="FF00A3F5"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A3F5"/>
+      <color rgb="FF175CEB"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="234">
   <si>
     <t>论文名</t>
   </si>
@@ -1379,6 +1379,340 @@
     <t>所有数据集罗列</t>
   </si>
   <si>
+    <t>流模型</t>
+  </si>
+  <si>
+    <t>Boosting Flow-based Generative Super-Resolution Models via Learned Prior</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) LINF-LP with two configurations: "EDSR-baseline-LINF-LP" and "RRDB-LINF-LP" 
+(2) the enhanced version "SRFlow-LP"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：LINF-LP针对任意尺度流，SRFlow-LP针对固定</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) National Tsing Hua University
+ (2) MediaTek Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CVPR 2024</t>
+  </si>
+  <si>
+    <t>图像生成</t>
+  </si>
+  <si>
+    <t>(1) DIV2K
+(2) Flickr2K
+(3) SR benchmark datasets, including Set5 ,Set14 , B100 , and Urban100 .</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LR image (low-resolved image)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：潜在模块</t>
+    </r>
+  </si>
+  <si>
+    <t>latent code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">latent code
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：流模型</t>
+    </r>
+  </si>
+  <si>
+    <t>SR image (super-resolved image)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、L(latent)
+2、L(percep), VGG perceptual loss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：具体见4.4，总的损失函数为两者相加</t>
+    </r>
+  </si>
+  <si>
+    <t>Image Super-Resolution</t>
+  </si>
+  <si>
+    <t>several challenges in flow-based SR methods：
+1、grid artifacts
+2、exploding inverses
+3、suboptimal results due to a fixed sampling temperature
+innovation：
+The learning prior of latent module estimation is introduced in the inference stage of the flow based super-resolution model.</t>
+  </si>
+  <si>
+    <t>PSNR, SSIM, LPIPS, LR-PSNR</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/liyuantsao/BFSR</t>
+  </si>
+  <si>
+    <t>@inproceedings{tsao2024boosting,
+  title={Boosting Flow-based Generative Super-Resolution Models via Learned Prior},
+  author={Tsao, Li-Yuan and Lo, Yi-Chen and Chang, Chia-Che and Chen, Hao-Wei and Tseng, Roy and Feng, Chien and Lee, Chun-Yi},
+  booktitle={Proceedings of the IEEE/CVF Conference on Computer Vision and Pattern Recognition},
+  pages={26005--26015},
+  year={2024}
+}</t>
+  </si>
+  <si>
+    <t>not mentioned</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于流的超分辨率（SR）模型在生成高质量图像方面表现出了惊人的能力。然而，这些方法在图像生成过程中遇到了一些挑战，例如网格伪影、爆炸反转以及由于固定采样温度导致的次优结果。
+作者在基于流的超分辨率模型的推理阶段引入了潜在模块估计的学习先验。</t>
+    </r>
+  </si>
+  <si>
+    <t>Routing-Oblivious Network Tomography with
+Flow-Based Generative Model</t>
+  </si>
+  <si>
+    <t>FlowTM</t>
+  </si>
+  <si>
+    <t>(1) Hefei University of Technology
+(2) University of Victoria</t>
+  </si>
+  <si>
+    <t>INFOCOM 2024</t>
+  </si>
+  <si>
+    <t>时序数据生成</t>
+  </si>
+  <si>
+    <t>Abilene、GEANT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Traffic Matrix
+(2) Link Loads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：TM应该是部分预估完整</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Estimated Traffic Matrix
+(2) Estimated Link Loads</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) embedding loss
+(2) negative log-likelihood loss
+(3) Invertibility Loss, L(inv)
+(4) Link-Load Loss, L(link)
+(5) Independent Loss, L(indep)
+(6)  Estimation Loss, L(est)
+(7) total
+loss function, L(FlowTM) = λ1 * L(inv) + λ2 * L(link) +λ3 * L(indep) +λ4 * L(est)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：具体见 Model Training部分。</t>
+    </r>
+  </si>
+  <si>
+    <t>Traffic Matrix Estimation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) The cost of directly measuring the network traffic matrix is very high
+(2) During the process of converting from high-dimensional traffic matrix to low dimensional link load, information will be lost
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) A new flow based TM estimation model FlowTM, which effectively estimates TM from low-cost link loads
+(2) Orthogonal decomposition of traffic matrix</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) normalized mean absolute error (NMAE)、
+(2) normalized root mean square error (NRMSE)、
+(3) temporal related mean absolute error (TRMAE)、
+(4) spatial related mean absolute error (SRMAE)、
+(5) maximum mean discrepancy (MMD)</t>
+  </si>
+  <si>
+    <t>https://wkui.github.io/Infocom2024-FlowTM.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/duoduoqiao/FlowTM</t>
+  </si>
+  <si>
+    <t>@inproceedings{qiao2024routing,
+  title={Routing-Oblivious Network Tomography with Flow-Based Generative Model},
+  author={Qiao, Yan and Yuan, Xinyu and Wu, Kui},
+  booktitle={IEEE INFOCOM 2024-IEEE Conference on Computer Communications},
+  pages={2139--2148},
+  year={2024},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16-core CPUs, 16GB GPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流量矩阵（TM）是网络可观测性的关键指标，但直接测量网络范围内的 OD 流通常不切实际，流量矩阵和路由矩阵之间的关系可以通过一个线性方程组来描述：A×X=Y
+A×X=Y，其中X 是流量矩阵，Y 是链路负载向量（即每条链路的总流量），A 是路由矩阵。
+作者提出了一种基于流量的生成模型（FlowTM），它能够在不知道路由矩阵 
+A 的情况下，通过学习流量矩阵 X 和链路负载 Y 之间的可逆相关性来估计流量矩阵</t>
+    </r>
+  </si>
+  <si>
     <t>扩散模型</t>
   </si>
   <si>
@@ -1404,6 +1738,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) difficulties in controlling language model behavior in natural language generation, especially in complex and fine-grained control 
 </t>
     </r>
@@ -1603,9 +1943,6 @@
 }</t>
   </si>
   <si>
-    <t>not mentioned</t>
-  </si>
-  <si>
     <t>(1) explore this framework with lower computational complexity 
 (2) further improve efficient sampling</t>
   </si>
@@ -1808,9 +2145,6 @@
     <t>NeurIPS 2021</t>
   </si>
   <si>
-    <t>时序数据生成</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1937,6 +2271,113 @@
       <t xml:space="preserve">时间序列在各个领域广泛存在，由于设备故障和人为错误等原因，常常包含缺失值。缺失值会影响对时间序列的解释，因此需要进行插补。基于深度学习的时间序列插补方法取得了很大的成功，但现有基于分数的扩散模型通常用于数据生成，没有明确地针对插补任务进行训练，也没有充分利用观察值之间的相关性。
 作者提出了CSDI ，一种基于条件分数扩散模型的概率插补方法
 </t>
+    </r>
+  </si>
+  <si>
+    <t>DreamBooth: Fine Tuning Text-to-Image Diffusion Models
+for Subject-Driven Generation</t>
+  </si>
+  <si>
+    <t>DreamBooth</t>
+  </si>
+  <si>
+    <t>(1) Google Research
+(2) Boston University</t>
+  </si>
+  <si>
+    <t>CVPR 2023</t>
+  </si>
+  <si>
+    <t>collected by the authors or sourced from Unsplash</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>(1) Specific theme subject image
+(2) Text prompt</t>
+  </si>
+  <si>
+    <t>Designated theme image</t>
+  </si>
+  <si>
+    <t>(1) Diffusion Loss
+(2) Class-specific prior preservation loss</t>
+  </si>
+  <si>
+    <t>(1) subject recontextualization
+(2) text-guided view synthesis
+(3) artistic rendering,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) existing models lack the ability to mimic the appearance of
+subjects in a given reference set and synthesize novel renditions of them in different contexts. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) DreamBooth fine tunes pre trained text to image diffusion models to learn how to bind unique identifiers to specific topics, thereby generating high fidelity images of specific topics
+(2) Efficient utilization of a small number of reference images</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Subject fidelity (DINO, CLIP-I)
+(2) prompt fidelity 
+(CLIP-T)</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf</t>
+  </si>
+  <si>
+    <t>@article{ruiz2022dreambooth,
+  title={DreamBooth: Fine Tuning Text-to-image Diffusion Models for Subject-Driven Generation},
+  author={Ruiz, Nataniel and Li, Yuanzhen and Jampani, Varun and Pritch, Yael and Rubinstein, Michael and Aberman, Kfir},
+  booktitle={arXiv preprint arxiv:2208.12242},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t>TPUv4 or NVIDIA A100 for Stable Diffusion</t>
+  </si>
+  <si>
+    <t>(1) Improve the accuracy of generating specific environments
+(2) Resolve the issue of context appearance entanglement
+(3) Prevent overfitting
+(4) Improve the generation effect of learning difficulties among subjects
+(5) Improve the fidelity of subject features</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">挑战：大型文本到图像模型虽能从文本提示合成多样图像，但难以模仿给定主体外观并在不同情境下合成新样式，输出域表达力有限
+作者提出了一种对文本到图像扩散模型进行微调的新方法，以实现基于主体驱动的图像生成。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：主体驱动：以特定主题或对象为中心，来生成与该主题相关的多样化图像</t>
     </r>
   </si>
 </sst>
@@ -1950,7 +2391,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2202,20 +2643,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A3F5"/>
-      <name val="Microsoft YaHei"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2225,13 +2666,25 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00A3F5"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2253,13 +2706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,7 +3092,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2663,16 +3116,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2681,89 +3134,89 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2785,118 +3238,124 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2905,6 +3364,9 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2917,19 +3379,28 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3468,12 +3939,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -3483,676 +3954,870 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:29">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="53" t="s">
+      <c r="AC1" s="58" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="375" spans="1:28">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="11" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:28">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="15" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="15" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38">
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41">
         <v>0</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:28">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="19" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="V4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="W4" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="54">
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="59">
         <v>5</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:28">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="23" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="25" t="s">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="23" t="s">
+      <c r="U5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="46" t="s">
+      <c r="V5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="46" t="s">
+      <c r="W5" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="23" t="s">
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="405" spans="1:29">
+      <c r="A8" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="W8" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB8" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC8" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="345.6" spans="1:29">
+      <c r="A9" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="W9" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB9" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC9" s="33" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="360" spans="1:29">
-      <c r="A20" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="V20" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="W20" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z20" s="2">
+    <row r="20" s="3" customFormat="1" ht="360" spans="1:29">
+      <c r="A20" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="V20" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="W20" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z20" s="3">
         <v>609</v>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC20" s="31" t="s">
-        <v>115</v>
+      <c r="AB20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC20" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="360" spans="1:27">
-      <c r="A21" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="3" t="s">
+    <row r="21" s="4" customFormat="1" ht="360" spans="1:27">
+      <c r="A21" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="U21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V21" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="W21" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>485</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="345" spans="1:29">
+      <c r="A22" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V22" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="W22" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>45</v>
+      </c>
+      <c r="AA22" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="U21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V21" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="W21" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>485</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>129</v>
+      <c r="AB22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC22" s="35" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" ht="345" spans="1:29">
-      <c r="A22" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V22" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="W22" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>45</v>
-      </c>
-      <c r="AA22" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC22" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="408" customHeight="1" spans="1:29">
-      <c r="A23" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="5" t="s">
+    <row r="23" s="2" customFormat="1" ht="408" customHeight="1" spans="1:29">
+      <c r="A23" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R23" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>158</v>
+      <c r="R23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="V23" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="W23" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z23" s="5">
+        <v>195</v>
+      </c>
+      <c r="W23" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z23" s="2">
         <v>12</v>
       </c>
-      <c r="AA23" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC23" s="34" t="s">
-        <v>163</v>
+      <c r="AA23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC23" s="36" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="360" spans="1:29">
-      <c r="A24" s="35" t="s">
-        <v>164</v>
+      <c r="A24" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>74</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V24" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="W24" s="52" t="s">
-        <v>178</v>
+        <v>211</v>
+      </c>
+      <c r="V24" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="W24" s="55" t="s">
+        <v>213</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="Z24" s="6">
         <v>417</v>
       </c>
-      <c r="AA24" s="56" t="s">
-        <v>141</v>
+      <c r="AA24" s="62" t="s">
+        <v>119</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC24" s="35" t="s">
-        <v>181</v>
+        <v>215</v>
+      </c>
+      <c r="AC24" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1" ht="405" spans="1:29">
+      <c r="A25" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="V25" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="W25" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>1972</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4179,6 +4844,11 @@
     <hyperlink ref="V23" r:id="rId12" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
     <hyperlink ref="W24" r:id="rId13" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
     <hyperlink ref="V24" r:id="rId14" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
+    <hyperlink ref="V8" r:id="rId15" display="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf"/>
+    <hyperlink ref="W8" r:id="rId16" display="https://github.com/liyuantsao/BFSR" tooltip="https://github.com/liyuantsao/BFSR"/>
+    <hyperlink ref="V9" r:id="rId17" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
+    <hyperlink ref="W9" r:id="rId18" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
+    <hyperlink ref="V25" r:id="rId19" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
   <si>
     <t>论文名</t>
   </si>
@@ -2379,6 +2379,85 @@
       </rPr>
       <t>ps：主体驱动：以特定主题或对象为中心，来生成与该主题相关的多样化图像</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DiffusionBERT: Improving Generative Masked Language Models with Diffusion Models </t>
+  </si>
+  <si>
+    <t>DiffusionBERT</t>
+  </si>
+  <si>
+    <t>(1) School of Computer Science, Fudan University
+(2) Shanghai Key Laboratory of Intelligent Information Processing, Fudan University</t>
+  </si>
+  <si>
+    <t>ACL 2022</t>
+  </si>
+  <si>
+    <t>LM1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) noise samples
+(2) time step
+</t>
+  </si>
+  <si>
+    <t>Text samples obtained through denoising</t>
+  </si>
+  <si>
+    <t>Variational Lower Bound</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Poor quality of non autoregressive model generation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) First attempt to combine diffusion models with pre trained language models (PLMs)
+(2) A new noise scheduling strategy has been proposed: Spindle Noise Schedule</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) BLEU score
+(2) perplexity(PPL) </t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2211.15029</t>
+  </si>
+  <si>
+    <t>https://github.com/Hzfinfdu/Diffusion-BERT</t>
+  </si>
+  <si>
+    <t>@article{he2022diffusionbert,
+  title={Diffusionbert: Improving generative masked language models with diffusion models},
+  author={He, Zhengfu and Sun, Tianxiang and Wang, Kuanning and Huang, Xuanjing and Qiu, Xipeng},
+  journal={arXiv preprint arXiv:2211.15029},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NVIDIA A100 Tensor Core GPUs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps: 4 GPUs for training and a single GPU for sampling</t>
+    </r>
+  </si>
+  <si>
+    <t>无条件文本生成问题是指在没有特定条件或提示的情况下，让模型自动生成符合语言逻辑和习惯的文本内容。</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2717,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2649,14 +2729,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2668,12 +2741,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF00A3F5"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2713,6 +2792,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3092,7 +3177,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3116,16 +3201,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3134,89 +3219,89 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3241,124 +3326,127 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3367,6 +3455,9 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3391,10 +3482,13 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3404,6 +3498,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3939,12 +4036,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -3954,390 +4051,390 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:29">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="45" t="s">
+      <c r="AB1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AC1" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="375" spans="1:28">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="12" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="12" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:28">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="16" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="43"/>
+      <c r="T3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43">
         <v>0</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:28">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="20" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="59">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="62">
         <v>5</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:28">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="24" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="26" t="s">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="V5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="24" t="s">
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AB5" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="32" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4347,7 +4444,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="405" spans="1:29">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4392,10 +4489,10 @@
       <c r="U8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V8" s="50" t="s">
+      <c r="V8" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="50" t="s">
+      <c r="W8" s="52" t="s">
         <v>117</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -4404,18 +4501,18 @@
       <c r="Z8" s="2">
         <v>3</v>
       </c>
-      <c r="AA8" s="54" t="s">
+      <c r="AA8" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="AB8" s="54" t="s">
+      <c r="AB8" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" s="36" t="s">
+      <c r="AC8" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="345.6" spans="1:29">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4451,10 +4548,10 @@
       <c r="U9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="51" t="s">
+      <c r="V9" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="51" t="s">
+      <c r="W9" s="53" t="s">
         <v>134</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -4466,10 +4563,10 @@
       <c r="AA9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AB9" s="60" t="s">
+      <c r="AB9" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" s="33" t="s">
+      <c r="AC9" s="34" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4479,7 +4576,7 @@
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="360" spans="1:29">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4506,10 +4603,10 @@
       <c r="U20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V20" s="51" t="s">
+      <c r="V20" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="W20" s="51" t="s">
+      <c r="W20" s="53" t="s">
         <v>149</v>
       </c>
       <c r="X20" s="3" t="s">
@@ -4521,12 +4618,12 @@
       <c r="AB20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AC20" s="33" t="s">
+      <c r="AC20" s="34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="360" spans="1:27">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4557,10 +4654,10 @@
       <c r="U21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="V21" s="52" t="s">
+      <c r="V21" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="W21" s="52" t="s">
+      <c r="W21" s="54" t="s">
         <v>164</v>
       </c>
       <c r="X21" s="4" t="s">
@@ -4574,7 +4671,7 @@
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="345" spans="1:29">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -4598,10 +4695,10 @@
       <c r="U22" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="V22" s="53" t="s">
+      <c r="V22" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="W22" s="53" t="s">
+      <c r="W22" s="55" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="5" t="s">
@@ -4610,18 +4707,18 @@
       <c r="Z22" s="5">
         <v>45</v>
       </c>
-      <c r="AA22" s="61" t="s">
+      <c r="AA22" s="64" t="s">
         <v>119</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AC22" s="35" t="s">
+      <c r="AC22" s="36" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="408" customHeight="1" spans="1:29">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4669,10 +4766,10 @@
       <c r="U23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V23" s="50" t="s">
+      <c r="V23" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="W23" s="54" t="s">
+      <c r="W23" s="56" t="s">
         <v>119</v>
       </c>
       <c r="X23" s="2" t="s">
@@ -4687,12 +4784,12 @@
       <c r="AB23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AC23" s="36" t="s">
+      <c r="AC23" s="37" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="360" spans="1:29">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>200</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4736,10 +4833,10 @@
       <c r="U24" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="V24" s="55" t="s">
+      <c r="V24" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="W24" s="55" t="s">
+      <c r="W24" s="57" t="s">
         <v>213</v>
       </c>
       <c r="X24" s="6" t="s">
@@ -4748,18 +4845,18 @@
       <c r="Z24" s="6">
         <v>417</v>
       </c>
-      <c r="AA24" s="62" t="s">
+      <c r="AA24" s="65" t="s">
         <v>119</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AC24" s="37" t="s">
+      <c r="AC24" s="38" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="1" ht="405" spans="1:29">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>217</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4789,6 +4886,9 @@
       <c r="O25" s="7" t="s">
         <v>225</v>
       </c>
+      <c r="Q25" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="R25" s="7" t="s">
         <v>226</v>
       </c>
@@ -4798,10 +4898,10 @@
       <c r="U25" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="56" t="s">
+      <c r="V25" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="W25" s="57" t="s">
+      <c r="W25" s="59" t="s">
         <v>119</v>
       </c>
       <c r="X25" s="7" t="s">
@@ -4818,6 +4918,62 @@
       </c>
       <c r="AC25" s="7" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="330" spans="1:29">
+      <c r="A26" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="V26" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="W26" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>80</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB26" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC26" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4849,6 +5005,8 @@
     <hyperlink ref="V9" r:id="rId17" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
     <hyperlink ref="W9" r:id="rId18" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
     <hyperlink ref="V25" r:id="rId19" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
+    <hyperlink ref="V26" r:id="rId20" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
+    <hyperlink ref="W26" r:id="rId21" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="261">
   <si>
     <t>论文名</t>
   </si>
@@ -2409,6 +2409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Poor quality of non autoregressive model generation
 </t>
     </r>
@@ -2443,6 +2449,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">NVIDIA A100 Tensor Core GPUs
 </t>
     </r>
@@ -2458,6 +2470,83 @@
   </si>
   <si>
     <t>无条件文本生成问题是指在没有特定条件或提示的情况下，让模型自动生成符合语言逻辑和习惯的文本内容。</t>
+  </si>
+  <si>
+    <t>Diffusion Model</t>
+  </si>
+  <si>
+    <t>时间序列</t>
+  </si>
+  <si>
+    <t>Diffusion Augmentation for Sequential Recommendation</t>
+  </si>
+  <si>
+    <t>DiffuASR</t>
+  </si>
+  <si>
+    <t>(1) Xi' an Jiaotong University
+(2) City University of Hong Kong
+(3) Huawei Noah’s Ark Lab</t>
+  </si>
+  <si>
+    <t>CIKM 2023</t>
+  </si>
+  <si>
+    <t>(1) Yelp
+(2) Amazon Beauty
+(3) Steam</t>
+  </si>
+  <si>
+    <t>Historical User Interaction Sequences (用户历史交互序列)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2309.12858</t>
+  </si>
+  <si>
+    <t>https://github.com/liuqidong07/DiffuASR</t>
+  </si>
+  <si>
+    <t>@inproceedings{liu2023diffusion,
+  title={Diffusion augmentation for sequential recommendation},
+  author={Liu, Qidong and Yan, Fan and Zhao, Xiangyu and Du, Zhaocheng and Guo, Huifeng and Tang, Ruiming and Tian, Feng},
+  booktitle={Proceedings of the 32nd ACM International Conference on Information and Knowledge Management},
+  pages={1576--1586},
+  year={2023}
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">序列推荐系统（SRS）面临数据稀疏和长尾用户问题。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ps：长尾用户问题：指交互很少的用户通常会得到更差的推荐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作者提出了一种新的数据增强方法DiffuASR，利用扩散模型生成更高质量的数据增强，以改善序列推荐模型的性能。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2717,14 +2806,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2733,9 +2822,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF175CEB"/>
+      <color rgb="FF00A3F5"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2746,13 +2834,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF00A3F5"/>
+      <color rgb="FF175CEB"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2798,6 +2887,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3177,7 +3272,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3201,16 +3296,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3219,89 +3314,89 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3329,127 +3424,130 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3458,6 +3556,9 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3485,10 +3586,13 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3501,6 +3605,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4036,12 +4143,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -4051,390 +4158,390 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:29">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="61" t="s">
+      <c r="AC1" s="64" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="375" spans="1:28">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="13" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="13" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:28">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="17" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="17" t="s">
+      <c r="S3" s="45"/>
+      <c r="T3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43">
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45">
         <v>0</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:28">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="21" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="50" t="s">
+      <c r="V4" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="50" t="s">
+      <c r="W4" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="62">
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="65">
         <v>5</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AB4" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:28">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="25" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="27" t="s">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="51" t="s">
+      <c r="W5" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="25" t="s">
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4444,7 +4551,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="405" spans="1:29">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4489,10 +4596,10 @@
       <c r="U8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V8" s="52" t="s">
+      <c r="V8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="52" t="s">
+      <c r="W8" s="54" t="s">
         <v>117</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -4501,18 +4608,18 @@
       <c r="Z8" s="2">
         <v>3</v>
       </c>
-      <c r="AA8" s="56" t="s">
+      <c r="AA8" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="AB8" s="56" t="s">
+      <c r="AB8" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" s="37" t="s">
+      <c r="AC8" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="345.6" spans="1:29">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4548,10 +4655,10 @@
       <c r="U9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="53" t="s">
+      <c r="V9" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="53" t="s">
+      <c r="W9" s="55" t="s">
         <v>134</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -4563,10 +4670,10 @@
       <c r="AA9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AB9" s="63" t="s">
+      <c r="AB9" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" s="34" t="s">
+      <c r="AC9" s="35" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4576,7 +4683,7 @@
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="360" spans="1:29">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4603,10 +4710,10 @@
       <c r="U20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V20" s="53" t="s">
+      <c r="V20" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="W20" s="53" t="s">
+      <c r="W20" s="55" t="s">
         <v>149</v>
       </c>
       <c r="X20" s="3" t="s">
@@ -4618,12 +4725,12 @@
       <c r="AB20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AC20" s="34" t="s">
+      <c r="AC20" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="360" spans="1:27">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4654,10 +4761,10 @@
       <c r="U21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="V21" s="54" t="s">
+      <c r="V21" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="W21" s="54" t="s">
+      <c r="W21" s="56" t="s">
         <v>164</v>
       </c>
       <c r="X21" s="4" t="s">
@@ -4671,7 +4778,7 @@
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="345" spans="1:29">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -4695,10 +4802,10 @@
       <c r="U22" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="V22" s="55" t="s">
+      <c r="V22" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="W22" s="55" t="s">
+      <c r="W22" s="57" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="5" t="s">
@@ -4707,18 +4814,18 @@
       <c r="Z22" s="5">
         <v>45</v>
       </c>
-      <c r="AA22" s="64" t="s">
+      <c r="AA22" s="67" t="s">
         <v>119</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AC22" s="36" t="s">
+      <c r="AC22" s="37" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="408" customHeight="1" spans="1:29">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4766,10 +4873,10 @@
       <c r="U23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V23" s="52" t="s">
+      <c r="V23" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="W23" s="56" t="s">
+      <c r="W23" s="58" t="s">
         <v>119</v>
       </c>
       <c r="X23" s="2" t="s">
@@ -4784,12 +4891,12 @@
       <c r="AB23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AC23" s="37" t="s">
+      <c r="AC23" s="38" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="360" spans="1:29">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>200</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4833,10 +4940,10 @@
       <c r="U24" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="V24" s="57" t="s">
+      <c r="V24" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="W24" s="57" t="s">
+      <c r="W24" s="59" t="s">
         <v>213</v>
       </c>
       <c r="X24" s="6" t="s">
@@ -4845,18 +4952,18 @@
       <c r="Z24" s="6">
         <v>417</v>
       </c>
-      <c r="AA24" s="65" t="s">
+      <c r="AA24" s="68" t="s">
         <v>119</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AC24" s="38" t="s">
+      <c r="AC24" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="1" ht="405" spans="1:29">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>217</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4898,10 +5005,10 @@
       <c r="U25" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="58" t="s">
+      <c r="V25" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="W25" s="59" t="s">
+      <c r="W25" s="61" t="s">
         <v>119</v>
       </c>
       <c r="X25" s="7" t="s">
@@ -4921,7 +5028,7 @@
       </c>
     </row>
     <row r="26" s="8" customFormat="1" ht="330" spans="1:29">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>234</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4954,10 +5061,10 @@
       <c r="U26" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="V26" s="60" t="s">
+      <c r="V26" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="W26" s="60" t="s">
+      <c r="W26" s="62" t="s">
         <v>245</v>
       </c>
       <c r="X26" s="8" t="s">
@@ -4969,11 +5076,65 @@
       <c r="AA26" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="AB26" s="66" t="s">
+      <c r="AB26" s="69" t="s">
         <v>119</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="390" spans="1:29">
+      <c r="A32" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V32" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="W32" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>36</v>
+      </c>
+      <c r="AA32" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB32" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC32" s="42" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5007,6 +5168,8 @@
     <hyperlink ref="V25" r:id="rId19" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
     <hyperlink ref="V26" r:id="rId20" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
     <hyperlink ref="W26" r:id="rId21" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
+    <hyperlink ref="V32" r:id="rId22" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
+    <hyperlink ref="W32" r:id="rId23" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="269">
   <si>
     <t>论文名</t>
   </si>
@@ -2516,6 +2516,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -2547,6 +2554,36 @@
       </rPr>
       <t>作者提出了一种新的数据增强方法DiffuASR，利用扩散模型生成更高质量的数据增强，以改善序列推荐模型的性能。</t>
     </r>
+  </si>
+  <si>
+    <t>High-Resolution Image Synthesis with Latent Diffusion Models</t>
+  </si>
+  <si>
+    <t>Latent Diffusion Models (LDMs)</t>
+  </si>
+  <si>
+    <t>Ludwig Maximilian University of Munich &amp; IWR, Heidelberg University, Germany</t>
+  </si>
+  <si>
+    <t>CVPR 2022</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/CompVis/latent-diffusion</t>
+  </si>
+  <si>
+    <t>@inproceedings{rombach2022high,
+  title={High-resolution image synthesis with latent diffusion models},
+  author={Rombach, Robin and Blattmann, Andreas and Lorenz, Dominik and Esser, Patrick and Ommer, Bj{\"o}rn},
+  booktitle={Proceedings of the IEEE/CVF conference on computer vision and pattern recognition},
+  pages={10684--10695},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t>NVIDIA A100 GPU</t>
   </si>
 </sst>
 </file>
@@ -2806,19 +2843,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2834,14 +2860,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2893,6 +2930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3272,7 +3315,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3296,16 +3339,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3314,89 +3357,89 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3427,130 +3470,133 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3559,6 +3605,9 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3589,10 +3638,13 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4143,12 +4195,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -4158,390 +4210,390 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:29">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="W1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="49" t="s">
+      <c r="AA1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="49" t="s">
+      <c r="AB1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="375" spans="1:28">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="14" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="14" t="s">
+      <c r="S2" s="46"/>
+      <c r="T2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="14" t="s">
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:28">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="18" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="47"/>
+      <c r="T3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47">
         <v>0</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:28">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="22" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="65">
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="68">
         <v>5</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:28">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="26" t="s">
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="28" t="s">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="U5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="53" t="s">
+      <c r="V5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="26" t="s">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" s="26" t="s">
+      <c r="AB5" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4551,7 +4603,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="405" spans="1:29">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4596,10 +4648,10 @@
       <c r="U8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V8" s="54" t="s">
+      <c r="V8" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="54" t="s">
+      <c r="W8" s="56" t="s">
         <v>117</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -4608,18 +4660,18 @@
       <c r="Z8" s="2">
         <v>3</v>
       </c>
-      <c r="AA8" s="58" t="s">
+      <c r="AA8" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="AB8" s="58" t="s">
+      <c r="AB8" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" s="38" t="s">
+      <c r="AC8" s="39" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="345.6" spans="1:29">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4655,10 +4707,10 @@
       <c r="U9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="55" t="s">
+      <c r="W9" s="57" t="s">
         <v>134</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -4670,10 +4722,10 @@
       <c r="AA9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AB9" s="66" t="s">
+      <c r="AB9" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" s="35" t="s">
+      <c r="AC9" s="36" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4683,7 +4735,7 @@
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="360" spans="1:29">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4710,10 +4762,10 @@
       <c r="U20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V20" s="55" t="s">
+      <c r="V20" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="W20" s="55" t="s">
+      <c r="W20" s="57" t="s">
         <v>149</v>
       </c>
       <c r="X20" s="3" t="s">
@@ -4725,12 +4777,12 @@
       <c r="AB20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AC20" s="35" t="s">
+      <c r="AC20" s="36" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="360" spans="1:27">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="37" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4761,10 +4813,10 @@
       <c r="U21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="V21" s="56" t="s">
+      <c r="V21" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="W21" s="56" t="s">
+      <c r="W21" s="58" t="s">
         <v>164</v>
       </c>
       <c r="X21" s="4" t="s">
@@ -4778,7 +4830,7 @@
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="345" spans="1:29">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="38" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -4802,10 +4854,10 @@
       <c r="U22" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="V22" s="57" t="s">
+      <c r="V22" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="W22" s="57" t="s">
+      <c r="W22" s="59" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="5" t="s">
@@ -4814,18 +4866,18 @@
       <c r="Z22" s="5">
         <v>45</v>
       </c>
-      <c r="AA22" s="67" t="s">
+      <c r="AA22" s="70" t="s">
         <v>119</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AC22" s="37" t="s">
+      <c r="AC22" s="38" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="408" customHeight="1" spans="1:29">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4873,10 +4925,10 @@
       <c r="U23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V23" s="54" t="s">
+      <c r="V23" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="W23" s="58" t="s">
+      <c r="W23" s="60" t="s">
         <v>119</v>
       </c>
       <c r="X23" s="2" t="s">
@@ -4891,12 +4943,12 @@
       <c r="AB23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AC23" s="38" t="s">
+      <c r="AC23" s="39" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="360" spans="1:29">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>200</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4940,10 +4992,10 @@
       <c r="U24" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="V24" s="59" t="s">
+      <c r="V24" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="W24" s="59" t="s">
+      <c r="W24" s="61" t="s">
         <v>213</v>
       </c>
       <c r="X24" s="6" t="s">
@@ -4952,18 +5004,18 @@
       <c r="Z24" s="6">
         <v>417</v>
       </c>
-      <c r="AA24" s="68" t="s">
+      <c r="AA24" s="71" t="s">
         <v>119</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AC24" s="39" t="s">
+      <c r="AC24" s="40" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="1" ht="405" spans="1:29">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>217</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5005,10 +5057,10 @@
       <c r="U25" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="W25" s="61" t="s">
+      <c r="W25" s="63" t="s">
         <v>119</v>
       </c>
       <c r="X25" s="7" t="s">
@@ -5028,7 +5080,7 @@
       </c>
     </row>
     <row r="26" s="8" customFormat="1" ht="330" spans="1:29">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>234</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -5061,10 +5113,10 @@
       <c r="U26" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="V26" s="62" t="s">
+      <c r="V26" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W26" s="62" t="s">
+      <c r="W26" s="64" t="s">
         <v>245</v>
       </c>
       <c r="X26" s="8" t="s">
@@ -5076,7 +5128,7 @@
       <c r="AA26" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="AB26" s="69" t="s">
+      <c r="AB26" s="72" t="s">
         <v>119</v>
       </c>
       <c r="AC26" s="8" t="s">
@@ -5094,7 +5146,7 @@
       </c>
     </row>
     <row r="32" s="9" customFormat="1" ht="390" spans="1:29">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>251</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5115,10 +5167,10 @@
       <c r="G32" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="V32" s="63" t="s">
+      <c r="V32" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="W32" s="63" t="s">
+      <c r="W32" s="65" t="s">
         <v>258</v>
       </c>
       <c r="X32" s="9" t="s">
@@ -5127,14 +5179,51 @@
       <c r="Z32" s="9">
         <v>36</v>
       </c>
-      <c r="AA32" s="70" t="s">
+      <c r="AA32" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="AB32" s="70" t="s">
+      <c r="AB32" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="AC32" s="42" t="s">
+      <c r="AC32" s="43" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" s="10" customFormat="1" ht="405" spans="1:27">
+      <c r="A44" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V44" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="W44" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>11962</v>
+      </c>
+      <c r="AA44" s="10" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5170,6 +5259,8 @@
     <hyperlink ref="W26" r:id="rId21" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
     <hyperlink ref="V32" r:id="rId22" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
     <hyperlink ref="W32" r:id="rId23" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
+    <hyperlink ref="V44" r:id="rId24" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
+    <hyperlink ref="W44" r:id="rId25" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="313">
   <si>
     <t>论文名</t>
   </si>
@@ -1624,12 +1624,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">(1) The cost of directly measuring the network traffic matrix is very high
 (2) During the process of converting from high-dimensional traffic matrix to low dimensional link load, information will be lost
 </t>
@@ -1713,6 +1707,53 @@
     </r>
   </si>
   <si>
+    <t>STGlow A flow-based generative framework with dual-graphormer for pedestrian trajectory prediction</t>
+  </si>
+  <si>
+    <t>STGlow</t>
+  </si>
+  <si>
+    <t>(1) Shenzhen University
+(2) University of Macau</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON NEURAL NETWORKS AND LEARNING SYSTEMS</t>
+  </si>
+  <si>
+    <t>(1) ETH/UCY
+(2) Stanford Drone Dataset (SDD)</t>
+  </si>
+  <si>
+    <t>轨迹预测</t>
+  </si>
+  <si>
+    <t>(1) Average Displacement Error , ADE
+(2) Final Displacement Error,  FDE
+(3) leaveone-out approach evaluation methodology</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2211.11220</t>
+  </si>
+  <si>
+    <t>https://github.com/nihaomiao/CVPR23_LFDM</t>
+  </si>
+  <si>
+    <t>@article{liang2023stglow,
+  title={STGlow: A flow-based generative framework with dual-graphormer for pedestrian trajectory prediction},
+  author={Liang, Rongqin and Li, Yuanman and Zhou, Jiantao and Li, Xia},
+  journal={IEEE transactions on neural networks and learning systems},
+  year={2023},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>the experiments are performed on Ubuntu 18.04 with an NVIDIA 3090 GPU</t>
+  </si>
+  <si>
+    <t>(1) Improve the accuracy of predicting scenarios when pedestrian movement behavior undergoes drastic changes in a short period of time.
+(2) Build more efficient interaction modules.</t>
+  </si>
+  <si>
     <t>扩散模型</t>
   </si>
   <si>
@@ -2556,6 +2597,138 @@
     </r>
   </si>
   <si>
+    <t>Generative Time Series Forecasting with Diffusion, Denoise, and Disentanglement</t>
+  </si>
+  <si>
+    <t>D3VAE</t>
+  </si>
+  <si>
+    <t>(1) Business Intelligence Lab, Baidu Research
+(2) Zhejiang University, China</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Synthetic datasets (D1, D2)
+(2) Traffic
+(3) Electricity : 
+https://archive.ics.uci.edu/dataset/321/electricityloaddiagrams20112014
+(4) Weather : https://www.bgc-jena.mpg.de/wetter
+(5) Wind : https://github.com/PaddlePaddle/PaddleSpatial/tree/main/paddlespatial/datasets/WindPower
+(6) ETTs (ETTm1 and ETTh1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ps：(1) 为作者合成的数据集合成方式见 3.1 Experiment Settings；数据集(2)在文献引用[27]提到；数据集ETTs可直接搜索到
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>时间序列数据</t>
+  </si>
+  <si>
+    <t>对未来时间序列的预测</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) KL散度：模型预测的分布与真实分布之间的差异
+(2) Denoising Score Matching, DSM：加速去不确定性过程
+(3) Total Correlation, TC：解开潜在变量
+(4) MSE：预测的序列 
+和真实序列 之间的均方误差
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps：总损失函数为上述四个损失函数按权重相加，具体见 2.5</t>
+    </r>
+  </si>
+  <si>
+    <t>时间序列预测</t>
+  </si>
+  <si>
+    <r>
+      <t>(1) Real-world time series data often suffers from short recording times and high noise
+(2) Neural networks face the problem of uncertainty caused by the properties of deep structures
+(3) the interpretability of VAEs might be inferior due to the entangled latent variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) propose a coupled diffusion probabilistic model aiming to reduce the aleatoric uncertainty of the time series and improve the generalization capability of the generative model
+(2) integrate the multiscale denoising score matching into the coupled diffusion process to improve the accuracy of generated results
+(3) disentangle the latent variables of the generative model to improve the interpretability for time series forecasting</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) CRPS
+(2) MSE
+</t>
+  </si>
+  <si>
+    <t>https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE</t>
+  </si>
+  <si>
+    <t>@article{li2022generative,
+  title={Generative time series forecasting with diffusion, denoise, and disentanglement},
+  author={Li, Yan and Lu, Xinjiang and Wang, Yaqing and Dou, Dejing},
+  journal={Advances in Neural Information Processing Systems},
+  volume={35},
+  pages={23009--23022},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t>a Linux machine with a single NVIDIA P40 GPU</t>
+  </si>
+  <si>
+    <t>(1) Further research is needed in the future to better select diffusion steps and variances.
+(2) Improve unsupervised disentanglement methods
+(3) Explore more generation and sampling methods suitable for time series generation tasks .</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现实世界中的时间序列数据常常记录时间段较短，且含有噪声，导致深度学习模型面临过拟合和泛化能力不足问题；神经网络面临着由深层结构特性引起的不确定性问题；传统模型缺乏对预测结果的解释性。
+作者提出D3VAE模型，结合了扩散、去噪和解耦技术，分别对应三个损失函数：kl散度、DSM、TC。</t>
+    </r>
+  </si>
+  <si>
     <t>High-Resolution Image Synthesis with Latent Diffusion Models</t>
   </si>
   <si>
@@ -2584,6 +2757,119 @@
   </si>
   <si>
     <t>NVIDIA A100 GPU</t>
+  </si>
+  <si>
+    <t>DPM-Solver: A Fast ODE Solver for Diffusion Probabilistic Model Sampling in Around 10 Steps</t>
+  </si>
+  <si>
+    <t>DPM-Solver</t>
+  </si>
+  <si>
+    <t>(1) Tsinghua University
+(2) Renmin University of China</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">图像生成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：这篇文献目的是改进采样速度，应该是拿图像来当例子</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) CIFAR10
+(2) ImageNet 256x256
+(3) CelebA 64x64
+(4) ImageNet 64x64
+(5) ImageNet 128x128
+(6) LSUN bedroom 256x256</t>
+  </si>
+  <si>
+    <t>High-quality images</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variational Lower Bound，VLB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：扩散模型使用的损失函数</t>
+    </r>
+  </si>
+  <si>
+    <t>PS：这篇文献目的是改进采用速度，应该是拿图像来当例子</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Diffusion probabilistic models (DPMs)  suffer from their slow sampling
+(2) Disadvantages of existing samplers: high cost before sampling, limited applicability and flexibility;  time-consuming
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) A new ODE solver (DPM-Solver) is proposed, which greatly accelerates the sampling speed of DPM, so that high-quality samples can be generated in a few steps</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FID score
+</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2206.00927</t>
+  </si>
+  <si>
+    <t>https://github.com/LuChengTHU/dpm-solver</t>
+  </si>
+  <si>
+    <t>@article{lu2022dpm,
+  title={Dpm-solver: A fast ode solver for diffusion probabilistic model sampling in around 10 steps},
+  author={Lu, Cheng and Zhou, Yuhao and Bao, Fan and Chen, Jianfei and Li, Chongxuan and Zhu, Jun},
+  journal={Advances in Neural Information Processing Systems},
+  volume={35},
+  pages={5775--5787},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t>NVIDIA A40 GPU</t>
+  </si>
+  <si>
+    <t>(1) In the future, similar methods can be explored to improve the likelihood computation efficiency of DPM.
+(2) Further improve the performance of DPM in real-time scenarios.
+(3) Reduce the risk of malicious apps</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DPMs 是采样速度慢，通常需要对大型神经网络进行数百或数千次顺序函数评估才能生成一个样本；现有的 DPMs 快速采样器存在一定局限性，如第一类需要额外且可能昂贵的训练阶段，适用性和灵活性有限；第二类无需训练的采样器仍需约 50 次函数评估才能生成高质量样本，较为耗时
+作者设计了一种用于扩散概率模型采样的快速专用高阶求解器 DPM-Solver</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2596,7 +2882,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2694,6 +2980,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2843,14 +3140,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A3F5"/>
-      <name val="Microsoft YaHei"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2861,8 +3152,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF00A3F5"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2874,11 +3165,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2894,6 +3192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEE4E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2936,6 +3240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEFDCF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3309,58 +3619,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3372,74 +3676,80 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3473,37 +3783,22 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3518,7 +3813,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3530,7 +3825,31 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3557,12 +3876,12 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3575,17 +3894,14 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3593,21 +3909,30 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3620,46 +3945,109 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3929,6 +4317,14 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00FEFDCF"/>
+      <color rgb="00CF8761"/>
+      <color rgb="00D6A16D"/>
+      <color rgb="00EEE4E2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4195,405 +4591,407 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC44"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z44" sqref="Z44"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="25" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.3333333333333" style="13" customWidth="1"/>
+    <col min="27" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:29">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AA1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AB1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="67" t="s">
+      <c r="AC1" s="77" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="375" spans="1:28">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="15" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="15" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="W2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="15" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:28">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="19" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="19" t="s">
+      <c r="S3" s="52"/>
+      <c r="T3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="79">
         <v>0</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:28">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="23" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="54" t="s">
+      <c r="W4" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="68">
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="80">
         <v>5</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:28">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="27" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="29" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="55" t="s">
+      <c r="V5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="55" t="s">
+      <c r="W5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="27" t="s">
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AB5" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4603,7 +5001,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="405" spans="1:29">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="38" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4648,30 +5046,30 @@
       <c r="U8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V8" s="56" t="s">
+      <c r="V8" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="56" t="s">
+      <c r="W8" s="61" t="s">
         <v>117</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="82">
         <v>3</v>
       </c>
-      <c r="AA8" s="60" t="s">
+      <c r="AA8" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="AB8" s="60" t="s">
+      <c r="AB8" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" s="39" t="s">
+      <c r="AC8" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="345.6" spans="1:29">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="39" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4707,486 +5105,592 @@
       <c r="U9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="57" t="s">
+      <c r="V9" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="57" t="s">
+      <c r="W9" s="62" t="s">
         <v>134</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="83">
         <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AB9" s="69" t="s">
+      <c r="AB9" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" s="36" t="s">
+      <c r="AC9" s="39" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="330" spans="1:28">
+      <c r="A10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="W10" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z10" s="85">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="360" spans="1:29">
-      <c r="A20" s="36" t="s">
-        <v>139</v>
+      <c r="A20" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="V20" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="W20" s="57" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="V20" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="W20" s="62" t="s">
+        <v>161</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z20" s="3">
+        <v>162</v>
+      </c>
+      <c r="Z20" s="83">
         <v>609</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC20" s="36" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="AC20" s="39" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="360" spans="1:27">
-      <c r="A21" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P21" s="4"/>
-      <c r="U21" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V21" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="W21" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="X21" s="4" t="s">
+    <row r="21" s="5" customFormat="1" ht="360" spans="1:27">
+      <c r="A21" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="B21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="U21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V21" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="W21" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z21" s="86">
         <v>485</v>
       </c>
-      <c r="AA21" s="4" t="s">
-        <v>166</v>
+      <c r="AA21" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="345" spans="1:29">
-      <c r="A22" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="V22" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="W22" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z22" s="5">
+    <row r="22" s="6" customFormat="1" ht="345" spans="1:29">
+      <c r="A22" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="V22" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="W22" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z22" s="87">
         <v>45</v>
       </c>
-      <c r="AA22" s="70" t="s">
+      <c r="AA22" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="AB22" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC22" s="38" t="s">
-        <v>179</v>
+      <c r="AB22" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC22" s="42" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="408" customHeight="1" spans="1:29">
-      <c r="A23" s="39" t="s">
-        <v>180</v>
+      <c r="A23" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="V23" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="W23" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="V23" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="W23" s="66" t="s">
         <v>119</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z23" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z23" s="82">
         <v>12</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC23" s="39" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="AC23" s="43" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" ht="360" spans="1:29">
-      <c r="A24" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="6" t="s">
+    <row r="24" s="7" customFormat="1" ht="360" spans="1:29">
+      <c r="A24" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="O24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q24" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="V24" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="W24" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="X24" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z24" s="6">
+      <c r="R24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="V24" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="W24" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z24" s="89">
         <v>417</v>
       </c>
-      <c r="AA24" s="71" t="s">
+      <c r="AA24" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC24" s="40" t="s">
-        <v>216</v>
+      <c r="AB24" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC24" s="44" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" ht="405" spans="1:29">
-      <c r="A25" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="7" t="s">
+    <row r="25" s="8" customFormat="1" ht="405" spans="1:29">
+      <c r="A25" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q25" s="7" t="s">
+      <c r="F25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="R25" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="V25" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="W25" s="63" t="s">
+      <c r="R25" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="V25" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="W25" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="X25" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z25" s="7">
+      <c r="X25" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z25" s="91">
         <v>1972</v>
       </c>
-      <c r="AA25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC25" s="7" t="s">
-        <v>233</v>
+      <c r="AA25" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" ht="330" spans="1:29">
-      <c r="A26" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="V26" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="W26" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="X26" s="8" t="s">
+    <row r="26" s="9" customFormat="1" ht="330" spans="1:29">
+      <c r="A26" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="B26" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="V26" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="W26" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z26" s="92">
         <v>80</v>
       </c>
-      <c r="AA26" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB26" s="72" t="s">
+      <c r="AA26" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB26" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="AC26" s="8" t="s">
-        <v>248</v>
+      <c r="AC26" s="9" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="32" s="9" customFormat="1" ht="390" spans="1:29">
-      <c r="A32" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="9" t="s">
+    <row r="32" s="10" customFormat="1" ht="390" spans="1:29">
+      <c r="A32" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="V32" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="W32" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="X32" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z32" s="9">
+      <c r="F32" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="V32" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="W32" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z32" s="94">
         <v>36</v>
       </c>
-      <c r="AA32" s="73" t="s">
+      <c r="AA32" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="AB32" s="73" t="s">
+      <c r="AB32" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="AC32" s="43" t="s">
-        <v>260</v>
+      <c r="AC32" s="47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="409.5" spans="1:29">
+      <c r="A33" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="T33" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="V33" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="W33" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z33" s="85">
+        <v>82</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC33" s="96" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -5194,36 +5698,98 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="1" ht="405" spans="1:27">
-      <c r="A44" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" s="10" t="s">
+    <row r="44" s="11" customFormat="1" ht="405" spans="1:27">
+      <c r="A44" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="V44" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="W44" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z44" s="10">
+      <c r="V44" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="W44" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z44" s="97">
         <v>11962</v>
       </c>
-      <c r="AA44" s="10" t="s">
-        <v>268</v>
+      <c r="AA44" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" s="12" customFormat="1" ht="375" spans="1:29">
+      <c r="A45" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="R45" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="V45" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="W45" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z45" s="98">
+        <v>959</v>
+      </c>
+      <c r="AA45" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB45" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC45" s="99" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5261,6 +5827,12 @@
     <hyperlink ref="W32" r:id="rId23" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
     <hyperlink ref="V44" r:id="rId24" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
     <hyperlink ref="W44" r:id="rId25" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
+    <hyperlink ref="V45" r:id="rId26" display="https://arxiv.org/pdf/2206.00927" tooltip="https://arxiv.org/pdf/2206.00927"/>
+    <hyperlink ref="W45" r:id="rId27" display="https://github.com/LuChengTHU/dpm-solver" tooltip="https://github.com/LuChengTHU/dpm-solver"/>
+    <hyperlink ref="V33" r:id="rId28" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
+    <hyperlink ref="W33" r:id="rId29" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
+    <hyperlink ref="V10" r:id="rId30" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
+    <hyperlink ref="W10" r:id="rId31" display="https://github.com/nihaomiao/CVPR23_LFDM" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4596,7 +4596,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="316">
   <si>
     <t>论文名</t>
   </si>
@@ -1624,6 +1624,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) The cost of directly measuring the network traffic matrix is very high
 (2) During the process of converting from high-dimensional traffic matrix to low dimensional link load, information will be lost
 </t>
@@ -1724,6 +1730,18 @@
 (2) Stanford Drone Dataset (SDD)</t>
   </si>
   <si>
+    <t>Pedestrian Trajectories</t>
+  </si>
+  <si>
+    <t>行人的观测轨迹</t>
+  </si>
+  <si>
+    <t>行人的未来轨迹</t>
+  </si>
+  <si>
+    <t>(1) negative log-likelihood function</t>
+  </si>
+  <si>
     <t>轨迹预测</t>
   </si>
   <si>
@@ -1733,9 +1751,6 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/2211.11220</t>
-  </si>
-  <si>
-    <t>https://github.com/nihaomiao/CVPR23_LFDM</t>
   </si>
   <si>
     <t>@article{liang2023stglow,
@@ -2608,6 +2623,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Synthetic datasets (D1, D2)
 (2) Traffic
 (3) Electricity : 
@@ -2646,6 +2667,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) KL散度：模型预测的分布与真实分布之间的差异
 (2) Denoising Score Matching, DSM：加速去不确定性过程
 (3) Total Correlation, TC：解开潜在变量
@@ -2668,6 +2695,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) Real-world time series data often suffers from short recording times and high noise
 (2) Neural networks face the problem of uncertainty caused by the properties of deep structures
 (3) the interpretability of VAEs might be inferior due to the entangled latent variables</t>
@@ -2716,6 +2748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -2770,6 +2808,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">图像生成
 </t>
     </r>
@@ -2796,6 +2840,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Variational Lower Bound，VLB
 </t>
     </r>
@@ -2814,6 +2864,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Diffusion probabilistic models (DPMs)  suffer from their slow sampling
 (2) Disadvantages of existing samplers: high cost before sampling, limited applicability and flexibility;  time-consuming
 </t>
@@ -2858,6 +2914,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -2978,6 +3041,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -3006,13 +3076,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3139,6 +3202,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="微软雅黑"/>
@@ -3146,21 +3216,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A3F5"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF175CEB"/>
-      <name val="Microsoft YaHei"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3171,8 +3228,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4" tint="-0.25"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF00A3F5"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3619,16 +3682,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3749,7 +3812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3942,13 +4005,16 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3957,7 +4023,7 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3966,13 +4032,13 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4002,7 +4068,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4014,13 +4080,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4029,16 +4095,16 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4593,10 +4659,10 @@
   <sheetPr/>
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -4683,7 +4749,7 @@
       <c r="Y1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z1" s="77" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="56" t="s">
@@ -4692,7 +4758,7 @@
       <c r="AB1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="77" t="s">
+      <c r="AC1" s="78" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4758,7 +4824,7 @@
         <v>45</v>
       </c>
       <c r="Y2" s="51"/>
-      <c r="Z2" s="78"/>
+      <c r="Z2" s="79"/>
       <c r="AA2" s="18" t="s">
         <v>46</v>
       </c>
@@ -4828,7 +4894,7 @@
         <v>63</v>
       </c>
       <c r="Y3" s="52"/>
-      <c r="Z3" s="79">
+      <c r="Z3" s="80">
         <v>0</v>
       </c>
       <c r="AA3" s="22" t="s">
@@ -4902,7 +4968,7 @@
         <v>80</v>
       </c>
       <c r="Y4" s="54"/>
-      <c r="Z4" s="80">
+      <c r="Z4" s="81">
         <v>5</v>
       </c>
       <c r="AA4" s="26" t="s">
@@ -4972,7 +5038,7 @@
       </c>
       <c r="X5" s="55"/>
       <c r="Y5" s="55"/>
-      <c r="Z5" s="81"/>
+      <c r="Z5" s="82"/>
       <c r="AA5" s="30" t="s">
         <v>95</v>
       </c>
@@ -5055,13 +5121,13 @@
       <c r="X8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z8" s="82">
+      <c r="Z8" s="83">
         <v>3</v>
       </c>
-      <c r="AA8" s="66" t="s">
+      <c r="AA8" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="AB8" s="66" t="s">
+      <c r="AB8" s="67" t="s">
         <v>119</v>
       </c>
       <c r="AC8" s="43" t="s">
@@ -5114,13 +5180,13 @@
       <c r="X9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Z9" s="83">
+      <c r="Z9" s="84">
         <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AB9" s="84" t="s">
+      <c r="AB9" s="85" t="s">
         <v>119</v>
       </c>
       <c r="AC9" s="39" t="s">
@@ -5146,551 +5212,563 @@
       <c r="F10" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="R10" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="V10" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="W10" s="63" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="W10" s="64" t="s">
+        <v>119</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z10" s="85">
+        <v>150</v>
+      </c>
+      <c r="Z10" s="86">
         <v>18</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="360" spans="1:29">
       <c r="A20" s="39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V20" s="62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="W20" s="62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z20" s="83">
+        <v>165</v>
+      </c>
+      <c r="Z20" s="84">
         <v>609</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AC20" s="39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="360" spans="1:27">
       <c r="A21" s="41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P21" s="5"/>
       <c r="U21" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="V21" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="W21" s="64" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="V21" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="W21" s="65" t="s">
+        <v>179</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z21" s="86">
+        <v>180</v>
+      </c>
+      <c r="Z21" s="87">
         <v>485</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="345" spans="1:29">
       <c r="A22" s="42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="V22" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="W22" s="65" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="V22" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="W22" s="66" t="s">
+        <v>191</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z22" s="87">
+        <v>192</v>
+      </c>
+      <c r="Z22" s="88">
         <v>45</v>
       </c>
-      <c r="AA22" s="88" t="s">
+      <c r="AA22" s="89" t="s">
         <v>119</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AC22" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="408" customHeight="1" spans="1:29">
       <c r="A23" s="43" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="W23" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="W23" s="67" t="s">
         <v>119</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z23" s="82">
+        <v>211</v>
+      </c>
+      <c r="Z23" s="83">
         <v>12</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AC23" s="43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" s="7" customFormat="1" ht="360" spans="1:29">
       <c r="A24" s="44" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="V24" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="W24" s="67" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="V24" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="W24" s="68" t="s">
+        <v>228</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z24" s="89">
+        <v>229</v>
+      </c>
+      <c r="Z24" s="90">
         <v>417</v>
       </c>
-      <c r="AA24" s="90" t="s">
+      <c r="AA24" s="91" t="s">
         <v>119</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AC24" s="44" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" ht="405" spans="1:29">
       <c r="A25" s="45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>74</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="V25" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="W25" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="V25" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="W25" s="70" t="s">
         <v>119</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z25" s="91">
+        <v>245</v>
+      </c>
+      <c r="Z25" s="92">
         <v>1972</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" s="9" customFormat="1" ht="330" spans="1:29">
       <c r="A26" s="46" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="V26" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="W26" s="70" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="V26" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="W26" s="71" t="s">
+        <v>260</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z26" s="92">
+        <v>261</v>
+      </c>
+      <c r="Z26" s="93">
         <v>80</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB26" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB26" s="94" t="s">
         <v>119</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" ht="390" spans="1:29">
       <c r="A32" s="47" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>125</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="V32" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="W32" s="71" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="V32" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="W32" s="72" t="s">
+        <v>273</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z32" s="94">
+        <v>274</v>
+      </c>
+      <c r="Z32" s="95">
         <v>36</v>
       </c>
-      <c r="AA32" s="95" t="s">
+      <c r="AA32" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="AB32" s="95" t="s">
+      <c r="AB32" s="96" t="s">
         <v>119</v>
       </c>
       <c r="AC32" s="47" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="409.5" spans="1:29">
       <c r="A33" s="48" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="T33" s="72" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="T33" s="73" t="s">
+        <v>284</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="V33" s="63" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="W33" s="63" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z33" s="85">
+        <v>288</v>
+      </c>
+      <c r="Z33" s="86">
         <v>82</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC33" s="96" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="AC33" s="97" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -5700,96 +5778,96 @@
     </row>
     <row r="44" s="11" customFormat="1" ht="405" spans="1:27">
       <c r="A44" s="49" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="V44" s="73" t="s">
-        <v>293</v>
-      </c>
-      <c r="W44" s="73" t="s">
-        <v>294</v>
+      <c r="V44" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="W44" s="74" t="s">
+        <v>297</v>
       </c>
       <c r="X44" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z44" s="97">
+        <v>298</v>
+      </c>
+      <c r="Z44" s="98">
         <v>11962</v>
       </c>
       <c r="AA44" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="1" ht="375" spans="1:29">
       <c r="A45" s="48" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="R45" s="74" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="R45" s="75" t="s">
+        <v>307</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="U45" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="V45" s="75" t="s">
-        <v>307</v>
-      </c>
-      <c r="W45" s="75" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="V45" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="W45" s="76" t="s">
+        <v>311</v>
       </c>
       <c r="X45" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z45" s="98">
+        <v>312</v>
+      </c>
+      <c r="Z45" s="99">
         <v>959</v>
       </c>
       <c r="AA45" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AB45" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC45" s="99" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="AC45" s="100" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5832,7 +5910,7 @@
     <hyperlink ref="V33" r:id="rId28" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
     <hyperlink ref="W33" r:id="rId29" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
     <hyperlink ref="V10" r:id="rId30" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
-    <hyperlink ref="W10" r:id="rId31" display="https://github.com/nihaomiao/CVPR23_LFDM" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
+    <hyperlink ref="W10" r:id="rId31" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="272">
   <si>
     <t>论文名</t>
   </si>
@@ -44,6 +44,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>任务分类（论文中涉及的任务，有几个写几个）</t>
+  </si>
+  <si>
     <t>数据集包括（论文中的所有实验数据集）</t>
   </si>
   <si>
@@ -74,15 +77,15 @@
     <t>Loss (有多个写多个)</t>
   </si>
   <si>
+    <t>Loss备注</t>
+  </si>
+  <si>
     <t>全局/局部</t>
   </si>
   <si>
     <t>训练方式</t>
   </si>
   <si>
-    <t>任务分类（论文中涉及的任务，有几个写几个）</t>
-  </si>
-  <si>
     <t>所解决的问题与创新点</t>
   </si>
   <si>
@@ -111,1258 +114,6 @@
   </si>
   <si>
     <t>简介</t>
-  </si>
-  <si>
-    <t>Is Mamba Effective for Time Series Forecasting?</t>
-  </si>
-  <si>
-    <t>S-Mamba</t>
-  </si>
-  <si>
-    <t>NEU</t>
-  </si>
-  <si>
-    <t>arXiv 2024 4.27</t>
-  </si>
-  <si>
-    <t>Electricity, 
-Exchange-Rate, Traffic, 
-Weather, 
-Solar-Energy, 
-PEMS, 
-ETT</t>
-  </si>
-  <si>
-    <t>Standard Time Series (Multivariate)</t>
-  </si>
-  <si>
-    <t>Mamba (bidirectional)</t>
-  </si>
-  <si>
-    <t>t时刻multivariate time series embedding以及t-1时刻隐藏状态</t>
-  </si>
-  <si>
-    <t>t时刻隐藏状态</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>全局</t>
-  </si>
-  <si>
-    <t>Supervised Learning</t>
-  </si>
-  <si>
-    <t>Forecasting (Electricity, Exchange-Rate, Traffic, Weather, Solar-Energy, PEMS, ETT)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(1) the quadratic complexity of the Transformer leads to low computational efficiency and high costs -- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00A3F5"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S-Mamba delegates the extraction of inter-variate correlations and temporal dependencies to a bidirectional Mamba block and a Feed-Forward Network (respectively) (2) 实验创新</t>
-    </r>
-  </si>
-  <si>
-    <t>MSE, MAE</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/pdf/2403.11144</t>
-  </si>
-  <si>
-    <t>https://github.com/wzhwzhwzh0921/S-D-Mamba</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@misc{wang2024mambaeffectivetimeseries,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">title={Is Mamba Effective for Time Series Forecasting?}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>author={Zihan Wang and Fanheng Kong and Shi Feng and Ming Wang and Xiaocui Yang and Han Zhao and Daling Wang and Yifei Zhang},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>year={2024},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>eprint={2403.11144},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>archivePrefix={arXiv},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>primaryClass={cs.LG},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>url={</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2403.11144</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>a single NVIDIA RTX3090 GPU</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(1) Mamba-based models are expected to be applicable to a broader spectrum of time series prediction tasks that involve processing extensive variate data; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(2) the development of a Mamba-based pre-training model for TSF tasks.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SutraNets: Sub-series Autoregressive Networks for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Long-Sequence, Probabilistic Forecasting</t>
-    </r>
-  </si>
-  <si>
-    <t>SutraNets</t>
-  </si>
-  <si>
-    <t>huawei</t>
-  </si>
-  <si>
-    <t>NIPS 2023 12 .10</t>
-  </si>
-  <si>
-    <t>cloud resource utilization(数据包含来自 Azure 云的 2085 个虚拟机类型的 5 分钟间隔使用情况)、elec、traff、wiki、mnist</t>
-  </si>
-  <si>
-    <t>RNN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>子序列在当前时间步之前的值、其他子序列在当前时间步 t 的值y_{k,t−1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前子序列在时间步 t 的预测值y_{k,t}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>NLL</t>
-  </si>
-  <si>
-    <t>局部</t>
-  </si>
-  <si>
-    <t>Forecasting</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. Discrepancy problem: Differences between training on true previous values and inference on generated values, leading to error accumulation
-- 2. Signal path problem: Difficulty in preserving long-term dependencies over many timesteps, especially with RNN models
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1. Sub-series autoregressive network: Decomposes long sequences into multiple low-frequency sub-series, each independently autoregressively predicted, addressing error accumulation and signal path issues</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 2. Solving training and inference discrepancy: Uses autoregressive sub-series predictions to reduce reliance on true previous values during generation, minimizing training and inference differences</t>
-    </r>
-  </si>
-  <si>
-    <t>ND, wQL, CRPS</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/pdf/2404.05192</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@inproceedings{NEURIPS2023_6171c9e6,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>author = {Bergsma, Shane and Zeyl, Tim and Guo, Lei},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>booktitle = {Advances in Neural Information Processing Systems},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>editor = {A. Oh and T. Naumann and A. Globerson and K. Saenko and M. Hardt and S. Levine},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pages = {30518--30533},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>publisher = {Curran Associates, Inc.},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>title = {SutraNets: Sub-series Autoregressive Networks for Long-Sequence, Probabilistic Forecasting},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>url = {</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://proceedings.neurips.cc/paper_files/paper/2023/file/6171c9e600432a42688ad61a525951bf-Paper-Conference.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>volume = {36},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>year = {2023}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Four Tesla P100 GPUs, Two Tesla K80 GPUs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1)Explore the applicability of SutraNets in different domains such as finance, weather forecasting, and healthcare.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(2)Investigate the integration of external factors and covariates into the model to enhance its forecasting capabilities.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(3)Further optimize the model's efficiency and scalability for handling extremely large datasets.</t>
-    </r>
-  </si>
-  <si>
-    <t>TSLANet: Rethinking Transformers for Time Series Representation Learning</t>
-  </si>
-  <si>
-    <t>TSLANet</t>
-  </si>
-  <si>
-    <t>I2R, Agency for Science, Technology and Research, Singapore.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ICML 2024 7.21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>ECL、ETT (Avg)、Exchange、Traffic、Weather、UCR repository、UEA repository、Biomedical signals、Human activity recognition、SMD、MSL、SMAP、SWaT、PSM</t>
-  </si>
-  <si>
-    <t>Transformer</t>
-  </si>
-  <si>
-    <t>frequency domain data after FFT transformation</t>
-  </si>
-  <si>
-    <t>time domain predicted data after IFFT transformation</t>
-  </si>
-  <si>
-    <t>Self-supervised Learning</t>
-  </si>
-  <si>
-    <t>Classification(UCR,UEA,Sleep-EDF,UCIHAR,WISDM,HHAR) Forecasting(ECL、ETT(AVG),Exchange,Traffic,Weather)AnomalyDetection(SMD、MSL、SMAP、SWaT、PSM)</t>
-  </si>
-  <si>
-    <t>、</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 1. Noise sensitivity: Transformer models perform poorly on noisy data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 2. Computational efficiency: Transformer models have low computational efficiency on small datasets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 1. Adaptive Spectral Block: leveraging Fourier analysis to enhance feature representation, capturing long- and short-term interactions while adaptively removing high-frequency noise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 2. Interactive Convolution Block: using CNNs with different kernel sizes to modulate each other, enhancing the model's ability to capture complex temporal patterns</t>
-    </r>
-  </si>
-  <si>
-    <t>MSE, MAE, F1-score</t>
-  </si>
-  <si>
-    <t>https://github.com/emadeldeen24/TSLANet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@article{eldele2024tslanet,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>title={Tslanet: Rethinking transformers for time series representation learning},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>author={Eldele, Emadeldeen and Ragab, Mohamed and Chen, Zhenghua and Wu, Min and Li, Xiaoli},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>journal={arXiv preprint arXiv:2404.08472},</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>year={2024}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NVIDIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RTXA6000 GPUs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1) Investigate the application of TSLANet in different time series forecasting domains such as finance, weather, and healthcare.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(2) Explore the integration of additional external factors to further enhance forecasting accuracy.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(3) Improve the computational efficiency and scalability of the model for larger datasets.</t>
-    </r>
-  </si>
-  <si>
-    <t>ATFNet: Adaptive Time-Frequency Ensembled Network for Long-term Time Series Forecasting</t>
-  </si>
-  <si>
-    <t>ATFNet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Department of Computer Science and Engineering, Shanghai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Jiao Tong University, Shanghai, China</t>
-    </r>
-  </si>
-  <si>
-    <t>Arxiv 2024 8 8</t>
-  </si>
-  <si>
-    <t>ETT,Traffic,Electricity,Weather,Solar</t>
-  </si>
-  <si>
-    <t>Transformer（Encoder）</t>
-  </si>
-  <si>
-    <t>historical spectrum values in the frequency domain</t>
-  </si>
-  <si>
-    <t>predicted spectrum values in the frequency domain</t>
-  </si>
-  <si>
-    <t>Forecasting(ETT,Traffic,Electricity,Weather,Solar)</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 1. Combining time and frequency domains: How to effectively combine the strengths of time and frequency domains to handle time series with different periodic characteristics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 2. Frequency domain alignment: How to address the misalignment of discrete frequencies between the input spectrum and the complete spectrum, leading to prediction inaccuracies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 1. Adaptive Spectral Block: Enhances feature representation through Fourier analysis, capturing long- and short-term interactions, and adaptively removing high-frequency noise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- 2. Complex-valued Spectrum Attention: Introduces attention mechanism in the frequency domain to capture complex relationships between different frequency combinations</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/YHYHYHYHYHY/ATFNet</t>
-  </si>
-  <si>
-    <t>NVIDIA A100-SXM80GBGPUs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(1) Investigate the application of ATFNet in different time series forecasting domains such as finance, weather, and healthcare. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(2) Explore the integration of additional external factors to further enhance forecasting accuracy. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(3) Improve the computational efficiency and scalability of the model for larger datasets.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>以上为例子</t>
@@ -1417,6 +168,9 @@
     <t>图像生成</t>
   </si>
   <si>
+    <t>Image Super-Resolution</t>
+  </si>
+  <si>
     <t>(1) DIV2K
 (2) Flickr2K
 (3) SR benchmark datasets, including Set5 ,Set14 , B100 , and Urban100 .</t>
@@ -1492,7 +246,7 @@
     </r>
   </si>
   <si>
-    <t>Image Super-Resolution</t>
+    <t>Supervised Learning</t>
   </si>
   <si>
     <t>several challenges in flow-based SR methods：
@@ -1561,6 +315,9 @@
   </si>
   <si>
     <t>时序数据生成</t>
+  </si>
+  <si>
+    <t>Traffic Matrix Estimation</t>
   </si>
   <si>
     <t>Abilene、GEANT</t>
@@ -1620,9 +377,6 @@
     </r>
   </si>
   <si>
-    <t>Traffic Matrix Estimation</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1726,6 +480,9 @@
     <t>IEEE TRANSACTIONS ON NEURAL NETWORKS AND LEARNING SYSTEMS</t>
   </si>
   <si>
+    <t>轨迹预测</t>
+  </si>
+  <si>
     <t>(1) ETH/UCY
 (2) Stanford Drone Dataset (SDD)</t>
   </si>
@@ -1739,10 +496,49 @@
     <t>行人的未来轨迹</t>
   </si>
   <si>
-    <t>(1) negative log-likelihood function</t>
-  </si>
-  <si>
-    <t>轨迹预测</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) negative log-likelihood function：建模底层数据分布
+(2) L(traj)：监督预测的正向、反向和双向轨迹
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：总的损失函数为两者相加。具体表达式见公式24、38、39。L(traj)中traj为右下标</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Due to the diversity of motion behaviors and the complex social interactions among pedestrians, accurately forecasting their future trajectory is challenging.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) present a novel diverse trajectory prediction framework based on generative flow, , simulating the evolution of human motion behaviors from simple to complex
+(2) develop a pattern normalization to normalize the unique behavior pattern of pedestrians, greatly improving the prediction accuracy
+(3) propose a dual graphormer to extract the representations of motion behaviors and model the social interactions in both temporal and spatial domains</t>
+    </r>
   </si>
   <si>
     <t>(1) Average Displacement Error , ADE
@@ -1767,6 +563,28 @@
   <si>
     <t>(1) Improve the accuracy of predicting scenarios when pedestrian movement behavior undergoes drastic changes in a short period of time.
 (2) Build more efficient interaction modules.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由于行人运动行为的多样性和社会互动的复杂性，准确预测其未来轨迹具有挑战性。现有方法存在一些局限性，基于 GAN 的方法可能无法完全支持数据分布，基于 CVAE 和扩散模型的方法优化的是观测对数似然的下界，可能导致学习到的分布偏离底层分布，这些方法常生成有偏差或不准确的轨迹。此外，基于图的方法可能存在节点特征过平滑问题，导致行人独特行为特征丢失。
+作者提出基于生成流的新型多样轨迹预测框架 STGlow</t>
+    </r>
   </si>
   <si>
     <t>扩散模型</t>
@@ -1970,10 +788,66 @@
     <t>图生成</t>
   </si>
   <si>
-    <t>Community-small, Ego-small, Ego, Enzymes</t>
+    <t>排列不变图生成</t>
+  </si>
+  <si>
+    <t>(1) Community-small
+(2) Ego-small
+(3) Ego
+(4) Enzymes</t>
   </si>
   <si>
     <t>Graph data</t>
+  </si>
+  <si>
+    <t>邻接矩阵</t>
+  </si>
+  <si>
+    <t>新图的邻接矩阵</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Denoising Score Matching
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：扩散模型使用的损失函数，具体表达式见 III. MODEL 章节中A部分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) modelling and understanding the generative process of graphs is challenging due to the discrete and high-dimensional nature of graphs, as well as permutation invariance to node orderings in underlying graph distributions.
+(2) The existing graph generation model has shortcomings in terms of generation quality and sampling speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) propose a novel continuous-time generative diffusion process for permutation invariant graph generation.
+(2) design a position-enhanced graph score network that accurately estimates scores on perturbed graphs by leveraging the perturbed adjacency matrices as well as the structure and position information of discrete graphs.
+(3) Efficient graph generation and evaluation</t>
+    </r>
   </si>
   <si>
     <t>(1) Maximum Mean Discrepancy (MMD)
@@ -2038,7 +912,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>作者提出了一个连续时间生成扩散过程来生成排列不变图来解决上述问题。</t>
+      <t>作者提出了一个连续时间生成扩散过程来生成排列不变图来解决上述问题(GraphGDP)。</t>
     </r>
   </si>
   <si>
@@ -2056,6 +930,10 @@
   </si>
   <si>
     <t>图像生成（3D）</t>
+  </si>
+  <si>
+    <t>(1) Single Image 3D Reconstruction
+(2) Text-to-3D Generation</t>
   </si>
   <si>
     <t>(1) Objaverse
@@ -2080,10 +958,6 @@
   </si>
   <si>
     <t>Opacity Loss, LPIPS loss, MSE loss</t>
-  </si>
-  <si>
-    <t>(1) Single Image 3D Reconstruction
-(2) Text-to-3D Generation</t>
   </si>
   <si>
     <r>
@@ -2201,6 +1075,11 @@
     <t>NeurIPS 2021</t>
   </si>
   <si>
+    <t>(1) Time series imputation
+(2) Interpolation of irregularly sampled time series
+(3) Probabilistic forecasting</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2255,9 +1134,7 @@
     </r>
   </si>
   <si>
-    <t>(1) Time series imputation
-(2) Interpolation of irregularly sampled time series
-(3) Probabilistic forecasting</t>
+    <t>Self-supervised Learning</t>
   </si>
   <si>
     <r>
@@ -2344,26 +1221,26 @@
     <t>CVPR 2023</t>
   </si>
   <si>
-    <t>collected by the authors or sourced from Unsplash</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>(1) Specific theme subject image
-(2) Text prompt</t>
-  </si>
-  <si>
-    <t>Designated theme image</t>
-  </si>
-  <si>
-    <t>(1) Diffusion Loss
-(2) Class-specific prior preservation loss</t>
-  </si>
-  <si>
     <t>(1) subject recontextualization
 (2) text-guided view synthesis
 (3) artistic rendering,</t>
+  </si>
+  <si>
+    <t>collected by the authors or sourced from Unsplash</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>(1) Specific theme subject image
+(2) Text prompt</t>
+  </si>
+  <si>
+    <t>Designated theme image</t>
+  </si>
+  <si>
+    <t>(1) Diffusion Loss
+(2) Class-specific prior preservation loss</t>
   </si>
   <si>
     <r>
@@ -2548,12 +1425,79 @@
     <t>CIKM 2023</t>
   </si>
   <si>
+    <t>数据增强</t>
+  </si>
+  <si>
     <t>(1) Yelp
 (2) Amazon Beauty
 (3) Steam</t>
   </si>
   <si>
     <t>Historical User Interaction Sequences (用户历史交互序列)</t>
+  </si>
+  <si>
+    <t>用户历史交互序列</t>
+  </si>
+  <si>
+    <t>扩充后的序列</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">KL divergence
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: 具体表达式见2.2 Diffusion Model，公式(6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Data Sparsity Problem : sequential recommendation often faces the problem of data sparsity.
+(2) Long-tail User Problem : most users only interact with a few items, but existing SRS models often underperform these users.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) design a novel data augmentation framework based on diffusion model for the sequential recommendation , which fills the gap between discrete-valued item identity and generated real-valued matrix.
+(2) devise an SU-Net that can recover the embedding sequence matrix for the sequence generation task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Top-10 Hit Rate (HR@10) : 评估推荐Top-K列表中出现的正确项目的能力
+(2) Top-10 Normalized Discounted Cumulative Gain (NDCG@10) :  反映推荐模型的排序能力</t>
   </si>
   <si>
     <t>https://arxiv.org/pdf/2309.12858</t>
@@ -2608,7 +1552,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>作者提出了一种新的数据增强方法DiffuASR，利用扩散模型生成更高质量的数据增强，以改善序列推荐模型的性能。</t>
+      <t>作者提出了一种新的数据增强方法DiffuASR，利用扩散模型生成更高质量的数据增强，以改善序列推荐模型的性能。DiffuASR框架包括一个基于扩散的伪序列生成框架（前向过程、反向过程和引导过程，引导过程包含两种策略）和一个为离散序列生成任务设计的序列U-Net（SU-Net）</t>
     </r>
   </si>
   <si>
@@ -2620,6 +1564,9 @@
   <si>
     <t>(1) Business Intelligence Lab, Baidu Research
 (2) Zhejiang University, China</t>
+  </si>
+  <si>
+    <t>时间序列预测</t>
   </si>
   <si>
     <r>
@@ -2691,9 +1638,6 @@
     </r>
   </si>
   <si>
-    <t>时间序列预测</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2779,6 +1723,84 @@
     <t>CVPR 2022</t>
   </si>
   <si>
+    <t>高分辨率图像合成</t>
+  </si>
+  <si>
+    <t>(1) ImageNet
+(2) CelebA-HQ
+(3) FFHQ
+(4) LSUN-Churches and LSUN-Bedrooms
+(5) LAION-400M
+(6) MS-COCO
+(7) OpenImages
+(8) COCO</t>
+  </si>
+  <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <t>(1) 图像
+(2) 条件信息：文本、语义图信息等等</t>
+  </si>
+  <si>
+    <t>高分辨率图像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1)a perceptual loss  and a patch-based adversarial objective：感知图像压缩部分
+(2) Denoising Score Matching：潜在扩散模型部分，由于潜在空间和条件机制，和最原始的变分下界形式有不同
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：所设计的模型分为三个部分：感知图像压缩部分、潜在扩散模型部分、条件机制部分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Computing resource limitations : Traditional diffusion models operate in pixel space and require a large number of GPU days for training.
+(2) Improving the training and inference efficiency of the model while maintaining the quality of image synthesis is a challenge, especially when dealing with high-dimensional data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) LDMs are more graceful to higher dimensional data and can work on a compression level 
+(2)  lower computational costs and decrease inference costs
+(3)LDM does not require a delicate weighting of reconstruction and generative abilities which ensures extremely faithful reconstructions and requires very little regularization of the latent space.
+(4) LDM can be applied in a convolutional fashion
+(5) design a general-purpose conditioning mechanism based on cross-attention, enabling multi-modal training</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) FID
+(2) PSNR
+(3) SSIM
+(4) IS</t>
+  </si>
+  <si>
     <t>https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf</t>
   </si>
   <si>
@@ -2797,6 +1819,28 @@
     <t>NVIDIA A100 GPU</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传统的扩散模型（DMs）在像素空间中操作，需要大量的GPU天数进行训练，推理代价高昂。生成高质量高分辨率图像困难.
+作者提出了 潜在扩散模型（LDMs），包含三个部分：感知图像压缩部分、潜在扩散模型部分、条件机制部分</t>
+    </r>
+  </si>
+  <si>
     <t>DPM-Solver: A Fast ODE Solver for Diffusion Probabilistic Model Sampling in Around 10 Steps</t>
   </si>
   <si>
@@ -2826,6 +1870,9 @@
       </rPr>
       <t>PS：这篇文献目的是改进采样速度，应该是拿图像来当例子</t>
     </r>
+  </si>
+  <si>
+    <t>PS：这篇文献目的是改进采用速度，应该是拿图像来当例子</t>
   </si>
   <si>
     <t>(1) CIFAR10
@@ -2846,7 +1893,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Variational Lower Bound，VLB
+      <t xml:space="preserve">Denoising Score Matching
 </t>
     </r>
     <r>
@@ -2858,9 +1905,6 @@
       </rPr>
       <t>PS：扩散模型使用的损失函数</t>
     </r>
-  </si>
-  <si>
-    <t>PS：这篇文献目的是改进采用速度，应该是拿图像来当例子</t>
   </si>
   <si>
     <r>
@@ -2945,7 +1989,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2967,32 +2011,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
@@ -3007,7 +2025,20 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3015,20 +2046,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF417FF9"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -3046,12 +2063,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3202,13 +2213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF175CEB"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="微软雅黑"/>
@@ -3222,24 +2226,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A3F5"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3321,30 +2313,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDEBFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF319B62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE270"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3682,137 +2650,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3855,238 +2823,151 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4095,25 +2976,34 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4657,1260 +3547,1214 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="25" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.3333333333333" style="13" customWidth="1"/>
-    <col min="27" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="13" customWidth="1"/>
+    <col min="28" max="30" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="31" max="40" width="15.3333333333333" style="14" customWidth="1"/>
+    <col min="41" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:29">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:40">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="50" t="s">
+      <c r="S1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="T1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="77" t="s">
+      <c r="Z1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AB1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="78" t="s">
+      <c r="AC1" s="29" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
     </row>
-    <row r="2" ht="375" spans="1:28">
-      <c r="A2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" ht="105" spans="1:8">
+      <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="18" t="s">
+    </row>
+    <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="18" t="s">
+      <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="57" t="s">
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="57" t="s">
+      <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="P4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="18" t="s">
+      <c r="S4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="U4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="V4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="48">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="50">
+        <v>45594</v>
+      </c>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
     </row>
-    <row r="3" ht="409.5" spans="1:28">
-      <c r="A3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22" t="s">
+    <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
+      <c r="A5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="22" t="s">
+      <c r="AD5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" s="50">
+        <v>45594</v>
+      </c>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="80">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="F6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA6" s="54">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE6" s="50">
+        <v>45599</v>
+      </c>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
     </row>
-    <row r="4" ht="409.5" spans="1:28">
-      <c r="A4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="26" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
+      <c r="A16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="52">
+        <v>609</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="360" spans="1:40">
+      <c r="A17" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA17" s="56">
+        <v>485</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W18" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA18" s="57">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD18" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE18" s="50">
+        <v>45599</v>
+      </c>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
+      <c r="A19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="X19" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA19" s="48">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD19" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE19" s="50">
+        <v>45594</v>
+      </c>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+    </row>
+    <row r="20" s="7" customFormat="1" ht="360" spans="1:40">
+      <c r="A20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="P20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="W20" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA20" s="60">
+        <v>417</v>
+      </c>
+      <c r="AB20" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD20" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE20" s="50">
+        <v>45594</v>
+      </c>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+    </row>
+    <row r="21" s="8" customFormat="1" ht="405" spans="1:40">
+      <c r="A21" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" s="26" t="s">
+      <c r="F21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA21" s="63">
+        <v>1972</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE21" s="50">
+        <v>45594</v>
+      </c>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+    </row>
+    <row r="22" s="9" customFormat="1" ht="330" spans="1:40">
+      <c r="A22" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="W22" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA22" s="64">
         <v>80</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="81">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="26" t="s">
+      <c r="AB22" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC22" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE22" s="50">
+        <v>45594</v>
+      </c>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" s="10" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A28" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="W28" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y28" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA28" s="66">
+        <v>36</v>
+      </c>
+      <c r="AB28" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD28" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE28" s="50">
+        <v>45599</v>
+      </c>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A29" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U29" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="W29" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="X29" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA29" s="54">
         <v>82</v>
       </c>
+      <c r="AB29" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD29" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE29" s="50">
+        <v>45599</v>
+      </c>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
     </row>
-    <row r="5" ht="409.5" spans="1:28">
-      <c r="A5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" s="30" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A40" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="W40" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="X40" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA40" s="70">
+        <v>12188</v>
+      </c>
+      <c r="AB40" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC40" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD40" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE40" s="50">
+        <v>45599</v>
+      </c>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+    </row>
+    <row r="41" s="12" customFormat="1" ht="375" spans="1:40">
+      <c r="A41" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="W5" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB5" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" ht="105" spans="1:7">
-      <c r="A6" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="405" spans="1:29">
-      <c r="A8" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V8" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="W8" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z8" s="83">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB8" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC8" s="43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="345.6" spans="1:29">
-      <c r="A9" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="V9" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="W9" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z9" s="84">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB9" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC9" s="39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="330" spans="1:28">
-      <c r="A10" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="V10" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="W10" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z10" s="86">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="360" spans="1:29">
-      <c r="A20" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V20" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="W20" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z20" s="84">
-        <v>609</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC20" s="39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="360" spans="1:27">
-      <c r="A21" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="P21" s="5"/>
-      <c r="U21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V21" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="W21" s="65" t="s">
+      <c r="E41" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="X21" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z21" s="87">
-        <v>485</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="345" spans="1:29">
-      <c r="A22" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="V22" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="W22" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="X22" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z22" s="88">
-        <v>45</v>
-      </c>
-      <c r="AA22" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC22" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="408" customHeight="1" spans="1:29">
-      <c r="A23" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="V23" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="W23" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z23" s="83">
-        <v>12</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC23" s="43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" s="7" customFormat="1" ht="360" spans="1:29">
-      <c r="A24" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="O24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="V24" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="W24" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z24" s="90">
-        <v>417</v>
-      </c>
-      <c r="AA24" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB24" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC24" s="44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" s="8" customFormat="1" ht="405" spans="1:29">
-      <c r="A25" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="V25" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="W25" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="X25" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z25" s="92">
-        <v>1972</v>
-      </c>
-      <c r="AA25" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB25" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC25" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" s="9" customFormat="1" ht="330" spans="1:29">
-      <c r="A26" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="V26" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="W26" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z26" s="93">
-        <v>80</v>
-      </c>
-      <c r="AA26" s="9" t="s">
+      <c r="J41" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AB26" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC26" s="9" t="s">
+      <c r="P41" s="12" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="U41" s="12" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="V41" s="12" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="32" s="10" customFormat="1" ht="390" spans="1:29">
-      <c r="A32" s="47" t="s">
+      <c r="W41" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="X41" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="Y41" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="AA41" s="73">
+        <v>959</v>
+      </c>
+      <c r="AB41" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="AC41" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="AD41" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="V32" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="W32" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="X32" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z32" s="95">
-        <v>36</v>
-      </c>
-      <c r="AA32" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB32" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC32" s="47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="1" ht="409.5" spans="1:29">
-      <c r="A33" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="T33" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="V33" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="W33" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z33" s="86">
-        <v>82</v>
-      </c>
-      <c r="AA33" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB33" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC33" s="97" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" s="11" customFormat="1" ht="405" spans="1:27">
-      <c r="A44" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V44" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="W44" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z44" s="98">
-        <v>11962</v>
-      </c>
-      <c r="AA44" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" s="12" customFormat="1" ht="375" spans="1:29">
-      <c r="A45" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="R45" s="75" t="s">
-        <v>307</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="V45" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="W45" s="76" t="s">
-        <v>311</v>
-      </c>
-      <c r="X45" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z45" s="99">
-        <v>959</v>
-      </c>
-      <c r="AA45" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB45" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC45" s="100" t="s">
-        <v>315</v>
-      </c>
+      <c r="AE41" s="50">
+        <v>45599</v>
+      </c>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="F6 E2:E5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="G2">
       <formula1>"GAN,VAE,diffusion,LLM,FLow"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" display="https://arxiv.org/pdf/2403.11144" tooltip="https://arxiv.org/pdf/2403.11144"/>
-    <hyperlink ref="W2" r:id="rId2" display="https://github.com/wzhwzhwzh0921/S-D-Mamba" tooltip="https://github.com/wzhwzhwzh0921/S-D-Mamba"/>
-    <hyperlink ref="V3" r:id="rId3" display="https://arxiv.org/pdf/2404.05192" tooltip="https://arxiv.org/pdf/2404.05192"/>
-    <hyperlink ref="V4" r:id="rId3" display="https://arxiv.org/pdf/2404.05192" tooltip="https://arxiv.org/pdf/2404.05192"/>
-    <hyperlink ref="W4" r:id="rId4" display="https://github.com/emadeldeen24/TSLANet" tooltip="https://github.com/emadeldeen24/TSLANet"/>
-    <hyperlink ref="V5" r:id="rId3" display="https://arxiv.org/pdf/2404.05192" tooltip="https://arxiv.org/pdf/2404.05192"/>
-    <hyperlink ref="W5" r:id="rId5" display="https://github.com/YHYHYHYHYHY/ATFNet" tooltip="https://github.com/YHYHYHYHYHY/ATFNet"/>
-    <hyperlink ref="W20" r:id="rId6" display="https://github.com/XiangLi1999/Diffusion-LM" tooltip="https://github.com/XiangLi1999/Diffusion-LM"/>
-    <hyperlink ref="V20" r:id="rId7" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf"/>
-    <hyperlink ref="V21" r:id="rId8" display="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf" tooltip="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf"/>
-    <hyperlink ref="W21" r:id="rId9" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
-    <hyperlink ref="V22" r:id="rId10" display="https://arxiv.org/pdf/2212.01842" tooltip="https://arxiv.org/pdf/2212.01842"/>
-    <hyperlink ref="W22" r:id="rId11" display="https://github.com/GRAPH-0/GraphGDP" tooltip="https://github.com/GRAPH-0/GraphGDP"/>
-    <hyperlink ref="V23" r:id="rId12" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
-    <hyperlink ref="W24" r:id="rId13" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
-    <hyperlink ref="V24" r:id="rId14" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
-    <hyperlink ref="V8" r:id="rId15" display="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf"/>
-    <hyperlink ref="W8" r:id="rId16" display="https://github.com/liyuantsao/BFSR" tooltip="https://github.com/liyuantsao/BFSR"/>
-    <hyperlink ref="V9" r:id="rId17" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
-    <hyperlink ref="W9" r:id="rId18" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
-    <hyperlink ref="V25" r:id="rId19" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
-    <hyperlink ref="V26" r:id="rId20" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
-    <hyperlink ref="W26" r:id="rId21" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
-    <hyperlink ref="V32" r:id="rId22" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
-    <hyperlink ref="W32" r:id="rId23" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
-    <hyperlink ref="V44" r:id="rId24" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
-    <hyperlink ref="W44" r:id="rId25" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
-    <hyperlink ref="V45" r:id="rId26" display="https://arxiv.org/pdf/2206.00927" tooltip="https://arxiv.org/pdf/2206.00927"/>
-    <hyperlink ref="W45" r:id="rId27" display="https://github.com/LuChengTHU/dpm-solver" tooltip="https://github.com/LuChengTHU/dpm-solver"/>
-    <hyperlink ref="V33" r:id="rId28" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
-    <hyperlink ref="W33" r:id="rId29" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
-    <hyperlink ref="V10" r:id="rId30" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
-    <hyperlink ref="W10" r:id="rId31" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
+    <hyperlink ref="X16" r:id="rId1" display="https://github.com/XiangLi1999/Diffusion-LM" tooltip="https://github.com/XiangLi1999/Diffusion-LM"/>
+    <hyperlink ref="W16" r:id="rId2" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf"/>
+    <hyperlink ref="W17" r:id="rId3" display="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf" tooltip="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf"/>
+    <hyperlink ref="X17" r:id="rId4" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
+    <hyperlink ref="W18" r:id="rId5" display="https://arxiv.org/pdf/2212.01842" tooltip="https://arxiv.org/pdf/2212.01842"/>
+    <hyperlink ref="X18" r:id="rId6" display="https://github.com/GRAPH-0/GraphGDP" tooltip="https://github.com/GRAPH-0/GraphGDP"/>
+    <hyperlink ref="W19" r:id="rId7" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
+    <hyperlink ref="X20" r:id="rId8" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
+    <hyperlink ref="W20" r:id="rId9" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
+    <hyperlink ref="W4" r:id="rId10" display="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf"/>
+    <hyperlink ref="X4" r:id="rId11" display="https://github.com/liyuantsao/BFSR" tooltip="https://github.com/liyuantsao/BFSR"/>
+    <hyperlink ref="W5" r:id="rId12" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
+    <hyperlink ref="X5" r:id="rId13" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
+    <hyperlink ref="W21" r:id="rId14" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
+    <hyperlink ref="W22" r:id="rId15" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
+    <hyperlink ref="X22" r:id="rId16" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
+    <hyperlink ref="W28" r:id="rId17" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
+    <hyperlink ref="X28" r:id="rId18" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
+    <hyperlink ref="W40" r:id="rId19" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
+    <hyperlink ref="X40" r:id="rId20" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
+    <hyperlink ref="W41" r:id="rId21" display="https://arxiv.org/pdf/2206.00927" tooltip="https://arxiv.org/pdf/2206.00927"/>
+    <hyperlink ref="X41" r:id="rId22" display="https://github.com/LuChengTHU/dpm-solver" tooltip="https://github.com/LuChengTHU/dpm-solver"/>
+    <hyperlink ref="W29" r:id="rId23" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
+    <hyperlink ref="X29" r:id="rId24" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
+    <hyperlink ref="W6" r:id="rId25" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
+    <hyperlink ref="X6" r:id="rId26" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="286">
   <si>
     <t>论文名</t>
   </si>
@@ -585,6 +585,74 @@
       <t>由于行人运动行为的多样性和社会互动的复杂性，准确预测其未来轨迹具有挑战性。现有方法存在一些局限性，基于 GAN 的方法可能无法完全支持数据分布，基于 CVAE 和扩散模型的方法优化的是观测对数似然的下界，可能导致学习到的分布偏离底层分布，这些方法常生成有偏差或不准确的轨迹。此外，基于图的方法可能存在节点特征过平滑问题，导致行人独特行为特征丢失。
 作者提出基于生成流的新型多样轨迹预测框架 STGlow</t>
     </r>
+  </si>
+  <si>
+    <t>Flow++: Improving Flow-Based Generative Models with Variational Dequantization and Architecture Design</t>
+  </si>
+  <si>
+    <t>Flow++</t>
+  </si>
+  <si>
+    <t>(1) UC Berkeley, Department of Electrical Engineering and Computer Science
+(2) covariant ai</t>
+  </si>
+  <si>
+    <t>ICML 2019</t>
+  </si>
+  <si>
+    <t>无条件图像建模</t>
+  </si>
+  <si>
+    <t>(1) CIFAR10
+(2) 32x32 and 64x64 ImageNet</t>
+  </si>
+  <si>
+    <t>离散数据，文献中是图像</t>
+  </si>
+  <si>
+    <t>连续的概率分布</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modeling inefficiencies in prior work on flow models: 
+(1) uniform noise is a suboptimal dequantization choice that hurts both training loss and generalization; (2) commonly used affine coupling flows are not expressive enough; (3) convolutional layers in the conditioning networks of coupling layers are not powerful enough.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) variational flow-based dequantization instead of uniform dequantization
+(2) logistic mixture CDF coupling flows
+(3) self-attention in the conditioning networks of coupling layers</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Negative Log-Likelihood</t>
+  </si>
+  <si>
+    <t>https://proceedings.mlr.press/v97/ho19a/ho19a.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/aravindsrinivas/flowpp</t>
+  </si>
+  <si>
+    <t>@inproceedings{ho2019flow++,
+  title={Flow++: Improving flow-based generative models with variational dequantization and architecture design},
+  author={Ho, Jonathan and Chen, Xi and Srinivas, Aravind and Duan, Yan and Abbeel, Pieter},
+  booktitle={International conference on machine learning},
+  pages={2722--2730},
+  year={2019},
+  organization={PMLR}
+}</t>
+  </si>
+  <si>
+    <t>(1) NVIDIA 1080 Ti GPU
+(2) NVIDIA DGX-1
+(3) NVIDIA Titan X GPU</t>
   </si>
   <si>
     <t>扩散模型</t>
@@ -2780,7 +2848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2823,9 +2891,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2856,6 +2921,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2927,9 +2995,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3550,44 +3615,42 @@
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AM4" sqref="AM4"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="27" max="27" width="15.3333333333333" style="13" customWidth="1"/>
-    <col min="28" max="30" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="31" max="40" width="15.3333333333333" style="14" customWidth="1"/>
-    <col min="41" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:40">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="28" t="s">
@@ -3611,10 +3674,10 @@
       <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="28" t="s">
@@ -3626,7 +3689,7 @@
       <c r="T1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="29" t="s">
@@ -3656,30 +3719,20 @@
       <c r="AD1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
     </row>
     <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3689,7 +3742,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3752,24 +3805,24 @@
       <c r="AC4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AD4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="50">
+      <c r="AE4" s="49">
         <v>45594</v>
       </c>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3814,33 +3867,33 @@
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="52">
+      <c r="AA5" s="51">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="53" t="s">
+      <c r="AC5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AD5" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="50">
+      <c r="AE5" s="49">
         <v>45594</v>
       </c>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3888,7 +3941,7 @@
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="54">
+      <c r="AA6" s="53">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -3897,676 +3950,738 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="55" t="s">
+      <c r="AD6" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="50">
+      <c r="AE6" s="49">
         <v>45599</v>
       </c>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
+      <c r="A7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="48">
+        <v>449</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
       <c r="A16" s="25" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="W16" s="31" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="X16" s="31" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA16" s="52">
+        <v>114</v>
+      </c>
+      <c r="AA16" s="51">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AD16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
+        <v>116</v>
+      </c>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="360" spans="1:40">
       <c r="A17" s="26" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="W17" s="34" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="X17" s="34" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA17" s="56">
+        <v>129</v>
+      </c>
+      <c r="AA17" s="55">
         <v>485</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
+        <v>130</v>
+      </c>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="24" t="s">
-        <v>117</v>
+      <c r="A18" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="U18" s="35" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="W18" s="36" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="X18" s="36" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA18" s="57">
+        <v>146</v>
+      </c>
+      <c r="AA18" s="56">
         <v>45</v>
       </c>
-      <c r="AB18" s="58" t="s">
+      <c r="AB18" s="57" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD18" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE18" s="50">
+        <v>147</v>
+      </c>
+      <c r="AD18" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE18" s="49">
         <v>45599</v>
       </c>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="24" t="s">
-        <v>135</v>
+      <c r="A19" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="W19" s="30" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X19" s="37" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AA19" s="48">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD19" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE19" s="50">
+        <v>167</v>
+      </c>
+      <c r="AD19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE19" s="49">
         <v>45594</v>
       </c>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="24" t="s">
-        <v>155</v>
+      <c r="A20" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="W20" s="38" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X20" s="38" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA20" s="60">
+        <v>184</v>
+      </c>
+      <c r="AA20" s="59">
         <v>417</v>
       </c>
-      <c r="AB20" s="61" t="s">
+      <c r="AB20" s="60" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD20" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE20" s="50">
+        <v>185</v>
+      </c>
+      <c r="AD20" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE20" s="49">
         <v>45594</v>
       </c>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="24" t="s">
-        <v>173</v>
+      <c r="A21" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="S21" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="U21" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="W21" s="39" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="X21" s="40" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA21" s="63">
+        <v>200</v>
+      </c>
+      <c r="AA21" s="62">
         <v>1972</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE21" s="50">
+        <v>203</v>
+      </c>
+      <c r="AE21" s="49">
         <v>45594</v>
       </c>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="24" t="s">
-        <v>190</v>
+      <c r="A22" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="W22" s="41" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="X22" s="41" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA22" s="64">
+        <v>216</v>
+      </c>
+      <c r="AA22" s="63">
         <v>80</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC22" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC22" s="64" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE22" s="50">
+        <v>218</v>
+      </c>
+      <c r="AE22" s="49">
         <v>45594</v>
       </c>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" s="10" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="24" t="s">
-        <v>207</v>
+      <c r="A28" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="W28" s="42" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="X28" s="42" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA28" s="66">
+        <v>235</v>
+      </c>
+      <c r="AA28" s="65">
         <v>36</v>
       </c>
-      <c r="AB28" s="67" t="s">
+      <c r="AB28" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="67" t="s">
+      <c r="AC28" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE28" s="50">
+      <c r="AD28" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE28" s="49">
         <v>45599</v>
       </c>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="24" t="s">
-        <v>223</v>
+      <c r="A29" s="23" t="s">
+        <v>237</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="U29" s="43" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="W29" s="32" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="X29" s="32" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA29" s="54">
+        <v>249</v>
+      </c>
+      <c r="AA29" s="53">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD29" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE29" s="50">
+        <v>251</v>
+      </c>
+      <c r="AD29" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE29" s="49">
         <v>45599</v>
       </c>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="50"/>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
@@ -4574,152 +4689,152 @@
       </c>
     </row>
     <row r="40" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="24" t="s">
-        <v>239</v>
+      <c r="A40" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="W40" s="44" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="X40" s="44" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA40" s="70">
+        <v>267</v>
+      </c>
+      <c r="AA40" s="69">
         <v>12188</v>
       </c>
       <c r="AB40" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC40" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC40" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="72" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE40" s="50">
+      <c r="AD40" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE40" s="49">
         <v>45599</v>
       </c>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="51"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="50"/>
     </row>
     <row r="41" s="12" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="24" t="s">
-        <v>256</v>
+      <c r="A41" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="W41" s="45" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="X41" s="45" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA41" s="73">
+        <v>282</v>
+      </c>
+      <c r="AA41" s="72">
         <v>959</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="AC41" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD41" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE41" s="50">
+        <v>284</v>
+      </c>
+      <c r="AD41" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE41" s="49">
         <v>45599</v>
       </c>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="51"/>
-      <c r="AL41" s="51"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="51"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="50"/>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="50"/>
+      <c r="AN41" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4755,6 +4870,8 @@
     <hyperlink ref="X29" r:id="rId24" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
     <hyperlink ref="W6" r:id="rId25" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
     <hyperlink ref="X6" r:id="rId26" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
+    <hyperlink ref="W7" r:id="rId27" display="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf" tooltip="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf"/>
+    <hyperlink ref="X7" r:id="rId28" display="https://github.com/aravindsrinivas/flowpp" tooltip="https://github.com/aravindsrinivas/flowpp"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="301">
   <si>
     <t>论文名</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">modeling inefficiencies in prior work on flow models: 
 (1) uniform noise is a suboptimal dequantization choice that hurts both training loss and generalization; (2) commonly used affine coupling flows are not expressive enough; (3) convolutional layers in the conditioning networks of coupling layers are not powerful enough.
 </t>
@@ -653,6 +659,114 @@
     <t>(1) NVIDIA 1080 Ti GPU
 (2) NVIDIA DGX-1
 (3) NVIDIA Titan X GPU</t>
+  </si>
+  <si>
+    <t>Recommendation via Collaborative Autoregressive Flows</t>
+  </si>
+  <si>
+    <t>Collaborative Autoregressive Flows (CAF)</t>
+  </si>
+  <si>
+    <t>(1) School of Information and Software Engineering, University of Electronic Science and Technology of China
+(2) Department of Electrical and Computer Engineering, Iowa State University
+(3) Department of Decision, Operations &amp; Information Technologies, University of Maryland, College Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Networks 2020 </t>
+  </si>
+  <si>
+    <t>推荐系统</t>
+  </si>
+  <si>
+    <t>(1) MovieLens 1M , ML
+(2) CiteULike , CU
+(3) LastFM , LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) user–item interactions
+(2) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> evidence lower bound (ELBO) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: 具体表达式见4.1. Model basics 公式(12)</t>
+    </r>
+  </si>
+  <si>
+    <t>ELBO由两部分组成：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Limitations of Collaborative Filtering (CF): has difficulties in modeling non-linear user–item interactions
+(2) Limitations of Matrix Factorization (MF): may not be able to take full advantage of more complex user-project interactions
+(3) Optimization challenges for in-depth generative models
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose a novel collaborative filtering-like model that leverages the Bayesian inference and autoregressive flows for item recommendation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2)The proposed model allows flexible and tractable probabilistic density estimation by exploiting the flows to approximate the true posterior of stochastic latent factors, largely alleviating the inference bias in existing Bayesian recommendation models and improving the recommendation accuracy.
+(3) Hybridizing two autoregressive flows endows CAF with the benefits of both components, i.e., the efficiency on variational inference and sampling of data.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) P@N (Precision)
+(2) R@N (Recall), 
+(3) nDCG@N (normalized discounted cumulative gain)
+(4) MAP@N (mean average precision)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.neunet.2020.03.010</t>
+  </si>
+  <si>
+    <t>@article{zhou2020recommendation,
+  title={Recommendation via collaborative autoregressive flows},
+  author={Zhou, Fan and Mo, Yuhua and Trajcevski, Goce and Zhang, Kunpeng and Wu, Jin and Zhong, Ting},
+  journal={Neural Networks},
+  volume={126},
+  pages={52--64},
+  year={2020},
+  publisher={Elsevier}
+}</t>
+  </si>
+  <si>
+    <t>a server with two Intel(R) Xeon(R) CPU E5-2630, 128 GB memory, and a single GTX 2080Ti GPU</t>
+  </si>
+  <si>
+    <t>(1) incorporating of temporal fluctuations of the rankings from historic data
+(2) investigating the trade-offs between improving the overall efficiency of CAF and its effectiveness</t>
   </si>
   <si>
     <t>扩散模型</t>
@@ -2282,8 +2396,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2294,8 +2408,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2848,7 +2962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2924,6 +3038,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2951,6 +3068,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3010,9 +3130,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3614,10 +3731,10 @@
   <sheetPr/>
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -3653,25 +3770,25 @@
       <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="15" t="s">
@@ -3680,43 +3797,43 @@
       <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="46" t="s">
+      <c r="AA1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3787,39 +3904,39 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="31" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="48">
+      <c r="AA4" s="50">
         <v>3</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AB4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AC4" s="39" t="s">
         <v>52</v>
       </c>
       <c r="AD4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="49">
+      <c r="AE4" s="51">
         <v>45594</v>
       </c>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
       <c r="A5" s="23" t="s">
@@ -3858,39 +3975,39 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="W5" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="31" t="s">
+      <c r="X5" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AA5" s="53">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AC5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AD5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="49">
+      <c r="AE5" s="51">
         <v>45594</v>
       </c>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
       <c r="A6" s="23" t="s">
@@ -3932,16 +4049,16 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="34" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="53">
+      <c r="AA6" s="55">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -3950,21 +4067,21 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="54" t="s">
+      <c r="AD6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="49">
+      <c r="AE6" s="51">
         <v>45599</v>
       </c>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="52"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
       <c r="A7" s="24" t="s">
@@ -4011,677 +4128,742 @@
       <c r="V7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="31" t="s">
         <v>99</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="48">
+      <c r="AA7" s="50">
         <v>449</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="409.5" spans="1:29">
+      <c r="A8" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="55">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
-      <c r="A16" s="25" t="s">
-        <v>103</v>
+      <c r="A16" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W16" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="X16" s="31" t="s">
-        <v>113</v>
+        <v>126</v>
+      </c>
+      <c r="W16" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA16" s="51">
+        <v>129</v>
+      </c>
+      <c r="AA16" s="53">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD16" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
+        <v>130</v>
+      </c>
+      <c r="AD16" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="360" spans="1:40">
-      <c r="A17" s="26" t="s">
-        <v>117</v>
+      <c r="A17" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="W17" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="X17" s="34" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="W17" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA17" s="55">
+        <v>144</v>
+      </c>
+      <c r="AA17" s="56">
         <v>485</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
+        <v>145</v>
+      </c>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
       <c r="A18" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="U18" s="35" t="s">
-        <v>142</v>
+        <v>156</v>
+      </c>
+      <c r="U18" s="37" t="s">
+        <v>157</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="W18" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="X18" s="36" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="W18" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA18" s="56">
+        <v>161</v>
+      </c>
+      <c r="AA18" s="57">
         <v>45</v>
       </c>
-      <c r="AB18" s="57" t="s">
+      <c r="AB18" s="58" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD18" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE18" s="49">
+        <v>162</v>
+      </c>
+      <c r="AD18" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE18" s="51">
         <v>45599</v>
       </c>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
       <c r="A19" s="23" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="W19" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="X19" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="W19" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" s="39" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA19" s="48">
+        <v>180</v>
+      </c>
+      <c r="AA19" s="50">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AD19" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE19" s="49">
+        <v>183</v>
+      </c>
+      <c r="AE19" s="51">
         <v>45594</v>
       </c>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="360" spans="1:40">
       <c r="A20" s="23" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="W20" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="X20" s="38" t="s">
-        <v>183</v>
+        <v>196</v>
+      </c>
+      <c r="W20" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" s="40" t="s">
+        <v>198</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA20" s="59">
+        <v>199</v>
+      </c>
+      <c r="AA20" s="60">
         <v>417</v>
       </c>
-      <c r="AB20" s="60" t="s">
+      <c r="AB20" s="61" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD20" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE20" s="49">
+        <v>200</v>
+      </c>
+      <c r="AD20" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE20" s="51">
         <v>45594</v>
       </c>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="405" spans="1:40">
       <c r="A21" s="23" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S21" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="U21" s="8" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="W21" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="X21" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="W21" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" s="42" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA21" s="62">
+        <v>215</v>
+      </c>
+      <c r="AA21" s="63">
         <v>1972</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE21" s="49">
+        <v>218</v>
+      </c>
+      <c r="AE21" s="51">
         <v>45594</v>
       </c>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="330" spans="1:40">
       <c r="A22" s="23" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="W22" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="X22" s="41" t="s">
-        <v>215</v>
+        <v>228</v>
+      </c>
+      <c r="W22" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="X22" s="43" t="s">
+        <v>230</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA22" s="63">
+        <v>231</v>
+      </c>
+      <c r="AA22" s="64">
         <v>80</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC22" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC22" s="65" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE22" s="49">
+        <v>233</v>
+      </c>
+      <c r="AE22" s="51">
         <v>45594</v>
       </c>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" s="10" customFormat="1" ht="409.5" spans="1:40">
       <c r="A28" s="23" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="W28" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="X28" s="42" t="s">
-        <v>234</v>
+        <v>247</v>
+      </c>
+      <c r="W28" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" s="44" t="s">
+        <v>249</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA28" s="65">
+        <v>250</v>
+      </c>
+      <c r="AA28" s="66">
         <v>36</v>
       </c>
-      <c r="AB28" s="66" t="s">
+      <c r="AB28" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="66" t="s">
+      <c r="AC28" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE28" s="49">
+      <c r="AD28" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE28" s="51">
         <v>45599</v>
       </c>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="50"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
       <c r="A29" s="23" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="U29" s="43" t="s">
-        <v>245</v>
+        <v>259</v>
+      </c>
+      <c r="U29" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="W29" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="X29" s="32" t="s">
-        <v>248</v>
+        <v>261</v>
+      </c>
+      <c r="W29" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" s="33" t="s">
+        <v>263</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA29" s="53">
+        <v>264</v>
+      </c>
+      <c r="AA29" s="55">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD29" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE29" s="49">
+        <v>266</v>
+      </c>
+      <c r="AD29" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE29" s="51">
         <v>45599</v>
       </c>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="50"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
@@ -4690,151 +4872,151 @@
     </row>
     <row r="40" s="11" customFormat="1" ht="409.5" spans="1:40">
       <c r="A40" s="23" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="W40" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="X40" s="44" t="s">
-        <v>266</v>
+        <v>279</v>
+      </c>
+      <c r="W40" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="X40" s="46" t="s">
+        <v>281</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA40" s="69">
+        <v>282</v>
+      </c>
+      <c r="AA40" s="70">
         <v>12188</v>
       </c>
       <c r="AB40" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC40" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC40" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE40" s="49">
+      <c r="AD40" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE40" s="51">
         <v>45599</v>
       </c>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
-      <c r="AH40" s="50"/>
-      <c r="AI40" s="50"/>
-      <c r="AJ40" s="50"/>
-      <c r="AK40" s="50"/>
-      <c r="AL40" s="50"/>
-      <c r="AM40" s="50"/>
-      <c r="AN40" s="50"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
+      <c r="AM40" s="52"/>
+      <c r="AN40" s="52"/>
     </row>
     <row r="41" s="12" customFormat="1" ht="375" spans="1:40">
       <c r="A41" s="23" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>274</v>
+        <v>288</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="W41" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="X41" s="45" t="s">
-        <v>281</v>
+        <v>294</v>
+      </c>
+      <c r="W41" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" s="47" t="s">
+        <v>296</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA41" s="72">
+        <v>297</v>
+      </c>
+      <c r="AA41" s="73">
         <v>959</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AC41" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD41" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE41" s="49">
+        <v>299</v>
+      </c>
+      <c r="AD41" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE41" s="51">
         <v>45599</v>
       </c>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="50"/>
-      <c r="AJ41" s="50"/>
-      <c r="AK41" s="50"/>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="50"/>
-      <c r="AN41" s="50"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4872,6 +5054,7 @@
     <hyperlink ref="X6" r:id="rId26" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
     <hyperlink ref="W7" r:id="rId27" display="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf" tooltip="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf"/>
     <hyperlink ref="X7" r:id="rId28" display="https://github.com/aravindsrinivas/flowpp" tooltip="https://github.com/aravindsrinivas/flowpp"/>
+    <hyperlink ref="W8" r:id="rId29" display="https://doi.org/10.1016/j.neunet.2020.03.010" tooltip="https://doi.org/10.1016/j.neunet.2020.03.010"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="335">
   <si>
     <t>论文名</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> evidence lower bound (ELBO) 
 </t>
     </r>
@@ -706,6 +712,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Limitations of Collaborative Filtering (CF): has difficulties in modeling non-linear user–item interactions
 (2) Limitations of Matrix Factorization (MF): may not be able to take full advantage of more complex user-project interactions
 (3) Optimization challenges for in-depth generative models
@@ -2158,6 +2170,219 @@
       </rPr>
       <t>DPMs 是采样速度慢，通常需要对大型神经网络进行数百或数千次顺序函数评估才能生成一个样本；现有的 DPMs 快速采样器存在一定局限性，如第一类需要额外且可能昂贵的训练阶段，适用性和灵活性有限；第二类无需训练的采样器仍需约 50 次函数评估才能生成高质量样本，较为耗时
 作者设计了一种用于扩散概率模型采样的快速专用高阶求解器 DPM-Solver</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector Quantized Diffusion Model for Text-to-Image Synthesis
+</t>
+  </si>
+  <si>
+    <t>VQ-Diffusion</t>
+  </si>
+  <si>
+    <t>(1) University of Science and Technology of China 
+(2) Microsoft Research 
+(3) Microsoft Cloud+AI</t>
+  </si>
+  <si>
+    <t>基于文本的图像生成</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) CUB-200
+(2) Oxford-102
+(3) MSCOCO
+(4) Conceptual Captions
+(5) LAION-400M
+(6) ImageNet 
+(7) FFHQ256
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：(4)包括CC3M和CC12M数据集</t>
+    </r>
+  </si>
+  <si>
+    <t>image, text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> text-image pairs</t>
+  </si>
+  <si>
+    <t>High quality images</t>
+  </si>
+  <si>
+    <t>(1)  VQ-VAE 的损失函数：L(VQVAE)
+(2) variational lower bound（用于训练逆扩散过程的变分下界）
+(3) auxiliary denoising objective,</t>
+  </si>
+  <si>
+    <t>(1) 具体表达式见公式2
+(2)具体表达式见公式9
+(3) 具体表达式见公式12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) unidirectional bias:  Existing methods predict pixels or tokens in the reading order, from top-left to bottom-right, based on the attention to all prefix pixels/tokens and the text description. This fixed order introduces unnatural bias in the synthesized images because important contextual information may come from any part of the image, not just from left or above.
+(2) accumulated prediction errors: Each step of the inference stage is performed based on previously sampled tokens – this is different from that of the training stage, which relies on the so-called “teacher-forcing” practice [15] and provides the ground truth for each step. This difference is important and its consequence merits careful examination.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) The VQ Diffusion model includes independent text encoders and diffusion image decoders, eliminating one-way bias.
+(2)The VQ-Diffusion model, with its mask-and-replace diffusion strategy,  avoids the accumulation of errors.
+(3)achieve a better tradeoff between the inference speed and the image quality by a simple reparameterization of the diffusion image decoder.</t>
+    </r>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/CVPR2022/papers/Gu_Vector_Quantized_Diffusion_Model_for_Text-to-Image_Synthesis_CVPR_2022_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/cientgu/VQ-Diffusion</t>
+  </si>
+  <si>
+    <t>@inproceedings{gu2022vector,
+  title={Vector quantized diffusion model for text-to-image synthesis},
+  author={Gu, Shuyang and Chen, Dong and Bao, Jianmin and Wen, Fang and Zhang, Bo and Chen, Dongdong and Yuan, Lu and Guo, Baining},
+  booktitle={Proceedings of the IEEE/CVF conference on computer vision and pattern recognition},
+  pages={10696--10706},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现有的文本到图像生成方法有两大问题：单向偏见和累积的预测误差。
+作者提出了VQDiffusion，不仅消除了上述两个问题，还提高生成图像的效率</t>
+    </r>
+  </si>
+  <si>
+    <t>音乐音频生成</t>
+  </si>
+  <si>
+    <t>ProDiff: Progressive Fast Diffusion Model for High-Quality Text-to-Speech</t>
+  </si>
+  <si>
+    <t>ProDiff</t>
+  </si>
+  <si>
+    <t>Zhejiang University</t>
+  </si>
+  <si>
+    <t>Proceedings of the 30th ACM International Conference on Multimedia, 2022</t>
+  </si>
+  <si>
+    <t>语音合成</t>
+  </si>
+  <si>
+    <t>音频数据、文本数据</t>
+  </si>
+  <si>
+    <t>speech and text data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">音频波形
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：由生成的梅尔谱图合成为音频波形</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Sample Reconstruction Loss 
+(2)Structural Similarity Index (SSIM) Loss
+(3) Variance Reconstruction Loss </t>
+  </si>
+  <si>
+    <t>(2) the state-of-the-art perceptual metrics</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) previous gradient-based TTS models require hundreds or thousands of iterations to guarantee high sample quality, which poses a challenge for accelerating sampling
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) propose ProDiff, on progressive fast diffusion model for
+high-quality text-to-speech
+(2) To avoid significant degradation of perceptual quality when reducing reverse iterations, ProDiff directly predicts clean data  and frees from estimating the gradient for score matching; 
+(3) To tackle the model convergence challenge with decreased diffusion iterations, ProDiff reduces the data variance in the target side via knowledge distillation. </t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Mean Opinion Score , MOS
+(2) Mel-cepstral distortion , MCD
+(3) Short-time objective intelligibility , STOI
+(4) Perceptual evaluation of speech quality , PESQ
+(5) Number of Statistically-Different Bins , NDB
+(6) Jensen-Shannon divergence , JSD</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2207.06389</t>
+  </si>
+  <si>
+    <t>https://github.com/rongjiehuang/prodiff</t>
+  </si>
+  <si>
+    <t>@inproceedings{huang2022prodiff,
+  title={Prodiff: Progressive fast diffusion model for high-quality text-to-speech},
+  author={Huang, Rongjie and Zhao, Zhou and Liu, Huadai and Liu, Jinglin and Cui, Chenye and Ren, Yi},
+  booktitle={Proceedings of the 30th ACM International Conference on Multimedia},
+  pages={2595--2605},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t>NVIDIA 2080Ti GPU</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：我们发现以前基于梯度的TTS模型需要数百或数千次迭代才能保证高样本质量，这对加速采样提出了挑战。
+作者提出了ProDiff，一个用于高质量文本到语音的渐进式快速扩散模型</t>
     </r>
   </si>
 </sst>
@@ -2171,7 +2396,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2250,6 +2475,14 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2413,7 +2646,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,6 +2716,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEFDCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,76 +3077,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2910,10 +3149,10 @@
     <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2922,10 +3161,10 @@
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2934,10 +3173,10 @@
     <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2946,10 +3185,10 @@
     <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2958,11 +3197,17 @@
     <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3002,19 +3247,25 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3050,10 +3301,13 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3107,7 +3361,16 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3170,7 +3433,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3186,6 +3449,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3729,127 +4016,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="AF42" sqref="AF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="13" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="15" customWidth="1"/>
     <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="49" t="s">
+      <c r="AD1" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3859,7 +4146,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3904,42 +4191,42 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="34" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="50">
+      <c r="AA4" s="56">
         <v>3</v>
       </c>
-      <c r="AB4" s="39" t="s">
+      <c r="AB4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="39" t="s">
+      <c r="AC4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AD4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="51">
+      <c r="AE4" s="57">
         <v>45594</v>
       </c>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3975,42 +4262,42 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="X5" s="35" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="AA5" s="59">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="54" t="s">
+      <c r="AC5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="26" t="s">
+      <c r="AD5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="51">
+      <c r="AE5" s="57">
         <v>45594</v>
       </c>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4049,16 +4336,16 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="X6" s="37" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="55">
+      <c r="AA6" s="61">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -4067,24 +4354,24 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD6" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="51">
+      <c r="AE6" s="57">
         <v>45599</v>
       </c>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4128,17 +4415,17 @@
       <c r="V7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="31" t="s">
+      <c r="W7" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="34" t="s">
         <v>99</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="50">
+      <c r="AA7" s="56">
         <v>449</v>
       </c>
       <c r="AB7" s="2" t="s">
@@ -4146,7 +4433,7 @@
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:29">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4190,17 +4477,17 @@
       <c r="V8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="38" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="55">
+      <c r="AA8" s="61">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -4216,7 +4503,7 @@
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4243,37 +4530,37 @@
       <c r="V16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="W16" s="32" t="s">
+      <c r="W16" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="35" t="s">
         <v>128</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AA16" s="53">
+      <c r="AA16" s="59">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD16" s="26" t="s">
+      <c r="AD16" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="360" spans="1:40">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4303,34 +4590,34 @@
       <c r="V17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="W17" s="36" t="s">
+      <c r="W17" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="X17" s="36" t="s">
+      <c r="X17" s="39" t="s">
         <v>143</v>
       </c>
       <c r="Y17" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AA17" s="56">
+      <c r="AA17" s="62">
         <v>485</v>
       </c>
       <c r="AB17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="52"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -4363,48 +4650,48 @@
       <c r="P18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="U18" s="37" t="s">
+      <c r="U18" s="40" t="s">
         <v>157</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="W18" s="38" t="s">
+      <c r="W18" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="X18" s="38" t="s">
+      <c r="X18" s="41" t="s">
         <v>160</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AA18" s="57">
+      <c r="AA18" s="63">
         <v>45</v>
       </c>
-      <c r="AB18" s="58" t="s">
+      <c r="AB18" s="64" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AD18" s="59" t="s">
+      <c r="AD18" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="AE18" s="51">
+      <c r="AE18" s="57">
         <v>45599</v>
       </c>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4452,16 +4739,16 @@
       <c r="V19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="W19" s="31" t="s">
+      <c r="W19" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="X19" s="39" t="s">
+      <c r="X19" s="42" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AA19" s="50">
+      <c r="AA19" s="56">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
@@ -4470,24 +4757,24 @@
       <c r="AC19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AD19" s="24" t="s">
+      <c r="AD19" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="AE19" s="51">
+      <c r="AE19" s="57">
         <v>45594</v>
       </c>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="25" t="s">
         <v>184</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -4531,42 +4818,42 @@
       <c r="V20" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="W20" s="40" t="s">
+      <c r="W20" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="X20" s="43" t="s">
         <v>198</v>
       </c>
       <c r="Y20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AA20" s="60">
+      <c r="AA20" s="66">
         <v>417</v>
       </c>
-      <c r="AB20" s="61" t="s">
+      <c r="AB20" s="67" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AD20" s="62" t="s">
+      <c r="AD20" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="AE20" s="51">
+      <c r="AE20" s="57">
         <v>45594</v>
       </c>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="25" t="s">
         <v>202</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -4608,16 +4895,16 @@
       <c r="V21" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="W21" s="41" t="s">
+      <c r="W21" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="X21" s="42" t="s">
+      <c r="X21" s="45" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AA21" s="63">
+      <c r="AA21" s="69">
         <v>1972</v>
       </c>
       <c r="AB21" s="8" t="s">
@@ -4629,21 +4916,21 @@
       <c r="AD21" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AE21" s="51">
+      <c r="AE21" s="57">
         <v>45594</v>
       </c>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
         <v>219</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -4676,39 +4963,39 @@
       <c r="V22" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="W22" s="43" t="s">
+      <c r="W22" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="X22" s="43" t="s">
+      <c r="X22" s="46" t="s">
         <v>230</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="AA22" s="64">
+      <c r="AA22" s="70">
         <v>80</v>
       </c>
       <c r="AB22" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="AC22" s="65" t="s">
+      <c r="AC22" s="71" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="AE22" s="51">
+      <c r="AE22" s="57">
         <v>45594</v>
       </c>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
@@ -4721,7 +5008,7 @@
       </c>
     </row>
     <row r="28" s="10" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>236</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -4757,42 +5044,42 @@
       <c r="V28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="W28" s="44" t="s">
+      <c r="W28" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="X28" s="44" t="s">
+      <c r="X28" s="47" t="s">
         <v>249</v>
       </c>
       <c r="Y28" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AA28" s="66">
+      <c r="AA28" s="72">
         <v>36</v>
       </c>
-      <c r="AB28" s="67" t="s">
+      <c r="AB28" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="67" t="s">
+      <c r="AC28" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="68" t="s">
+      <c r="AD28" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="AE28" s="51">
+      <c r="AE28" s="57">
         <v>45599</v>
       </c>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="58"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="58"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>252</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -4825,22 +5112,22 @@
       <c r="P29" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="U29" s="45" t="s">
+      <c r="U29" s="48" t="s">
         <v>260</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W29" s="33" t="s">
+      <c r="W29" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="X29" s="33" t="s">
+      <c r="X29" s="36" t="s">
         <v>263</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AA29" s="55">
+      <c r="AA29" s="61">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
@@ -4849,21 +5136,21 @@
       <c r="AC29" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AD29" s="69" t="s">
+      <c r="AD29" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="AE29" s="51">
+      <c r="AE29" s="57">
         <v>45599</v>
       </c>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="52"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="58"/>
+      <c r="AK29" s="58"/>
+      <c r="AL29" s="58"/>
+      <c r="AM29" s="58"/>
+      <c r="AN29" s="58"/>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
@@ -4871,7 +5158,7 @@
       </c>
     </row>
     <row r="40" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="25" t="s">
         <v>268</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -4910,42 +5197,42 @@
       <c r="V40" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="W40" s="46" t="s">
+      <c r="W40" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="X40" s="46" t="s">
+      <c r="X40" s="49" t="s">
         <v>281</v>
       </c>
       <c r="Y40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AA40" s="70">
+      <c r="AA40" s="76">
         <v>12188</v>
       </c>
       <c r="AB40" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AC40" s="71" t="s">
+      <c r="AC40" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="72" t="s">
+      <c r="AD40" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="AE40" s="51">
+      <c r="AE40" s="57">
         <v>45599</v>
       </c>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52"/>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="52"/>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="52"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="58"/>
+      <c r="AJ40" s="58"/>
+      <c r="AK40" s="58"/>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="58"/>
+      <c r="AN40" s="58"/>
     </row>
     <row r="41" s="12" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="25" t="s">
         <v>285</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -4960,7 +5247,7 @@
       <c r="E41" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="30" t="s">
         <v>289</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -4984,16 +5271,16 @@
       <c r="V41" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="W41" s="47" t="s">
+      <c r="W41" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="X41" s="47" t="s">
+      <c r="X41" s="50" t="s">
         <v>296</v>
       </c>
       <c r="Y41" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AA41" s="73">
+      <c r="AA41" s="79">
         <v>959</v>
       </c>
       <c r="AB41" s="12" t="s">
@@ -5002,21 +5289,176 @@
       <c r="AC41" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="AD41" s="74" t="s">
+      <c r="AD41" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="AE41" s="51">
+      <c r="AE41" s="57">
         <v>45599</v>
       </c>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="52"/>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52"/>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="58"/>
+    </row>
+    <row r="42" s="13" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A42" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="W42" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="X42" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y42" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="81">
+        <v>742</v>
+      </c>
+      <c r="AB42" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC42" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD42" s="83" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE42" s="84">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" s="14" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A48" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q48" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="V48" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="W48" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="X48" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y48" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="85">
+        <v>162</v>
+      </c>
+      <c r="AB48" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC48" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD48" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE48" s="88">
+        <v>45602</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5055,6 +5497,10 @@
     <hyperlink ref="W7" r:id="rId27" display="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf" tooltip="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf"/>
     <hyperlink ref="X7" r:id="rId28" display="https://github.com/aravindsrinivas/flowpp" tooltip="https://github.com/aravindsrinivas/flowpp"/>
     <hyperlink ref="W8" r:id="rId29" display="https://doi.org/10.1016/j.neunet.2020.03.010" tooltip="https://doi.org/10.1016/j.neunet.2020.03.010"/>
+    <hyperlink ref="W48" r:id="rId30" display="https://arxiv.org/pdf/2207.06389" tooltip="https://arxiv.org/pdf/2207.06389"/>
+    <hyperlink ref="X48" r:id="rId31" display="https://github.com/rongjiehuang/prodiff" tooltip="https://github.com/rongjiehuang/prodiff"/>
+    <hyperlink ref="W42" r:id="rId32" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Gu_Vector_Quantized_Diffusion_Model_for_Text-to-Image_Synthesis_CVPR_2022_paper.pdf"/>
+    <hyperlink ref="X42" r:id="rId33" display="https://github.com/cientgu/VQ-Diffusion" tooltip="https://github.com/cientgu/VQ-Diffusion"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="371">
   <si>
     <t>论文名</t>
   </si>
@@ -1905,6 +1905,131 @@
     </r>
   </si>
   <si>
+    <t>Autoregressive denoising diffusion models for multivariate probabilistic time series forecasting</t>
+  </si>
+  <si>
+    <t>TimeGrad</t>
+  </si>
+  <si>
+    <t>Zalando Research, Mühlenstraße 25, 10243 Berlin, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PMLR 2021</t>
+  </si>
+  <si>
+    <t>多变量概率时间序列预测</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Exchange
+(2) Solar 
+(3) Electricity
+(4) Traffic
+(5) Taxi
+(6) Wikipedia
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS:数据集链接，前两个只有文献引用
+(3) https://archive.ics.uci.edu/ml/datasets/
+ElectricityLoadDiagrams20112014
+(4) https://archive.ics.uci.edu/ml/datasets/
+PEMS-SF
+(5) https://www1.nyc.gov/site/tlc/about/
+tlc-trip-record-data.page
+(6) https://github.com/mbohlkeschneider/
+gluon-ts/tree/mv_release/datasets</t>
+    </r>
+  </si>
+  <si>
+    <t>Time-Series</t>
+  </si>
+  <si>
+    <t>预测的时间序列</t>
+  </si>
+  <si>
+    <t>MSE
+基于预测噪声与真实噪声的均方误差</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Classic time series prediction methods typically provide univariate point predictions and require separate modeling for each time series, which is impractical when the dataset contains millions of sequences
+(2) Probability models in existing deep learning methods require some assumptions about data distribution, and energy based methods are difficult to train
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) TimeGrad combines the advantages of autoregression and EBM, and achieves computational feasibility</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1) Continuous Ranked Probability Score , CRPS
+(2) the sum of all time series dimensions , CRPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+  </si>
+  <si>
+    <t>https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/zalandoresearch/pytorch-ts</t>
+  </si>
+  <si>
+    <t>@inproceedings{rasul2021autoregressive,
+  title={Autoregressive denoising diffusion models for multivariate probabilistic time series forecasting},
+  author={Rasul, Kashif and Seward, Calvin and Schuster, Ingmar and Vollgraf, Roland},
+  booktitle={International Conference on Machine Learning},
+  pages={8857--8868},
+  year={2021},
+  organization={PMLR}
+}</t>
+  </si>
+  <si>
+    <t>Nvidia V100 GPU with
+16GB of memory</t>
+  </si>
+  <si>
+    <t>(1) improve sampling times
+(2) Dequantization is not needed in the EBM setting and future work could explore methods of explicitly modeling discrete distributions
+(4) EBMs penalize high probability under the model but low probability under the data distribution explicitly. Future work could evaluate the usage of TimeGrad for anomaly detection tasks.
+(3) Since EBMs are not constrained by the form of their functional approximators, one natural way to improve the model would be to incorporate architectural choices that best encode the inductive bias of the problem being tackled.</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经典的时间序列预测方法通常提供单变量点预测，并要求对每个时间序列进行单独建模，当数据集包含数百万个序列时，这是不切实际的，现有的深度学习方法中概率模型需要对数据分布做一些假设，基于能量的方法难以训练
+作者提出 TimeGrad 模型，这是一种用于多元概率时间序列预测的自回归模型</t>
+    </r>
+  </si>
+  <si>
     <t>High-Resolution Image Synthesis with Latent Diffusion Models</t>
   </si>
   <si>
@@ -2189,6 +2314,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) CUB-200
 (2) Oxford-102
 (3) MSCOCO
@@ -2229,6 +2360,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) unidirectional bias:  Existing methods predict pixels or tokens in the reading order, from top-left to bottom-right, based on the attention to all prefix pixels/tokens and the text description. This fixed order introduces unnatural bias in the synthesized images because important contextual information may come from any part of the image, not just from left or above.
 (2) accumulated prediction errors: Each step of the inference stage is performed based on previously sampled tokens – this is different from that of the training stage, which relies on the so-called “teacher-forcing” practice [15] and provides the ground truth for each step. This difference is important and its consequence merits careful examination.
 </t>
@@ -2265,6 +2402,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -2304,6 +2448,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">音频波形
 </t>
     </r>
@@ -2327,6 +2477,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) previous gradient-based TTS models require hundreds or thousands of iterations to guarantee high sample quality, which poses a challenge for accelerating sampling
 </t>
     </r>
@@ -2372,6 +2528,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战</t>
     </r>
     <r>
@@ -2383,6 +2546,109 @@
       </rPr>
       <t>：我们发现以前基于梯度的TTS模型需要数百或数千次迭代才能保证高样本质量，这对加速采样提出了挑战。
 作者提出了ProDiff，一个用于高质量文本到语音的渐进式快速扩散模型</t>
+    </r>
+  </si>
+  <si>
+    <t>DIFFWAVE: A VERSATILE DIFFUSION MODEL FOR AUDIO SYNTHESIS</t>
+  </si>
+  <si>
+    <t>DiffWave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Computer Science and Engineering, UCSD
+(2) Baidu Research
+(3) NVIDIA
+</t>
+  </si>
+  <si>
+    <t>ICLR 2021</t>
+  </si>
+  <si>
+    <t>高质量音频合成</t>
+  </si>
+  <si>
+    <t>(1) LJ speech dataset
+(2) Speech Commands dataset</t>
+  </si>
+  <si>
+    <t>音频数据</t>
+  </si>
+  <si>
+    <t>原始音频数据</t>
+  </si>
+  <si>
+    <t>音频波形</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unweighted variant of the ELBO
+</t>
+  </si>
+  <si>
+    <t>具体表达式见第二章公式7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Most of previous waveform models focus on audio synthesis with informative local conditioner
+(2) autoregressive models tend to generate made-up word-like sounds , or inferior samples  under unconditional settings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Innovation points of DiffWave model:
+(1) It is non-autoregressive thus can synthesize high-dimensional waveform in parallel
+(2)  It is flexible as it does not impose any architectural constraints in contrast to flow-based models
+(3) It uses a single ELBO-based training objective without any auxiliary losses
+(4) It is a versatile model that produces high-quality audio signals for both conditional and unconditional waveform generation</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Fréchet Inception Distance , FID
+(2) Inception Score , IS
+(3) Modified Inception Score , mIS
+(4) AM Score
+(5) Number of Statistically-Different Bins , NDB
+(6)Mean Opinion Scores , MOS </t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2009.09761</t>
+  </si>
+  <si>
+    <t>https://github.com/lmnt-com/diffwave</t>
+  </si>
+  <si>
+    <t>@article{kong2020diffwave,
+  title={Diffwave: A versatile diffusion model for audio synthesis},
+  author={Kong, Zhifeng and Ping, Wei and Huang, Jiaji and Zhao, Kexin and Catanzaro, Bryan},
+  journal={arXiv preprint arXiv:2009.09761},
+  year={2020}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 Nvidia 2080Ti GPUs</t>
+  </si>
+  <si>
+    <t>(1) push the model to generate longer utterances
+(2) optimizing the inference speed would be beneficial for applying the model in production TTS
+(3) stash the parameters on-chip would largely speed-up inference on GPUs</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>音频合成中存在的一些挑战，如大多数先前的波形模型在无条件生成任务中表现不佳，自回归模型在无条件设置下倾向于生成虚假的声音或质量较差的样本；同时，现有的一些模型存在训练复杂、需要辅助损失
+作者提出了一个用于条件和无条件波形生成的扩散概率模型DiffWave，该模型在音频合成任务中表现出高效和高质量</t>
     </r>
   </si>
 </sst>
@@ -2396,7 +2662,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2629,12 +2895,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -2645,8 +2905,20 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2709,6 +2981,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2727,12 +3005,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2746,6 +3018,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2913,12 +3197,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3083,7 +3361,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3107,16 +3385,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3125,89 +3403,89 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3298,10 +3576,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3355,7 +3636,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3367,7 +3648,7 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3439,28 +3720,22 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3473,6 +3748,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4016,12 +4297,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AF42" sqref="AF42"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
@@ -4057,25 +4338,25 @@
       <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="17" t="s">
@@ -4084,43 +4365,43 @@
       <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AA1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="55" t="s">
+      <c r="AD1" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4191,39 +4472,39 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="X4" s="35" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="56">
+      <c r="AA4" s="57">
         <v>3</v>
       </c>
-      <c r="AB4" s="42" t="s">
+      <c r="AB4" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="42" t="s">
+      <c r="AC4" s="43" t="s">
         <v>52</v>
       </c>
       <c r="AD4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="57">
+      <c r="AE4" s="58">
         <v>45594</v>
       </c>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
       <c r="A5" s="25" t="s">
@@ -4262,39 +4543,39 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="X5" s="36" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="59">
+      <c r="AA5" s="60">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="60" t="s">
+      <c r="AC5" s="61" t="s">
         <v>52</v>
       </c>
       <c r="AD5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="57">
+      <c r="AE5" s="58">
         <v>45594</v>
       </c>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
       <c r="A6" s="25" t="s">
@@ -4336,16 +4617,16 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="36" t="s">
+      <c r="W6" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="37" t="s">
+      <c r="X6" s="38" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="61">
+      <c r="AA6" s="62">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -4357,18 +4638,18 @@
       <c r="AD6" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="57">
+      <c r="AE6" s="58">
         <v>45599</v>
       </c>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="58"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
       <c r="A7" s="26" t="s">
@@ -4415,17 +4696,17 @@
       <c r="V7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="X7" s="34" t="s">
+      <c r="X7" s="35" t="s">
         <v>99</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="56">
+      <c r="AA7" s="57">
         <v>449</v>
       </c>
       <c r="AB7" s="2" t="s">
@@ -4477,17 +4758,17 @@
       <c r="V8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W8" s="36" t="s">
+      <c r="W8" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="39" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="61">
+      <c r="AA8" s="62">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -4530,16 +4811,16 @@
       <c r="V16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="36" t="s">
         <v>128</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AA16" s="59">
+      <c r="AA16" s="60">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
@@ -4548,16 +4829,16 @@
       <c r="AD16" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="59"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="360" spans="1:40">
       <c r="A17" s="29" t="s">
@@ -4590,31 +4871,31 @@
       <c r="V17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="W17" s="39" t="s">
+      <c r="W17" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="X17" s="39" t="s">
+      <c r="X17" s="40" t="s">
         <v>143</v>
       </c>
       <c r="Y17" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AA17" s="62">
+      <c r="AA17" s="63">
         <v>485</v>
       </c>
       <c r="AB17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
       <c r="A18" s="25" t="s">
@@ -4650,45 +4931,45 @@
       <c r="P18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="U18" s="40" t="s">
+      <c r="U18" s="41" t="s">
         <v>157</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="W18" s="41" t="s">
+      <c r="W18" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="X18" s="41" t="s">
+      <c r="X18" s="42" t="s">
         <v>160</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AA18" s="63">
+      <c r="AA18" s="64">
         <v>45</v>
       </c>
-      <c r="AB18" s="64" t="s">
+      <c r="AB18" s="65" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AD18" s="65" t="s">
+      <c r="AD18" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="AE18" s="57">
+      <c r="AE18" s="58">
         <v>45599</v>
       </c>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
       <c r="A19" s="25" t="s">
@@ -4739,16 +5020,16 @@
       <c r="V19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="W19" s="34" t="s">
+      <c r="W19" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="X19" s="42" t="s">
+      <c r="X19" s="43" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AA19" s="56">
+      <c r="AA19" s="57">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
@@ -4760,18 +5041,18 @@
       <c r="AD19" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="AE19" s="57">
+      <c r="AE19" s="58">
         <v>45594</v>
       </c>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="360" spans="1:40">
       <c r="A20" s="25" t="s">
@@ -4818,39 +5099,39 @@
       <c r="V20" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="W20" s="43" t="s">
+      <c r="W20" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="X20" s="43" t="s">
+      <c r="X20" s="44" t="s">
         <v>198</v>
       </c>
       <c r="Y20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AA20" s="66">
+      <c r="AA20" s="67">
         <v>417</v>
       </c>
-      <c r="AB20" s="67" t="s">
+      <c r="AB20" s="68" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AD20" s="68" t="s">
+      <c r="AD20" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="AE20" s="57">
+      <c r="AE20" s="58">
         <v>45594</v>
       </c>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="405" spans="1:40">
       <c r="A21" s="25" t="s">
@@ -4895,16 +5176,16 @@
       <c r="V21" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="W21" s="44" t="s">
+      <c r="W21" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="X21" s="45" t="s">
+      <c r="X21" s="46" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AA21" s="69">
+      <c r="AA21" s="70">
         <v>1972</v>
       </c>
       <c r="AB21" s="8" t="s">
@@ -4916,18 +5197,18 @@
       <c r="AD21" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AE21" s="57">
+      <c r="AE21" s="58">
         <v>45594</v>
       </c>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="330" spans="1:40">
       <c r="A22" s="25" t="s">
@@ -4963,39 +5244,39 @@
       <c r="V22" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="W22" s="46" t="s">
+      <c r="W22" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="X22" s="46" t="s">
+      <c r="X22" s="47" t="s">
         <v>230</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="AA22" s="70">
+      <c r="AA22" s="71">
         <v>80</v>
       </c>
       <c r="AB22" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="AC22" s="71" t="s">
+      <c r="AC22" s="72" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="AE22" s="57">
+      <c r="AE22" s="58">
         <v>45594</v>
       </c>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
@@ -5044,39 +5325,39 @@
       <c r="V28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="W28" s="47" t="s">
+      <c r="W28" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="X28" s="47" t="s">
+      <c r="X28" s="48" t="s">
         <v>249</v>
       </c>
       <c r="Y28" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AA28" s="72">
+      <c r="AA28" s="73">
         <v>36</v>
       </c>
-      <c r="AB28" s="73" t="s">
+      <c r="AB28" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="73" t="s">
+      <c r="AC28" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="74" t="s">
+      <c r="AD28" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="AE28" s="57">
+      <c r="AE28" s="58">
         <v>45599</v>
       </c>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
       <c r="A29" s="25" t="s">
@@ -5112,22 +5393,22 @@
       <c r="P29" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="U29" s="48" t="s">
+      <c r="U29" s="49" t="s">
         <v>260</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W29" s="36" t="s">
+      <c r="W29" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="X29" s="36" t="s">
+      <c r="X29" s="37" t="s">
         <v>263</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AA29" s="61">
+      <c r="AA29" s="62">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
@@ -5136,328 +5417,474 @@
       <c r="AC29" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AD29" s="75" t="s">
+      <c r="AD29" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="AE29" s="57">
+      <c r="AE29" s="58">
         <v>45599</v>
       </c>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="58"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+    </row>
+    <row r="30" s="11" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A30" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="W30" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="77">
+        <v>290</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD30" s="78" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="11" customFormat="1" ht="409.5" spans="1:40">
+    <row r="40" s="12" customFormat="1" ht="409.5" spans="1:40">
       <c r="A40" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E40" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="U40" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="W40" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="X40" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y40" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA40" s="76">
+      <c r="F40" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="W40" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="X40" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA40" s="79">
         <v>12188</v>
       </c>
-      <c r="AB40" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC40" s="77" t="s">
+      <c r="AB40" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC40" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE40" s="57">
+      <c r="AD40" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE40" s="58">
         <v>45599</v>
       </c>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="58"/>
-      <c r="AJ40" s="58"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="58"/>
-      <c r="AN40" s="58"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
     </row>
-    <row r="41" s="12" customFormat="1" ht="375" spans="1:40">
+    <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
       <c r="A41" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W41" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="X41" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA41" s="82">
+        <v>959</v>
+      </c>
+      <c r="AB41" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC41" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD41" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE41" s="58">
+        <v>45599</v>
+      </c>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+    </row>
+    <row r="42" s="14" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A42" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="U41" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="V41" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="W41" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="X41" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y41" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA41" s="79">
-        <v>959</v>
-      </c>
-      <c r="AB41" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC41" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD41" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE41" s="57">
-        <v>45599</v>
-      </c>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="58"/>
-    </row>
-    <row r="42" s="13" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V42" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="W42" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="X42" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y42" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="81">
+      <c r="F42" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="V42" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="W42" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="X42" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y42" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="84">
         <v>742</v>
       </c>
-      <c r="AB42" s="82" t="s">
+      <c r="AB42" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="82" t="s">
+      <c r="AC42" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="83" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE42" s="84">
+      <c r="AD42" s="86" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE42" s="87">
         <v>45602</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="48" s="14" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="14" t="s">
+    <row r="48" s="9" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A48" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q48" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="V48" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="W48" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="X48" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y48" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="85">
+      <c r="H48" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="W48" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="X48" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y48" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="71">
         <v>162</v>
       </c>
-      <c r="AB48" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC48" s="86" t="s">
+      <c r="AB48" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC48" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="87" t="s">
+      <c r="AD48" s="88" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE48" s="89">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A49" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AE48" s="88">
-        <v>45602</v>
+      <c r="F49" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="W49" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="X49" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="57">
+        <v>1295</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD49" s="26" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5501,6 +5928,10 @@
     <hyperlink ref="X48" r:id="rId31" display="https://github.com/rongjiehuang/prodiff" tooltip="https://github.com/rongjiehuang/prodiff"/>
     <hyperlink ref="W42" r:id="rId32" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Gu_Vector_Quantized_Diffusion_Model_for_Text-to-Image_Synthesis_CVPR_2022_paper.pdf"/>
     <hyperlink ref="X42" r:id="rId33" display="https://github.com/cientgu/VQ-Diffusion" tooltip="https://github.com/cientgu/VQ-Diffusion"/>
+    <hyperlink ref="W49" r:id="rId34" display="https://arxiv.org/pdf/2009.09761" tooltip="https://arxiv.org/pdf/2009.09761"/>
+    <hyperlink ref="X49" r:id="rId35" display="https://github.com/lmnt-com/diffwave" tooltip="https://github.com/lmnt-com/diffwave"/>
+    <hyperlink ref="W30" r:id="rId36" display="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf" tooltip="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf"/>
+    <hyperlink ref="X30" r:id="rId37" display="https://github.com/zalandoresearch/pytorch-ts" tooltip="https://github.com/zalandoresearch/pytorch-ts"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="421">
   <si>
     <t>论文名</t>
   </si>
@@ -1921,6 +1921,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Exchange
 (2) Solar 
 (3) Electricity
@@ -1959,6 +1965,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Classic time series prediction methods typically provide univariate point predictions and require separate modeling for each time series, which is impractical when the dataset contains millions of sequences
 (2) Probability models in existing deep learning methods require some assumptions about data distribution, and energy based methods are difficult to train
 </t>
@@ -1975,6 +1987,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) Continuous Ranked Probability Score , CRPS
 (2) the sum of all time series dimensions , CRPS</t>
     </r>
@@ -2016,6 +2034,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -2423,6 +2448,104 @@
     </r>
   </si>
   <si>
+    <t>Image super-resolution via iterative refinement</t>
+  </si>
+  <si>
+    <t>SR3</t>
+  </si>
+  <si>
+    <t>(1) Google Research, Brain Team, Toronto, ON, Canada
+(2) University of Toronto</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON PATTERN ANALYSIS AND MACHINE INTELLIGENCE, VOL. 45, NO. 4, APRIL 2023</t>
+  </si>
+  <si>
+    <t>图像超分辨率</t>
+  </si>
+  <si>
+    <t>(1) FFHQ
+(2) CelebA-HQ
+(3) ImageNet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">低分辨率图像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：训练中是给原图像填上噪声，生成超分辨率图像，最后进行评估</t>
+    </r>
+  </si>
+  <si>
+    <t>Variational lower bound</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) multiple output images may be consistent with a single input image, and the conditional distribution of output images given the input typically does not conform well to simple parametric distributions.
+(2) Existing
+techniques often suffer from various limitations; autoregressive models are prohibitively expensive for high-resolution
+image generation, NFs and VAEs often yield sub-optimal
+sample quality, and GANs require carefully designed regularization and optimization tricks to tame optimization
+instability and mode collapse.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) SR3 models work well across a range of magnification factors and input resolutions  , and they can be cascaded(enable more efficient inference)
+(2) SR3 is a method of achieving image super-resolution through iterative refinement
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) human evaluation (fool rate)
+(2) FID scores
+(3) classification accuracy of a pretrained model on super-resolution outputs
+(4) PSNR
+(5) SSIM
+</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9887996</t>
+  </si>
+  <si>
+    <t>https://github.com/Janspiry/Image-Super-Resolution-via-Iterative-Refinement?tab=readme-ov-file</t>
+  </si>
+  <si>
+    <t>@article{saharia2022image,
+  title={Image super-resolution via iterative refinement},
+  author={Saharia, Chitwan and Ho, Jonathan and Chan, William and Salimans, Tim and Fleet, David J and Norouzi, Mohammad},
+  journal={IEEE transactions on pattern analysis and machine intelligence},
+  volume={45},
+  number={4},
+  pages={4713--4726},
+  year={2022},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>64 TPUv3 chips</t>
+  </si>
+  <si>
+    <t>(1) Reduce bias in the generated model
+(2) Improve the use of self attention and solve the problem of limiting the output dimensions of the model</t>
+  </si>
+  <si>
+    <t>挑战：在图像超分辨任务中，基于简单的回归模型容易丢失高频细节的问题，而生成类模型能够学习到图像的复杂经验分布，在超分辨任务中效果显著。然而，生成模型，例如自回归模型对于高分辨率图像生成来说是非常昂贵的，NFs和vae通常会产生次优的样本质量，而gan需要精心设计正则化和优化技巧来驯服优化不稳定性和模态崩溃。
+作者提出了SR3，SR3是一种通过迭代细化来实现图像超分辨率的方法</t>
+  </si>
+  <si>
     <t>音乐音频生成</t>
   </si>
   <si>
@@ -2588,6 +2711,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Most of previous waveform models focus on audio synthesis with informative local conditioner
 (2) autoregressive models tend to generate made-up word-like sounds , or inferior samples  under unconditional settings
 </t>
@@ -2638,6 +2767,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -2649,6 +2785,227 @@
       </rPr>
       <t>音频合成中存在的一些挑战，如大多数先前的波形模型在无条件生成任务中表现不佳，自回归模型在无条件设置下倾向于生成虚假的声音或质量较差的样本；同时，现有的一些模型存在训练复杂、需要辅助损失
 作者提出了一个用于条件和无条件波形生成的扩散概率模型DiffWave，该模型在音频合成任务中表现出高效和高质量</t>
+    </r>
+  </si>
+  <si>
+    <t>Autoregressive Diffusion Model for Graph Generation</t>
+  </si>
+  <si>
+    <t>GRAPHARM</t>
+  </si>
+  <si>
+    <t>School of Computational Science and Engineering, Georgia Institute of Technology, Atlanta, USA</t>
+  </si>
+  <si>
+    <t>ICML 2023</t>
+  </si>
+  <si>
+    <t>基于自回归扩散模型的图生成</t>
+  </si>
+  <si>
+    <t>(1) Community-small
+(2) Caveman
+(3) Cora
+(4) Breast
+(5) Enzymes
+(6) Ego-small
+(7) QM9
+(8) ZINC250K</t>
+  </si>
+  <si>
+    <t>图</t>
+  </si>
+  <si>
+    <t>图结构</t>
+  </si>
+  <si>
+    <t>新生成的图结构</t>
+  </si>
+  <si>
+    <t>variational lower bound</t>
+  </si>
+  <si>
+    <t>具体表达式见公式3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">The drawbacks of  existing diffusion-based graph generative models:
+(1) Generation Efficiency. The sampling processes are slow.
+(2) Incorporating constraints. They are all one-shot generation models and hence cannot easily incorporate constraints during the oneshot generation process.
+(3) Continuous Approximation. convert discrete graphs to continuous state spaces by adding real-valued noise to graph adjacency matrices. Such dequantization can distort the distribution of the original discrete graph structures, thus increasing the difficulty of model training.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) the first autoregressive diffusionbased graph generation model, underpinned by a new node self-absorbing diffusion process.
+(2) GRAPHARM learns a data-dependent node generation ordering and thus better leverages the structural regularities for autoregressive graph diffusion.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Frechet ChemNet Distance , FCD
+(2) Neighborhood subgraph pairwise distance
+kernel (NSPDK) MMD
+(3) Validity :  the fraction of valid molecules without valency correction
+(4) Uniqueness : the fraction of the
+valid molecules that are unique
+(5) Novelty : the fraction of the valid molecules that are not included in the training set.</t>
+  </si>
+  <si>
+    <t>https://proceedings.mlr.press/v202/kong23b/kong23b.pdf</t>
+  </si>
+  <si>
+    <t>@inproceedings{kongautoregressive,
+  title={Autoregressive diffusion model for graph generation, 2023},
+  author={Kong, Lingkai and Cui, Jiaming and Sun, Haotian and Zhuang, Yuchen and Prakash, B Aditya and Zhang, Chao},
+  booktitle={URL https://openreview. net/forum}
+}</t>
+  </si>
+  <si>
+    <t>(1) Handling more complex constraints: practical graph generation applications can involve complex constraints on global-level properties such as number of articulation points, which is challenging for our model and existing graph generative models.
+(2) Optimize memory and time efficiency</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现有基于扩散的图生成模型大多是在去量化邻接矩阵空间中应用高斯扩散的一次性生成模型。导致模型训练困难，采样速度慢，不能结合约束
+作者提出了一种自回归扩散模型用于图的生成，GRAPHARM。主要由扩散排序网络和去噪网络构成，对于正向扩散，设计了一个扩散排序网络，该网络从图拓扑中学习一个数据相关的节点，吸收排序。对于反向生成，设计了一个使用反向节点排序的去噪网络，通过一次预测新节点及其边缘与先前去噪节点的节点类型来有效地重建图。</t>
+    </r>
+  </si>
+  <si>
+    <t>DIFFUSEQ: Sequence to Sequence Text Generation with Diffusion Models</t>
+  </si>
+  <si>
+    <t>DIFFUSEQ</t>
+  </si>
+  <si>
+    <t>(1) Shark-NLP, Shanghai AI Laboratory 
+(2)The University of Hong Kong</t>
+  </si>
+  <si>
+    <t>ICLR 2023</t>
+  </si>
+  <si>
+    <t>条件文本生成</t>
+  </si>
+  <si>
+    <t>(1) Commonsense Conversation Dataset
+(2) Quasar-T
+(3) a corpus constructed by Jiang et al (2020) , consisting of 677K complexsimple sentences with revision alignment
+(4) QQP</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>源序列</t>
+  </si>
+  <si>
+    <t>目标序列</t>
+  </si>
+  <si>
+    <r>
+      <t>variational lower bound (L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VLB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Extending continuous diffusion models to natural language remains an open challenge due to the inherently discrete nature of texts.
+(2) The challenge of generating conditional text.Current efforts are mostly focused on unconditional language modeling, making it difficult to naturally generalize to conditional language modeling
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) The first to deploy the diffusion model on SEQ2SEQ text generation, and our proposed DIFFUSEQ as a conditional language model is trained end-to-end in a classifier-free manner.
+(2) establish a theoretical connection among AR, NAR and DIFFUSEQ models, and justify DIFFUSEQ as an extension of iterative-NAR models.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) BLEU score
+(2) RROUGE score
+(3) BERTScore 
+(4) unigram (dist-1)
+(5) self-BLEU
+(6) 4-gram (div-4)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2210.08933</t>
+  </si>
+  <si>
+    <t>https://github.com/Shark-NLP/DiffuSeq</t>
+  </si>
+  <si>
+    <t>@article{gong2022diffuseq,
+  title={Diffuseq: Sequence to sequence text generation with diffusion models},
+  author={Gong, Shansan and Li, Mukai and Feng, Jiangtao and Wu, Zhiyong and Kong, LingPeng},
+  journal={arXiv preprint arXiv:2210.08933},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t>NVIDIA A100 Tensor Core GPU</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面对文本生成任务，在现有的生成模型中，GAN 存在不稳定性问题，容易发生模态崩溃；VAE 必须依靠替代目标来近似最大似然训练，而基于流的模型必须使用专门的架构来构建可逆转换。扩散模型可以绕过其中的一些限制。传统的扩散模型在处理连续信号（如图像和音频）方面取得了成功，但自然语言的离散性使得直接应用这些模型变得困难；而且在条件文本生成任务上面对更大挑战
+作者提出了DIFFUSEQ，这是一个为SEQ2SEQ文本生成任务设计的扩散模型，能够完成条件文本生成任务。</t>
     </r>
   </si>
 </sst>
@@ -2662,7 +3019,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2751,18 +3108,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2895,13 +3252,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4" tint="-0.25"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
+      <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2917,8 +3274,14 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3005,6 +3368,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3029,7 +3404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3072,12 +3447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3355,13 +3724,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3385,16 +3754,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3403,89 +3772,89 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3531,19 +3900,28 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3576,19 +3954,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3651,7 +4035,16 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3663,9 +4056,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3714,7 +4104,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3754,6 +4144,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4297,127 +4705,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="15" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="18" customWidth="1"/>
     <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="55" t="s">
+      <c r="AA1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="64" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4427,7 +4835,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4472,42 +4880,42 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="40" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="57">
+      <c r="AA4" s="65">
         <v>3</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="43" t="s">
+      <c r="AC4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="26" t="s">
+      <c r="AD4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="58">
+      <c r="AE4" s="66">
         <v>45594</v>
       </c>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4543,42 +4951,42 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="W5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="36" t="s">
+      <c r="X5" s="41" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="60">
+      <c r="AA5" s="67">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="61" t="s">
+      <c r="AC5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AD5" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="58">
+      <c r="AE5" s="66">
         <v>45594</v>
       </c>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4617,16 +5025,16 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="37" t="s">
+      <c r="W6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="43" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="62">
+      <c r="AA6" s="69">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -4635,24 +5043,24 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="27" t="s">
+      <c r="AD6" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="58">
+      <c r="AE6" s="66">
         <v>45599</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4696,17 +5104,17 @@
       <c r="V7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="W7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="X7" s="40" t="s">
         <v>99</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="57">
+      <c r="AA7" s="65">
         <v>449</v>
       </c>
       <c r="AB7" s="2" t="s">
@@ -4714,7 +5122,7 @@
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:29">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4758,17 +5166,17 @@
       <c r="V8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W8" s="37" t="s">
+      <c r="W8" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="X8" s="39" t="s">
+      <c r="X8" s="44" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="62">
+      <c r="AA8" s="69">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -4784,7 +5192,7 @@
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="31" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4811,37 +5219,37 @@
       <c r="V16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="W16" s="36" t="s">
+      <c r="W16" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="X16" s="36" t="s">
+      <c r="X16" s="41" t="s">
         <v>128</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AA16" s="60">
+      <c r="AA16" s="67">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD16" s="28" t="s">
+      <c r="AD16" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="59"/>
-      <c r="AK16" s="59"/>
-      <c r="AL16" s="59"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="59"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="360" spans="1:40">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="32" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4871,34 +5279,34 @@
       <c r="V17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="W17" s="40" t="s">
+      <c r="W17" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="X17" s="40" t="s">
+      <c r="X17" s="45" t="s">
         <v>143</v>
       </c>
       <c r="Y17" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AA17" s="63">
+      <c r="AA17" s="70">
         <v>485</v>
       </c>
       <c r="AB17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -4931,48 +5339,48 @@
       <c r="P18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="U18" s="46" t="s">
         <v>157</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="W18" s="42" t="s">
+      <c r="W18" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="X18" s="42" t="s">
+      <c r="X18" s="47" t="s">
         <v>160</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AA18" s="64">
+      <c r="AA18" s="71">
         <v>45</v>
       </c>
-      <c r="AB18" s="65" t="s">
+      <c r="AB18" s="72" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AD18" s="66" t="s">
+      <c r="AD18" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="AE18" s="58">
+      <c r="AE18" s="66">
         <v>45599</v>
       </c>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5020,16 +5428,16 @@
       <c r="V19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="W19" s="35" t="s">
+      <c r="W19" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="X19" s="43" t="s">
+      <c r="X19" s="48" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AA19" s="57">
+      <c r="AA19" s="65">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
@@ -5038,24 +5446,24 @@
       <c r="AC19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AD19" s="26" t="s">
+      <c r="AD19" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="AE19" s="58">
+      <c r="AE19" s="66">
         <v>45594</v>
       </c>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>184</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5099,42 +5507,42 @@
       <c r="V20" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="W20" s="44" t="s">
+      <c r="W20" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="X20" s="44" t="s">
+      <c r="X20" s="49" t="s">
         <v>198</v>
       </c>
       <c r="Y20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AA20" s="67">
+      <c r="AA20" s="74">
         <v>417</v>
       </c>
-      <c r="AB20" s="68" t="s">
+      <c r="AB20" s="75" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AD20" s="69" t="s">
+      <c r="AD20" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="AE20" s="58">
+      <c r="AE20" s="66">
         <v>45594</v>
       </c>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="28" t="s">
         <v>202</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -5176,16 +5584,16 @@
       <c r="V21" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="W21" s="45" t="s">
+      <c r="W21" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="X21" s="46" t="s">
+      <c r="X21" s="51" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AA21" s="70">
+      <c r="AA21" s="77">
         <v>1972</v>
       </c>
       <c r="AB21" s="8" t="s">
@@ -5197,21 +5605,21 @@
       <c r="AD21" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AE21" s="58">
+      <c r="AE21" s="66">
         <v>45594</v>
       </c>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -5244,39 +5652,39 @@
       <c r="V22" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="W22" s="47" t="s">
+      <c r="W22" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="X22" s="47" t="s">
+      <c r="X22" s="52" t="s">
         <v>230</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="AA22" s="71">
+      <c r="AA22" s="78">
         <v>80</v>
       </c>
       <c r="AB22" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="AC22" s="72" t="s">
+      <c r="AC22" s="79" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="AE22" s="58">
+      <c r="AE22" s="66">
         <v>45594</v>
       </c>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
@@ -5289,7 +5697,7 @@
       </c>
     </row>
     <row r="28" s="10" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="28" t="s">
         <v>236</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -5325,42 +5733,42 @@
       <c r="V28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="W28" s="48" t="s">
+      <c r="W28" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="X28" s="48" t="s">
+      <c r="X28" s="53" t="s">
         <v>249</v>
       </c>
       <c r="Y28" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AA28" s="73">
+      <c r="AA28" s="80">
         <v>36</v>
       </c>
-      <c r="AB28" s="74" t="s">
+      <c r="AB28" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="74" t="s">
+      <c r="AC28" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="75" t="s">
+      <c r="AD28" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="AE28" s="58">
+      <c r="AE28" s="66">
         <v>45599</v>
       </c>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="28" t="s">
         <v>252</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5393,22 +5801,22 @@
       <c r="P29" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="54" t="s">
         <v>260</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W29" s="37" t="s">
+      <c r="W29" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="X29" s="37" t="s">
+      <c r="X29" s="42" t="s">
         <v>263</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AA29" s="62">
+      <c r="AA29" s="69">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
@@ -5417,24 +5825,24 @@
       <c r="AC29" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AD29" s="76" t="s">
+      <c r="AD29" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="AE29" s="58">
+      <c r="AE29" s="66">
         <v>45599</v>
       </c>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="59"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
     </row>
     <row r="30" s="11" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="33" t="s">
         <v>268</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -5482,17 +5890,17 @@
       <c r="V30" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="W30" s="50" t="s">
+      <c r="W30" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="X30" s="50" t="s">
+      <c r="X30" s="55" t="s">
         <v>280</v>
       </c>
       <c r="Y30" s="11" t="s">
         <v>281</v>
       </c>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="77">
+      <c r="AA30" s="84">
         <v>290</v>
       </c>
       <c r="AB30" s="11" t="s">
@@ -5501,7 +5909,7 @@
       <c r="AC30" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AD30" s="78" t="s">
+      <c r="AD30" s="85" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5511,7 +5919,7 @@
       </c>
     </row>
     <row r="40" s="12" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -5550,42 +5958,42 @@
       <c r="V40" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="W40" s="51" t="s">
+      <c r="W40" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="X40" s="51" t="s">
+      <c r="X40" s="56" t="s">
         <v>298</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="AA40" s="79">
+      <c r="AA40" s="86">
         <v>12188</v>
       </c>
       <c r="AB40" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="AC40" s="80" t="s">
+      <c r="AC40" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="81" t="s">
+      <c r="AD40" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="AE40" s="58">
+      <c r="AE40" s="66">
         <v>45599</v>
       </c>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="59"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
     </row>
     <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="28" t="s">
         <v>302</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -5600,7 +6008,7 @@
       <c r="E41" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="34" t="s">
         <v>306</v>
       </c>
       <c r="G41" s="13" t="s">
@@ -5624,16 +6032,16 @@
       <c r="V41" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="W41" s="52" t="s">
+      <c r="W41" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="X41" s="52" t="s">
+      <c r="X41" s="57" t="s">
         <v>313</v>
       </c>
       <c r="Y41" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="AA41" s="82">
+      <c r="AA41" s="89">
         <v>959</v>
       </c>
       <c r="AB41" s="13" t="s">
@@ -5642,24 +6050,24 @@
       <c r="AC41" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="AD41" s="83" t="s">
+      <c r="AD41" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="AE41" s="58">
+      <c r="AE41" s="66">
         <v>45599</v>
       </c>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="59"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
     </row>
     <row r="42" s="14" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="28" t="s">
         <v>318</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -5709,182 +6117,432 @@
       <c r="V42" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="W42" s="53" t="s">
+      <c r="W42" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="X42" s="53" t="s">
+      <c r="X42" s="58" t="s">
         <v>331</v>
       </c>
       <c r="Y42" s="14" t="s">
         <v>332</v>
       </c>
       <c r="Z42" s="14"/>
-      <c r="AA42" s="84">
+      <c r="AA42" s="91">
         <v>742</v>
       </c>
-      <c r="AB42" s="85" t="s">
+      <c r="AB42" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="85" t="s">
+      <c r="AC42" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="86" t="s">
+      <c r="AD42" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="AE42" s="87">
+      <c r="AE42" s="94">
         <v>45602</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A43" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="W43" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="X43" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="84">
+        <v>1627</v>
+      </c>
+      <c r="AB43" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC43" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" s="9" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="25" t="s">
-        <v>335</v>
+      <c r="A48" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>137</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="V48" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="W48" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="X48" s="54" t="s">
-        <v>348</v>
+        <v>362</v>
+      </c>
+      <c r="W48" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="X48" s="59" t="s">
+        <v>364</v>
       </c>
       <c r="Y48" s="9" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Z48" s="9"/>
-      <c r="AA48" s="71">
+      <c r="AA48" s="78">
         <v>162</v>
       </c>
       <c r="AB48" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC48" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC48" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="88" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE48" s="89">
+      <c r="AD48" s="95" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE48" s="96">
         <v>45602</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A49" s="32" t="s">
-        <v>352</v>
+      <c r="A49" s="35" t="s">
+        <v>368</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="W49" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="X49" s="35" t="s">
-        <v>366</v>
+        <v>380</v>
+      </c>
+      <c r="W49" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="X49" s="40" t="s">
+        <v>382</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="57">
+      <c r="AA49" s="65">
         <v>1295</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD49" s="26" t="s">
-        <v>370</v>
+        <v>385</v>
+      </c>
+      <c r="AD49" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" s="15" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A56" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q56" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="V56" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="W56" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="X56" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y56" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="97">
+        <v>38</v>
+      </c>
+      <c r="AB56" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC56" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD56" s="35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" s="16" customFormat="1" spans="1:27">
+      <c r="A63" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="98"/>
+    </row>
+    <row r="64" s="17" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A64" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="U64" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="V64" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="W64" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="X64" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y64" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="99">
+        <v>264</v>
+      </c>
+      <c r="AB64" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC64" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD64" s="102" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -5932,6 +6590,11 @@
     <hyperlink ref="X49" r:id="rId35" display="https://github.com/lmnt-com/diffwave" tooltip="https://github.com/lmnt-com/diffwave"/>
     <hyperlink ref="W30" r:id="rId36" display="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf" tooltip="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf"/>
     <hyperlink ref="X30" r:id="rId37" display="https://github.com/zalandoresearch/pytorch-ts" tooltip="https://github.com/zalandoresearch/pytorch-ts"/>
+    <hyperlink ref="W56" r:id="rId38" display="https://proceedings.mlr.press/v202/kong23b/kong23b.pdf"/>
+    <hyperlink ref="W64" r:id="rId39" display="https://arxiv.org/pdf/2210.08933" tooltip="https://arxiv.org/pdf/2210.08933"/>
+    <hyperlink ref="X64" r:id="rId40" display="https://github.com/Shark-NLP/DiffuSeq"/>
+    <hyperlink ref="W43" r:id="rId41" display="https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9887996"/>
+    <hyperlink ref="X43" r:id="rId42" display="https://github.com/Janspiry/Image-Super-Resolution-via-Iterative-Refinement?tab=readme-ov-file"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="454">
   <si>
     <t>论文名</t>
   </si>
@@ -781,6 +781,215 @@
 (2) investigating the trade-offs between improving the overall efficiency of CAF and its effectiveness</t>
   </si>
   <si>
+    <t>DUAL-GLOW: Conditional Flow-Based Generative Model for Modality Transfer</t>
+  </si>
+  <si>
+    <t>DUAL-GLOW</t>
+  </si>
+  <si>
+    <t>(1) University of Wisconsin-Madison
+(2) Shandong University
+(3) Inception Institute of Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>ICCV 2019</t>
+  </si>
+  <si>
+    <t>医学影像模态转换</t>
+  </si>
+  <si>
+    <t>(1) Alzheimer's Disease Neuroimaging Initiative (ADNI) dataset</t>
+  </si>
+  <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) MRI images
+(2) 可选的辅助信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：单一的MRI图像可以生成不同形式的PET，这些差异可以通过额外信息（如年龄或疾病状态）来解决，辅助信息通常被编码为数值形式输入到模型</t>
+    </r>
+  </si>
+  <si>
+    <t>PET图像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 对数似然
+</t>
+  </si>
+  <si>
+    <t>具体表达式见 3. Deriving DUAL-GLOW，公式(12)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Limitations of PET imaging : The cost is high and involves injection of radioactive substances, with low popularity in clinical and research settings. In many studies, only a portion of subjects are able to obtain PET images, resulting in limited sample sizes.
+(2)Limitations of existing generative models: GANs usually suffer from "mode collapse" , that tends to produce limited sample variety; Auto-encoders based on minimizing the loss often produce blurry outputs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) proposed a novel flow-based generative model for modality transfer, DUALGLOW
+(2) A complete end-to-end PET image generation from MRI for full three-dimensional volumes
+(3) A single MRI image can generate different PET images, and the differences can be resolved through additional information such as age and disease status.
+(4) potential for direct application in practice to help in the clinical evaluation of Alzheimer’s disease (AD)</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Mean Absolute Error , MAE
+(2) Correlation Coefficients , CorCoef
+(3) Peak Signal-to-Noise Ratio , PSNR
+(4) Structure Similarity Index , SSIM</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content_ICCV_2019/papers/Sun_DUAL-GLOW_Conditional_Flow-Based_Generative_Model_for_Modality_Transfer_ICCV_2019_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/haolsun/dual-glow</t>
+  </si>
+  <si>
+    <t>@inproceedings{sun2019dual,
+  title={Dual-glow: Conditional flow-based generative model for modality transfer},
+  author={Sun, Haoliang and Mehta, Ronak and Zhou, Hao H and Huang, Zhichun and Johnson, Sterling C and Prabhakaran, Vivek and Singh, Vikas},
+  booktitle={Proceedings of the IEEE/CVF International Conference on Computer Vision},
+  pages={10611--10620},
+  year={2019}
+}</t>
+  </si>
+  <si>
+    <t>Nvidia V100 GPUs with Tensorflow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在医学中，PET图像获取成本高昂，涉及放射性物质的注射，在临床和研究环境中受欢迎程度低。在许多研究中，只有一部分受试者能够获得PET图像，导致样本量有限。MRI 成像则是更为普遍的方式。对于MRI图像转换成PET图像，现有的方法具有局限性，GAN通常会出现“模式崩溃”，这往往会产生有限的样本多样性；基于最小化损失的自动编码器通常会产生模糊的输出。
+作者提出了DUAL-GLOW，用两个 glow 来实现两者之间的转换，首先用一个 glow 模型从 MRI 图像获得一个隐变量 z_m，然后用一个神经网络（作者在论文中没有说具体的网路结构）得到 PET 图像的隐变量分布 p(z_p|z_m)（这个分布作者把它当作是一个高斯分布），最后通过 PET 的 glow 模型从 z_p 生成出对应的 PET 图像。</t>
+    </r>
+  </si>
+  <si>
+    <t>Waveflow: A compact flow-based model for raw audio</t>
+  </si>
+  <si>
+    <t>WaveFlow</t>
+  </si>
+  <si>
+    <t>Baidu Research</t>
+  </si>
+  <si>
+    <t>ICML 2020</t>
+  </si>
+  <si>
+    <t>音乐音频生成</t>
+  </si>
+  <si>
+    <t>语音合成</t>
+  </si>
+  <si>
+    <t>LJ speech dataset</t>
+  </si>
+  <si>
+    <t>音频</t>
+  </si>
+  <si>
+    <t>原始音频波形</t>
+  </si>
+  <si>
+    <t>生成的音频波形</t>
+  </si>
+  <si>
+    <t>对数似然函数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) limitations of the existing models : the speed issue and the large number of model parameters in high fidelity speech synthesis.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) WaveFlow directly uses maximum likelihood for training, simplifying the training pipeline and reducing development costs
+(2) WaveFlow provides a unified view of likelihood-based models for raw audio, which includes both WaveNet and WaveGlow as special cases and allows us to explicitly trade inference parallelism for model capacity.
+(3) WaveFlow model has fewer parameters and high efficiency in generating high-quality audio</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Test Log-Likelihoods, LLs
+(2) Mean Opinion Score, MOS</t>
+  </si>
+  <si>
+    <t>https://proceedings.mlr.press/v119/ping20a/ping20a.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/PaddlePaddle/Parakeet/tree/develop/examples/waveflow</t>
+  </si>
+  <si>
+    <t>@inproceedings{ping2020waveflow,
+  title={Waveflow: A compact flow-based model for raw audio},
+  author={Ping, Wei and Peng, Kainan and Zhao, Kexin and Song, Zhao},
+  booktitle={International Conference on Machine Learning},
+  pages={7706--7716},
+  year={2020},
+  organization={PMLR}
+}</t>
+  </si>
+  <si>
+    <t>Nvidia V100 GPU</t>
+  </si>
+  <si>
+    <t>挑战：现有语音合成模型的缺陷：合成速率慢，模型参数体量庞大
+作者提出了waveflow，直接使用最大似然进行训练，简化了训练流程并降低了开发成本，且模型参数少，生成高质量音频的效率高</t>
+  </si>
+  <si>
     <t>扩散模型</t>
   </si>
   <si>
@@ -2080,9 +2289,6 @@
 (8) COCO</t>
   </si>
   <si>
-    <t>图像</t>
-  </si>
-  <si>
     <t>(1) 图像
 (2) 条件信息：文本、语义图信息等等</t>
   </si>
@@ -2470,6 +2676,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">低分辨率图像
 </t>
     </r>
@@ -2488,6 +2700,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) multiple output images may be consistent with a single input image, and the conditional distribution of output images given the input typically does not conform well to simple parametric distributions.
 (2) Existing
 techniques often suffer from various limitations; autoregressive models are prohibitively expensive for high-resolution
@@ -2546,9 +2764,6 @@
 作者提出了SR3，SR3是一种通过迭代细化来实现图像超分辨率的方法</t>
   </si>
   <si>
-    <t>音乐音频生成</t>
-  </si>
-  <si>
     <t>ProDiff: Progressive Fast Diffusion Model for High-Quality Text-to-Speech</t>
   </si>
   <si>
@@ -2559,9 +2774,6 @@
   </si>
   <si>
     <t>Proceedings of the 30th ACM International Conference on Multimedia, 2022</t>
-  </si>
-  <si>
-    <t>语音合成</t>
   </si>
   <si>
     <t>音频数据、文本数据</t>
@@ -2930,6 +3142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>variational lower bound (L</t>
     </r>
     <r>
@@ -2953,6 +3171,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Extending continuous diffusion models to natural language remains an open challenge due to the inherently discrete nature of texts.
 (2) The challenge of generating conditional text.Current efforts are mostly focused on unconditional language modeling, making it difficult to naturally generalize to conditional language modeling
 </t>
@@ -2995,6 +3219,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -3019,7 +3250,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3067,6 +3298,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -3095,17 +3333,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="4" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3252,12 +3498,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3265,6 +3505,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3281,7 +3527,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3308,13 +3554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3398,18 +3650,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3447,6 +3687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3561,6 +3807,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3724,137 +3976,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3903,25 +4155,28 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3948,103 +4203,100 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4059,7 +4311,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4068,100 +4320,124 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4708,105 +4984,105 @@
   <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="18" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="19" customWidth="1"/>
     <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="36" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="37" t="s">
         <v>27</v>
       </c>
       <c r="AD1" s="64" t="s">
@@ -4814,18 +5090,18 @@
       </c>
     </row>
     <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4835,7 +5111,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4880,10 +5156,10 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="40" t="s">
+      <c r="X4" s="38" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
@@ -4898,24 +5174,24 @@
       <c r="AC4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="29" t="s">
+      <c r="AD4" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AE4" s="66">
         <v>45594</v>
       </c>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4951,10 +5227,10 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="41" t="s">
+      <c r="W5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="41" t="s">
+      <c r="X5" s="39" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
@@ -4969,24 +5245,24 @@
       <c r="AC5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="31" t="s">
+      <c r="AD5" s="33" t="s">
         <v>70</v>
       </c>
       <c r="AE5" s="66">
         <v>45594</v>
       </c>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5025,10 +5301,10 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="42" t="s">
+      <c r="W6" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="43" t="s">
+      <c r="X6" s="41" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
@@ -5043,24 +5319,24 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="30" t="s">
+      <c r="AD6" s="31" t="s">
         <v>87</v>
       </c>
       <c r="AE6" s="66">
         <v>45599</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5104,10 +5380,10 @@
       <c r="V7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="X7" s="40" t="s">
+      <c r="X7" s="38" t="s">
         <v>99</v>
       </c>
       <c r="Y7" s="2" t="s">
@@ -5122,7 +5398,7 @@
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:29">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5166,10 +5442,10 @@
       <c r="V8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W8" s="42" t="s">
+      <c r="W8" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="X8" s="44" t="s">
+      <c r="X8" s="42" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
@@ -5186,731 +5462,880 @@
         <v>116</v>
       </c>
     </row>
+    <row r="9" s="5" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A9" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="70">
+        <v>47</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A10" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="W10" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="X10" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="73">
+        <v>146</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
-      <c r="A16" s="31" t="s">
-        <v>118</v>
+      <c r="A16" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="W16" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="X16" s="41" t="s">
-        <v>128</v>
+        <v>162</v>
+      </c>
+      <c r="W16" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="AA16" s="67">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD16" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
+        <v>166</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
     </row>
-    <row r="17" s="5" customFormat="1" ht="360" spans="1:40">
-      <c r="A17" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>141</v>
+    <row r="17" s="7" customFormat="1" ht="360" spans="1:40">
+      <c r="A17" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="W17" s="45" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="X17" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA17" s="70">
+        <v>179</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA17" s="75">
         <v>485</v>
       </c>
-      <c r="AB17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
+      <c r="AB17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="28" t="s">
-        <v>146</v>
+      <c r="A18" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="U18" s="46" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="W18" s="47" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="X18" s="47" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA18" s="71">
+        <v>197</v>
+      </c>
+      <c r="AA18" s="73">
         <v>45</v>
       </c>
-      <c r="AB18" s="72" t="s">
+      <c r="AB18" s="74" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD18" s="73" t="s">
-        <v>163</v>
+        <v>198</v>
+      </c>
+      <c r="AD18" s="76" t="s">
+        <v>199</v>
       </c>
       <c r="AE18" s="66">
         <v>45599</v>
       </c>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="28" t="s">
-        <v>164</v>
+      <c r="A19" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="W19" s="40" t="s">
-        <v>179</v>
+        <v>214</v>
+      </c>
+      <c r="W19" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="X19" s="48" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AA19" s="65">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD19" s="29" t="s">
-        <v>183</v>
+        <v>218</v>
+      </c>
+      <c r="AD19" s="30" t="s">
+        <v>219</v>
       </c>
       <c r="AE19" s="66">
         <v>45594</v>
       </c>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
     </row>
-    <row r="20" s="7" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="7" t="s">
+    <row r="20" s="8" customFormat="1" ht="360" spans="1:40">
+      <c r="A20" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="P20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>196</v>
+      <c r="F20" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="P20" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="W20" s="49" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="X20" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA20" s="74">
+        <v>234</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA20" s="77">
         <v>417</v>
       </c>
-      <c r="AB20" s="75" t="s">
+      <c r="AB20" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="AC20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD20" s="76" t="s">
-        <v>201</v>
+      <c r="AC20" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD20" s="79" t="s">
+        <v>237</v>
       </c>
       <c r="AE20" s="66">
         <v>45594</v>
       </c>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
     </row>
-    <row r="21" s="8" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="8" t="s">
+    <row r="21" s="9" customFormat="1" ht="405" spans="1:40">
+      <c r="A21" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>213</v>
+      <c r="F21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="W21" s="50" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="X21" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA21" s="77">
+      <c r="Y21" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA21" s="80">
         <v>1972</v>
       </c>
-      <c r="AB21" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC21" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD21" s="8" t="s">
-        <v>218</v>
+      <c r="AB21" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="AE21" s="66">
         <v>45594</v>
       </c>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>228</v>
+    <row r="22" s="10" customFormat="1" ht="330" spans="1:40">
+      <c r="A22" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="W22" s="52" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="X22" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA22" s="78">
+        <v>266</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA22" s="81">
         <v>80</v>
       </c>
-      <c r="AB22" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC22" s="79" t="s">
+      <c r="AB22" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AD22" s="9" t="s">
-        <v>233</v>
+      <c r="AD22" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="AE22" s="66">
         <v>45594</v>
       </c>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="16"/>
-      <c r="AN22" s="16"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="28" s="10" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>247</v>
+    <row r="28" s="11" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A28" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="W28" s="53" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="X28" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA28" s="80">
+        <v>285</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA28" s="83">
         <v>36</v>
       </c>
-      <c r="AB28" s="81" t="s">
+      <c r="AB28" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="81" t="s">
+      <c r="AC28" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="82" t="s">
-        <v>251</v>
+      <c r="AD28" s="85" t="s">
+        <v>287</v>
       </c>
       <c r="AE28" s="66">
         <v>45599</v>
       </c>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="28" t="s">
-        <v>252</v>
+      <c r="A29" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="U29" s="54" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="W29" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="X29" s="42" t="s">
-        <v>263</v>
+        <v>297</v>
+      </c>
+      <c r="W29" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="X29" s="40" t="s">
+        <v>299</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="AA29" s="69">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD29" s="83" t="s">
-        <v>267</v>
+        <v>302</v>
+      </c>
+      <c r="AD29" s="86" t="s">
+        <v>303</v>
       </c>
       <c r="AE29" s="66">
         <v>45599</v>
       </c>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
     </row>
-    <row r="30" s="11" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A30" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30" s="11" t="s">
+    <row r="30" s="12" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A30" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>278</v>
+      <c r="K30" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="W30" s="55" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="X30" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="84">
+        <v>316</v>
+      </c>
+      <c r="Y30" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="87">
         <v>290</v>
       </c>
-      <c r="AB30" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC30" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD30" s="85" t="s">
-        <v>284</v>
+      <c r="AB30" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC30" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD30" s="88" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE30" s="89">
+        <v>45607</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -5918,631 +6343,643 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="12" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="12" t="s">
+    <row r="40" s="13" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A40" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>296</v>
+      <c r="F40" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="W40" s="56" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="X40" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y40" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA40" s="86">
+        <v>333</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA40" s="90">
         <v>12188</v>
       </c>
-      <c r="AB40" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC40" s="87" t="s">
+      <c r="AB40" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC40" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="88" t="s">
-        <v>301</v>
+      <c r="AD40" s="92" t="s">
+        <v>336</v>
       </c>
       <c r="AE40" s="66">
         <v>45599</v>
       </c>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="16"/>
-      <c r="AM40" s="16"/>
-      <c r="AN40" s="16"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
     </row>
-    <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="V41" s="13" t="s">
-        <v>311</v>
+    <row r="41" s="14" customFormat="1" ht="375" spans="1:40">
+      <c r="A41" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="W41" s="57" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="X41" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y41" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA41" s="89">
+        <v>348</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA41" s="93">
         <v>959</v>
       </c>
-      <c r="AB41" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC41" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD41" s="90" t="s">
-        <v>317</v>
+      <c r="AB41" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD41" s="94" t="s">
+        <v>352</v>
       </c>
       <c r="AE41" s="66">
         <v>45599</v>
       </c>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="16"/>
-      <c r="AK41" s="16"/>
-      <c r="AL41" s="16"/>
-      <c r="AM41" s="16"/>
-      <c r="AN41" s="16"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
     </row>
-    <row r="42" s="14" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E42" s="14" t="s">
+    <row r="42" s="15" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A42" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14" t="s">
+      <c r="F42" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="W42" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="X42" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="95">
+        <v>742</v>
+      </c>
+      <c r="AB42" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC42" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD42" s="97" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE42" s="98">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="43" s="12" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A43" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="V42" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="W42" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="X42" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y42" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="91">
-        <v>742</v>
-      </c>
-      <c r="AB42" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC42" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD42" s="93" t="s">
-        <v>333</v>
-      </c>
-      <c r="AE42" s="94">
-        <v>45602</v>
-      </c>
-    </row>
-    <row r="43" s="11" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A43" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>343</v>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="W43" s="55" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="X43" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y43" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="84">
+        <v>380</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="87">
         <v>1627</v>
       </c>
-      <c r="AB43" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC43" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>349</v>
+      <c r="AB43" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC43" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD43" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE43" s="89">
+        <v>45607</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>350</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="48" s="9" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="V48" s="9" t="s">
-        <v>362</v>
+    <row r="48" s="10" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A48" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="V48" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="W48" s="52" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="X48" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y48" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="78">
+        <v>397</v>
+      </c>
+      <c r="Y48" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="81">
         <v>162</v>
       </c>
-      <c r="AB48" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC48" s="79" t="s">
+      <c r="AB48" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC48" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="95" t="s">
-        <v>367</v>
-      </c>
-      <c r="AE48" s="96">
+      <c r="AD48" s="99" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE48" s="100">
         <v>45602</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A49" s="35" t="s">
-        <v>368</v>
+    <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A49" s="29" t="s">
+        <v>401</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="W49" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="X49" s="40" t="s">
-        <v>382</v>
+        <v>413</v>
+      </c>
+      <c r="W49" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" s="38" t="s">
+        <v>415</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="65">
         <v>1295</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD49" s="29" t="s">
-        <v>386</v>
+        <v>418</v>
+      </c>
+      <c r="AD49" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE49" s="101">
+        <v>45607</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="56" s="15" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A56" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q56" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="V56" s="15" t="s">
-        <v>399</v>
+    <row r="56" s="16" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A56" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="V56" s="16" t="s">
+        <v>432</v>
       </c>
       <c r="W56" s="60" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="X56" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="Y56" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="97">
+      <c r="Y56" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="102">
         <v>38</v>
       </c>
       <c r="AB56" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AC56" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD56" s="35" t="s">
-        <v>403</v>
+      <c r="AC56" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD56" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE56" s="104">
+        <v>45607</v>
       </c>
     </row>
-    <row r="63" s="16" customFormat="1" spans="1:27">
-      <c r="A63" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="98"/>
+    <row r="63" s="17" customFormat="1" spans="1:27">
+      <c r="A63" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="105"/>
     </row>
-    <row r="64" s="17" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A64" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="U64" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="V64" s="17" t="s">
-        <v>415</v>
+    <row r="64" s="18" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A64" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="K64" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="U64" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="V64" s="18" t="s">
+        <v>448</v>
       </c>
       <c r="W64" s="62" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="X64" s="62" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y64" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="99">
+        <v>450</v>
+      </c>
+      <c r="Y64" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="106">
         <v>264</v>
       </c>
-      <c r="AB64" s="100" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC64" s="101" t="s">
+      <c r="AB64" s="107" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC64" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="102" t="s">
-        <v>420</v>
+      <c r="AD64" s="109" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE64" s="110">
+        <v>45607</v>
       </c>
     </row>
   </sheetData>
@@ -6595,6 +7032,10 @@
     <hyperlink ref="X64" r:id="rId40" display="https://github.com/Shark-NLP/DiffuSeq"/>
     <hyperlink ref="W43" r:id="rId41" display="https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9887996"/>
     <hyperlink ref="X43" r:id="rId42" display="https://github.com/Janspiry/Image-Super-Resolution-via-Iterative-Refinement?tab=readme-ov-file"/>
+    <hyperlink ref="W9" r:id="rId43" display="https://openaccess.thecvf.com/content_ICCV_2019/papers/Sun_DUAL-GLOW_Conditional_Flow-Based_Generative_Model_for_Modality_Transfer_ICCV_2019_paper.pdf"/>
+    <hyperlink ref="X9" r:id="rId44" display="https://github.com/haolsun/dual-glow"/>
+    <hyperlink ref="W10" r:id="rId45" display="https://proceedings.mlr.press/v119/ping20a/ping20a.pdf"/>
+    <hyperlink ref="X10" r:id="rId46" display="https://github.com/PaddlePaddle/Parakeet/tree/develop/examples/waveflow"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="519">
   <si>
     <t>论文名</t>
   </si>
@@ -2261,6 +2261,123 @@
       </rPr>
       <t>经典的时间序列预测方法通常提供单变量点预测，并要求对每个时间序列进行单独建模，当数据集包含数百万个序列时，这是不切实际的，现有的深度学习方法中概率模型需要对数据分布做一些假设，基于能量的方法难以训练
 作者提出 TimeGrad 模型，这是一种用于多元概率时间序列预测的自回归模型</t>
+    </r>
+  </si>
+  <si>
+    <t>Pristi A conditional diffusion framework for spatiotemporal imputation</t>
+  </si>
+  <si>
+    <t>Pristi</t>
+  </si>
+  <si>
+    <t>(1) State Key Laboratory of Software Development Environment, Beihang University, Beijing 100191, China
+(2) Department of Computer Science, University of Central Florida, FL 32816, USA</t>
+  </si>
+  <si>
+    <t>ICDE 2023</t>
+  </si>
+  <si>
+    <t>时空数据插补</t>
+  </si>
+  <si>
+    <t>(1) AQI-36
+(2) METRLA 
+(3) PEMS-BAY</t>
+  </si>
+  <si>
+    <t>时空数据</t>
+  </si>
+  <si>
+    <t>(1) 观测到的时空数据
+(2) 地理信息</t>
+  </si>
+  <si>
+    <t>缺失值的估计</t>
+  </si>
+  <si>
+    <t>预测噪声和实际噪声之间差异的平方误差</t>
+  </si>
+  <si>
+    <t>具体见公式(4)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) the originally collected spatiotemporal data in real-world scenarios is usually incomplete due to sensor failures or transmission loss
+(2) Deep learning methods such as RNN based methods suffer from error accumulation issues
+(3) the construction and utilization of conditional information are inevitable challenges when applying diffusion models to spatiotemporal imputation
+(4) Early statistical and classical machine learning methods were based on strong hypothesis filling, ignoring the complexity of spatiotemporal correlations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose PriSTI, a conditional diffusion framework for spatiotemporal imputation, which constructs and utilizes conditional information with spatiotemporal global correlations and geographic relationships</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) To reduce the difficulty of learning spatiotemporal dependencies, we design a specialized noise prediction model that extracts conditional features from enhanced observations, calculating the spatiotemporal attention weights using the extracted global context prior</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Mean Absolute Error, MAE
+(2) Mean Squared Error, MSE 
+(3) Continuous Ranked Probability Score, CRPS</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2302.09746</t>
+  </si>
+  <si>
+    <t>https://github.com/LMZZML/PriSTI</t>
+  </si>
+  <si>
+    <t>@inproceedings{liu2023pristi,
+  title={Pristi: A conditional diffusion framework for spatiotemporal imputation},
+  author={Liu, Mingzhe and Huang, Han and Feng, Hao and Sun, Leilei and Du, Bowen and Fu, Yanjie},
+  booktitle={2023 IEEE 39th International Conference on Data Engineering (ICDE)},
+  pages={1927--1939},
+  year={2023},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>AMD EPYC 7371 CPU, NVIDIA RTX 3090</t>
+  </si>
+  <si>
+    <t>(1) improve the scalability and computation efficiency of existing frameworks on larger scale spatiotemporal datasets
+(2) how to impute by longer temporal dependencies with refined conditional information</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现实世界中由于传感器故障和传输损失，时空数据常存在缺失情况。早期统计和经典机器学习方法基于强假设填补，忽略时空相关性复杂性；深度学习方法如基于 RNN 的方法存在误差累积问题；在将扩散模型应用于时空插补时，条件信息的构建和利用是不可避免的挑战。
+作者提出了PriSTI，这是一个用于时空插补的条件扩散框架，它构建和利用具有时空全局相关性和地理关系的条件信息</t>
     </r>
   </si>
   <si>
@@ -3000,6 +3117,252 @@
     </r>
   </si>
   <si>
+    <t>BinauralGrad: A Two-Stage Conditional Diffusion Probabilistic Model for Binaural Audio Synthesis</t>
+  </si>
+  <si>
+    <t>BinauralGrad</t>
+  </si>
+  <si>
+    <t>(1) University of Science and Technology of China
+(2) Microsoft Research Asia
+(3) Imperial College London, Microsoft Azure Speech
+(4) University of Surrey
+(5) South China University of Technology</t>
+  </si>
+  <si>
+    <t>双耳音频合成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Dataset from [29] in the paper, which includes 2 hours of mono-binaural parallel audio data at 48kHz from eight objects in a regular room
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：数据集链接https://github.com/facebookresearch/BinauralSpeechSynthesis</t>
+    </r>
+  </si>
+  <si>
+    <t>单声道音频</t>
+  </si>
+  <si>
+    <t>双耳音频</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> variation lower bound</t>
+  </si>
+  <si>
+    <t>具体见3.2.1 Conditional Diffusion Models
+公式8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) it is expensive to record binaural audio from the real world, synthesizing them from mono audio has attracted increasing attention
+(2) In traditional digital signal processing, it is difficult to accurately simulate binaural audio synthesized from monaural audio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) formulate the representation of binaural audio as two parts, and propose a novel two-stage framework to respectively synthesize their common and specific information conditioned on the mono audio.
+(2) Equipped with denoising probabilistic diffusion models, the proposed two-stage framework is able to generate accurate and high-fidelity binaural audio</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Wave L2: the mean squared error between the synthesized binaural audio and the golden binaural recording
+(2) Amplitude L2 and Phase L2: mean squared errors between the synthesized binaural speech and the binaural recording on the amplitude and phase respectively after performing Short-Time Fourier Transform (STFT) on wave
+(3) PESQ
+(4) MRSTFT:models the multi-resolution spectral loss9 by taking the spectral convergence, log magnitude loss and linear magnitude loss into consideration
+(5) Mean Option Score, MOS</t>
+  </si>
+  <si>
+    <t>https://proceedings.neurips.cc/paper_files/paper/2022/file/95f03faf3763e1b1ce2c3de62da8f090-Paper-Conference.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/NeuralSpeech/tree/master/BinauralGrad</t>
+  </si>
+  <si>
+    <t>@article{leng2022binauralgrad,
+  title={Binauralgrad: A two-stage conditional diffusion probabilistic model for binaural audio synthesis},
+  author={Leng, Yichong and Chen, Zehua and Guo, Junliang and Liu, Haohe and Chen, Jiawei and Tan, Xu and Mandic, Danilo and He, Lei and Li, Xiangyang and Qin, Tao and others},
+  journal={Advances in Neural Information Processing Systems},
+  volume={35},
+  pages={23689--23700},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 Nvidia V100 GPUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) improve the training of the two stages in an end-to-end way for better performance or speed up the inference of BinauralGrad
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传统的双耳音频合成方法存在局限性，难以准确模拟声音传播的非线性特性以及头 、 耳相关滤波等，导致生成的双耳音频不够准确和沉浸式
+作者提出了 BinauralGrad 框架，这是一种用于双耳音频合成的两阶段条件扩散概率模型。第一阶段利用单通道扩散模型，以单声道音频为条件生成双耳音频的公共信息。第二阶段基于第一阶段的输出，使用双通道扩散模型来生成左右声道的差异信息，从而合成最终的双耳音频。</t>
+    </r>
+  </si>
+  <si>
+    <t>Guided-TTS: A Diffusion Model for Text-to-Speech via Classifier Guidance</t>
+  </si>
+  <si>
+    <t>Guided-TTS</t>
+  </si>
+  <si>
+    <t>(1) Data Science and AI Lab, Seoul National University
+(2) Department of ECE and Interdisciplinary Program in
+AI, Seoul National University</t>
+  </si>
+  <si>
+    <t>ICML</t>
+  </si>
+  <si>
+    <t>基于无转录音频的文本到语音的合成</t>
+  </si>
+  <si>
+    <t>(1) LibriSpeech
+(2) LJSpeech
+(3) Hi-Fi TTS 
+(4) Blizzard 2013</t>
+  </si>
+  <si>
+    <t>文本，音素序列</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">音频波形
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：由生成的梅尔谱图合成为音频波形</t>
+    </r>
+  </si>
+  <si>
+    <t>L2 loss</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Most existing TTS models require training on transcribed data, and directly using untranslated data is a challenge.
+(2) Although there are some methods that use untranslated audio, these methods heavily rely on pre trained multispeaker TTS models, requires high-quality multi-speaker TTS datasets. At the same time, these methods also have poor generalization ability.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose Guided-TTS, a high-quality TTS model that learns to generate speech with an unconditional DDPM and performs text-to-speech synthesis using classifier guidance
+(2) unconditional DDPM models the unconditional distribution of speech PX without any transcript, generating Mel spectrograms
+(3) introduce a frame-wise phoneme classifier and use a classifier guidance method to guide unconditional DDPM
+(4) The duration predictor is a module that predicts the duration of each text token for a given text sequence y
+(5) The speaker encoder encodes the speaker information from the input mel-spectrogram and outputs the speaker embedding e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) character error rate, CER
+(2) mean opinion score, MOS</t>
+  </si>
+  <si>
+    <t>https://proceedings.mlr.press/v162/kim22d/kim22d.pdf</t>
+  </si>
+  <si>
+    <t>@inproceedings{kim2022guided,
+  title={Guided-tts: A diffusion model for text-to-speech via classifier guidance},
+  author={Kim, Heeseung and Kim, Sungwon and Yoon, Sungroh},
+  booktitle={International Conference on Machine Learning},
+  pages={11119--11133},
+  year={2022},
+  organization={PMLR}
+}</t>
+  </si>
+  <si>
+    <t>NVIDIA’s RTX A40 with 48GB memory</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大多数现有的TTS模型都需要对转录数据进行训练，直接使用未转录的数据是一个挑战。尽管有一些方法使用未转录的音频，但这些方法严重依赖于预先训练的多说话者TTS模型，需要高质量的多说话者TTC数据集。同时，这些方法的泛化能力也较差。
+作者提出了基于扩散模型的文本转语音模型 Guided - TTS，将扩散模型应用于 TTS 任务。模型由四部分组成：unconditional DDPM, phoneme classifier, duration predictor, and speaker encoder。
+unconditional DDPM对没有任何转录的语音PX的无条件分布进行建模，生成Mel频谱图
+phoneme classifier为文本到语音的合成提供指导，实现了根据文本信息引导无条件 DDPM 生成正确的语音
+duration predictor可预测给定文本序列中每个文本标记的时长
+speaker encoder利用说话者编码器从输入的梅尔频谱图中编码说话者信息，提取说话者嵌入，为其他模块提供说话者相关的条件信息</t>
+    </r>
+  </si>
+  <si>
     <t>Autoregressive Diffusion Model for Graph Generation</t>
   </si>
   <si>
@@ -3110,6 +3473,105 @@
     </r>
   </si>
   <si>
+    <t>DIGRESS: DISCRETE DENOISING DIFFUSION FOR GRAPH GENERATION</t>
+  </si>
+  <si>
+    <t>DiGress</t>
+  </si>
+  <si>
+    <t>EPFL Lausanne, Switzerland</t>
+  </si>
+  <si>
+    <t>ICLR 2023</t>
+  </si>
+  <si>
+    <t>基于离散去噪扩散模型的图生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) GuacaMol dataset
+(2) QM9
+(3) MOSES 
+(4) Martinkus等人（2022）提出的基准，由两个数据集组成，每个数据集包含200个图：一个来自随机块模型（每个图最多200个节点），另一个是平面图数据集（每个图64个节点） </t>
+  </si>
+  <si>
+    <t>带噪图</t>
+  </si>
+  <si>
+    <t>去噪图</t>
+  </si>
+  <si>
+    <t>交叉熵损失</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) generating graphs remains challenging due to their unordered nature and sparsity properties
+(2) Previous diffusion models for graphs proposed to embed the graphs in a continuous space and add Gaussian noise to the node features and graph adjacency matrix, destroying the graph’s sparsity and creates complete noisy graphs for which structural information (such as connectivity or cycle counts) is not defined.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) propose DiGress, a discrete denoising diffusion model for generating graphs with categorical node and edge attributes
+(2) noise model is a Markov process consisting of successive graphs edits
+(3) introduce a novel guidance procedure for conditioning graph generation on graph-level properties, and augmenting the input of our denoising network with auxiliary structural and spectral features
+</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) similarity to a nearest neighbor, SNN
+(2) filter
+(3) Uniqueness
+(4) novety
+(5) Frechet ChemNetDistance, FCD
+(6) KL divergence</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2209.14734</t>
+  </si>
+  <si>
+    <t>https://github.com/cvignac/DiGress</t>
+  </si>
+  <si>
+    <t>@article{vignac2022digress,
+  title={Digress: Discrete denoising diffusion for graph generation},
+  author={Vignac, Clement and Krawczuk, Igor and Siraudin, Antoine and Wang, Bohan and Cevher, Volkan and Frossard, Pascal},
+  journal={arXiv preprint arXiv:2209.14734},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：由于图的无序性和稀疏性，生成图仍然具有挑战性，特别是在处理具有分类节点和边属性的图。之前的图扩散模型提出将图嵌入连续空间，并在节点特征和图邻接矩阵中添加高斯噪声，这破坏了图的稀疏性，并创建了未定义结构信息的完整噪声图。因此，连续扩散会使去噪网络难以捕捉数据的结构特性
+提出了 DiGress，一种用于生成 graphs 的离散去噪扩散模型，用于生成具有分类节点和边属性的图。</t>
+    </r>
+  </si>
+  <si>
     <t>DIFFUSEQ: Sequence to Sequence Text Generation with Diffusion Models</t>
   </si>
   <si>
@@ -3118,9 +3580,6 @@
   <si>
     <t>(1) Shark-NLP, Shanghai AI Laboratory 
 (2)The University of Hong Kong</t>
-  </si>
-  <si>
-    <t>ICLR 2023</t>
   </si>
   <si>
     <t>条件文本生成</t>
@@ -3250,7 +3709,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3515,19 +3974,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="52">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3602,6 +4067,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3645,6 +4116,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3982,7 +4465,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4006,16 +4489,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4024,89 +4507,89 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4158,25 +4641,28 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4203,7 +4689,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4212,13 +4698,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4275,7 +4767,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4284,19 +4776,31 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4380,64 +4884,70 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4984,124 +5494,124 @@
   <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="19" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="20" customWidth="1"/>
     <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AA1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="71" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5111,7 +5621,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5156,42 +5666,42 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="41" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="65">
+      <c r="AA4" s="72">
         <v>3</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="66">
+      <c r="AE4" s="73">
         <v>45594</v>
       </c>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5227,42 +5737,42 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="42" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="67">
+      <c r="AA5" s="74">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="68" t="s">
+      <c r="AC5" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="33" t="s">
+      <c r="AD5" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="66">
+      <c r="AE5" s="73">
         <v>45594</v>
       </c>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5301,16 +5811,16 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="40" t="s">
+      <c r="W6" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="41" t="s">
+      <c r="X6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="69">
+      <c r="AA6" s="76">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -5319,24 +5829,24 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="31" t="s">
+      <c r="AD6" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="66">
+      <c r="AE6" s="73">
         <v>45599</v>
       </c>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5380,17 +5890,17 @@
       <c r="V7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="41" t="s">
         <v>99</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="65">
+      <c r="AA7" s="72">
         <v>449</v>
       </c>
       <c r="AB7" s="2" t="s">
@@ -5398,7 +5908,7 @@
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:29">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5442,17 +5952,17 @@
       <c r="V8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W8" s="40" t="s">
+      <c r="W8" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="45" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="69">
+      <c r="AA8" s="76">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -5463,7 +5973,7 @@
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -5513,31 +6023,31 @@
       <c r="V9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="W9" s="43" t="s">
+      <c r="W9" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="X9" s="43" t="s">
+      <c r="X9" s="46" t="s">
         <v>131</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>132</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="70">
+      <c r="AA9" s="77">
         <v>47</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AC9" s="71" t="s">
+      <c r="AC9" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="72" t="s">
+      <c r="AD9" s="79" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5585,23 +6095,23 @@
       <c r="V10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="44" t="s">
+      <c r="W10" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="X10" s="44" t="s">
+      <c r="X10" s="47" t="s">
         <v>149</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>150</v>
       </c>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="73">
+      <c r="AA10" s="80">
         <v>146</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AC10" s="74" t="s">
+      <c r="AC10" s="81" t="s">
         <v>52</v>
       </c>
       <c r="AD10" s="6" t="s">
@@ -5614,7 +6124,7 @@
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5641,37 +6151,37 @@
       <c r="V16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="W16" s="39" t="s">
+      <c r="W16" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="X16" s="39" t="s">
+      <c r="X16" s="42" t="s">
         <v>164</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AA16" s="67">
+      <c r="AA16" s="74">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AD16" s="33" t="s">
+      <c r="AD16" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
     </row>
     <row r="17" s="7" customFormat="1" ht="360" spans="1:40">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -5701,34 +6211,34 @@
       <c r="V17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="W17" s="45" t="s">
+      <c r="W17" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="X17" s="45" t="s">
+      <c r="X17" s="48" t="s">
         <v>179</v>
       </c>
       <c r="Y17" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AA17" s="75">
+      <c r="AA17" s="82">
         <v>485</v>
       </c>
       <c r="AB17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -5761,48 +6271,48 @@
       <c r="P18" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="U18" s="46" t="s">
+      <c r="U18" s="49" t="s">
         <v>193</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="W18" s="47" t="s">
+      <c r="W18" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="X18" s="47" t="s">
+      <c r="X18" s="50" t="s">
         <v>196</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AA18" s="73">
+      <c r="AA18" s="80">
         <v>45</v>
       </c>
-      <c r="AB18" s="74" t="s">
+      <c r="AB18" s="81" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AD18" s="76" t="s">
+      <c r="AD18" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="AE18" s="66">
+      <c r="AE18" s="73">
         <v>45599</v>
       </c>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5850,16 +6360,16 @@
       <c r="V19" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="W19" s="38" t="s">
+      <c r="W19" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="X19" s="48" t="s">
+      <c r="X19" s="51" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AA19" s="65">
+      <c r="AA19" s="72">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
@@ -5868,24 +6378,24 @@
       <c r="AC19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AD19" s="30" t="s">
+      <c r="AD19" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="AE19" s="66">
+      <c r="AE19" s="73">
         <v>45594</v>
       </c>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>220</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -5929,42 +6439,42 @@
       <c r="V20" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="W20" s="49" t="s">
+      <c r="W20" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="X20" s="49" t="s">
+      <c r="X20" s="52" t="s">
         <v>234</v>
       </c>
       <c r="Y20" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="AA20" s="77">
+      <c r="AA20" s="84">
         <v>417</v>
       </c>
-      <c r="AB20" s="78" t="s">
+      <c r="AB20" s="85" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="AD20" s="79" t="s">
+      <c r="AD20" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="AE20" s="66">
+      <c r="AE20" s="73">
         <v>45594</v>
       </c>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
     </row>
     <row r="21" s="9" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>238</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -6006,16 +6516,16 @@
       <c r="V21" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="W21" s="50" t="s">
+      <c r="W21" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="X21" s="51" t="s">
+      <c r="X21" s="54" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="AA21" s="80">
+      <c r="AA21" s="87">
         <v>1972</v>
       </c>
       <c r="AB21" s="9" t="s">
@@ -6027,21 +6537,21 @@
       <c r="AD21" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="AE21" s="66">
+      <c r="AE21" s="73">
         <v>45594</v>
       </c>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
     </row>
     <row r="22" s="10" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>255</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -6074,39 +6584,39 @@
       <c r="V22" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="W22" s="52" t="s">
+      <c r="W22" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="X22" s="52" t="s">
+      <c r="X22" s="55" t="s">
         <v>266</v>
       </c>
       <c r="Y22" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AA22" s="81">
+      <c r="AA22" s="88">
         <v>80</v>
       </c>
       <c r="AB22" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AC22" s="82" t="s">
+      <c r="AC22" s="89" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AE22" s="66">
+      <c r="AE22" s="73">
         <v>45594</v>
       </c>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
@@ -6119,7 +6629,7 @@
       </c>
     </row>
     <row r="28" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -6155,42 +6665,42 @@
       <c r="V28" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="W28" s="53" t="s">
+      <c r="W28" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="X28" s="53" t="s">
+      <c r="X28" s="56" t="s">
         <v>285</v>
       </c>
       <c r="Y28" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="AA28" s="83">
+      <c r="AA28" s="90">
         <v>36</v>
       </c>
-      <c r="AB28" s="84" t="s">
+      <c r="AB28" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="84" t="s">
+      <c r="AC28" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="85" t="s">
+      <c r="AD28" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="AE28" s="66">
+      <c r="AE28" s="73">
         <v>45599</v>
       </c>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="30" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -6223,22 +6733,22 @@
       <c r="P29" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="U29" s="54" t="s">
+      <c r="U29" s="57" t="s">
         <v>296</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="W29" s="40" t="s">
+      <c r="W29" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="X29" s="40" t="s">
+      <c r="X29" s="43" t="s">
         <v>299</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AA29" s="69">
+      <c r="AA29" s="76">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
@@ -6247,24 +6757,24 @@
       <c r="AC29" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AD29" s="86" t="s">
+      <c r="AD29" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="AE29" s="66">
+      <c r="AE29" s="73">
         <v>45599</v>
       </c>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
     </row>
     <row r="30" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="30" t="s">
         <v>304</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -6312,17 +6822,17 @@
       <c r="V30" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="W30" s="55" t="s">
+      <c r="W30" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="X30" s="55" t="s">
+      <c r="X30" s="58" t="s">
         <v>316</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>317</v>
       </c>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="87">
+      <c r="AA30" s="94">
         <v>290</v>
       </c>
       <c r="AB30" s="12" t="s">
@@ -6331,11 +6841,85 @@
       <c r="AC30" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="AD30" s="88" t="s">
+      <c r="AD30" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="AE30" s="89">
+      <c r="AE30" s="96">
         <v>45607</v>
+      </c>
+    </row>
+    <row r="31" s="13" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A31" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="W31" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="X31" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="97">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD31" s="98" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -6343,303 +6927,303 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="E40" s="13" t="s">
+    <row r="40" s="14" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A40" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="F40" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="W40" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="X40" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y40" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA40" s="90">
+      <c r="J40" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="U40" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="V40" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="W40" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA40" s="99">
         <v>12188</v>
       </c>
-      <c r="AB40" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC40" s="91" t="s">
+      <c r="AB40" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC40" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="92" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE40" s="66">
+      <c r="AD40" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE40" s="73">
         <v>45599</v>
       </c>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-      <c r="AN40" s="17"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
     </row>
-    <row r="41" s="14" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D41" s="14" t="s">
+    <row r="41" s="15" customFormat="1" ht="375" spans="1:40">
+      <c r="A41" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="H41" s="14" t="s">
+      <c r="E41" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="U41" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="V41" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="W41" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="X41" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y41" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA41" s="102">
+        <v>959</v>
+      </c>
+      <c r="AB41" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC41" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD41" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE41" s="73">
+        <v>45599</v>
+      </c>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+    </row>
+    <row r="42" s="16" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A42" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="P41" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="U41" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="V41" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="W41" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="X41" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA41" s="93">
-        <v>959</v>
-      </c>
-      <c r="AB41" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC41" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD41" s="94" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE41" s="66">
-        <v>45599</v>
-      </c>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
-    </row>
-    <row r="42" s="15" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q42" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="V42" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="W42" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="X42" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y42" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="95">
+      <c r="F42" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="W42" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="X42" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="104">
         <v>742</v>
       </c>
-      <c r="AB42" s="96" t="s">
+      <c r="AB42" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="96" t="s">
+      <c r="AC42" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE42" s="98">
+      <c r="AD42" s="106" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE42" s="107">
         <v>45602</v>
       </c>
     </row>
     <row r="43" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A43" s="29" t="s">
-        <v>369</v>
+      <c r="A43" s="30" t="s">
+        <v>388</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>123</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="W43" s="55" t="s">
-        <v>379</v>
-      </c>
-      <c r="X43" s="55" t="s">
-        <v>380</v>
+        <v>397</v>
+      </c>
+      <c r="W43" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="X43" s="58" t="s">
+        <v>399</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="87">
+      <c r="AA43" s="94">
         <v>1627</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="AC43" s="12" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE43" s="89">
+        <v>403</v>
+      </c>
+      <c r="AE43" s="96">
         <v>45607</v>
       </c>
     </row>
@@ -6649,17 +7233,17 @@
       </c>
     </row>
     <row r="48" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="29" t="s">
-        <v>385</v>
+      <c r="A48" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>139</v>
@@ -6671,131 +7255,273 @@
         <v>173</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="W48" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="X48" s="59" t="s">
-        <v>397</v>
+        <v>414</v>
+      </c>
+      <c r="W48" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="X48" s="63" t="s">
+        <v>416</v>
       </c>
       <c r="Y48" s="10" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="Z48" s="10"/>
-      <c r="AA48" s="81">
+      <c r="AA48" s="88">
         <v>162</v>
       </c>
       <c r="AB48" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC48" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC48" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="99" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE48" s="100">
+      <c r="AD48" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE48" s="109">
         <v>45602</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A49" s="29" t="s">
-        <v>401</v>
+      <c r="A49" s="30" t="s">
+        <v>420</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="W49" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="X49" s="38" t="s">
-        <v>415</v>
+        <v>432</v>
+      </c>
+      <c r="W49" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="X49" s="41" t="s">
+        <v>434</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="65">
+      <c r="AA49" s="72">
         <v>1295</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="AD49" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE49" s="101">
+        <v>437</v>
+      </c>
+      <c r="AD49" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE49" s="110">
         <v>45607</v>
+      </c>
+    </row>
+    <row r="50" s="16" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A50" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="W50" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="X50" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y50" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="104">
+        <v>52</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC50" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD50" s="106" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" s="12" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A51" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="W51" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="X51" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="94">
+        <v>84</v>
+      </c>
+      <c r="AB51" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC51" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD51" s="95" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -6803,182 +7529,254 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A56" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E56" s="16" t="s">
+    <row r="56" s="17" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A56" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q56" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="V56" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="W56" s="60" t="s">
-        <v>433</v>
-      </c>
-      <c r="X56" s="61" t="s">
+      <c r="F56" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="V56" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="W56" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="X56" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="Y56" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="102">
+      <c r="Y56" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="111">
         <v>38</v>
       </c>
-      <c r="AB56" s="61" t="s">
+      <c r="AB56" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AC56" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="AD56" s="103" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE56" s="104">
+      <c r="AC56" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD56" s="112" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE56" s="113">
         <v>45607</v>
       </c>
     </row>
-    <row r="63" s="17" customFormat="1" spans="1:27">
-      <c r="A63" s="17" t="s">
+    <row r="57" s="12" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A57" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="W57" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="X57" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="94">
+        <v>299</v>
+      </c>
+      <c r="AB57" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC57" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD57" s="95" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" s="18" customFormat="1" spans="1:27">
+      <c r="A63" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="105"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="114"/>
     </row>
-    <row r="64" s="18" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A64" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="E64" s="18" t="s">
+    <row r="64" s="19" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A64" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="U64" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="V64" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="W64" s="62" t="s">
-        <v>449</v>
-      </c>
-      <c r="X64" s="62" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y64" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="106">
+      <c r="F64" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="U64" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="V64" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="W64" s="69" t="s">
+        <v>514</v>
+      </c>
+      <c r="X64" s="69" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y64" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="115">
         <v>264</v>
       </c>
-      <c r="AB64" s="107" t="s">
-        <v>452</v>
-      </c>
-      <c r="AC64" s="108" t="s">
+      <c r="AB64" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC64" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="109" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE64" s="110">
+      <c r="AD64" s="118" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE64" s="119">
         <v>45607</v>
       </c>
     </row>
@@ -7036,6 +7834,13 @@
     <hyperlink ref="X9" r:id="rId44" display="https://github.com/haolsun/dual-glow"/>
     <hyperlink ref="W10" r:id="rId45" display="https://proceedings.mlr.press/v119/ping20a/ping20a.pdf"/>
     <hyperlink ref="X10" r:id="rId46" display="https://github.com/PaddlePaddle/Parakeet/tree/develop/examples/waveflow"/>
+    <hyperlink ref="W57" r:id="rId47" display="https://arxiv.org/pdf/2209.14734"/>
+    <hyperlink ref="X57" r:id="rId48" display="https://github.com/cvignac/DiGress"/>
+    <hyperlink ref="W50" r:id="rId49" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/95f03faf3763e1b1ce2c3de62da8f090-Paper-Conference.pdf"/>
+    <hyperlink ref="X50" r:id="rId50" display="https://github.com/microsoft/NeuralSpeech/tree/master/BinauralGrad"/>
+    <hyperlink ref="W51" r:id="rId51" display="https://proceedings.mlr.press/v162/kim22d/kim22d.pdf"/>
+    <hyperlink ref="W31" r:id="rId52" display="https://arxiv.org/pdf/2302.09746"/>
+    <hyperlink ref="X31" r:id="rId53" display="https://github.com/LMZZML/PriSTI"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="520">
   <si>
     <t>论文名</t>
   </si>
@@ -600,17 +600,25 @@
     <t>ICML 2019</t>
   </si>
   <si>
-    <t>无条件图像建模</t>
+    <t>标准图像基准上的无条件密度估计</t>
   </si>
   <si>
     <t>(1) CIFAR10
-(2) 32x32 and 64x64 ImageNet</t>
-  </si>
-  <si>
-    <t>离散数据，文献中是图像</t>
-  </si>
-  <si>
-    <t>连续的概率分布</t>
+(2) 32x32 and 64x64 ImageNet
+(3) CelebA</t>
+  </si>
+  <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <t>离散数据，这里为图像，通过变分去量化技术得到连续数据</t>
+  </si>
+  <si>
+    <t>从标准正态分布中采样一个潜在变量 
+z，再由逆变换生成新图像</t>
+  </si>
+  <si>
+    <t>variational lower bound</t>
   </si>
   <si>
     <r>
@@ -661,6 +669,11 @@
 (3) NVIDIA Titan X GPU</t>
   </si>
   <si>
+    <t xml:space="preserve">Flow++ 针对流型生成模型进行优化，这些模型在处理离散数据分布时往往表现欠佳。它引入了变分去量化策略，以处理离散值的量化问题，并通过精心设计的模型架构提升模型的表达能力。
+项目的核心在于变分去量化（Variational Dequantization）和架构设计。前者通过引入噪声来模拟从连续到离散的转换过程，从而减轻量化带来的信息损失。后者则通过调整模型结构，如增加层次或改变层间关系，提升了模型的复杂性和适应性。这种结合使得Flow++ 能够更好地理解和生成复杂的图像数据。
+</t>
+  </si>
+  <si>
     <t>Recommendation via Collaborative Autoregressive Flows</t>
   </si>
   <si>
@@ -683,17 +696,15 @@
 (3) LastFM , LF</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) user–item interactions
-(2) </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
+    <t>(1) 用户和项目的交互
+(2) 用户特征
+(3) 项目特征</t>
+  </si>
+  <si>
+    <t>推荐列表</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> evidence lower bound (ELBO) 
 </t>
     </r>
@@ -706,9 +717,6 @@
       </rPr>
       <t>PS: 具体表达式见4.1. Model basics 公式(12)</t>
     </r>
-  </si>
-  <si>
-    <t>ELBO由两部分组成：</t>
   </si>
   <si>
     <r>
@@ -781,6 +789,10 @@
 (2) investigating the trade-offs between improving the overall efficiency of CAF and its effectiveness</t>
   </si>
   <si>
+    <t>挑战：传统的协同过滤（CF）方法在处理用户和项目之间的非线性关系时存在局限性。现有的深度生成推荐模型（如VAE）通常假设后验分布可以分解为多个独立因子，这限制了模型匹配真实后验和不确定性的能力。尽管深度学习推荐模型在准确性上有所提升，但这些提升不足以确保高质量推荐系统，且可能导致过度专业化。基于贝叶斯推断的协同VAE模型难以优化，主要是因为变分推断固有的偏差。
+作者提出了一种新的基于流的生成模型（CAF），用于建模和估计用户-项目交互的隐式反馈</t>
+  </si>
+  <si>
     <t>DUAL-GLOW: Conditional Flow-Based Generative Model for Modality Transfer</t>
   </si>
   <si>
@@ -799,9 +811,6 @@
   </si>
   <si>
     <t>(1) Alzheimer's Disease Neuroimaging Initiative (ADNI) dataset</t>
-  </si>
-  <si>
-    <t>图像</t>
   </si>
   <si>
     <r>
@@ -2302,6 +2311,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) the originally collected spatiotemporal data in real-world scenarios is usually incomplete due to sensor failures or transmission loss
 (2) Deep learning methods such as RNN based methods suffer from error accumulation issues
 (3) the construction and utilization of conditional information are inevitable challenges when applying diffusion models to spatiotemporal imputation
@@ -2367,6 +2382,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -3268,25 +3290,16 @@
     <t>文本，音素序列</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">音频波形
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PS：由生成的梅尔谱图合成为音频波形</t>
-    </r>
-  </si>
-  <si>
     <t>L2 loss</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Most existing TTS models require training on transcribed data, and directly using untranslated data is a challenge.
 (2) Although there are some methods that use untranslated audio, these methods heavily rely on pre trained multispeaker TTS models, requires high-quality multi-speaker TTS datasets. At the same time, these methods also have poor generalization ability.
 </t>
@@ -3345,6 +3358,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -3395,9 +3415,6 @@
   </si>
   <si>
     <t>新生成的图结构</t>
-  </si>
-  <si>
-    <t>variational lower bound</t>
   </si>
   <si>
     <t>具体表达式见公式3</t>
@@ -3962,7 +3979,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3974,25 +3997,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="4" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="55">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4067,12 +4084,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4116,18 +4127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4465,7 +4464,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4489,16 +4488,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4507,89 +4506,89 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4641,78 +4640,66 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4767,7 +4754,10 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4776,13 +4766,7 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
@@ -4791,16 +4775,16 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4809,6 +4793,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4821,6 +4808,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4830,12 +4826,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4881,73 +4883,64 @@
     <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5494,124 +5487,124 @@
   <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="20" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="19" customWidth="1"/>
     <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="70" t="s">
+      <c r="AA1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="71" t="s">
+      <c r="AD1" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5621,7 +5614,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5666,42 +5659,42 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="41" t="s">
+      <c r="X4" s="37" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="72">
+      <c r="AA4" s="67">
         <v>3</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="73">
+      <c r="AE4" s="69">
         <v>45594</v>
       </c>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5737,42 +5730,42 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="38" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="74">
+      <c r="AA5" s="70">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="75" t="s">
+      <c r="AC5" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AD5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="73">
+      <c r="AE5" s="69">
         <v>45594</v>
       </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5811,16 +5804,16 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W6" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="44" t="s">
+      <c r="X6" s="40" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="76">
+      <c r="AA6" s="72">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -5829,24 +5822,24 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AD6" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="73">
+      <c r="AE6" s="69">
         <v>45599</v>
       </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="409.5" spans="1:28">
-      <c r="A7" s="31" t="s">
+    <row r="7" s="2" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A7" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5867,424 +5860,445 @@
       <c r="G7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W7" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="41" t="s">
         <v>99</v>
       </c>
+      <c r="W7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="Y7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="72">
-        <v>449</v>
+      <c r="AA7" s="67">
+        <v>505</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE7" s="74">
+        <v>45610</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="409.5" spans="1:29">
-      <c r="A8" s="32" t="s">
-        <v>102</v>
+    <row r="8" s="4" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A8" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+        <v>113</v>
+      </c>
       <c r="U8" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="W8" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="X8" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="W8" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="X8" s="41" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="76">
+      <c r="AA8" s="72">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE8" s="75">
+        <v>45610</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A9" s="33" t="s">
-        <v>117</v>
+    <row r="9" s="5" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A9" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W9" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="X9" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="W9" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="77">
+      <c r="AA9" s="76">
         <v>47</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC9" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="79" t="s">
-        <v>134</v>
+      <c r="AD9" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE9" s="79">
+        <v>45610</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A10" s="31" t="s">
-        <v>135</v>
+    <row r="10" s="6" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A10" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="W10" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="X10" s="47" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="W10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="X10" s="43" t="s">
+        <v>152</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="80">
         <v>146</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AC10" s="81" t="s">
         <v>52</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="AE10" s="82">
+        <v>45610</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
-      <c r="A16" s="34" t="s">
-        <v>154</v>
+      <c r="A16" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="W16" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="X16" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA16" s="74">
+        <v>168</v>
+      </c>
+      <c r="AA16" s="70">
         <v>609</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD16" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="AD16" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
     </row>
     <row r="17" s="7" customFormat="1" ht="360" spans="1:40">
-      <c r="A17" s="35" t="s">
-        <v>168</v>
+      <c r="A17" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="W17" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="X17" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="W17" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA17" s="82">
+        <v>183</v>
+      </c>
+      <c r="AA17" s="83">
         <v>485</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="30" t="s">
-        <v>182</v>
+      <c r="A18" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="U18" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="U18" s="45" t="s">
+        <v>196</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="W18" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="X18" s="50" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="W18" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="X18" s="46" t="s">
+        <v>199</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA18" s="80">
         <v>45</v>
@@ -6293,633 +6307,636 @@
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD18" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE18" s="73">
+        <v>201</v>
+      </c>
+      <c r="AD18" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE18" s="69">
         <v>45599</v>
       </c>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="30" t="s">
-        <v>200</v>
+      <c r="A19" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="W19" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="X19" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="W19" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="X19" s="47" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA19" s="72">
+        <v>219</v>
+      </c>
+      <c r="AA19" s="67">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD19" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE19" s="73">
+        <v>221</v>
+      </c>
+      <c r="AD19" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE19" s="69">
         <v>45594</v>
       </c>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="30" t="s">
-        <v>220</v>
+      <c r="A20" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="P20" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="W20" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="X20" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="W20" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="X20" s="48" t="s">
+        <v>237</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA20" s="84">
+        <v>238</v>
+      </c>
+      <c r="AA20" s="85">
         <v>417</v>
       </c>
-      <c r="AB20" s="85" t="s">
+      <c r="AB20" s="86" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD20" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE20" s="73">
+        <v>239</v>
+      </c>
+      <c r="AD20" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE20" s="69">
         <v>45594</v>
       </c>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
     </row>
     <row r="21" s="9" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="30" t="s">
-        <v>238</v>
+      <c r="A21" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="W21" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="X21" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="W21" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="X21" s="50" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA21" s="87">
+        <v>254</v>
+      </c>
+      <c r="AA21" s="88">
         <v>1972</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE21" s="73">
+        <v>257</v>
+      </c>
+      <c r="AE21" s="69">
         <v>45594</v>
       </c>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
     </row>
     <row r="22" s="10" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="30" t="s">
-        <v>255</v>
+      <c r="A22" s="29" t="s">
+        <v>258</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="W22" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="X22" s="55" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="W22" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="X22" s="51" t="s">
+        <v>269</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA22" s="88">
+        <v>270</v>
+      </c>
+      <c r="AA22" s="89">
         <v>80</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC22" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC22" s="90" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE22" s="73">
+        <v>272</v>
+      </c>
+      <c r="AE22" s="69">
         <v>45594</v>
       </c>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="30" t="s">
-        <v>272</v>
+      <c r="A28" s="29" t="s">
+        <v>275</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="W28" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="X28" s="56" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="W28" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="X28" s="52" t="s">
+        <v>288</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA28" s="90">
+        <v>289</v>
+      </c>
+      <c r="AA28" s="91">
         <v>36</v>
       </c>
-      <c r="AB28" s="91" t="s">
+      <c r="AB28" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="91" t="s">
+      <c r="AC28" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE28" s="73">
+      <c r="AD28" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE28" s="69">
         <v>45599</v>
       </c>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="18"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="30" t="s">
-        <v>288</v>
+      <c r="A29" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="U29" s="57" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="U29" s="53" t="s">
+        <v>299</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="W29" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="X29" s="43" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="W29" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="X29" s="39" t="s">
+        <v>302</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA29" s="76">
+        <v>303</v>
+      </c>
+      <c r="AA29" s="72">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD29" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE29" s="73">
+        <v>305</v>
+      </c>
+      <c r="AD29" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE29" s="69">
         <v>45599</v>
       </c>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
     </row>
     <row r="30" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A30" s="30" t="s">
-        <v>304</v>
+      <c r="A30" s="29" t="s">
+        <v>307</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="W30" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="X30" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="W30" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="X30" s="54" t="s">
+        <v>319</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="94">
+      <c r="AA30" s="95">
         <v>290</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD30" s="95" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE30" s="96">
+        <v>322</v>
+      </c>
+      <c r="AD30" s="96" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE30" s="97">
         <v>45607</v>
       </c>
     </row>
-    <row r="31" s="13" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A31" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D31" s="13" t="s">
+    <row r="31" s="10" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A31" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="B31" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="G31" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13" t="s">
+      <c r="H31" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13" t="s">
+      <c r="K31" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="V31" s="13" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="W31" s="59" t="s">
+      <c r="Q31" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="X31" s="59" t="s">
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="Y31" s="13" t="s">
+      <c r="V31" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="97">
+      <c r="W31" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="X31" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="89">
         <v>41</v>
       </c>
-      <c r="AB31" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>338</v>
+      <c r="AB31" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC31" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="AD31" s="98" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="AE31" s="99">
+        <v>45610</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -6927,856 +6944,865 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="14" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D40" s="14" t="s">
+    <row r="40" s="13" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A40" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="B40" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J40" s="14" t="s">
+      <c r="F40" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="W40" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="X40" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA40" s="100">
+        <v>12188</v>
+      </c>
+      <c r="AB40" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC40" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD40" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE40" s="69">
+        <v>45599</v>
+      </c>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+    </row>
+    <row r="41" s="14" customFormat="1" ht="375" spans="1:40">
+      <c r="A41" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="W41" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA41" s="103">
+        <v>959</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD41" s="104" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE41" s="69">
+        <v>45599</v>
+      </c>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+    </row>
+    <row r="42" s="15" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A42" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="K40" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="U40" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="V40" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="W40" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="X40" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA40" s="99">
-        <v>12188</v>
-      </c>
-      <c r="AB40" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="AC40" s="100" t="s">
+      <c r="E42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="W42" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="X42" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="105">
+        <v>742</v>
+      </c>
+      <c r="AB42" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE40" s="73">
-        <v>45599</v>
-      </c>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-    </row>
-    <row r="41" s="15" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="P41" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="U41" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="V41" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="W41" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="X41" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y41" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA41" s="102">
-        <v>959</v>
-      </c>
-      <c r="AB41" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC41" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD41" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE41" s="73">
-        <v>45599</v>
-      </c>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AN41" s="18"/>
-    </row>
-    <row r="42" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="V42" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="W42" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="X42" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y42" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="104">
-        <v>742</v>
-      </c>
-      <c r="AB42" s="105" t="s">
+      <c r="AC42" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD42" s="106" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE42" s="107">
+      <c r="AD42" s="107" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE42" s="108">
         <v>45602</v>
       </c>
     </row>
     <row r="43" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A43" s="30" t="s">
-        <v>388</v>
+      <c r="A43" s="29" t="s">
+        <v>391</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="W43" s="58" t="s">
-        <v>398</v>
-      </c>
-      <c r="X43" s="58" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="W43" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="X43" s="54" t="s">
+        <v>402</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="94">
+      <c r="AA43" s="95">
         <v>1627</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AC43" s="12" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE43" s="96">
+        <v>406</v>
+      </c>
+      <c r="AE43" s="97">
         <v>45607</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="30" t="s">
-        <v>404</v>
+      <c r="A48" s="29" t="s">
+        <v>407</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="W48" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="X48" s="63" t="s">
-        <v>416</v>
+        <v>417</v>
+      </c>
+      <c r="W48" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="X48" s="55" t="s">
+        <v>419</v>
       </c>
       <c r="Y48" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Z48" s="10"/>
-      <c r="AA48" s="88">
+      <c r="AA48" s="89">
         <v>162</v>
       </c>
       <c r="AB48" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="AC48" s="89" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC48" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="108" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE48" s="109">
+      <c r="AD48" s="98" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE48" s="99">
         <v>45602</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A49" s="30" t="s">
-        <v>420</v>
+      <c r="A49" s="29" t="s">
+        <v>423</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="W49" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="X49" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="67">
+        <v>1295</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD49" s="68" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE49" s="74">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="50" s="15" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A50" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="W49" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="X49" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="72">
-        <v>1295</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD49" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE49" s="110">
-        <v>45607</v>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q50" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="V50" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="W50" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="X50" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y50" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="105">
+        <v>52</v>
+      </c>
+      <c r="AB50" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC50" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD50" s="107" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE50" s="108">
+        <v>45610</v>
       </c>
     </row>
-    <row r="50" s="16" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A50" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q50" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="V50" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="W50" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="X50" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y50" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="104">
-        <v>52</v>
-      </c>
-      <c r="AB50" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC50" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="AD50" s="106" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="51" s="12" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A51" s="38" t="s">
-        <v>456</v>
+    <row r="51" s="12" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A51" s="30" t="s">
+        <v>459</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="V51" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="W51" s="65" t="s">
-        <v>467</v>
-      </c>
-      <c r="X51" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="W51" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="X51" s="61" t="s">
         <v>52</v>
       </c>
       <c r="Y51" s="12" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Z51" s="12"/>
-      <c r="AA51" s="94">
+      <c r="AA51" s="95">
         <v>84</v>
       </c>
       <c r="AB51" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="AC51" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC51" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AD51" s="95" t="s">
-        <v>470</v>
+      <c r="AD51" s="96" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE51" s="97">
+        <v>45610</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="56" s="17" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A56" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="C56" s="17" t="s">
+    <row r="56" s="16" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A56" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="E56" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17" t="s">
+      <c r="G56" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="H56" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17" t="s">
+      <c r="I56" s="16"/>
+      <c r="J56" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="Q56" s="17" t="s">
+      <c r="K56" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17" t="s">
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q56" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="V56" s="17" t="s">
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="W56" s="67" t="s">
+      <c r="V56" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="X56" s="68" t="s">
+      <c r="W56" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="X56" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="Y56" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="111">
+      <c r="Y56" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="109">
         <v>38</v>
       </c>
-      <c r="AB56" s="68" t="s">
+      <c r="AB56" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AC56" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD56" s="112" t="s">
+      <c r="AC56" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="AE56" s="113">
+      <c r="AD56" s="110" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE56" s="111">
         <v>45607</v>
       </c>
     </row>
-    <row r="57" s="12" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A57" s="34" t="s">
-        <v>488</v>
+    <row r="57" s="12" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A57" s="30" t="s">
+        <v>489</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V57" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="W57" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="X57" s="58" t="s">
+      <c r="W57" s="54" t="s">
         <v>500</v>
       </c>
+      <c r="X57" s="54" t="s">
+        <v>501</v>
+      </c>
       <c r="Y57" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="94">
+      <c r="AA57" s="95">
         <v>299</v>
       </c>
-      <c r="AB57" s="66" t="s">
+      <c r="AB57" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AC57" s="66" t="s">
+      <c r="AC57" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AD57" s="95" t="s">
-        <v>502</v>
+      <c r="AD57" s="96" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE57" s="97">
+        <v>45610</v>
       </c>
     </row>
-    <row r="63" s="18" customFormat="1" spans="1:27">
-      <c r="A63" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="114"/>
+    <row r="63" s="17" customFormat="1" spans="1:27">
+      <c r="A63" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="112"/>
     </row>
-    <row r="64" s="19" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A64" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="B64" s="19" t="s">
+    <row r="64" s="18" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A64" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="19" t="s">
+      <c r="C64" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="D64" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="G64" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19" t="s">
+      <c r="H64" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="K64" s="19" t="s">
+      <c r="I64" s="18"/>
+      <c r="J64" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19" t="s">
+      <c r="K64" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="U64" s="19" t="s">
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="V64" s="19" t="s">
+      <c r="U64" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="W64" s="69" t="s">
+      <c r="V64" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="X64" s="69" t="s">
+      <c r="W64" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="Y64" s="19" t="s">
+      <c r="X64" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="115">
+      <c r="Y64" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="113">
         <v>264</v>
       </c>
-      <c r="AB64" s="116" t="s">
-        <v>517</v>
-      </c>
-      <c r="AC64" s="117" t="s">
+      <c r="AB64" s="114" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC64" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="118" t="s">
-        <v>518</v>
-      </c>
-      <c r="AE64" s="119">
+      <c r="AD64" s="116" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE64" s="117">
         <v>45607</v>
       </c>
     </row>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="610">
   <si>
     <t>论文名</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> evidence lower bound (ELBO) 
 </t>
     </r>
@@ -1014,37 +1020,464 @@
     <t>NeurIPS 2022</t>
   </si>
   <si>
-    <t>NLP</t>
-  </si>
-  <si>
-    <t>E2E、ROCStories</t>
+    <t>自然语言处理（NLP）</t>
+  </si>
+  <si>
+    <t>非自回归语言模型的可控文本生成</t>
+  </si>
+  <si>
+    <r>
+      <t>(1) E2E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) ROCStories</t>
+    </r>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(1) difficulties in controlling language model behavior in natural language generation, especially in complex and fine-grained control 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(1) </t>
-    </r>
-  </si>
-  <si>
-    <t>lm-score</t>
+      <t>文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：具体过程为，数据集经过前向过程得到高斯噪声向量序列，再由高斯噪声向量序列和条件控制经过反向过程得到生成的文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件控制是指 指定的主题等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>生成的文本</t>
+  </si>
+  <si>
+    <t>端到端的训练损失</t>
+  </si>
+  <si>
+    <t>具体表达式见公式(2)。该损失是由扩散模型训练目标Variational Lower Bound修改而来（公式1为扩散模型训练目标）</t>
+  </si>
+  <si>
+    <r>
+      <t>(1) Controlling the behavior of language models (LMs) without re-training is a challenge.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) difficulties in controlling language model behavior in natural language generation, especially in complex and fine-grained control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3) updating the LM parameters for each control task can be expensive and does not allow for compositions of multiple controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) proposed Diffusion-LM, a novel and controllable language model based on continuous diffusions,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>which enables new forms of complex fine-grained control tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) add an embedding step and a rounding step to the standard diffusion process, design a training objective to learn the embedding, and propose techniques to improve rounding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Diffusion-LM using a gradient-based method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6控制任务的评价指标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) Semantic Content: success rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) Parts-of-speech: word-level exact match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3) Syntax Tree: F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(4) Syntax Spans: fraction of spans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(5) Length：根据生成文本长度是否落在目标长度的 ±2 范围内来判断成功与否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(6) Infilling:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BLEU-4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ROUGE-L ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CIDEr ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BERTScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf</t>
@@ -1053,79 +1486,328 @@
     <t>https://github.com/XiangLi1999/Diffusion-LM</t>
   </si>
   <si>
-    <t>@article{li2022diffusion,
-  title={Diffusion-lm improves controllable text generation},
-  author={Li, Xiang and Thickstun, John and Gulrajani, Ishaan and Liang, Percy S and Hashimoto, Tatsunori B},
-  journal={Advances in Neural Information Processing Systems},
-  volume={35},
-  pages={4328--4343},
-  year={2022}
-}</t>
-  </si>
-  <si>
-    <t>(1) Faster training convergence
-(2) decoding speed
-(3) model scalability improvements</t>
-  </si>
-  <si>
+    <r>
+      <t>@article{li2022diffusion,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>title={Diffusion-lm improves controllable text generation},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>author={Li, Xiang and Thickstun, John and Gulrajani, Ishaan and Liang, Percy S and Hashimoto, Tatsunori B},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>journal={Advances in Neural Information Processing Systems},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>volume={35},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pages={4328--4343},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>year={2022}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1) Faster training convergence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) decoding speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3) model scalability improvements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自然语言生成中控制语言模型行为存在困难，尤其是复杂、细粒度的控制（如句法结构）进展不大，现有方法在这方面存在诸多局限。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提出一个名为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挑战：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">自然语言生成中控制语言模型行为存在困难，尤其是复杂、细粒度的控制（如句法结构）进展不大，现有方法在这方面存在诸多局限。
-提出一个名为 </t>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Diffusion-LM（非自回归）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的连续扩散语言模型，用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Diffusion-LM（非自回归）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 的连续扩散语言模型，用于 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>可控文本生成（文本生成过程中对某些特定属性进行控制，如内容、情感等）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">， </t>
-    </r>
   </si>
   <si>
     <t>Grad-TTS: A Diffusion Probabilistic Model for Text-to-Speech</t>
@@ -1134,34 +1816,318 @@
     <t>Grad-TTS</t>
   </si>
   <si>
-    <t>(1) Russia Higher School of Economics
-(2) Huawei Noah’s Ark Lab</t>
+    <r>
+      <t>(1) Russia Higher School of Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) Huawei Noah’s Ark Lab</t>
+    </r>
   </si>
   <si>
     <t>ICML 2021</t>
   </si>
   <si>
-    <t>音频生成</t>
+    <t>自然语言处理（NLP）,音乐音频生成</t>
+  </si>
+  <si>
+    <t>非自回归语音合成</t>
   </si>
   <si>
     <t>LJSpeech</t>
   </si>
   <si>
-    <t xml:space="preserve"> text sequence consists of characters or phonemes</t>
-  </si>
-  <si>
-    <t>melspectrogram ( 梅尔频谱图 )</t>
-  </si>
-  <si>
-    <t>(1) Encoder Loss
-(2) Duration Predictor Loss
-(3) Diffusion Loss</t>
-  </si>
-  <si>
-    <t>(1) Mean Opinion Score (MOS)
-(2) Real-Time Factor and
-the number of parameters (assess the efficiency of the proposed model)
-(3) log-likelihood</t>
+    <t>音频和与之对应的文本</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>text sequence consists of characters or phonemes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>melspectrogram ( 梅尔频谱图 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：用于后续语音合成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>negative log-likelihood encoder Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) Duration Predictor Loss: MSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3) Diffusion Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>具体表达式见公式14、15、17</t>
+  </si>
+  <si>
+    <r>
+      <t>(1) Some models suffer from computational inefficiency and pronunciation issues coming from attention failures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) despite such a success in neural vocoding, no feature generator based on diffusion probabilistic modelling is known so far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) presented Grad-TTS, the first acoustic feature generator utilizing the concept of diffusion probabilistic modelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) the diffusion-based decoder that transforms Gaussian noise parameterized with the encoder output into mel-spectrogram while alignment is performed with Monotonic Alignment Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2F75B5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3) The model we propose allows to vary the number of decoder steps at inference, thus providing a tool to control the trade-off between inference speed and synthesized speech quality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1) Mean Opinion Score (MOS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) Real-Time Factor and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of parameters (assess the efficiency of the proposed model)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3) log-likelihood</t>
+    </r>
   </si>
   <si>
     <t>https://proceedings.mlr.press/v139/popov21a/popov21a.pdf</t>
@@ -1170,18 +2136,329 @@
     <t>https://github.com/huawei-noah/speech-backbones</t>
   </si>
   <si>
-    <t>@inproceedings{popov2021grad,
-  title={Grad-tts: A diffusion probabilistic model for text-to-speech},
-  author={Popov, Vadim and Vovk, Ivan and Gogoryan, Vladimir and Sadekova, Tasnima and Kudinov, Mikhail},
-  booktitle={International Conference on Machine Learning},
-  pages={8599--8608},
-  year={2021},
-  organization={PMLR}
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVIDIA RTX 2080 Ti with 11GB memory
-</t>
+    <r>
+      <t>@inproceedings{popov2021grad,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>title={Grad-tts: A diffusion probabilistic model for text-to-speech},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>author={Popov, Vadim and Vovk, Ivan and Gogoryan, Vladimir and Sadekova, Tasnima and Kudinov, Mikhail},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>booktitle={International Conference on Machine Learning},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pages={8599--8608},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>year={2021},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>organization={PMLR}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NVIDIA RTX 2080 Ti with 11GB memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1) End-to-end speech synthesis results reported above show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>that it is a promising future research direction for text-tospeech applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) explore how to choose weights for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>losses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3)pay more attention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to the choice of the noise schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(4) assuming that both forward and reverse diffusion processes exist is a constraint</t>
+    </r>
   </si>
   <si>
     <t>GraphGDP: Generative Diffusion Processes for Permutation Invariant Graph Generation</t>
@@ -1737,6 +3014,9 @@
   </si>
   <si>
     <t>ACL 2022</t>
+  </si>
+  <si>
+    <t>NLP</t>
   </si>
   <si>
     <t>LM1B</t>
@@ -2401,6 +3681,291 @@
       <t>现实世界中由于传感器故障和传输损失，时空数据常存在缺失情况。早期统计和经典机器学习方法基于强假设填补，忽略时空相关性复杂性；深度学习方法如基于 RNN 的方法存在误差累积问题；在将扩散模型应用于时空插补时，条件信息的构建和利用是不可避免的挑战。
 作者提出了PriSTI，这是一个用于时空插补的条件扩散框架，它构建和利用具有时空全局相关性和地理关系的条件信息</t>
     </r>
+  </si>
+  <si>
+    <t>An observed value consistent diffusion model for imputing missing values in multivariate time series</t>
+  </si>
+  <si>
+    <t>Multivariate Imputation Diffusion Model (MIDM)</t>
+  </si>
+  <si>
+    <t>University of Science and Technology of China</t>
+  </si>
+  <si>
+    <t>KDD 2023</t>
+  </si>
+  <si>
+    <t>(1) AQI
+(2) AQI-36
+(3) PEMS-BAY
+(4) CER-E
+(5) Healthcare</t>
+  </si>
+  <si>
+    <t>观测值</t>
+  </si>
+  <si>
+    <t>(1) KL散度
+(2) mse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) missing values resulted from various reasons such as device failures and human errors are inevitable and will greatly hamper the utilization and interpretation of multivariate time series data
+(2) The limitations of existing methods: Deterministic models determine their shortcomings in modeling and interpolating uncertainty; Probabilistic models either still perform poorly in generating higher quality missing value estimates, or are difficult to train and have poor interpretability  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) derive the new theoretical Evidence Lower BOund of applying diffusion models on the problem of multivariate time series imputation by taking the consistency between observed and missing values into account
+(2) Based on the newly derived ELBO, we  propose a brand new diffusion model equipped with novel noise sampling, adding and denoising mechanisms for multivariate time series imputation, and the series of newly designed technologies jointly ensure the involving of the consistency between observed and missing values </t>
+    </r>
+  </si>
+  <si>
+    <t>(1) MAE
+(2) MSE
+(3) MRE</t>
+  </si>
+  <si>
+    <t>http://home.ustc.edu.cn/~pengkun/files/Publications/KDD2023_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@inproceedings{10.1145/3580305.3599257,
+author = {Wang, Xu and Zhang, Hongbo and Wang, Pengkun and Zhang, Yudong and Wang, Binwu and Zhou, Zhengyang and Wang, Yang},
+title = {An Observed Value Consistent Diffusion Model for Imputing Missing Values in Multivariate Time Series},
+year = {2023},
+isbn = {9798400701030},
+publisher = {Association for Computing Machinery},
+address = {New York, NY, USA},
+url = {https://doi.org/10.1145/3580305.3599257},
+doi = {10.1145/3580305.3599257},
+booktitle = {Proceedings of the 29th ACM SIGKDD Conference on Knowledge Discovery and Data Mining},
+pages = {2409–2418},
+numpages = {10},
+keywords = {conditional generation, diffusion model, multivariate time series},
+location = {Long Beach, CA, USA},
+series = {KDD '23}
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> our ELBO can be extendedly utilized into generalized recovering problem in which missing
+data is imputed based on given partial observations and eventually
+recover the whole dataset. And this can promote our model to wider
+application scenarios, e.g., image restoration and image resolution
+enhancement</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：缺失值在多元时间序列中很常见，是利用和解释这些数据的最重要障碍。现有的深度学习网络要么由于其确定性而无法对插补的不确定性进行建模，要么由于忽视了观测值和缺失值的潜在表示之间的相关性，在可解释性和插补准确性方面表现不佳
+作者通过考虑观测值和缺失值之间的一致性，推导出了将扩散模型应用于多元时间序列插补问题的新理论证据下限，基于新推导的ELBO，我们提出了一种全新的扩散模型，该模型配备了用于多元时间序列插补的新型噪声采样、添加和去噪机制，一系列新设计的技术共同确保了观测值和缺失值之间的一致性</t>
+    </r>
+  </si>
+  <si>
+    <t>DiffCharge: Generating EV Charging Scenarios via a Denoising Diffusion Model</t>
+  </si>
+  <si>
+    <t>DiffCharge</t>
+  </si>
+  <si>
+    <t>Hong Kong University of Science and Technology (Guangzhou)</t>
+  </si>
+  <si>
+    <t>arXiv 2023</t>
+  </si>
+  <si>
+    <t>时间序列预测和生成</t>
+  </si>
+  <si>
+    <t>ACN-Data</t>
+  </si>
+  <si>
+    <t>time series data</t>
+  </si>
+  <si>
+    <t>真实的充电时间序列数据</t>
+  </si>
+  <si>
+    <t>ELBO</t>
+  </si>
+  <si>
+    <t>具体表达式见IV. DENOISING DIFFUSION MODELS
+公式(8)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Recent proliferation of electric vehicle (EV) charging load has imposed vital stress on power grid. The stochasticity and volatility of EV charging behaviors render it challenging to manipulate the uncertain charging demand for grid operations and charging management.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) Versatile EV charging scenario generation tasks
+(2) Diffusion-based scenario generation, DiffCharge
+(3)  Efficient learning</t>
+    </r>
+  </si>
+  <si>
+    <t>(1)  Marginal Score
+(2) Discriminative Score
+(3)  Tail Score
+(4) 2D visualization</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2308.09857</t>
+  </si>
+  <si>
+    <t>https://github.com/LSY-Cython/DiffCharge</t>
+  </si>
+  <si>
+    <t>@article{li2024diffcharge,
+  title={Diffcharge: Generating ev charging scenarios via a denoising diffusion model},
+  author={Li, Siyang and Xiong, Hui and Chen, Yize},
+  journal={IEEE Transactions on Smart Grid},
+  year={2024},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>Nvidia 1080 Ti GPU</t>
+  </si>
+  <si>
+    <t>we will further explore the controllable generation capability of diffusion models to produce specific charging scenarios towards variable conditions such as initial SOC, battery types and station congestion situations. Miscellaneous EV-enabled contexts like demand response, vehicle-to-grid optimization will be also considered for generating future charging data.</t>
+  </si>
+  <si>
+    <t>设计了一种新的去噪扩散模型DiffCharge，以生成多样化和逼真的电动汽车充电场景。所提出的模型能够准确地近似真实电动汽车充电时间序列数据的复杂分布，解决电动汽车规划和运营中的充电不确定性量化问题</t>
+  </si>
+  <si>
+    <t>Non-autoregressive conditional diffusion models for time series prediction</t>
+  </si>
+  <si>
+    <t>TimeDiff</t>
+  </si>
+  <si>
+    <t>The Hong Kong University of Science and Technology</t>
+  </si>
+  <si>
+    <t>ICML 2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) NorPool
+(2) Caiso
+(3) Traffic
+(4) Electricity
+(5) Weather
+(6) Exchange
+(7) ETTh1 and ETTm1
+(8) Wind
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1)https://www.nordpoolgroup.com/Market-data1/Power-system-data    这个链接无效了
+(2)http://www.energyonline.com/Data/
+(3)https://pems.dot.ca.gov/
+(4)https://archive.ics.uci.edu/dataset/321/electricityloaddiagrams20112014
+(5)https://www.bgc-jena.mpg.de/wetter/
+</t>
+    </r>
+  </si>
+  <si>
+    <t>时间序列的过去观测值</t>
+  </si>
+  <si>
+    <t>时间序列未来预测值</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>具体表达式见3.4. Training公式(19)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) autoregressive model has limited long-range prediction performance due to error accumulation and slow inference speed.
+(2) The long-range prediction performance of non-autoregressive model is still inferior to other time-series prediction models
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1)  propose TimeDiff, a conditional non-autoregressive diffusion model that is effective for long time series prediction.
+(2)  TimeDiff
+introduces two conditioning mechanisms:  future mixup and  autoregressive initialization.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>https://proceedings.mlr.press/v202/shen23d/shen23d.pdfNon-autoregressive conditional diffusion models for time series prediction</t>
+  </si>
+  <si>
+    <t>@inproceedings{shen2023non,
+  title={Non-autoregressive conditional diffusion models for time series prediction},
+  author={Shen, Lifeng and Kwok, James},
+  booktitle={International Conference on Machine Learning},
+  pages={31016--31029},
+  year={2023},
+  organization={PMLR}
+}</t>
+  </si>
+  <si>
+    <t>Nvidia RTX A6000 GPU with 40GB memory</t>
+  </si>
+  <si>
+    <t>TimeDiff has difficulties in learning the multivariate dependencies when the time series has
+a large number of variables. In the future, the authors  will consider capturing the dependencies by integrating with graph neural networks</t>
+  </si>
+  <si>
+    <t>挑战：如何使扩散模型强大的建模能力适应时间序列建模，仍然是一个悬而未决的问题。自回归模型误差累积和推理速度慢，它的长期预测性能有限；非自回归模型的长期预测性能仍然不如其他时间序列预测模型。
+本文提出TimeDiff，一种非自回归扩散模型，通过引入两种新的条件机制来实现高质量的时间序列预测，分别是Future Mixup和Autoregressive Initialization</t>
   </si>
   <si>
     <t>High-Resolution Image Synthesis with Latent Diffusion Models</t>
@@ -2903,6 +4468,137 @@
 作者提出了SR3，SR3是一种通过迭代细化来实现图像超分辨率的方法</t>
   </si>
   <si>
+    <t>Palette: Image-to-image diffusion models</t>
+  </si>
+  <si>
+    <t>Palette</t>
+  </si>
+  <si>
+    <t>Google Research</t>
+  </si>
+  <si>
+    <t>Acm Special Interest Group on Computer Graphics 2022</t>
+  </si>
+  <si>
+    <t>(1) 图像着色
+(2) 图像修复（补全/去掩码）
+(3) 图像扩展（Uncropping）
+(4) JPEG修复</t>
+  </si>
+  <si>
+    <t>(1) ImageNet
+(2) Places2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) 灰度图像
+(2) 部分被遮罩的图像
+(3) 被裁剪的图像
+(4) 经过JPEG压缩的图像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：四个输入输出分别对应四个任务</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) 彩色图像
+(2) 修复后的图像
+(3) 扩展后的图像
+(4) 恢复后的图像</t>
+  </si>
+  <si>
+    <t>L2 loss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Many tasks s in vision and image processing are complex inverse problems, where multiple output images are consistent with a single input
+(2) The drawbacks of existing models: GANs can be challenging to train  and often drop modes in the output distribution; Autoregressive Models, VAEs  and Normalizing Flows  have not established the same level of quality and generality as GANs
+(3) Multi-task training is a relatively under-explored area in imageto-image translation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) Palette,
+with no task-specific architecture customization, nor changes to
+hyper-parameters or the loss, delivers high-fidelity outputs across
+all four tasks
+(2) With Palette we take a first step toward building multi-task image-to-image diffusion models for a wide variety of tasks.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Inception Score, IS
+(2) Fréchet Inception Distance, FID
+(3) Classification
+Accuracy (CA) (top-1) of a pre-trained ResNet-50 classifier
+(4) Perceptual Distance, PD
+(5) human evaluation: fool rate</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3528233.3530757</t>
+  </si>
+  <si>
+    <t>not mentioned
+PS: https://diffusion-palette.github.io/    中可以看到模型效果</t>
+  </si>
+  <si>
+    <t>@inproceedings{saharia2022palette,
+  title={Palette: Image-to-image diffusion models},
+  author={Saharia, Chitwan and Chan, William and Chang, Huiwen and Lee, Chris and Ho, Jonathan and Salimans, Tim and Fleet, David and Norouzi, Mohammad},
+  booktitle={ACM SIGGRAPH 2022 conference proceedings},
+  pages={1--10},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <t>TPUv4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像生成图像问题中，多数为复杂的逆问题，其中多个输出图像与单个输入一致。现有的模型中，gan的训练具有挑战性，并且经常在输出分布中减少模式，其他模型则是达不到gan的高度。而且多任务训练是图像到图像翻译中一个相对探索不足的领域。
+作者提出了一个基于条件扩散模型的图像到图像翻译的统一框架Palette，用于处理多种图像到图像翻译任务，着色、修复、取消裁剪和JPEG恢复</t>
+    </r>
+  </si>
+  <si>
     <t>ProDiff: Progressive Fast Diffusion Model for High-Quality Text-to-Speech</t>
   </si>
   <si>
@@ -3290,9 +4986,6 @@
     <t>文本，音素序列</t>
   </si>
   <si>
-    <t>L2 loss</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3392,9 +5085,6 @@
     <t>School of Computational Science and Engineering, Georgia Institute of Technology, Atlanta, USA</t>
   </si>
   <si>
-    <t>ICML 2023</t>
-  </si>
-  <si>
     <t>基于自回归扩散模型的图生成</t>
   </si>
   <si>
@@ -3714,6 +5404,97 @@
       <t>面对文本生成任务，在现有的生成模型中，GAN 存在不稳定性问题，容易发生模态崩溃；VAE 必须依靠替代目标来近似最大似然训练，而基于流的模型必须使用专门的架构来构建可逆转换。扩散模型可以绕过其中的一些限制。传统的扩散模型在处理连续信号（如图像和音频）方面取得了成功，但自然语言的离散性使得直接应用这些模型变得困难；而且在条件文本生成任务上面对更大挑战
 作者提出了DIFFUSEQ，这是一个为SEQ2SEQ文本生成任务设计的扩散模型，能够完成条件文本生成任务。</t>
     </r>
+  </si>
+  <si>
+    <t>Structured Denoising Diffusion Models in Discrete State-Spaces</t>
+  </si>
+  <si>
+    <t>Discrete Denoising Diffusion Probabilistic Models (D3PMs)</t>
+  </si>
+  <si>
+    <t>Google Research, Brain Team</t>
+  </si>
+  <si>
+    <t>图像生成，自然语言处理</t>
+  </si>
+  <si>
+    <t>离散去噪扩散概率模型</t>
+  </si>
+  <si>
+    <t>(1) CIFAR-10
+(2) text8
+(3) LM1B</t>
+  </si>
+  <si>
+    <t>文本、图像</t>
+  </si>
+  <si>
+    <t>文本数据</t>
+  </si>
+  <si>
+    <t>从带噪声的文本中恢复出的有意义的文本</t>
+  </si>
+  <si>
+    <t>图像数据</t>
+  </si>
+  <si>
+    <t>清晰图像</t>
+  </si>
+  <si>
+    <t>(1) negative variational lower bound
+(2) 辅助交叉熵损失</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) The diffusion model of scattered state space has not been fully explored in large-scale text or image generation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) designing several new structured diffusion models
+(2) introduce a new auxiliary loss which stabilizes training of D3PMs 
+(3) introduce a family of noise schedules based on mutual information that lead to improved performance</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Inception scores, IS 
+(2) Frechet Inception Distance, FID
+(3) negative log-likehood, NLL</t>
+  </si>
+  <si>
+    <t>https://openreview.net/pdf?id=h7-XixPCAL</t>
+  </si>
+  <si>
+    <t>https://github.com/google-research/google-research/tree/master/d3pm</t>
+  </si>
+  <si>
+    <t>@article{austin2021structured,
+  title={Structured denoising diffusion models in discrete state-spaces},
+  author={Austin, Jacob and Johnson, Daniel D and Ho, Jonathan and Tarlow, Daniel and Van Den Berg, Rianne},
+  journal={Advances in Neural Information Processing Systems},
+  volume={34},
+  pages={17981--17993},
+  year={2021}
+}</t>
+  </si>
+  <si>
+    <t>(1) D3PMs can benefit further from the rapid development of continuous diffusion models
+(2) D3PM’s might benefit from increasing the number of timesteps and a more optimized noise schedule</t>
+  </si>
+  <si>
+    <t>传统扩散模型多用于连续数据生成，离散状态空间的扩散模型尚未在大规模文本或图像生成中得到充分的探索。
+作者提出了离散去噪扩散概率模型（D3PMs），这是一种适用于离散数据的生成模型，设计了几个新的结构化扩散模型，引入了一种新的辅助损耗，可以稳定D3PM的训练，并引入了一系列基于互信息的噪声调度，从而提高了性能</t>
   </si>
 </sst>
 </file>
@@ -3726,7 +5507,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3781,6 +5562,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -3823,6 +5611,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3985,14 +5780,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2F75B5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="4"/>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4002,14 +5809,8 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="52">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4084,13 +5885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor rgb="FFFEFDCF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEFDCF"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4127,6 +5934,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4458,137 +6277,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4640,25 +6459,28 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4679,132 +6501,159 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4820,9 +6669,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4832,14 +6678,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4847,7 +6708,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4859,19 +6720,19 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4892,30 +6753,27 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4925,22 +6783,37 @@
     <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5212,10 +7085,10 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="00FEFDCF"/>
       <color rgb="00CF8761"/>
       <color rgb="00D6A16D"/>
       <color rgb="00EEE4E2"/>
+      <color rgb="00FEFDCF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5484,127 +7357,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="19" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="20" customWidth="1"/>
     <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="15.3333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AD1" s="75" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5614,7 +7487,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5659,42 +7532,42 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X4" s="39" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="67">
+      <c r="AA4" s="76">
         <v>3</v>
       </c>
-      <c r="AB4" s="47" t="s">
+      <c r="AB4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="47" t="s">
+      <c r="AC4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="68" t="s">
+      <c r="AD4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="69">
+      <c r="AE4" s="78">
         <v>45594</v>
       </c>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5730,42 +7603,42 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="40" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="AA5" s="79">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="71" t="s">
+      <c r="AC5" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="32" t="s">
+      <c r="AD5" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="69">
+      <c r="AE5" s="78">
         <v>45594</v>
       </c>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5804,16 +7677,16 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="40" t="s">
+      <c r="X6" s="42" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="72">
+      <c r="AA6" s="82">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -5822,21 +7695,21 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="73" t="s">
+      <c r="AD6" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="69">
+      <c r="AE6" s="78">
         <v>45599</v>
       </c>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:31">
       <c r="A7" s="30" t="s">
@@ -5887,29 +7760,29 @@
       <c r="V7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="X7" s="39" t="s">
         <v>101</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="67">
+      <c r="AA7" s="76">
         <v>505</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="47" t="s">
+      <c r="AC7" s="50" t="s">
         <v>52</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AE7" s="74">
+      <c r="AE7" s="84">
         <v>45610</v>
       </c>
     </row>
@@ -5954,17 +7827,17 @@
       <c r="V8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="W8" s="39" t="s">
+      <c r="W8" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="X8" s="41" t="s">
+      <c r="X8" s="43" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="72">
+      <c r="AA8" s="82">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -5976,7 +7849,7 @@
       <c r="AD8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AE8" s="75">
+      <c r="AE8" s="85">
         <v>45610</v>
       </c>
     </row>
@@ -6031,29 +7904,29 @@
       <c r="V9" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W9" s="42" t="s">
+      <c r="W9" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="42" t="s">
+      <c r="X9" s="44" t="s">
         <v>134</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>135</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="76">
+      <c r="AA9" s="86">
         <v>47</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AC9" s="77" t="s">
+      <c r="AC9" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="78" t="s">
+      <c r="AD9" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="AE9" s="79">
+      <c r="AE9" s="88">
         <v>45610</v>
       </c>
     </row>
@@ -6106,29 +7979,29 @@
       <c r="V10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="W10" s="43" t="s">
+      <c r="W10" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="X10" s="43" t="s">
+      <c r="X10" s="45" t="s">
         <v>152</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="80">
+      <c r="AA10" s="89">
         <v>146</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AC10" s="81" t="s">
+      <c r="AC10" s="90" t="s">
         <v>52</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AE10" s="82">
+      <c r="AE10" s="91">
         <v>45610</v>
       </c>
     </row>
@@ -6137,591 +8010,647 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="360" spans="1:40">
+    <row r="16" s="3" customFormat="1" ht="409.5" spans="1:40">
       <c r="A16" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="H16" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="I16" s="33"/>
+      <c r="J16" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="W16" s="38" t="s">
+      <c r="K16" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="X16" s="38" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Q16" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="AA16" s="70">
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="V16" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="W16" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="92">
         <v>609</v>
       </c>
-      <c r="AC16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD16" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
+      <c r="AB16" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC16" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD16" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE16" s="95">
+        <v>45618</v>
+      </c>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
     </row>
-    <row r="17" s="7" customFormat="1" ht="360" spans="1:40">
-      <c r="A17" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="7" t="s">
+    <row r="17" s="7" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A17" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="B17" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="C17" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="D17" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="E17" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="W17" s="44" t="s">
+      <c r="F17" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="X17" s="44" t="s">
+      <c r="G17" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="H17" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="AA17" s="83">
+      <c r="I17" s="34"/>
+      <c r="J17" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="V17" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="W17" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="X17" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y17" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="96">
         <v>485</v>
       </c>
-      <c r="AB17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
+      <c r="AB17" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC17" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="97">
+        <v>45618</v>
+      </c>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="29" t="s">
-        <v>185</v>
+      <c r="A18" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="U18" s="45" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+      <c r="U18" s="48" t="s">
+        <v>206</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="W18" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="X18" s="46" t="s">
-        <v>199</v>
+        <v>207</v>
+      </c>
+      <c r="W18" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="X18" s="49" t="s">
+        <v>209</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA18" s="80">
+        <v>210</v>
+      </c>
+      <c r="AA18" s="89">
         <v>45</v>
       </c>
-      <c r="AB18" s="81" t="s">
+      <c r="AB18" s="90" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD18" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE18" s="69">
+        <v>211</v>
+      </c>
+      <c r="AD18" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE18" s="78">
         <v>45599</v>
       </c>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="29" t="s">
-        <v>203</v>
+      <c r="A19" s="30" t="s">
+        <v>213</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="W19" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="X19" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="W19" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="X19" s="50" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA19" s="67">
+        <v>229</v>
+      </c>
+      <c r="AA19" s="76">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD19" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE19" s="69">
+        <v>231</v>
+      </c>
+      <c r="AD19" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE19" s="78">
         <v>45594</v>
       </c>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="29" t="s">
-        <v>223</v>
+      <c r="A20" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="P20" s="8" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="W20" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="X20" s="48" t="s">
-        <v>237</v>
+        <v>245</v>
+      </c>
+      <c r="W20" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="X20" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA20" s="85">
+        <v>248</v>
+      </c>
+      <c r="AA20" s="99">
         <v>417</v>
       </c>
-      <c r="AB20" s="86" t="s">
+      <c r="AB20" s="100" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD20" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE20" s="69">
+        <v>249</v>
+      </c>
+      <c r="AD20" s="101" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE20" s="78">
         <v>45594</v>
       </c>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
     </row>
     <row r="21" s="9" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="29" t="s">
-        <v>241</v>
+      <c r="A21" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="W21" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="X21" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="W21" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="X21" s="53" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA21" s="88">
+        <v>264</v>
+      </c>
+      <c r="AA21" s="102">
         <v>1972</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE21" s="69">
+        <v>267</v>
+      </c>
+      <c r="AE21" s="78">
         <v>45594</v>
       </c>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
     </row>
     <row r="22" s="10" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="29" t="s">
-        <v>258</v>
+      <c r="A22" s="30" t="s">
+        <v>268</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="W22" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="X22" s="51" t="s">
-        <v>269</v>
+        <v>278</v>
+      </c>
+      <c r="W22" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="X22" s="54" t="s">
+        <v>280</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA22" s="89">
+        <v>281</v>
+      </c>
+      <c r="AA22" s="103">
         <v>80</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC22" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC22" s="104" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE22" s="69">
+        <v>283</v>
+      </c>
+      <c r="AE22" s="78">
         <v>45594</v>
       </c>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="29" t="s">
-        <v>275</v>
+      <c r="A28" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="W28" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="X28" s="52" t="s">
-        <v>288</v>
+        <v>297</v>
+      </c>
+      <c r="W28" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="X28" s="55" t="s">
+        <v>299</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA28" s="91">
+        <v>300</v>
+      </c>
+      <c r="AA28" s="105">
         <v>36</v>
       </c>
-      <c r="AB28" s="92" t="s">
+      <c r="AB28" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="92" t="s">
+      <c r="AC28" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="93" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE28" s="69">
+      <c r="AD28" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE28" s="78">
         <v>45599</v>
       </c>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="29" t="s">
-        <v>291</v>
+      <c r="A29" s="30" t="s">
+        <v>302</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>160</v>
@@ -6730,213 +8659,442 @@
         <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="U29" s="53" t="s">
-        <v>299</v>
+        <v>309</v>
+      </c>
+      <c r="U29" s="56" t="s">
+        <v>310</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="W29" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="X29" s="39" t="s">
-        <v>302</v>
+        <v>311</v>
+      </c>
+      <c r="W29" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="X29" s="41" t="s">
+        <v>313</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA29" s="72">
+        <v>314</v>
+      </c>
+      <c r="AA29" s="82">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD29" s="94" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE29" s="69">
+        <v>316</v>
+      </c>
+      <c r="AD29" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE29" s="78">
         <v>45599</v>
       </c>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
     </row>
     <row r="30" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A30" s="29" t="s">
-        <v>307</v>
+      <c r="A30" s="30" t="s">
+        <v>318</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="W30" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="X30" s="54" t="s">
-        <v>319</v>
+        <v>328</v>
+      </c>
+      <c r="W30" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="X30" s="57" t="s">
+        <v>330</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="95">
+      <c r="AA30" s="109">
         <v>290</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD30" s="96" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE30" s="97">
+        <v>333</v>
+      </c>
+      <c r="AD30" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE30" s="111">
         <v>45607</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" ht="409.5" spans="1:31">
       <c r="A31" s="30" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="W31" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="X31" s="55" t="s">
-        <v>338</v>
+        <v>347</v>
+      </c>
+      <c r="W31" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="X31" s="58" t="s">
+        <v>349</v>
       </c>
       <c r="Y31" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="103">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC31" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD31" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE31" s="113">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A32" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="89">
-        <v>41</v>
-      </c>
-      <c r="AB31" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC31" s="10" t="s">
+      <c r="G32" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="AD31" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE31" s="99">
-        <v>45610</v>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="W32" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="X32" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="86">
+        <v>26</v>
+      </c>
+      <c r="AB32" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD32" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE32" s="88">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="33" s="13" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A33" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="W33" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="X33" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y33" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="114">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE33" s="115">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="34" s="14" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A34" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="V34" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="W34" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="X34" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y34" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="116">
+        <v>37</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC34" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD34" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE34" s="117">
+        <v>45618</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -6944,304 +9102,379 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E40" s="13" t="s">
+    <row r="40" s="15" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A40" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="F40" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="W40" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="X40" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y40" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA40" s="100">
+      <c r="J40" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="V40" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="W40" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="X40" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA40" s="118">
         <v>12188</v>
       </c>
-      <c r="AB40" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC40" s="101" t="s">
+      <c r="AB40" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC40" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="AE40" s="69">
+      <c r="AD40" s="120" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE40" s="78">
         <v>45599</v>
       </c>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-      <c r="AN40" s="17"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
     </row>
-    <row r="41" s="14" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="D41" s="14" t="s">
+    <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
+      <c r="A41" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="U41" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="V41" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="W41" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="X41" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA41" s="103">
+      <c r="E41" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="W41" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="X41" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA41" s="114">
         <v>959</v>
       </c>
-      <c r="AB41" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC41" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD41" s="104" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE41" s="69">
+      <c r="AB41" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC41" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD41" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE41" s="78">
         <v>45599</v>
       </c>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
     </row>
-    <row r="42" s="15" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="E42" s="15" t="s">
+    <row r="42" s="16" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A42" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q42" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="V42" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="W42" s="58" t="s">
-        <v>387</v>
-      </c>
-      <c r="X42" s="58" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y42" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="105">
+      <c r="F42" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="W42" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="X42" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="122">
         <v>742</v>
       </c>
-      <c r="AB42" s="106" t="s">
+      <c r="AB42" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="106" t="s">
+      <c r="AC42" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="107" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE42" s="108">
+      <c r="AD42" s="123" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE42" s="124">
         <v>45602</v>
       </c>
     </row>
     <row r="43" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A43" s="29" t="s">
-        <v>391</v>
+      <c r="A43" s="30" t="s">
+        <v>448</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>94</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="W43" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="X43" s="54" t="s">
-        <v>402</v>
+        <v>457</v>
+      </c>
+      <c r="W43" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="X43" s="57" t="s">
+        <v>459</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="95">
+      <c r="AA43" s="109">
         <v>1627</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="AC43" s="12" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE43" s="97">
+        <v>463</v>
+      </c>
+      <c r="AE43" s="111">
         <v>45607</v>
+      </c>
+    </row>
+    <row r="44" s="16" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A44" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="W44" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="X44" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y44" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="122">
+        <v>1314</v>
+      </c>
+      <c r="AB44" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC44" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD44" s="123" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE44" s="124">
+        <v>45618</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -7250,17 +9483,17 @@
       </c>
     </row>
     <row r="48" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="29" t="s">
-        <v>407</v>
+      <c r="A48" s="30" t="s">
+        <v>480</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>142</v>
@@ -7269,541 +9502,620 @@
         <v>143</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>411</v>
+        <v>484</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10" t="s">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="W48" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="X48" s="55" t="s">
-        <v>419</v>
+        <v>490</v>
+      </c>
+      <c r="W48" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="X48" s="58" t="s">
+        <v>492</v>
       </c>
       <c r="Y48" s="10" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="Z48" s="10"/>
-      <c r="AA48" s="89">
+      <c r="AA48" s="103">
         <v>162</v>
       </c>
       <c r="AB48" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC48" s="90" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC48" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="98" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE48" s="99">
+      <c r="AD48" s="112" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE48" s="113">
         <v>45602</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A49" s="29" t="s">
-        <v>423</v>
+      <c r="A49" s="30" t="s">
+        <v>496</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="W49" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="X49" s="37" t="s">
-        <v>437</v>
+        <v>508</v>
+      </c>
+      <c r="W49" s="39" t="s">
+        <v>509</v>
+      </c>
+      <c r="X49" s="39" t="s">
+        <v>510</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="67">
+      <c r="AA49" s="76">
         <v>1295</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD49" s="68" t="s">
-        <v>441</v>
-      </c>
-      <c r="AE49" s="74">
+        <v>513</v>
+      </c>
+      <c r="AD49" s="77" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE49" s="84">
         <v>45607</v>
       </c>
     </row>
-    <row r="50" s="15" customFormat="1" ht="409.5" spans="1:31">
+    <row r="50" s="16" customFormat="1" ht="409.5" spans="1:31">
       <c r="A50" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="D50" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q50" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="V50" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="W50" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="X50" s="59" t="s">
-        <v>454</v>
-      </c>
-      <c r="Y50" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="105">
+      <c r="F50" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="W50" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="X50" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y50" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="122">
         <v>52</v>
       </c>
-      <c r="AB50" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC50" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="AD50" s="107" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE50" s="108">
+      <c r="AB50" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC50" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD50" s="123" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE50" s="124">
         <v>45610</v>
       </c>
     </row>
     <row r="51" s="12" customFormat="1" ht="409.5" spans="1:31">
       <c r="A51" s="30" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>462</v>
+        <v>535</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>142</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>145</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="V51" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="W51" s="60" t="s">
-        <v>469</v>
-      </c>
-      <c r="X51" s="61" t="s">
+        <v>540</v>
+      </c>
+      <c r="W51" s="69" t="s">
+        <v>541</v>
+      </c>
+      <c r="X51" s="70" t="s">
         <v>52</v>
       </c>
       <c r="Y51" s="12" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="Z51" s="12"/>
-      <c r="AA51" s="95">
+      <c r="AA51" s="109">
         <v>84</v>
       </c>
       <c r="AB51" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC51" s="61" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC51" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AD51" s="96" t="s">
-        <v>472</v>
-      </c>
-      <c r="AE51" s="97">
+      <c r="AD51" s="110" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE51" s="111">
         <v>45610</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="56" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A56" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16" t="s">
+    <row r="56" s="17" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A56" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="Q56" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="V56" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="W56" s="62" t="s">
-        <v>485</v>
-      </c>
-      <c r="X56" s="63" t="s">
+      <c r="Q56" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="V56" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="W56" s="71" t="s">
+        <v>556</v>
+      </c>
+      <c r="X56" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="Y56" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="109">
+      <c r="Y56" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="125">
         <v>38</v>
       </c>
-      <c r="AB56" s="63" t="s">
+      <c r="AB56" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="AC56" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="AD56" s="110" t="s">
-        <v>488</v>
-      </c>
-      <c r="AE56" s="111">
+      <c r="AC56" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD56" s="126" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE56" s="127">
         <v>45607</v>
       </c>
     </row>
     <row r="57" s="12" customFormat="1" ht="409.5" spans="1:31">
       <c r="A57" s="30" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>490</v>
+        <v>561</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="V57" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="W57" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="X57" s="54" t="s">
-        <v>501</v>
+        <v>570</v>
+      </c>
+      <c r="W57" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="X57" s="57" t="s">
+        <v>572</v>
       </c>
       <c r="Y57" s="12" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="95">
+      <c r="AA57" s="109">
         <v>299</v>
       </c>
-      <c r="AB57" s="61" t="s">
+      <c r="AB57" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AC57" s="61" t="s">
+      <c r="AC57" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AD57" s="96" t="s">
-        <v>503</v>
-      </c>
-      <c r="AE57" s="97">
+      <c r="AD57" s="110" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE57" s="111">
         <v>45610</v>
       </c>
     </row>
-    <row r="63" s="17" customFormat="1" spans="1:27">
-      <c r="A63" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="112"/>
+    <row r="63" s="18" customFormat="1" spans="1:27">
+      <c r="A63" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="128"/>
     </row>
-    <row r="64" s="18" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A64" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="U64" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="V64" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="W64" s="64" t="s">
-        <v>515</v>
-      </c>
-      <c r="X64" s="64" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y64" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="113">
+    <row r="64" s="19" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A64" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="U64" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="V64" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="W64" s="73" t="s">
+        <v>586</v>
+      </c>
+      <c r="X64" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y64" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="129">
         <v>264</v>
       </c>
-      <c r="AB64" s="114" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC64" s="115" t="s">
+      <c r="AB64" s="130" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC64" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="116" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE64" s="117">
+      <c r="AD64" s="132" t="s">
+        <v>590</v>
+      </c>
+      <c r="AE64" s="133">
         <v>45607</v>
+      </c>
+    </row>
+    <row r="65" s="11" customFormat="1" ht="360" spans="1:31">
+      <c r="A65" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="V65" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="W65" s="134" t="s">
+        <v>605</v>
+      </c>
+      <c r="X65" s="134" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y65" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="105">
+        <v>729</v>
+      </c>
+      <c r="AB65" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC65" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD65" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE65" s="135">
+        <v>45618</v>
       </c>
     </row>
   </sheetData>
@@ -7814,59 +10126,66 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X16" r:id="rId1" display="https://github.com/XiangLi1999/Diffusion-LM" tooltip="https://github.com/XiangLi1999/Diffusion-LM"/>
-    <hyperlink ref="W16" r:id="rId2" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf"/>
-    <hyperlink ref="W17" r:id="rId3" display="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf" tooltip="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf"/>
-    <hyperlink ref="X17" r:id="rId4" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
-    <hyperlink ref="W18" r:id="rId5" display="https://arxiv.org/pdf/2212.01842" tooltip="https://arxiv.org/pdf/2212.01842"/>
-    <hyperlink ref="X18" r:id="rId6" display="https://github.com/GRAPH-0/GraphGDP" tooltip="https://github.com/GRAPH-0/GraphGDP"/>
-    <hyperlink ref="W19" r:id="rId7" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
-    <hyperlink ref="X20" r:id="rId8" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
-    <hyperlink ref="W20" r:id="rId9" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
-    <hyperlink ref="W4" r:id="rId10" display="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf"/>
-    <hyperlink ref="X4" r:id="rId11" display="https://github.com/liyuantsao/BFSR" tooltip="https://github.com/liyuantsao/BFSR"/>
-    <hyperlink ref="W5" r:id="rId12" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
-    <hyperlink ref="X5" r:id="rId13" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
-    <hyperlink ref="W21" r:id="rId14" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
-    <hyperlink ref="W22" r:id="rId15" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
-    <hyperlink ref="X22" r:id="rId16" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
-    <hyperlink ref="W28" r:id="rId17" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
-    <hyperlink ref="X28" r:id="rId18" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
-    <hyperlink ref="W40" r:id="rId19" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
-    <hyperlink ref="X40" r:id="rId20" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
-    <hyperlink ref="W41" r:id="rId21" display="https://arxiv.org/pdf/2206.00927" tooltip="https://arxiv.org/pdf/2206.00927"/>
-    <hyperlink ref="X41" r:id="rId22" display="https://github.com/LuChengTHU/dpm-solver" tooltip="https://github.com/LuChengTHU/dpm-solver"/>
-    <hyperlink ref="W29" r:id="rId23" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
-    <hyperlink ref="X29" r:id="rId24" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
-    <hyperlink ref="W6" r:id="rId25" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
-    <hyperlink ref="X6" r:id="rId26" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
-    <hyperlink ref="W7" r:id="rId27" display="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf" tooltip="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf"/>
-    <hyperlink ref="X7" r:id="rId28" display="https://github.com/aravindsrinivas/flowpp" tooltip="https://github.com/aravindsrinivas/flowpp"/>
-    <hyperlink ref="W8" r:id="rId29" display="https://doi.org/10.1016/j.neunet.2020.03.010" tooltip="https://doi.org/10.1016/j.neunet.2020.03.010"/>
-    <hyperlink ref="W48" r:id="rId30" display="https://arxiv.org/pdf/2207.06389" tooltip="https://arxiv.org/pdf/2207.06389"/>
-    <hyperlink ref="X48" r:id="rId31" display="https://github.com/rongjiehuang/prodiff" tooltip="https://github.com/rongjiehuang/prodiff"/>
-    <hyperlink ref="W42" r:id="rId32" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Gu_Vector_Quantized_Diffusion_Model_for_Text-to-Image_Synthesis_CVPR_2022_paper.pdf"/>
-    <hyperlink ref="X42" r:id="rId33" display="https://github.com/cientgu/VQ-Diffusion" tooltip="https://github.com/cientgu/VQ-Diffusion"/>
-    <hyperlink ref="W49" r:id="rId34" display="https://arxiv.org/pdf/2009.09761" tooltip="https://arxiv.org/pdf/2009.09761"/>
-    <hyperlink ref="X49" r:id="rId35" display="https://github.com/lmnt-com/diffwave" tooltip="https://github.com/lmnt-com/diffwave"/>
-    <hyperlink ref="W30" r:id="rId36" display="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf" tooltip="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf"/>
-    <hyperlink ref="X30" r:id="rId37" display="https://github.com/zalandoresearch/pytorch-ts" tooltip="https://github.com/zalandoresearch/pytorch-ts"/>
-    <hyperlink ref="W56" r:id="rId38" display="https://proceedings.mlr.press/v202/kong23b/kong23b.pdf"/>
-    <hyperlink ref="W64" r:id="rId39" display="https://arxiv.org/pdf/2210.08933" tooltip="https://arxiv.org/pdf/2210.08933"/>
-    <hyperlink ref="X64" r:id="rId40" display="https://github.com/Shark-NLP/DiffuSeq"/>
-    <hyperlink ref="W43" r:id="rId41" display="https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9887996"/>
-    <hyperlink ref="X43" r:id="rId42" display="https://github.com/Janspiry/Image-Super-Resolution-via-Iterative-Refinement?tab=readme-ov-file"/>
-    <hyperlink ref="W9" r:id="rId43" display="https://openaccess.thecvf.com/content_ICCV_2019/papers/Sun_DUAL-GLOW_Conditional_Flow-Based_Generative_Model_for_Modality_Transfer_ICCV_2019_paper.pdf"/>
-    <hyperlink ref="X9" r:id="rId44" display="https://github.com/haolsun/dual-glow"/>
-    <hyperlink ref="W10" r:id="rId45" display="https://proceedings.mlr.press/v119/ping20a/ping20a.pdf"/>
-    <hyperlink ref="X10" r:id="rId46" display="https://github.com/PaddlePaddle/Parakeet/tree/develop/examples/waveflow"/>
-    <hyperlink ref="W57" r:id="rId47" display="https://arxiv.org/pdf/2209.14734"/>
-    <hyperlink ref="X57" r:id="rId48" display="https://github.com/cvignac/DiGress"/>
-    <hyperlink ref="W50" r:id="rId49" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/95f03faf3763e1b1ce2c3de62da8f090-Paper-Conference.pdf"/>
-    <hyperlink ref="X50" r:id="rId50" display="https://github.com/microsoft/NeuralSpeech/tree/master/BinauralGrad"/>
-    <hyperlink ref="W51" r:id="rId51" display="https://proceedings.mlr.press/v162/kim22d/kim22d.pdf"/>
-    <hyperlink ref="W31" r:id="rId52" display="https://arxiv.org/pdf/2302.09746"/>
-    <hyperlink ref="X31" r:id="rId53" display="https://github.com/LMZZML/PriSTI"/>
+    <hyperlink ref="W18" r:id="rId1" display="https://arxiv.org/pdf/2212.01842" tooltip="https://arxiv.org/pdf/2212.01842"/>
+    <hyperlink ref="X18" r:id="rId2" display="https://github.com/GRAPH-0/GraphGDP" tooltip="https://github.com/GRAPH-0/GraphGDP"/>
+    <hyperlink ref="W19" r:id="rId3" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
+    <hyperlink ref="X20" r:id="rId4" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
+    <hyperlink ref="W20" r:id="rId5" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
+    <hyperlink ref="W4" r:id="rId6" display="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf"/>
+    <hyperlink ref="X4" r:id="rId7" display="https://github.com/liyuantsao/BFSR" tooltip="https://github.com/liyuantsao/BFSR"/>
+    <hyperlink ref="W5" r:id="rId8" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
+    <hyperlink ref="X5" r:id="rId9" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
+    <hyperlink ref="W21" r:id="rId10" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
+    <hyperlink ref="W22" r:id="rId11" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
+    <hyperlink ref="X22" r:id="rId12" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
+    <hyperlink ref="W28" r:id="rId13" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
+    <hyperlink ref="X28" r:id="rId14" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
+    <hyperlink ref="W40" r:id="rId15" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
+    <hyperlink ref="X40" r:id="rId16" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
+    <hyperlink ref="W41" r:id="rId17" display="https://arxiv.org/pdf/2206.00927" tooltip="https://arxiv.org/pdf/2206.00927"/>
+    <hyperlink ref="X41" r:id="rId18" display="https://github.com/LuChengTHU/dpm-solver" tooltip="https://github.com/LuChengTHU/dpm-solver"/>
+    <hyperlink ref="W29" r:id="rId19" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
+    <hyperlink ref="X29" r:id="rId20" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
+    <hyperlink ref="W6" r:id="rId21" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
+    <hyperlink ref="X6" r:id="rId22" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
+    <hyperlink ref="W7" r:id="rId23" display="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf" tooltip="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf"/>
+    <hyperlink ref="X7" r:id="rId24" display="https://github.com/aravindsrinivas/flowpp" tooltip="https://github.com/aravindsrinivas/flowpp"/>
+    <hyperlink ref="W8" r:id="rId25" display="https://doi.org/10.1016/j.neunet.2020.03.010" tooltip="https://doi.org/10.1016/j.neunet.2020.03.010"/>
+    <hyperlink ref="W48" r:id="rId26" display="https://arxiv.org/pdf/2207.06389" tooltip="https://arxiv.org/pdf/2207.06389"/>
+    <hyperlink ref="X48" r:id="rId27" display="https://github.com/rongjiehuang/prodiff" tooltip="https://github.com/rongjiehuang/prodiff"/>
+    <hyperlink ref="W42" r:id="rId28" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Gu_Vector_Quantized_Diffusion_Model_for_Text-to-Image_Synthesis_CVPR_2022_paper.pdf"/>
+    <hyperlink ref="X42" r:id="rId29" display="https://github.com/cientgu/VQ-Diffusion" tooltip="https://github.com/cientgu/VQ-Diffusion"/>
+    <hyperlink ref="W49" r:id="rId30" display="https://arxiv.org/pdf/2009.09761" tooltip="https://arxiv.org/pdf/2009.09761"/>
+    <hyperlink ref="X49" r:id="rId31" display="https://github.com/lmnt-com/diffwave" tooltip="https://github.com/lmnt-com/diffwave"/>
+    <hyperlink ref="W30" r:id="rId32" display="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf" tooltip="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf"/>
+    <hyperlink ref="X30" r:id="rId33" display="https://github.com/zalandoresearch/pytorch-ts" tooltip="https://github.com/zalandoresearch/pytorch-ts"/>
+    <hyperlink ref="W56" r:id="rId34" display="https://proceedings.mlr.press/v202/kong23b/kong23b.pdf"/>
+    <hyperlink ref="W64" r:id="rId35" display="https://arxiv.org/pdf/2210.08933" tooltip="https://arxiv.org/pdf/2210.08933"/>
+    <hyperlink ref="X64" r:id="rId36" display="https://github.com/Shark-NLP/DiffuSeq"/>
+    <hyperlink ref="W43" r:id="rId37" display="https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9887996"/>
+    <hyperlink ref="X43" r:id="rId38" display="https://github.com/Janspiry/Image-Super-Resolution-via-Iterative-Refinement?tab=readme-ov-file"/>
+    <hyperlink ref="W9" r:id="rId39" display="https://openaccess.thecvf.com/content_ICCV_2019/papers/Sun_DUAL-GLOW_Conditional_Flow-Based_Generative_Model_for_Modality_Transfer_ICCV_2019_paper.pdf"/>
+    <hyperlink ref="X9" r:id="rId40" display="https://github.com/haolsun/dual-glow"/>
+    <hyperlink ref="W10" r:id="rId41" display="https://proceedings.mlr.press/v119/ping20a/ping20a.pdf"/>
+    <hyperlink ref="X10" r:id="rId42" display="https://github.com/PaddlePaddle/Parakeet/tree/develop/examples/waveflow"/>
+    <hyperlink ref="W57" r:id="rId43" display="https://arxiv.org/pdf/2209.14734"/>
+    <hyperlink ref="X57" r:id="rId44" display="https://github.com/cvignac/DiGress"/>
+    <hyperlink ref="W50" r:id="rId45" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/95f03faf3763e1b1ce2c3de62da8f090-Paper-Conference.pdf"/>
+    <hyperlink ref="X50" r:id="rId46" display="https://github.com/microsoft/NeuralSpeech/tree/master/BinauralGrad"/>
+    <hyperlink ref="W51" r:id="rId47" display="https://proceedings.mlr.press/v162/kim22d/kim22d.pdf"/>
+    <hyperlink ref="W31" r:id="rId48" display="https://arxiv.org/pdf/2302.09746"/>
+    <hyperlink ref="X31" r:id="rId49" display="https://github.com/LMZZML/PriSTI"/>
+    <hyperlink ref="W65" r:id="rId50" display="https://openreview.net/pdf?id=h7-XixPCAL"/>
+    <hyperlink ref="X65" r:id="rId51" display="https://github.com/google-research/google-research/tree/master/d3pm"/>
+    <hyperlink ref="W44" r:id="rId52" display="https://dl.acm.org/doi/pdf/10.1145/3528233.3530757"/>
+    <hyperlink ref="W32" r:id="rId53" display="http://home.ustc.edu.cn/~pengkun/files/Publications/KDD2023_1.pdf"/>
+    <hyperlink ref="W33" r:id="rId54" display="https://arxiv.org/pdf/2308.09857"/>
+    <hyperlink ref="X33" r:id="rId55" display="https://github.com/LSY-Cython/DiffCharge"/>
+    <hyperlink ref="W34" r:id="rId56" display="https://proceedings.mlr.press/v202/shen23d/shen23d.pdfNon-autoregressive conditional diffusion models for time series prediction" tooltip="https://proceedings.mlr.press/v202/shen23d/shen23d.pdfNon-autoregressive conditional diffusion models for time series prediction"/>
+    <hyperlink ref="W16" r:id="rId57" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf"/>
+    <hyperlink ref="X16" r:id="rId58" display="https://github.com/XiangLi1999/Diffusion-LM" tooltip="https://github.com/XiangLi1999/Diffusion-LM"/>
+    <hyperlink ref="W17" r:id="rId59" display="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf" tooltip="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf"/>
+    <hyperlink ref="X17" r:id="rId60" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -1027,6 +1027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) E2E</t>
     </r>
     <r>
@@ -1054,6 +1060,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>文本</t>
     </r>
     <r>
@@ -1116,6 +1128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) Controlling the behavior of language models (LMs) without re-training is a challenge.</t>
     </r>
     <r>
@@ -1281,6 +1299,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>6控制任务的评价指标</t>
     </r>
     <r>
@@ -1487,6 +1511,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>@article{li2022diffusion,</t>
     </r>
     <r>
@@ -1679,6 +1709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) Faster training convergence</t>
     </r>
     <r>
@@ -1722,6 +1758,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战：</t>
     </r>
     <r>
@@ -1817,6 +1860,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) Russia Higher School of Economics</t>
     </r>
     <r>
@@ -1856,6 +1905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1870,6 +1925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>melspectrogram ( 梅尔频谱图 )</t>
     </r>
     <r>
@@ -1894,6 +1955,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1)</t>
     </r>
     <r>
@@ -1968,6 +2035,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) Some models suffer from computational inefficiency and pronunciation issues coming from attention failures</t>
     </r>
     <r>
@@ -2069,6 +2142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) Mean Opinion Score (MOS)</t>
     </r>
     <r>
@@ -2137,6 +2216,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>@inproceedings{popov2021grad,</t>
     </r>
     <r>
@@ -2329,6 +2414,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>NVIDIA RTX 2080 Ti with 11GB memory</t>
     </r>
     <r>
@@ -2344,6 +2435,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1) End-to-end speech synthesis results reported above show</t>
     </r>
     <r>
@@ -3710,6 +3807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) missing values resulted from various reasons such as device failures and human errors are inevitable and will greatly hamper the utilization and interpretation of multivariate time series data
 (2) The limitations of existing methods: Deterministic models determine their shortcomings in modeling and interpolating uncertainty; Probabilistic models either still perform poorly in generating higher quality missing value estimates, or are difficult to train and have poor interpretability  
 </t>
@@ -3761,6 +3864,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战</t>
     </r>
     <r>
@@ -3917,6 +4027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) autoregressive model has limited long-range prediction performance due to error accumulation and slow inference speed.
 (2) The long-range prediction performance of non-autoregressive model is still inferior to other time-series prediction models
 </t>
@@ -5769,31 +5885,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="4" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="4"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2F75B5"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -5805,8 +5897,32 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2F75B5"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -6407,7 +6523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6468,9 +6584,6 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6511,9 +6624,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7362,132 +7472,129 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AG34" sqref="AG34"/>
+      <selection pane="bottomLeft" activeCell="AE38" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="26" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="20" customWidth="1"/>
-    <col min="28" max="16382" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="16383" max="16384" width="15.3333333333333" style="1"/>
+    <col min="1" max="16382" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AA1" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="75" t="s">
+      <c r="AD1" s="73" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:8">
-      <c r="A2" s="24" t="s">
+    <row r="2" customFormat="1" ht="105" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7508,6 +7615,8 @@
       <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
@@ -7520,40 +7629,44 @@
       <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="W4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="37" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="76">
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="74">
         <v>3</v>
       </c>
-      <c r="AB4" s="50" t="s">
+      <c r="AB4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="50" t="s">
+      <c r="AC4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="77" t="s">
+      <c r="AD4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="78">
+      <c r="AE4" s="76">
         <v>45594</v>
       </c>
       <c r="AF4" s="18"/>
@@ -7567,7 +7680,7 @@
       <c r="AN4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7588,12 +7701,18 @@
       <c r="G5" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>61</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
         <v>63</v>
       </c>
@@ -7603,28 +7722,29 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="W5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="40" t="s">
+      <c r="X5" s="38" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="79">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="77">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="80" t="s">
+      <c r="AC5" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="81" t="s">
+      <c r="AD5" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="78">
+      <c r="AE5" s="76">
         <v>45594</v>
       </c>
       <c r="AF5" s="18"/>
@@ -7638,7 +7758,7 @@
       <c r="AN5" s="18"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -7662,12 +7782,17 @@
       <c r="H6" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
         <v>80</v>
       </c>
@@ -7677,16 +7802,17 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="41" t="s">
+      <c r="W6" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="42" t="s">
+      <c r="X6" s="40" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="82">
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="80">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -7695,10 +7821,10 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="83" t="s">
+      <c r="AD6" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="78">
+      <c r="AE6" s="76">
         <v>45599</v>
       </c>
       <c r="AF6" s="18"/>
@@ -7712,7 +7838,7 @@
       <c r="AN6" s="18"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7760,34 +7886,34 @@
       <c r="V7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="39" t="s">
+      <c r="W7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="39" t="s">
+      <c r="X7" s="37" t="s">
         <v>101</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="76">
+      <c r="AA7" s="74">
         <v>505</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="50" t="s">
+      <c r="AC7" s="48" t="s">
         <v>52</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AE7" s="84">
+      <c r="AE7" s="82">
         <v>45610</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7827,17 +7953,17 @@
       <c r="V8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="W8" s="41" t="s">
+      <c r="W8" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="X8" s="43" t="s">
+      <c r="X8" s="41" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="82">
+      <c r="AA8" s="80">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -7849,12 +7975,12 @@
       <c r="AD8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AE8" s="85">
+      <c r="AE8" s="83">
         <v>45610</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -7904,34 +8030,34 @@
       <c r="V9" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="42" t="s">
         <v>134</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>135</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="86">
+      <c r="AA9" s="84">
         <v>47</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AC9" s="60" t="s">
+      <c r="AC9" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="87" t="s">
+      <c r="AD9" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="AE9" s="88">
+      <c r="AE9" s="86">
         <v>45610</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -7979,209 +8105,209 @@
       <c r="V10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="W10" s="45" t="s">
+      <c r="W10" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="X10" s="45" t="s">
+      <c r="X10" s="43" t="s">
         <v>152</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="89">
+      <c r="AA10" s="87">
         <v>146</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AC10" s="90" t="s">
+      <c r="AC10" s="88" t="s">
         <v>52</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AE10" s="91">
+      <c r="AE10" s="89">
         <v>45610</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" customFormat="1" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33" t="s">
+      <c r="I16" s="32"/>
+      <c r="J16" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33" t="s">
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33" t="s">
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="V16" s="33" t="s">
+      <c r="V16" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="W16" s="46" t="s">
+      <c r="W16" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="X16" s="46" t="s">
+      <c r="X16" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Y16" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="92">
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="90">
         <v>609</v>
       </c>
-      <c r="AB16" s="93" t="s">
+      <c r="AB16" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" s="33" t="s">
+      <c r="AC16" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AD16" s="94" t="s">
+      <c r="AD16" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="AE16" s="95">
+      <c r="AE16" s="93">
         <v>45618</v>
       </c>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
     </row>
     <row r="17" s="7" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34" t="s">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34" t="s">
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="Q17" s="34" t="s">
+      <c r="Q17" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34" t="s">
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="V17" s="34" t="s">
+      <c r="V17" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="W17" s="47" t="s">
+      <c r="W17" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="X17" s="47" t="s">
+      <c r="X17" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="Y17" s="34" t="s">
+      <c r="Y17" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="96">
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="94">
         <v>485</v>
       </c>
-      <c r="AB17" s="34" t="s">
+      <c r="AB17" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AC17" s="34" t="s">
+      <c r="AC17" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="97">
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="95">
         <v>45618</v>
       </c>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>195</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -8205,43 +8331,49 @@
       <c r="H18" s="6" t="s">
         <v>202</v>
       </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
         <v>203</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="U18" s="48" t="s">
+      <c r="U18" s="46" t="s">
         <v>206</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="W18" s="49" t="s">
+      <c r="W18" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="X18" s="49" t="s">
+      <c r="X18" s="47" t="s">
         <v>209</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AA18" s="89">
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="87">
         <v>45</v>
       </c>
-      <c r="AB18" s="90" t="s">
+      <c r="AB18" s="88" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AD18" s="98" t="s">
+      <c r="AD18" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="AE18" s="78">
+      <c r="AE18" s="76">
         <v>45599</v>
       </c>
       <c r="AF18" s="18"/>
@@ -8255,7 +8387,7 @@
       <c r="AN18" s="18"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>213</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8279,6 +8411,7 @@
       <c r="H19" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>221</v>
       </c>
@@ -8291,28 +8424,34 @@
       <c r="M19" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="T19" s="2"/>
       <c r="U19" s="2" t="s">
         <v>226</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="W19" s="39" t="s">
+      <c r="W19" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="X19" s="50" t="s">
+      <c r="X19" s="48" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AA19" s="76">
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="74">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
@@ -8321,10 +8460,10 @@
       <c r="AC19" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AD19" s="77" t="s">
+      <c r="AD19" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="AE19" s="78">
+      <c r="AE19" s="76">
         <v>45594</v>
       </c>
       <c r="AF19" s="18"/>
@@ -8338,7 +8477,7 @@
       <c r="AN19" s="18"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>233</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -8362,6 +8501,7 @@
       <c r="H20" s="8" t="s">
         <v>239</v>
       </c>
+      <c r="I20" s="8"/>
       <c r="J20" s="8" t="s">
         <v>240</v>
       </c>
@@ -8370,40 +8510,44 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="8" t="s">
         <v>242</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>243</v>
       </c>
+      <c r="T20" s="8"/>
       <c r="U20" s="8" t="s">
         <v>244</v>
       </c>
       <c r="V20" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="W20" s="51" t="s">
+      <c r="W20" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="X20" s="51" t="s">
+      <c r="X20" s="49" t="s">
         <v>247</v>
       </c>
       <c r="Y20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AA20" s="99">
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="97">
         <v>417</v>
       </c>
-      <c r="AB20" s="100" t="s">
+      <c r="AB20" s="98" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="AD20" s="101" t="s">
+      <c r="AD20" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="AE20" s="78">
+      <c r="AE20" s="76">
         <v>45594</v>
       </c>
       <c r="AF20" s="18"/>
@@ -8417,7 +8561,7 @@
       <c r="AN20" s="18"/>
     </row>
     <row r="21" s="9" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>251</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -8441,34 +8585,43 @@
       <c r="H21" s="9" t="s">
         <v>257</v>
       </c>
+      <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
         <v>258</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>259</v>
       </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
         <v>260</v>
       </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="T21" s="9"/>
       <c r="U21" s="9" t="s">
         <v>261</v>
       </c>
       <c r="V21" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="W21" s="52" t="s">
+      <c r="W21" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="X21" s="53" t="s">
+      <c r="X21" s="51" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AA21" s="102">
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="100">
         <v>1972</v>
       </c>
       <c r="AB21" s="9" t="s">
@@ -8480,7 +8633,7 @@
       <c r="AD21" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AE21" s="78">
+      <c r="AE21" s="76">
         <v>45594</v>
       </c>
       <c r="AF21" s="18"/>
@@ -8494,7 +8647,7 @@
       <c r="AN21" s="18"/>
     </row>
     <row r="22" s="10" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>268</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -8509,46 +8662,58 @@
       <c r="E22" s="10" t="s">
         <v>272</v>
       </c>
+      <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
         <v>273</v>
       </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
         <v>274</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>275</v>
       </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="10" t="s">
         <v>276</v>
       </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
         <v>277</v>
       </c>
       <c r="V22" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="W22" s="54" t="s">
+      <c r="W22" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="X22" s="54" t="s">
+      <c r="X22" s="52" t="s">
         <v>280</v>
       </c>
       <c r="Y22" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="AA22" s="103">
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="101">
         <v>80</v>
       </c>
       <c r="AB22" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="AC22" s="104" t="s">
+      <c r="AC22" s="102" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="AE22" s="78">
+      <c r="AE22" s="76">
         <v>45594</v>
       </c>
       <c r="AF22" s="18"/>
@@ -8561,18 +8726,18 @@
       <c r="AM22" s="18"/>
       <c r="AN22" s="18"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" customFormat="1" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" customFormat="1" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>286</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -8587,18 +8752,24 @@
       <c r="E28" s="11" t="s">
         <v>290</v>
       </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
         <v>291</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>292</v>
       </c>
+      <c r="I28" s="11"/>
       <c r="J28" s="11" t="s">
         <v>293</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>294</v>
       </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="11" t="s">
         <v>295</v>
       </c>
@@ -8608,28 +8779,29 @@
       <c r="V28" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="W28" s="55" t="s">
+      <c r="W28" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="X28" s="55" t="s">
+      <c r="X28" s="53" t="s">
         <v>299</v>
       </c>
       <c r="Y28" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AA28" s="105">
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="103">
         <v>36</v>
       </c>
-      <c r="AB28" s="106" t="s">
+      <c r="AB28" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="106" t="s">
+      <c r="AC28" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="107" t="s">
+      <c r="AD28" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="AE28" s="78">
+      <c r="AE28" s="76">
         <v>45599</v>
       </c>
       <c r="AF28" s="18"/>
@@ -8643,7 +8815,7 @@
       <c r="AN28" s="18"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>302</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -8667,31 +8839,37 @@
       <c r="H29" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
         <v>285</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>308</v>
       </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="U29" s="56" t="s">
+      <c r="U29" s="54" t="s">
         <v>310</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="W29" s="41" t="s">
+      <c r="W29" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="X29" s="41" t="s">
+      <c r="X29" s="39" t="s">
         <v>313</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AA29" s="82">
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="80">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
@@ -8700,10 +8878,10 @@
       <c r="AC29" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AD29" s="108" t="s">
+      <c r="AD29" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="AE29" s="78">
+      <c r="AE29" s="76">
         <v>45599</v>
       </c>
       <c r="AF29" s="18"/>
@@ -8717,7 +8895,7 @@
       <c r="AN29" s="18"/>
     </row>
     <row r="30" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>318</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -8765,17 +8943,17 @@
       <c r="V30" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="W30" s="57" t="s">
+      <c r="W30" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="X30" s="57" t="s">
+      <c r="X30" s="55" t="s">
         <v>330</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>331</v>
       </c>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="109">
+      <c r="AA30" s="107">
         <v>290</v>
       </c>
       <c r="AB30" s="12" t="s">
@@ -8784,15 +8962,15 @@
       <c r="AC30" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="AD30" s="110" t="s">
+      <c r="AD30" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="AE30" s="111">
+      <c r="AE30" s="109">
         <v>45607</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>335</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -8842,17 +9020,17 @@
       <c r="V31" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="W31" s="58" t="s">
+      <c r="W31" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="X31" s="58" t="s">
+      <c r="X31" s="56" t="s">
         <v>349</v>
       </c>
       <c r="Y31" s="10" t="s">
         <v>350</v>
       </c>
       <c r="Z31" s="10"/>
-      <c r="AA31" s="103">
+      <c r="AA31" s="101">
         <v>41</v>
       </c>
       <c r="AB31" s="10" t="s">
@@ -8861,15 +9039,15 @@
       <c r="AC31" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="AD31" s="112" t="s">
+      <c r="AD31" s="110" t="s">
         <v>353</v>
       </c>
-      <c r="AE31" s="113">
+      <c r="AE31" s="111">
         <v>45610</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="29" t="s">
         <v>354</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -8917,34 +9095,34 @@
       <c r="V32" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="W32" s="59" t="s">
+      <c r="W32" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="X32" s="60" t="s">
+      <c r="X32" s="58" t="s">
         <v>52</v>
       </c>
       <c r="Y32" s="5" t="s">
         <v>364</v>
       </c>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="86">
+      <c r="AA32" s="84">
         <v>26</v>
       </c>
-      <c r="AB32" s="60" t="s">
+      <c r="AB32" s="58" t="s">
         <v>52</v>
       </c>
       <c r="AC32" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="AD32" s="87" t="s">
+      <c r="AD32" s="85" t="s">
         <v>366</v>
       </c>
-      <c r="AE32" s="88">
+      <c r="AE32" s="86">
         <v>45618</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -8994,17 +9172,17 @@
       <c r="V33" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="W33" s="61" t="s">
+      <c r="W33" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="X33" s="61" t="s">
+      <c r="X33" s="59" t="s">
         <v>380</v>
       </c>
       <c r="Y33" s="13" t="s">
         <v>381</v>
       </c>
       <c r="Z33" s="13"/>
-      <c r="AA33" s="114">
+      <c r="AA33" s="112">
         <v>8</v>
       </c>
       <c r="AB33" s="13" t="s">
@@ -9016,12 +9194,12 @@
       <c r="AD33" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="AE33" s="115">
+      <c r="AE33" s="113">
         <v>45618</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="29" t="s">
         <v>385</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -9071,17 +9249,17 @@
       <c r="V34" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="W34" s="62" t="s">
+      <c r="W34" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="X34" s="63" t="s">
+      <c r="X34" s="61" t="s">
         <v>52</v>
       </c>
       <c r="Y34" s="14" t="s">
         <v>396</v>
       </c>
       <c r="Z34" s="14"/>
-      <c r="AA34" s="116">
+      <c r="AA34" s="114">
         <v>37</v>
       </c>
       <c r="AB34" s="14" t="s">
@@ -9093,17 +9271,17 @@
       <c r="AD34" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="AE34" s="117">
+      <c r="AE34" s="115">
         <v>45618</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" customFormat="1" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" s="15" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="29" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -9127,12 +9305,17 @@
       <c r="H40" s="15" t="s">
         <v>94</v>
       </c>
+      <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
         <v>406</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>407</v>
       </c>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
       <c r="P40" s="15" t="s">
         <v>408</v>
       </c>
@@ -9142,28 +9325,29 @@
       <c r="V40" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="W40" s="64" t="s">
+      <c r="W40" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="X40" s="64" t="s">
+      <c r="X40" s="62" t="s">
         <v>412</v>
       </c>
       <c r="Y40" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="AA40" s="118">
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="116">
         <v>12188</v>
       </c>
       <c r="AB40" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AC40" s="119" t="s">
+      <c r="AC40" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="120" t="s">
+      <c r="AD40" s="118" t="s">
         <v>415</v>
       </c>
-      <c r="AE40" s="78">
+      <c r="AE40" s="76">
         <v>45599</v>
       </c>
       <c r="AF40" s="18"/>
@@ -9177,7 +9361,7 @@
       <c r="AN40" s="18"/>
     </row>
     <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>416</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -9192,7 +9376,7 @@
       <c r="E41" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="34" t="s">
         <v>420</v>
       </c>
       <c r="G41" s="13" t="s">
@@ -9201,12 +9385,17 @@
       <c r="H41" s="13" t="s">
         <v>257</v>
       </c>
+      <c r="I41" s="13"/>
       <c r="J41" s="13" t="s">
         <v>257</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>422</v>
       </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
       <c r="P41" s="13" t="s">
         <v>423</v>
       </c>
@@ -9216,16 +9405,17 @@
       <c r="V41" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="W41" s="65" t="s">
+      <c r="W41" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="X41" s="65" t="s">
+      <c r="X41" s="63" t="s">
         <v>427</v>
       </c>
       <c r="Y41" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AA41" s="114">
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="112">
         <v>959</v>
       </c>
       <c r="AB41" s="13" t="s">
@@ -9234,10 +9424,10 @@
       <c r="AC41" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="AD41" s="121" t="s">
+      <c r="AD41" s="119" t="s">
         <v>431</v>
       </c>
-      <c r="AE41" s="78">
+      <c r="AE41" s="76">
         <v>45599</v>
       </c>
       <c r="AF41" s="18"/>
@@ -9251,7 +9441,7 @@
       <c r="AN41" s="18"/>
     </row>
     <row r="42" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
         <v>432</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -9301,34 +9491,34 @@
       <c r="V42" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="W42" s="66" t="s">
+      <c r="W42" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="X42" s="66" t="s">
+      <c r="X42" s="64" t="s">
         <v>445</v>
       </c>
       <c r="Y42" s="16" t="s">
         <v>446</v>
       </c>
       <c r="Z42" s="16"/>
-      <c r="AA42" s="122">
+      <c r="AA42" s="120">
         <v>742</v>
       </c>
-      <c r="AB42" s="68" t="s">
+      <c r="AB42" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="68" t="s">
+      <c r="AC42" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="123" t="s">
+      <c r="AD42" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="AE42" s="124">
+      <c r="AE42" s="122">
         <v>45602</v>
       </c>
     </row>
     <row r="43" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="29" t="s">
         <v>448</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -9376,17 +9566,17 @@
       <c r="V43" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="W43" s="57" t="s">
+      <c r="W43" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="X43" s="57" t="s">
+      <c r="X43" s="55" t="s">
         <v>459</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>460</v>
       </c>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="109">
+      <c r="AA43" s="107">
         <v>1627</v>
       </c>
       <c r="AB43" s="12" t="s">
@@ -9398,12 +9588,12 @@
       <c r="AD43" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="AE43" s="111">
+      <c r="AE43" s="109">
         <v>45607</v>
       </c>
     </row>
     <row r="44" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="29" t="s">
         <v>464</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -9451,39 +9641,39 @@
       <c r="V44" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="W44" s="67" t="s">
+      <c r="W44" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="X44" s="68" t="s">
+      <c r="X44" s="66" t="s">
         <v>476</v>
       </c>
       <c r="Y44" s="16" t="s">
         <v>477</v>
       </c>
       <c r="Z44" s="16"/>
-      <c r="AA44" s="122">
+      <c r="AA44" s="120">
         <v>1314</v>
       </c>
       <c r="AB44" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="AC44" s="68" t="s">
+      <c r="AC44" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AD44" s="123" t="s">
+      <c r="AD44" s="121" t="s">
         <v>479</v>
       </c>
-      <c r="AE44" s="124">
+      <c r="AE44" s="122">
         <v>45618</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" customFormat="1" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
         <v>480</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -9529,34 +9719,34 @@
       <c r="V48" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="W48" s="54" t="s">
+      <c r="W48" s="52" t="s">
         <v>491</v>
       </c>
-      <c r="X48" s="58" t="s">
+      <c r="X48" s="56" t="s">
         <v>492</v>
       </c>
       <c r="Y48" s="10" t="s">
         <v>493</v>
       </c>
       <c r="Z48" s="10"/>
-      <c r="AA48" s="103">
+      <c r="AA48" s="101">
         <v>162</v>
       </c>
       <c r="AB48" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="AC48" s="104" t="s">
+      <c r="AC48" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="112" t="s">
+      <c r="AD48" s="110" t="s">
         <v>495</v>
       </c>
-      <c r="AE48" s="113">
+      <c r="AE48" s="111">
         <v>45602</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>496</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -9606,17 +9796,17 @@
       <c r="V49" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="W49" s="39" t="s">
+      <c r="W49" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="X49" s="39" t="s">
+      <c r="X49" s="37" t="s">
         <v>510</v>
       </c>
       <c r="Y49" s="2" t="s">
         <v>511</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="76">
+      <c r="AA49" s="74">
         <v>1295</v>
       </c>
       <c r="AB49" s="2" t="s">
@@ -9625,15 +9815,15 @@
       <c r="AC49" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AD49" s="77" t="s">
+      <c r="AD49" s="75" t="s">
         <v>514</v>
       </c>
-      <c r="AE49" s="84">
+      <c r="AE49" s="82">
         <v>45607</v>
       </c>
     </row>
     <row r="50" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="29" t="s">
         <v>515</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -9683,17 +9873,17 @@
       <c r="V50" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="W50" s="67" t="s">
+      <c r="W50" s="65" t="s">
         <v>526</v>
       </c>
-      <c r="X50" s="67" t="s">
+      <c r="X50" s="65" t="s">
         <v>527</v>
       </c>
       <c r="Y50" s="16" t="s">
         <v>528</v>
       </c>
       <c r="Z50" s="16"/>
-      <c r="AA50" s="122">
+      <c r="AA50" s="120">
         <v>52</v>
       </c>
       <c r="AB50" s="16" t="s">
@@ -9702,15 +9892,15 @@
       <c r="AC50" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="AD50" s="123" t="s">
+      <c r="AD50" s="121" t="s">
         <v>531</v>
       </c>
-      <c r="AE50" s="124">
+      <c r="AE50" s="122">
         <v>45610</v>
       </c>
     </row>
     <row r="51" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="29" t="s">
         <v>532</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -9754,39 +9944,39 @@
       <c r="V51" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="W51" s="69" t="s">
+      <c r="W51" s="67" t="s">
         <v>541</v>
       </c>
-      <c r="X51" s="70" t="s">
+      <c r="X51" s="68" t="s">
         <v>52</v>
       </c>
       <c r="Y51" s="12" t="s">
         <v>542</v>
       </c>
       <c r="Z51" s="12"/>
-      <c r="AA51" s="109">
+      <c r="AA51" s="107">
         <v>84</v>
       </c>
       <c r="AB51" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="AC51" s="70" t="s">
+      <c r="AC51" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD51" s="110" t="s">
+      <c r="AD51" s="108" t="s">
         <v>544</v>
       </c>
-      <c r="AE51" s="111">
+      <c r="AE51" s="109">
         <v>45610</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" customFormat="1" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" s="17" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>545</v>
       </c>
       <c r="B56" s="17" t="s">
@@ -9836,34 +10026,34 @@
       <c r="V56" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="W56" s="71" t="s">
+      <c r="W56" s="69" t="s">
         <v>556</v>
       </c>
-      <c r="X56" s="72" t="s">
+      <c r="X56" s="70" t="s">
         <v>52</v>
       </c>
       <c r="Y56" s="17" t="s">
         <v>557</v>
       </c>
       <c r="Z56" s="17"/>
-      <c r="AA56" s="125">
+      <c r="AA56" s="123">
         <v>38</v>
       </c>
-      <c r="AB56" s="72" t="s">
+      <c r="AB56" s="70" t="s">
         <v>52</v>
       </c>
       <c r="AC56" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="AD56" s="126" t="s">
+      <c r="AD56" s="124" t="s">
         <v>559</v>
       </c>
-      <c r="AE56" s="127">
+      <c r="AE56" s="125">
         <v>45607</v>
       </c>
     </row>
     <row r="57" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>560</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -9911,33 +10101,33 @@
       <c r="V57" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="W57" s="57" t="s">
+      <c r="W57" s="55" t="s">
         <v>571</v>
       </c>
-      <c r="X57" s="57" t="s">
+      <c r="X57" s="55" t="s">
         <v>572</v>
       </c>
       <c r="Y57" s="12" t="s">
         <v>573</v>
       </c>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="109">
+      <c r="AA57" s="107">
         <v>299</v>
       </c>
-      <c r="AB57" s="70" t="s">
+      <c r="AB57" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AC57" s="70" t="s">
+      <c r="AC57" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD57" s="110" t="s">
+      <c r="AD57" s="108" t="s">
         <v>574</v>
       </c>
-      <c r="AE57" s="111">
+      <c r="AE57" s="109">
         <v>45610</v>
       </c>
     </row>
-    <row r="63" s="18" customFormat="1" spans="1:27">
+    <row r="63" s="18" customFormat="1" ht="15" spans="1:27">
       <c r="A63" s="18" t="s">
         <v>272</v>
       </c>
@@ -9966,10 +10156,10 @@
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
-      <c r="AA63" s="128"/>
+      <c r="AA63" s="126"/>
     </row>
     <row r="64" s="19" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>575</v>
       </c>
       <c r="B64" s="19" t="s">
@@ -10013,34 +10203,34 @@
       <c r="V64" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="W64" s="73" t="s">
+      <c r="W64" s="71" t="s">
         <v>586</v>
       </c>
-      <c r="X64" s="73" t="s">
+      <c r="X64" s="71" t="s">
         <v>587</v>
       </c>
       <c r="Y64" s="19" t="s">
         <v>588</v>
       </c>
       <c r="Z64" s="19"/>
-      <c r="AA64" s="129">
+      <c r="AA64" s="127">
         <v>264</v>
       </c>
-      <c r="AB64" s="130" t="s">
+      <c r="AB64" s="128" t="s">
         <v>589</v>
       </c>
-      <c r="AC64" s="131" t="s">
+      <c r="AC64" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="132" t="s">
+      <c r="AD64" s="130" t="s">
         <v>590</v>
       </c>
-      <c r="AE64" s="133">
+      <c r="AE64" s="131">
         <v>45607</v>
       </c>
     </row>
     <row r="65" s="11" customFormat="1" ht="360" spans="1:31">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="29" t="s">
         <v>591</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -10092,17 +10282,17 @@
       <c r="V65" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="W65" s="134" t="s">
+      <c r="W65" s="132" t="s">
         <v>605</v>
       </c>
-      <c r="X65" s="134" t="s">
+      <c r="X65" s="132" t="s">
         <v>606</v>
       </c>
       <c r="Y65" s="11" t="s">
         <v>607</v>
       </c>
       <c r="Z65" s="11"/>
-      <c r="AA65" s="105">
+      <c r="AA65" s="103">
         <v>729</v>
       </c>
       <c r="AB65" s="11" t="s">
@@ -10114,7 +10304,7 @@
       <c r="AD65" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="AE65" s="135">
+      <c r="AE65" s="133">
         <v>45618</v>
       </c>
     </row>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="679">
   <si>
     <t>论文名</t>
   </si>
@@ -5611,6 +5611,407 @@
   <si>
     <t>传统扩散模型多用于连续数据生成，离散状态空间的扩散模型尚未在大规模文本或图像生成中得到充分的探索。
 作者提出了离散去噪扩散概率模型（D3PMs），这是一种适用于离散数据的生成模型，设计了几个新的结构化扩散模型，引入了一种新的辅助损耗，可以稳定D3PM的训练，并引入了一系列基于互信息的噪声调度，从而提高了性能</t>
+  </si>
+  <si>
+    <t>推荐模型</t>
+  </si>
+  <si>
+    <t>A Neural Influence Diffusion Model for Social Recommendation</t>
+  </si>
+  <si>
+    <t>DiffNet</t>
+  </si>
+  <si>
+    <t>(1) Hefei University of Technology
+(2) Missouri University of Science and Technology
+(3) Microsoft Research</t>
+  </si>
+  <si>
+    <t>SIGIR 2019</t>
+  </si>
+  <si>
+    <t>社交推荐</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Yelp 
+(2) Flickr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS:这是两个社交平台，实验数据从这两个平台抓取</t>
+    </r>
+  </si>
+  <si>
+    <t>Yelp为文本，Flickr为图像。交互序列</t>
+  </si>
+  <si>
+    <t>an user-item pair</t>
+  </si>
+  <si>
+    <t>the probability that the user likes the item</t>
+  </si>
+  <si>
+    <t>a pair-wise ranking based loss</t>
+  </si>
+  <si>
+    <t>具体表达式见 3.2 Model Training公式13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) 传统方法局限： Collaborative Filtering (CF) is limited due to the sparseness of user behavior data.
+(2) 现有方法局限：the current social recommendation models simply developed static models by leveraging the local neighbors of each user without simulating the recursive diffusion in the global social network, leading to suboptimal recommendation performance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) propose a DiffNet model with a layer-wise influence propagation structure to model the recursive dynamic social diffusion in social recommendation
+(2) DiffNet has a fusion layer such that each user and each item could be represented as an embedding that encompasses both the collaborative and the feature content information
+(3) time and storage efficient in comparison to most embedding based recommendation models
+(4) The proposed model is a generalization of many related recommendation models and it is flexible when user and item attributes are not available</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Hit Ratio, HR
+(2) Normalized Discounted Cumulative Gain,  NDCG</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1904.10322</t>
+  </si>
+  <si>
+    <t>https://github.com/PeiJieSun/diffnet</t>
+  </si>
+  <si>
+    <t>@inproceedings{wu2019neural,
+  title={A neural influence diffusion model for social recommendation},
+  author={Wu, Le and Sun, Peijie and Fu, Yanjie and Hong, Richang and Wang, Xiting and Wang, Meng},
+  booktitle={Proceedings of the 42nd international ACM SIGIR conference on research and development in information retrieval},
+  pages={235--244},
+  year={2019}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extend our model for temporal social recommendation, where the temporal changes of users’ interests are implicitly reflected from their temporal feedback patterns.</t>
+  </si>
+  <si>
+    <t>挑战：传统协同过滤方法虽成功但因用户 - 物品交互数据稀疏导致推荐性能不理想；现有社交推荐模型仅考虑一阶局部邻居，忽略了社会扩散的动态递归性和迭代过程
+作者提出了一种用于社会推荐的DiffNet神经模型，主要贡献在于设计了一个分层影响扩散部分，以模拟用户的潜在偏好如何受到其信任用户的递归影响。</t>
+  </si>
+  <si>
+    <t>ReLLa: Retrieval-enhanced Large Language Models for Lifelong Sequential Behavior Comprehension in Recommendation</t>
+  </si>
+  <si>
+    <t>ReLLa (Retrieval-enhanced Large Language Models)</t>
+  </si>
+  <si>
+    <t>(1) Shanghai Jiao Tong University 
+(2) Huawei Noah's Ark Lab</t>
+  </si>
+  <si>
+    <t>WWW  2024</t>
+  </si>
+  <si>
+    <t>推荐系统，NLP</t>
+  </si>
+  <si>
+    <t>LLM-enhanced recommender systems</t>
+  </si>
+  <si>
+    <t>(1) BookCrossing
+(2) MovieLens-1M
+(3) MovieLens-25M</t>
+  </si>
+  <si>
+    <t>文本。交互序列</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) 用户信息
+(2) 项目信息
+(3) 用户与项目交互信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PS：需要将上述信息转换为文本句子
+</t>
+    </r>
+  </si>
+  <si>
+    <t>预测推荐的内容</t>
+  </si>
+  <si>
+    <t>具体表达式见 3.3 Retrieval-enhanced Instruction Tuning公式3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Lifelong Sequential Behavior Comprehension: LLMs fail to extract useful information from a textual context of long user behavior sequence, even if the length of context is far from reaching the context limitation of LLMs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose a novel ReLLa framework to mitigate the incomprehension problem of LLMs on long user behavior sequences
+(2) For zero-shot recommendation, we perform semantic user behavior retrieval (SUBR) to improve the data quality of testing samples, which greatly reduces the difficulty for LLMs to extract the essential knowledge from user behavior sequences
+(3) for few-shot recommendation, we further design retrieval-enhanced instruction tuning (ReiT) by adopting SUBR as a data augmentation technique for training samples.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) AUC
+(2) binary cross-entropy loss, Log Loss
+(3) accuracy score, ACC</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2308.11131</t>
+  </si>
+  <si>
+    <t>(1) pytorch version: https://github.com/LaVieEnRose365/ReLLa
+(2) MindSpore version: https://github.com/mindspore-lab/models/tree/master/research/huawei-noah/ReLLa</t>
+  </si>
+  <si>
+    <t>@inproceedings{lin2024rella,
+  title={Rella: Retrieval-enhanced large language models for lifelong sequential behavior comprehension in recommendation},
+  author={Lin, Jianghao and Shan, Rong and Zhu, Chenxu and Du, Kounianhua and Chen, Bo and Quan, Shigang and Tang, Ruiming and Yu, Yong and Zhang, Weinan},
+  booktitle={Proceedings of the ACM on Web Conference 2024},
+  pages={3497--3508},
+  year={2024}
+}</t>
+  </si>
+  <si>
+    <t>V100 GPUs</t>
+  </si>
+  <si>
+    <t>挑战：基于大语言模型增强的推荐系统受到了广泛的关注和积极的探索。但是存在推荐域中大语言模型的终身顺序行为不理解问题，即大语言模型无法从长用户行为序列的文本上下文中提取有用信息。
+作者是第一个识别并很好地制定了推荐中llm的终身顺序行为不理解问题的人，提出了一个新的ReLLa（检索增强的大型语言模型）框架来缓解llm对长用户行为序列的不理解问题。设计了语义用户行为检索（SUBR）来提高零样本推荐数据样本的数据质量，并进一步提出了检索增强指令调优（ReiT）来提高原始和检索增强训练样本混合的少样本推荐性能。</t>
+  </si>
+  <si>
+    <t>Discrete conditional diffusion for reranking in recommendation</t>
+  </si>
+  <si>
+    <t>DCDR</t>
+  </si>
+  <si>
+    <t>Kuaishou Technology, Beijing, China</t>
+  </si>
+  <si>
+    <t>Reranking in modern multi-stage recommender systems</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Avito
+(2) VideoRerank
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：
+(1)的链接：https://www.kaggle.com/c/avito-context-ad-clicks/data
+(2) collected from Kuaishou</t>
+    </r>
+  </si>
+  <si>
+    <t>用户行为序列数据</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) initial ranked item list
+(2) user impression list
+(3) user feedback
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：前向过程的输入user impression list.
+推理过程中initial ranked item list作为输入，且User feedback作为条件输入</t>
+    </r>
+  </si>
+  <si>
+    <t>reordered item sequence</t>
+  </si>
+  <si>
+    <t>具体表达式见 4.3.2 Denoising Model Training公式8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) the challenge of reranking in  modern multi-stage recommender
+systems, such as combinatorial searching space
+(2) the limitations of existing generative models, such as unstable optimization and posterior collapse
+(3) The inherent discrete nature of item sequences in recommender systems brings
+challenges to the application of diffusion models
+(4) diffusion model
+should be controllable in terms of user feedback
+(5) the inference procedure of the reranking model is
+expected to be efficient while the generation process of diffusion models works in a step-wise manner  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) this is the first attempt to introduce diffusion models into the reranking stage in real-life multi-stage recommender system
+(2) proposed a novel Discrete Conditional Diffusion Reranking (DCDR) framework with two discrete operations as the forward process and user feedback as conditions to guide the reverse generation process</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) AUC
+(2) Normalized Discounted Cumulative Gain, NDCG</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2308.06982</t>
+  </si>
+  <si>
+    <t>@inproceedings{lin2024discrete,
+  title={Discrete conditional diffusion for reranking in recommendation},
+  author={Lin, Xiao and Chen, Xiaokai and Wang, Chenyang and Shu, Hantao and Song, Linfeng and Li, Biao and Jiang, Peng},
+  booktitle={Companion Proceedings of the ACM on Web Conference 2024},
+  pages={161--169},
+  year={2024}
+}</t>
+  </si>
+  <si>
+    <t>In the future, we plan to study the impact of noise schedule and explore methods to enhance the efficiency and controllability of the generation process.</t>
+  </si>
+  <si>
+    <r>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：多阶段推荐系统中重排名固有的挑战，如合搜索空间；现有生成式模型的不足；扩散模型一般用于连续数据域，而推荐系统使用离散数据；扩散模型在用户反馈方面应该是可控的；重排名模型的推理过程是高效的，但扩散模型的生成过程是逐步进行。
+作者首次尝试利用扩散模型来增强推荐中的重新排序阶段，提出DCDR框架</t>
+    </r>
+  </si>
+  <si>
+    <t>RecDiff: Diffusion Model for Social Recommendation</t>
+  </si>
+  <si>
+    <t>RecDiff</t>
+  </si>
+  <si>
+    <t>University of Hong Kong</t>
+  </si>
+  <si>
+    <t>CIKM 2024</t>
+  </si>
+  <si>
+    <t>(1) Yelp
+(2) Ciao
+(3) Epinions</t>
+  </si>
+  <si>
+    <t>社交关系数据，用户-物品交互图，用户-用户社交图</t>
+  </si>
+  <si>
+    <t>(1) User-Item Interactions
+(2) User-User Social Relations</t>
+  </si>
+  <si>
+    <t>用户对项目的偏好程度</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Variational Lower Bound
+(2) recommendation loss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：总损失为两者相加</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Variational Lower Bound见公式12
+recommendation 总损失见公式15
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) a persistent challenge of social recommendation is the presence of inherent noise in social information
+(2) This presence of irrelevant and false social ties(inherent noise), which can contaminate user embeddings and adversely affect recommendation accuracy
+(3) the existing handcrafted self-supervised
+learning techniques may not effectively align with the objective of denoising social recommendation in two aspects
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) present the RecDiff framework, a novel approach that enhances social recommender systems by effectively denoising social connections among users with a diffusion model
+(2) introduce an effective and efficient hidden-space diffusion paradigm. </t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Recall
+(2) NDCG</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2406.01629</t>
+  </si>
+  <si>
+    <t>https://github.com/HKUDS/RecDiff</t>
+  </si>
+  <si>
+    <t>@inproceedings{li2024recdiff,
+  title={Recdiff: Diffusion model for social recommendation},
+  author={Li, Zongwei and Xia, Lianghao and Huang, Chao},
+  booktitle={Proceedings of the 33rd ACM International Conference on Information and Knowledge Management},
+  pages={1346--1355},
+  year={2024}
+}</t>
+  </si>
+  <si>
+    <t>we plan to explore the potential of our model in diverse recommendation scenarios, incorporating multi-modal information.</t>
+  </si>
+  <si>
+    <t>挑战：社交信息中存在无关或虚假社交连接，与用户真实偏好不符，导致用户间虽有社交连接但偏好模式多样；现有去噪方法中手工制作的自监督学习技术在减少社交链接歧义方面帮助有限;
+作者提出 RecDiff 框架，引入有效且高效的隐藏空间扩散范式。通过多步噪声扩散和去除训练，使模型具备强大去噪能力，能有效处理用户间多样社会连接，准确建模用户偏好，产生精确的用户偏好表示。</t>
   </si>
 </sst>
 </file>
@@ -5755,6 +6156,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -5885,7 +6292,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
+      <color rgb="FF2F75B5"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -5896,8 +6303,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="4" tint="-0.25"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -5907,26 +6326,8 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="4" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2F75B5"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="55">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6037,6 +6438,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6062,6 +6469,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6396,134 +6815,134 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6584,16 +7003,31 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6620,19 +7054,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6656,12 +7090,12 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6740,7 +7174,7 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6794,22 +7228,22 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6920,10 +7354,67 @@
     <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7467,134 +7958,138 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE38" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16382" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="26" width="15.3333333333333" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="24" customWidth="1"/>
+    <col min="28" max="16382" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="72" t="s">
+      <c r="AA1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="105" spans="1:8">
-      <c r="A2" s="23" t="s">
+    <row r="2" customFormat="1" ht="105" spans="1:27">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="AA2" s="24"/>
     </row>
-    <row r="3" customFormat="1" spans="1:1">
+    <row r="3" customFormat="1" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AA3" s="24"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7644,29 +8139,29 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X4" s="42" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="74">
+      <c r="AA4" s="79">
         <v>3</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="75" t="s">
+      <c r="AD4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="76">
+      <c r="AE4" s="81">
         <v>45594</v>
       </c>
       <c r="AF4" s="18"/>
@@ -7680,7 +8175,7 @@
       <c r="AN4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7722,29 +8217,29 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="43" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="77">
+      <c r="AA5" s="82">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="78" t="s">
+      <c r="AC5" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="79" t="s">
+      <c r="AD5" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="76">
+      <c r="AE5" s="81">
         <v>45594</v>
       </c>
       <c r="AF5" s="18"/>
@@ -7758,7 +8253,7 @@
       <c r="AN5" s="18"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -7802,17 +8297,17 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="40" t="s">
+      <c r="X6" s="45" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="80">
+      <c r="AA6" s="85">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -7821,10 +8316,10 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="81" t="s">
+      <c r="AD6" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="76">
+      <c r="AE6" s="81">
         <v>45599</v>
       </c>
       <c r="AF6" s="18"/>
@@ -7838,7 +8333,7 @@
       <c r="AN6" s="18"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7886,34 +8381,34 @@
       <c r="V7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="X7" s="42" t="s">
         <v>101</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="74">
+      <c r="AA7" s="79">
         <v>505</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="48" t="s">
+      <c r="AC7" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AE7" s="82">
+      <c r="AE7" s="87">
         <v>45610</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="34" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7953,17 +8448,17 @@
       <c r="V8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="W8" s="39" t="s">
+      <c r="W8" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="X8" s="41" t="s">
+      <c r="X8" s="46" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="80">
+      <c r="AA8" s="85">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -7975,12 +8470,12 @@
       <c r="AD8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AE8" s="83">
+      <c r="AE8" s="88">
         <v>45610</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -8030,34 +8525,34 @@
       <c r="V9" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W9" s="42" t="s">
+      <c r="W9" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="42" t="s">
+      <c r="X9" s="47" t="s">
         <v>134</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>135</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="84">
+      <c r="AA9" s="89">
         <v>47</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AC9" s="58" t="s">
+      <c r="AC9" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="85" t="s">
+      <c r="AD9" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="AE9" s="86">
+      <c r="AE9" s="91">
         <v>45610</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -8105,209 +8600,210 @@
       <c r="V10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="W10" s="43" t="s">
+      <c r="W10" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="X10" s="43" t="s">
+      <c r="X10" s="48" t="s">
         <v>152</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="87">
+      <c r="AA10" s="92">
         <v>146</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AC10" s="88" t="s">
+      <c r="AC10" s="93" t="s">
         <v>52</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AE10" s="89">
+      <c r="AE10" s="94">
         <v>45610</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:1">
+    <row r="15" customFormat="1" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="AA15" s="24"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32" t="s">
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="V16" s="32" t="s">
+      <c r="V16" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="W16" s="44" t="s">
+      <c r="W16" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="X16" s="44" t="s">
+      <c r="X16" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="Y16" s="32" t="s">
+      <c r="Y16" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="90">
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="95">
         <v>609</v>
       </c>
-      <c r="AB16" s="91" t="s">
+      <c r="AB16" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" s="32" t="s">
+      <c r="AC16" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="AD16" s="92" t="s">
+      <c r="AD16" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="AE16" s="93">
+      <c r="AE16" s="98">
         <v>45618</v>
       </c>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
     </row>
     <row r="17" s="7" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33" t="s">
+      <c r="I17" s="38"/>
+      <c r="J17" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33" t="s">
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33" t="s">
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="V17" s="33" t="s">
+      <c r="V17" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="W17" s="45" t="s">
+      <c r="W17" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="X17" s="45" t="s">
+      <c r="X17" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Y17" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="94">
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="99">
         <v>485</v>
       </c>
-      <c r="AB17" s="33" t="s">
+      <c r="AB17" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="AC17" s="33" t="s">
+      <c r="AC17" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="95">
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="100">
         <v>45618</v>
       </c>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="34" t="s">
         <v>195</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -8345,35 +8841,35 @@
       <c r="P18" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="U18" s="46" t="s">
+      <c r="U18" s="51" t="s">
         <v>206</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="W18" s="47" t="s">
+      <c r="W18" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="X18" s="47" t="s">
+      <c r="X18" s="52" t="s">
         <v>209</v>
       </c>
       <c r="Y18" s="6" t="s">
         <v>210</v>
       </c>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="87">
+      <c r="AA18" s="92">
         <v>45</v>
       </c>
-      <c r="AB18" s="88" t="s">
+      <c r="AB18" s="93" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AD18" s="96" t="s">
+      <c r="AD18" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="AE18" s="76">
+      <c r="AE18" s="81">
         <v>45599</v>
       </c>
       <c r="AF18" s="18"/>
@@ -8387,7 +8883,7 @@
       <c r="AN18" s="18"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="34" t="s">
         <v>213</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8441,17 +8937,17 @@
       <c r="V19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="W19" s="37" t="s">
+      <c r="W19" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="X19" s="48" t="s">
+      <c r="X19" s="53" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="74">
+      <c r="AA19" s="79">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
@@ -8460,10 +8956,10 @@
       <c r="AC19" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AD19" s="75" t="s">
+      <c r="AD19" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="AE19" s="76">
+      <c r="AE19" s="81">
         <v>45594</v>
       </c>
       <c r="AF19" s="18"/>
@@ -8477,7 +8973,7 @@
       <c r="AN19" s="18"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="34" t="s">
         <v>233</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -8525,29 +9021,29 @@
       <c r="V20" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="W20" s="49" t="s">
+      <c r="W20" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="X20" s="49" t="s">
+      <c r="X20" s="54" t="s">
         <v>247</v>
       </c>
       <c r="Y20" s="8" t="s">
         <v>248</v>
       </c>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="97">
+      <c r="AA20" s="102">
         <v>417</v>
       </c>
-      <c r="AB20" s="98" t="s">
+      <c r="AB20" s="103" t="s">
         <v>52</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="AD20" s="99" t="s">
+      <c r="AD20" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="AE20" s="76">
+      <c r="AE20" s="81">
         <v>45594</v>
       </c>
       <c r="AF20" s="18"/>
@@ -8561,7 +9057,7 @@
       <c r="AN20" s="18"/>
     </row>
     <row r="21" s="9" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="34" t="s">
         <v>251</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -8611,17 +9107,17 @@
       <c r="V21" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="W21" s="50" t="s">
+      <c r="W21" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="X21" s="51" t="s">
+      <c r="X21" s="56" t="s">
         <v>52</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="100">
+      <c r="AA21" s="105">
         <v>1972</v>
       </c>
       <c r="AB21" s="9" t="s">
@@ -8633,7 +9129,7 @@
       <c r="AD21" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AE21" s="76">
+      <c r="AE21" s="81">
         <v>45594</v>
       </c>
       <c r="AF21" s="18"/>
@@ -8647,7 +9143,7 @@
       <c r="AN21" s="18"/>
     </row>
     <row r="22" s="10" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="34" t="s">
         <v>268</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -8691,29 +9187,29 @@
       <c r="V22" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="W22" s="52" t="s">
+      <c r="W22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="X22" s="52" t="s">
+      <c r="X22" s="57" t="s">
         <v>280</v>
       </c>
       <c r="Y22" s="10" t="s">
         <v>281</v>
       </c>
       <c r="Z22" s="10"/>
-      <c r="AA22" s="101">
+      <c r="AA22" s="106">
         <v>80</v>
       </c>
       <c r="AB22" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="AC22" s="102" t="s">
+      <c r="AC22" s="107" t="s">
         <v>52</v>
       </c>
       <c r="AD22" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="AE22" s="76">
+      <c r="AE22" s="81">
         <v>45594</v>
       </c>
       <c r="AF22" s="18"/>
@@ -8726,18 +9222,20 @@
       <c r="AM22" s="18"/>
       <c r="AN22" s="18"/>
     </row>
-    <row r="26" customFormat="1" spans="1:1">
+    <row r="26" customFormat="1" spans="1:27">
       <c r="A26" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="AA26" s="24"/>
     </row>
-    <row r="27" customFormat="1" spans="1:1">
+    <row r="27" customFormat="1" spans="1:27">
       <c r="A27" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="AA27" s="24"/>
     </row>
     <row r="28" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="34" t="s">
         <v>286</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -8779,29 +9277,29 @@
       <c r="V28" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="W28" s="53" t="s">
+      <c r="W28" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="X28" s="53" t="s">
+      <c r="X28" s="58" t="s">
         <v>299</v>
       </c>
       <c r="Y28" s="11" t="s">
         <v>300</v>
       </c>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="103">
+      <c r="AA28" s="108">
         <v>36</v>
       </c>
-      <c r="AB28" s="104" t="s">
+      <c r="AB28" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="104" t="s">
+      <c r="AC28" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="105" t="s">
+      <c r="AD28" s="110" t="s">
         <v>301</v>
       </c>
-      <c r="AE28" s="76">
+      <c r="AE28" s="81">
         <v>45599</v>
       </c>
       <c r="AF28" s="18"/>
@@ -8815,7 +9313,7 @@
       <c r="AN28" s="18"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="34" t="s">
         <v>302</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -8853,23 +9351,23 @@
       <c r="P29" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="U29" s="54" t="s">
+      <c r="U29" s="59" t="s">
         <v>310</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="W29" s="39" t="s">
+      <c r="W29" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="X29" s="39" t="s">
+      <c r="X29" s="44" t="s">
         <v>313</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>314</v>
       </c>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="80">
+      <c r="AA29" s="85">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
@@ -8878,10 +9376,10 @@
       <c r="AC29" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AD29" s="106" t="s">
+      <c r="AD29" s="111" t="s">
         <v>317</v>
       </c>
-      <c r="AE29" s="76">
+      <c r="AE29" s="81">
         <v>45599</v>
       </c>
       <c r="AF29" s="18"/>
@@ -8895,7 +9393,7 @@
       <c r="AN29" s="18"/>
     </row>
     <row r="30" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="34" t="s">
         <v>318</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -8943,17 +9441,17 @@
       <c r="V30" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="W30" s="55" t="s">
+      <c r="W30" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="X30" s="55" t="s">
+      <c r="X30" s="60" t="s">
         <v>330</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>331</v>
       </c>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="107">
+      <c r="AA30" s="112">
         <v>290</v>
       </c>
       <c r="AB30" s="12" t="s">
@@ -8962,15 +9460,15 @@
       <c r="AC30" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="AD30" s="108" t="s">
+      <c r="AD30" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="AE30" s="109">
+      <c r="AE30" s="114">
         <v>45607</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="34" t="s">
         <v>335</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -9020,17 +9518,17 @@
       <c r="V31" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="W31" s="56" t="s">
+      <c r="W31" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="X31" s="56" t="s">
+      <c r="X31" s="61" t="s">
         <v>349</v>
       </c>
       <c r="Y31" s="10" t="s">
         <v>350</v>
       </c>
       <c r="Z31" s="10"/>
-      <c r="AA31" s="101">
+      <c r="AA31" s="106">
         <v>41</v>
       </c>
       <c r="AB31" s="10" t="s">
@@ -9039,15 +9537,15 @@
       <c r="AC31" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="AD31" s="110" t="s">
+      <c r="AD31" s="115" t="s">
         <v>353</v>
       </c>
-      <c r="AE31" s="111">
+      <c r="AE31" s="116">
         <v>45610</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="34" t="s">
         <v>354</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -9095,34 +9593,34 @@
       <c r="V32" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="W32" s="57" t="s">
+      <c r="W32" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="X32" s="58" t="s">
+      <c r="X32" s="63" t="s">
         <v>52</v>
       </c>
       <c r="Y32" s="5" t="s">
         <v>364</v>
       </c>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="84">
+      <c r="AA32" s="89">
         <v>26</v>
       </c>
-      <c r="AB32" s="58" t="s">
+      <c r="AB32" s="63" t="s">
         <v>52</v>
       </c>
       <c r="AC32" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="AD32" s="85" t="s">
+      <c r="AD32" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="AE32" s="86">
+      <c r="AE32" s="91">
         <v>45618</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="34" t="s">
         <v>367</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -9172,17 +9670,17 @@
       <c r="V33" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="W33" s="59" t="s">
+      <c r="W33" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="X33" s="59" t="s">
+      <c r="X33" s="64" t="s">
         <v>380</v>
       </c>
       <c r="Y33" s="13" t="s">
         <v>381</v>
       </c>
       <c r="Z33" s="13"/>
-      <c r="AA33" s="112">
+      <c r="AA33" s="117">
         <v>8</v>
       </c>
       <c r="AB33" s="13" t="s">
@@ -9194,12 +9692,12 @@
       <c r="AD33" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="AE33" s="113">
+      <c r="AE33" s="118">
         <v>45618</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="34" t="s">
         <v>385</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -9249,17 +9747,17 @@
       <c r="V34" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="W34" s="60" t="s">
+      <c r="W34" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="X34" s="61" t="s">
+      <c r="X34" s="66" t="s">
         <v>52</v>
       </c>
       <c r="Y34" s="14" t="s">
         <v>396</v>
       </c>
       <c r="Z34" s="14"/>
-      <c r="AA34" s="114">
+      <c r="AA34" s="119">
         <v>37</v>
       </c>
       <c r="AB34" s="14" t="s">
@@ -9271,17 +9769,18 @@
       <c r="AD34" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="AE34" s="115">
+      <c r="AE34" s="120">
         <v>45618</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:1">
+    <row r="39" customFormat="1" spans="1:27">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AA39" s="24"/>
     </row>
     <row r="40" s="15" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="34" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -9325,29 +9824,29 @@
       <c r="V40" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="W40" s="62" t="s">
+      <c r="W40" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="X40" s="62" t="s">
+      <c r="X40" s="67" t="s">
         <v>412</v>
       </c>
       <c r="Y40" s="15" t="s">
         <v>413</v>
       </c>
       <c r="Z40" s="15"/>
-      <c r="AA40" s="116">
+      <c r="AA40" s="121">
         <v>12188</v>
       </c>
       <c r="AB40" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="AC40" s="117" t="s">
+      <c r="AC40" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="118" t="s">
+      <c r="AD40" s="123" t="s">
         <v>415</v>
       </c>
-      <c r="AE40" s="76">
+      <c r="AE40" s="81">
         <v>45599</v>
       </c>
       <c r="AF40" s="18"/>
@@ -9361,7 +9860,7 @@
       <c r="AN40" s="18"/>
     </row>
     <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="34" t="s">
         <v>416</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -9376,7 +9875,7 @@
       <c r="E41" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="39" t="s">
         <v>420</v>
       </c>
       <c r="G41" s="13" t="s">
@@ -9405,17 +9904,17 @@
       <c r="V41" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="W41" s="63" t="s">
+      <c r="W41" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="X41" s="63" t="s">
+      <c r="X41" s="68" t="s">
         <v>427</v>
       </c>
       <c r="Y41" s="13" t="s">
         <v>428</v>
       </c>
       <c r="Z41" s="13"/>
-      <c r="AA41" s="112">
+      <c r="AA41" s="117">
         <v>959</v>
       </c>
       <c r="AB41" s="13" t="s">
@@ -9424,10 +9923,10 @@
       <c r="AC41" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="AD41" s="119" t="s">
+      <c r="AD41" s="124" t="s">
         <v>431</v>
       </c>
-      <c r="AE41" s="76">
+      <c r="AE41" s="81">
         <v>45599</v>
       </c>
       <c r="AF41" s="18"/>
@@ -9441,7 +9940,7 @@
       <c r="AN41" s="18"/>
     </row>
     <row r="42" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="34" t="s">
         <v>432</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -9491,34 +9990,34 @@
       <c r="V42" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="W42" s="64" t="s">
+      <c r="W42" s="69" t="s">
         <v>444</v>
       </c>
-      <c r="X42" s="64" t="s">
+      <c r="X42" s="69" t="s">
         <v>445</v>
       </c>
       <c r="Y42" s="16" t="s">
         <v>446</v>
       </c>
       <c r="Z42" s="16"/>
-      <c r="AA42" s="120">
+      <c r="AA42" s="125">
         <v>742</v>
       </c>
-      <c r="AB42" s="66" t="s">
+      <c r="AB42" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="66" t="s">
+      <c r="AC42" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="121" t="s">
+      <c r="AD42" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="AE42" s="122">
+      <c r="AE42" s="127">
         <v>45602</v>
       </c>
     </row>
     <row r="43" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="34" t="s">
         <v>448</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -9566,17 +10065,17 @@
       <c r="V43" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="W43" s="55" t="s">
+      <c r="W43" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="X43" s="55" t="s">
+      <c r="X43" s="60" t="s">
         <v>459</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>460</v>
       </c>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="107">
+      <c r="AA43" s="112">
         <v>1627</v>
       </c>
       <c r="AB43" s="12" t="s">
@@ -9588,12 +10087,12 @@
       <c r="AD43" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="AE43" s="109">
+      <c r="AE43" s="114">
         <v>45607</v>
       </c>
     </row>
     <row r="44" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="34" t="s">
         <v>464</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -9641,39 +10140,40 @@
       <c r="V44" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="W44" s="65" t="s">
+      <c r="W44" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="X44" s="66" t="s">
+      <c r="X44" s="71" t="s">
         <v>476</v>
       </c>
       <c r="Y44" s="16" t="s">
         <v>477</v>
       </c>
       <c r="Z44" s="16"/>
-      <c r="AA44" s="120">
+      <c r="AA44" s="125">
         <v>1314</v>
       </c>
       <c r="AB44" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="AC44" s="66" t="s">
+      <c r="AC44" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="AD44" s="121" t="s">
+      <c r="AD44" s="126" t="s">
         <v>479</v>
       </c>
-      <c r="AE44" s="122">
+      <c r="AE44" s="127">
         <v>45618</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:1">
+    <row r="47" customFormat="1" spans="1:27">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AA47" s="24"/>
     </row>
     <row r="48" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="34" t="s">
         <v>480</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -9719,34 +10219,34 @@
       <c r="V48" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="W48" s="52" t="s">
+      <c r="W48" s="57" t="s">
         <v>491</v>
       </c>
-      <c r="X48" s="56" t="s">
+      <c r="X48" s="61" t="s">
         <v>492</v>
       </c>
       <c r="Y48" s="10" t="s">
         <v>493</v>
       </c>
       <c r="Z48" s="10"/>
-      <c r="AA48" s="101">
+      <c r="AA48" s="106">
         <v>162</v>
       </c>
       <c r="AB48" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="AC48" s="102" t="s">
+      <c r="AC48" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="110" t="s">
+      <c r="AD48" s="115" t="s">
         <v>495</v>
       </c>
-      <c r="AE48" s="111">
+      <c r="AE48" s="116">
         <v>45602</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="34" t="s">
         <v>496</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -9796,17 +10296,17 @@
       <c r="V49" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="W49" s="37" t="s">
+      <c r="W49" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="X49" s="37" t="s">
+      <c r="X49" s="42" t="s">
         <v>510</v>
       </c>
       <c r="Y49" s="2" t="s">
         <v>511</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="74">
+      <c r="AA49" s="79">
         <v>1295</v>
       </c>
       <c r="AB49" s="2" t="s">
@@ -9815,15 +10315,15 @@
       <c r="AC49" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AD49" s="75" t="s">
+      <c r="AD49" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="AE49" s="82">
+      <c r="AE49" s="87">
         <v>45607</v>
       </c>
     </row>
     <row r="50" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="34" t="s">
         <v>515</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -9873,17 +10373,17 @@
       <c r="V50" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="W50" s="65" t="s">
+      <c r="W50" s="70" t="s">
         <v>526</v>
       </c>
-      <c r="X50" s="65" t="s">
+      <c r="X50" s="70" t="s">
         <v>527</v>
       </c>
       <c r="Y50" s="16" t="s">
         <v>528</v>
       </c>
       <c r="Z50" s="16"/>
-      <c r="AA50" s="120">
+      <c r="AA50" s="125">
         <v>52</v>
       </c>
       <c r="AB50" s="16" t="s">
@@ -9892,15 +10392,15 @@
       <c r="AC50" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="AD50" s="121" t="s">
+      <c r="AD50" s="126" t="s">
         <v>531</v>
       </c>
-      <c r="AE50" s="122">
+      <c r="AE50" s="127">
         <v>45610</v>
       </c>
     </row>
     <row r="51" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="34" t="s">
         <v>532</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -9944,39 +10444,40 @@
       <c r="V51" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="W51" s="67" t="s">
+      <c r="W51" s="72" t="s">
         <v>541</v>
       </c>
-      <c r="X51" s="68" t="s">
+      <c r="X51" s="73" t="s">
         <v>52</v>
       </c>
       <c r="Y51" s="12" t="s">
         <v>542</v>
       </c>
       <c r="Z51" s="12"/>
-      <c r="AA51" s="107">
+      <c r="AA51" s="112">
         <v>84</v>
       </c>
       <c r="AB51" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="AC51" s="68" t="s">
+      <c r="AC51" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="AD51" s="108" t="s">
+      <c r="AD51" s="113" t="s">
         <v>544</v>
       </c>
-      <c r="AE51" s="109">
+      <c r="AE51" s="114">
         <v>45610</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:1">
+    <row r="55" customFormat="1" spans="1:27">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="AA55" s="24"/>
     </row>
     <row r="56" s="17" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="34" t="s">
         <v>545</v>
       </c>
       <c r="B56" s="17" t="s">
@@ -10026,34 +10527,34 @@
       <c r="V56" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="W56" s="69" t="s">
+      <c r="W56" s="74" t="s">
         <v>556</v>
       </c>
-      <c r="X56" s="70" t="s">
+      <c r="X56" s="75" t="s">
         <v>52</v>
       </c>
       <c r="Y56" s="17" t="s">
         <v>557</v>
       </c>
       <c r="Z56" s="17"/>
-      <c r="AA56" s="123">
+      <c r="AA56" s="128">
         <v>38</v>
       </c>
-      <c r="AB56" s="70" t="s">
+      <c r="AB56" s="75" t="s">
         <v>52</v>
       </c>
       <c r="AC56" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="AD56" s="124" t="s">
+      <c r="AD56" s="129" t="s">
         <v>559</v>
       </c>
-      <c r="AE56" s="125">
+      <c r="AE56" s="130">
         <v>45607</v>
       </c>
     </row>
     <row r="57" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="34" t="s">
         <v>560</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -10101,29 +10602,29 @@
       <c r="V57" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="W57" s="55" t="s">
+      <c r="W57" s="60" t="s">
         <v>571</v>
       </c>
-      <c r="X57" s="55" t="s">
+      <c r="X57" s="60" t="s">
         <v>572</v>
       </c>
       <c r="Y57" s="12" t="s">
         <v>573</v>
       </c>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="107">
+      <c r="AA57" s="112">
         <v>299</v>
       </c>
-      <c r="AB57" s="68" t="s">
+      <c r="AB57" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="AC57" s="68" t="s">
+      <c r="AC57" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="AD57" s="108" t="s">
+      <c r="AD57" s="113" t="s">
         <v>574</v>
       </c>
-      <c r="AE57" s="109">
+      <c r="AE57" s="114">
         <v>45610</v>
       </c>
     </row>
@@ -10156,10 +10657,10 @@
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
-      <c r="AA63" s="126"/>
+      <c r="AA63" s="131"/>
     </row>
     <row r="64" s="19" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="34" t="s">
         <v>575</v>
       </c>
       <c r="B64" s="19" t="s">
@@ -10203,34 +10704,34 @@
       <c r="V64" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="W64" s="71" t="s">
+      <c r="W64" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="X64" s="71" t="s">
+      <c r="X64" s="76" t="s">
         <v>587</v>
       </c>
       <c r="Y64" s="19" t="s">
         <v>588</v>
       </c>
       <c r="Z64" s="19"/>
-      <c r="AA64" s="127">
+      <c r="AA64" s="132">
         <v>264</v>
       </c>
-      <c r="AB64" s="128" t="s">
+      <c r="AB64" s="133" t="s">
         <v>589</v>
       </c>
-      <c r="AC64" s="129" t="s">
+      <c r="AC64" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="130" t="s">
+      <c r="AD64" s="135" t="s">
         <v>590</v>
       </c>
-      <c r="AE64" s="131">
+      <c r="AE64" s="136">
         <v>45607</v>
       </c>
     </row>
     <row r="65" s="11" customFormat="1" ht="360" spans="1:31">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="34" t="s">
         <v>591</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -10282,17 +10783,17 @@
       <c r="V65" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="W65" s="132" t="s">
+      <c r="W65" s="144" t="s">
         <v>605</v>
       </c>
-      <c r="X65" s="132" t="s">
+      <c r="X65" s="144" t="s">
         <v>606</v>
       </c>
       <c r="Y65" s="11" t="s">
         <v>607</v>
       </c>
       <c r="Z65" s="11"/>
-      <c r="AA65" s="103">
+      <c r="AA65" s="108">
         <v>729</v>
       </c>
       <c r="AB65" s="11" t="s">
@@ -10304,8 +10805,273 @@
       <c r="AD65" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="AE65" s="133">
+      <c r="AE65" s="150">
         <v>45618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="73" s="20" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A73" s="137" t="s">
+        <v>611</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="P73" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q73" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="W73" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="X73" s="47" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y73" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA73" s="151">
+        <v>540</v>
+      </c>
+      <c r="AB73" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC73" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD73" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="74" s="21" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A74" s="138" t="s">
+        <v>629</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="J74" s="142" t="s">
+        <v>637</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="P74" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q74" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="U74" s="142" t="s">
+        <v>640</v>
+      </c>
+      <c r="V74" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="W74" s="145" t="s">
+        <v>642</v>
+      </c>
+      <c r="X74" s="146" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y74" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA74" s="152">
+        <v>8</v>
+      </c>
+      <c r="AB74" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="AC74" s="153" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD74" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="75" s="22" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A75" s="139" t="s">
+        <v>647</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="G75" s="140" t="s">
+        <v>651</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="J75" s="140" t="s">
+        <v>653</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="P75" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q75" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="U75" s="140" t="s">
+        <v>656</v>
+      </c>
+      <c r="V75" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="W75" s="147" t="s">
+        <v>658</v>
+      </c>
+      <c r="X75" s="148" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y75" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA75" s="154">
+        <v>6</v>
+      </c>
+      <c r="AB75" s="148" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC75" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD75" s="155" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="76" s="23" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A76" s="141" t="s">
+        <v>662</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="P76" s="143" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q76" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="U76" s="143" t="s">
+        <v>672</v>
+      </c>
+      <c r="V76" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="W76" s="149" t="s">
+        <v>674</v>
+      </c>
+      <c r="X76" s="149" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y76" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA76" s="156">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC76" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD76" s="23" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -10376,6 +11142,12 @@
     <hyperlink ref="X16" r:id="rId58" display="https://github.com/XiangLi1999/Diffusion-LM" tooltip="https://github.com/XiangLi1999/Diffusion-LM"/>
     <hyperlink ref="W17" r:id="rId59" display="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf" tooltip="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf"/>
     <hyperlink ref="X17" r:id="rId60" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
+    <hyperlink ref="W73" r:id="rId61" display="https://arxiv.org/pdf/1904.10322"/>
+    <hyperlink ref="X73" r:id="rId62" display="https://github.com/PeiJieSun/diffnet"/>
+    <hyperlink ref="W74" r:id="rId63" display="https://arxiv.org/pdf/2308.11131" tooltip="https://arxiv.org/pdf/2308.11131"/>
+    <hyperlink ref="W75" r:id="rId64" display="https://arxiv.org/pdf/2308.06982"/>
+    <hyperlink ref="W76" r:id="rId65" display="https://arxiv.org/pdf/2406.01629"/>
+    <hyperlink ref="X76" r:id="rId66" display="https://github.com/HKUDS/RecDiff"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="695">
   <si>
     <t>论文名</t>
   </si>
@@ -1005,6 +1005,112 @@
 作者提出了waveflow，直接使用最大似然进行训练，简化了训练流程并降低了开发成本，且模型参数少，生成高质量音频的效率高</t>
   </si>
   <si>
+    <t>Generative Flow Network for Listwise Recommendation</t>
+  </si>
+  <si>
+    <t>GFN4Rec</t>
+  </si>
+  <si>
+    <t>(1) Kuaishou Technology, 
+(2) University of California,San Diego 
+(3) Peking University</t>
+  </si>
+  <si>
+    <t>KDD 2023</t>
+  </si>
+  <si>
+    <t>(1) ML1M 
+(2) KR1K</t>
+  </si>
+  <si>
+    <t>ML1M中是用户对电影的评分历史（1~5），但评分信号被转换成点击（评分≥3）、点赞（评分≥4）和星级（评分≥5）
+KR1K是用户反馈包括点击、观看、喜欢、评论、转发、关注和不喜欢等多种行为，所有行为类型均为 0/1 信号。</t>
+  </si>
+  <si>
+    <t>用户与项目的交互信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Detailed Balance (DB) loss  
+(2) the Trajectory Balance (TB) loss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：实验对比了 TB 损失和 DB 损失在实际数据集 KR1K 中的表现，结果表明 DB 损失在该数据集上取得了更好的性能，建议在实际应用中使用 DB 损失</t>
+    </r>
+  </si>
+  <si>
+    <t>具体表达式见 公式7、9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) In the list reranking and generative recommendation, it is challenging to explore the combinatorial space of list actions and existing methods that use cross-entropy loss may suffer from low diversity issues
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose a list-wise recommendation method,  GFN4Rec,  that uses a generative flow network to represent the probabilistic list generation process
+(2) The key advantages are the log scale reward matching loss that intrinsically improves the generation diversity and the autoregressive item selection model that captures the item mutual influences while capturing future reward of the list.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Average Reward 
+(2) Max reward
+(3) item Coverage
+(4) intra-list diversity, ILD
+(5) R-NDCG 
+(6) R-MRR</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2306.02239</t>
+  </si>
+  <si>
+    <t>https://github.com/CharlieMat/GFN4Rec</t>
+  </si>
+  <si>
+    <t>@inproceedings{liu2023generative,
+  title={Generative flow network for listwise recommendation},
+  author={Liu, Shuchang and Cai, Qingpeng and He, Zhankui and Sun, Bowen and McAuley, Julian and Zheng, Dong and Jiang, Peng and Gai, Kun},
+  booktitle={Proceedings of the 29th ACM SIGKDD Conference on Knowledge Discovery and Data Mining},
+  pages={1524--1534},
+  year={2023}
+}</t>
+  </si>
+  <si>
+    <t>a single (Tesla T4) GPU machine</t>
+  </si>
+  <si>
+    <t>(1) GFN4Rec requires more hyperparameters (reward smoothing, normalizing coefficient, and forward probability offset) which may take empirical efforts to find a feasible optimization setting than standard supervised learning.
+(2) explore a way to optimize the exploration strategy.</t>
+  </si>
+  <si>
+    <t>挑战：在列表推荐中，如何有效地探索组合空间是一个挑战，因为列表动作的组合空间通常是巨大的，并且使用交叉熵损失的现有方法可能存在低多样性问题
+作者提出了一个基于生成流网络（Generative Flow Network）的方法GFN4Rec，提出的方法的一个关键见解是生成方法，它直接将生成概率而不是对数概率与列表明智的奖励相匹配，另一个特点是迭代项目生成模型，该模型捕获项目的相互信息并优化未来的列表奖励</t>
+  </si>
+  <si>
     <t>扩散模型</t>
   </si>
   <si>
@@ -3787,9 +3893,6 @@
   </si>
   <si>
     <t>University of Science and Technology of China</t>
-  </si>
-  <si>
-    <t>KDD 2023</t>
   </si>
   <si>
     <t>(1) AQI
@@ -5634,6 +5737,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Yelp 
 (2) Flickr
 </t>
@@ -5665,6 +5774,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) 传统方法局限： Collaborative Filtering (CF) is limited due to the sparseness of user behavior data.
 (2) 现有方法局限：the current social recommendation models simply developed static models by leveraging the local neighbors of each user without simulating the recursive diffusion in the global social network, leading to suboptimal recommendation performance
 </t>
@@ -5738,6 +5853,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) 用户信息
 (2) 项目信息
 (3) 用户与项目交互信息
@@ -5762,6 +5883,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Lifelong Sequential Behavior Comprehension: LLMs fail to extract useful information from a textual context of long user behavior sequence, even if the length of context is far from reaching the context limitation of LLMs.
 </t>
     </r>
@@ -5819,6 +5946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Avito
 (2) VideoRerank
 </t>
@@ -5840,6 +5973,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) initial ranked item list
 (2) user impression list
 (3) user feedback
@@ -5864,6 +6003,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) the challenge of reranking in  modern multi-stage recommender
 systems, such as combinatorial searching space
 (2) the limitations of existing generative models, such as unstable optimization and posterior collapse
@@ -5907,6 +6052,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑战</t>
     </r>
     <r>
@@ -5949,6 +6101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) Variational Lower Bound
 (2) recommendation loss
 </t>
@@ -5970,6 +6128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) a persistent challenge of social recommendation is the presence of inherent noise in social information
 (2) This presence of irrelevant and false social ties(inherent noise), which can contaminate user embeddings and adversely affect recommendation accuracy
 (3) the existing handcrafted self-supervised
@@ -6297,18 +6461,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
@@ -6321,13 +6473,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6366,6 +6530,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6391,12 +6561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6438,12 +6602,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6469,18 +6627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6818,7 +6964,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6842,16 +6988,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6860,89 +7006,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7003,70 +7149,61 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7090,12 +7227,15 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7105,316 +7245,262 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7960,136 +8046,136 @@
   <sheetPr/>
   <dimension ref="A1:AN76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="AE76" sqref="AE76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="26" width="15.3333333333333" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="24" customWidth="1"/>
+    <col min="27" max="27" width="15.3333333333333" style="20" customWidth="1"/>
     <col min="28" max="16382" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="AA1" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="78" t="s">
+      <c r="AD1" s="75" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="105" spans="1:27">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="24"/>
+      <c r="AA2" s="20"/>
     </row>
     <row r="3" customFormat="1" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="24"/>
+      <c r="AA3" s="20"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8139,29 +8225,29 @@
       <c r="V4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="39" t="s">
         <v>50</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="79">
+      <c r="AA4" s="76">
         <v>3</v>
       </c>
-      <c r="AB4" s="53" t="s">
+      <c r="AB4" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="53" t="s">
+      <c r="AC4" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="80" t="s">
+      <c r="AD4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="81">
+      <c r="AE4" s="78">
         <v>45594</v>
       </c>
       <c r="AF4" s="18"/>
@@ -8175,7 +8261,7 @@
       <c r="AN4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -8217,29 +8303,29 @@
       <c r="V5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="43" t="s">
+      <c r="W5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="43" t="s">
+      <c r="X5" s="40" t="s">
         <v>67</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="82">
+      <c r="AA5" s="79">
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="83" t="s">
+      <c r="AC5" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="84" t="s">
+      <c r="AD5" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="81">
+      <c r="AE5" s="78">
         <v>45594</v>
       </c>
       <c r="AF5" s="18"/>
@@ -8253,7 +8339,7 @@
       <c r="AN5" s="18"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -8297,17 +8383,17 @@
       <c r="V6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="44" t="s">
+      <c r="W6" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="45" t="s">
+      <c r="X6" s="42" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="85">
+      <c r="AA6" s="82">
         <v>18</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -8316,10 +8402,10 @@
       <c r="AC6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="86" t="s">
+      <c r="AD6" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="81">
+      <c r="AE6" s="78">
         <v>45599</v>
       </c>
       <c r="AF6" s="18"/>
@@ -8333,7 +8419,7 @@
       <c r="AN6" s="18"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8381,34 +8467,34 @@
       <c r="V7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="X7" s="39" t="s">
         <v>101</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="79">
+      <c r="AA7" s="76">
         <v>505</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="53" t="s">
+      <c r="AC7" s="51" t="s">
         <v>52</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AE7" s="87">
+      <c r="AE7" s="84">
         <v>45610</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -8448,17 +8534,17 @@
       <c r="V8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="43" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="85">
+      <c r="AA8" s="82">
         <v>14</v>
       </c>
       <c r="AB8" s="4" t="s">
@@ -8470,12 +8556,12 @@
       <c r="AD8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AE8" s="88">
+      <c r="AE8" s="85">
         <v>45610</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -8525,34 +8611,34 @@
       <c r="V9" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="44" t="s">
         <v>134</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>135</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="89">
+      <c r="AA9" s="86">
         <v>47</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AC9" s="63" t="s">
+      <c r="AC9" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="90" t="s">
+      <c r="AD9" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="AE9" s="91">
+      <c r="AE9" s="88">
         <v>45610</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="30" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -8600,276 +8686,341 @@
       <c r="V10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="W10" s="48" t="s">
+      <c r="W10" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="X10" s="48" t="s">
+      <c r="X10" s="45" t="s">
         <v>152</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="92">
+      <c r="AA10" s="89">
         <v>146</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AC10" s="93" t="s">
+      <c r="AC10" s="90" t="s">
         <v>52</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AE10" s="94">
+      <c r="AE10" s="91">
         <v>45610</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A11" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="W11" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="X11" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA11" s="92">
+        <v>14</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE11" s="93">
+        <v>45623</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA15" s="24"/>
+        <v>173</v>
+      </c>
+      <c r="AA15" s="20"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A16" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="V16" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="W16" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="X16" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y16" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="95">
+      <c r="A16" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="W16" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="X16" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y16" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="94">
         <v>609</v>
       </c>
-      <c r="AB16" s="96" t="s">
+      <c r="AB16" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD16" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE16" s="98">
+      <c r="AC16" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD16" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE16" s="97">
         <v>45618</v>
       </c>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
     </row>
-    <row r="17" s="7" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A17" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="V17" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="W17" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="X17" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y17" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="99">
+    <row r="17" s="8" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A17" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="V17" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="W17" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="X17" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y17" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="98">
         <v>485</v>
       </c>
-      <c r="AB17" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC17" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="100">
+      <c r="AB17" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC17" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="99">
         <v>45618</v>
       </c>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="34" t="s">
-        <v>195</v>
+      <c r="A18" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="U18" s="51" t="s">
-        <v>206</v>
+        <v>222</v>
+      </c>
+      <c r="U18" s="49" t="s">
+        <v>223</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="W18" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="X18" s="52" t="s">
-        <v>209</v>
+        <v>224</v>
+      </c>
+      <c r="W18" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="X18" s="50" t="s">
+        <v>226</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="92">
+      <c r="AA18" s="89">
         <v>45</v>
       </c>
-      <c r="AB18" s="93" t="s">
+      <c r="AB18" s="90" t="s">
         <v>52</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD18" s="101" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE18" s="81">
+        <v>228</v>
+      </c>
+      <c r="AD18" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE18" s="78">
         <v>45599</v>
       </c>
       <c r="AF18" s="18"/>
@@ -8883,47 +9034,47 @@
       <c r="AN18" s="18"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="34" t="s">
-        <v>213</v>
+      <c r="A19" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -8932,34 +9083,34 @@
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="W19" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="X19" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="W19" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="X19" s="51" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="79">
+      <c r="AA19" s="76">
         <v>12</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD19" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE19" s="81">
+        <v>248</v>
+      </c>
+      <c r="AD19" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE19" s="78">
         <v>45594</v>
       </c>
       <c r="AF19" s="18"/>
@@ -8972,78 +9123,78 @@
       <c r="AM19" s="18"/>
       <c r="AN19" s="18"/>
     </row>
-    <row r="20" s="8" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="8" t="s">
+    <row r="20" s="9" customFormat="1" ht="360" spans="1:40">
+      <c r="A20" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="W20" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="X20" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y20" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="102">
+      <c r="F20" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="W20" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="X20" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="101">
         <v>417</v>
       </c>
-      <c r="AB20" s="103" t="s">
+      <c r="AB20" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AC20" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD20" s="104" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE20" s="81">
+      <c r="AC20" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD20" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE20" s="78">
         <v>45594</v>
       </c>
       <c r="AF20" s="18"/>
@@ -9056,80 +9207,80 @@
       <c r="AM20" s="18"/>
       <c r="AN20" s="18"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="9" t="s">
+    <row r="21" s="10" customFormat="1" ht="405" spans="1:40">
+      <c r="A21" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9" t="s">
+      <c r="F21" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="W21" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="X21" s="56" t="s">
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="W21" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="X21" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="105">
+      <c r="Y21" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="104">
         <v>1972</v>
       </c>
-      <c r="AB21" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC21" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD21" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE21" s="81">
+      <c r="AB21" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE21" s="78">
         <v>45594</v>
       </c>
       <c r="AF21" s="18"/>
@@ -9142,74 +9293,74 @@
       <c r="AM21" s="18"/>
       <c r="AN21" s="18"/>
     </row>
-    <row r="22" s="10" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="W22" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="X22" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="106">
+    <row r="22" s="11" customFormat="1" ht="330" spans="1:40">
+      <c r="A22" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="W22" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="X22" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="105">
         <v>80</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC22" s="107" t="s">
+      <c r="AB22" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC22" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AD22" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE22" s="81">
+      <c r="AD22" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE22" s="78">
         <v>45594</v>
       </c>
       <c r="AF22" s="18"/>
@@ -9224,82 +9375,82 @@
     </row>
     <row r="26" customFormat="1" spans="1:27">
       <c r="A26" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA26" s="24"/>
+        <v>301</v>
+      </c>
+      <c r="AA26" s="20"/>
     </row>
     <row r="27" customFormat="1" spans="1:27">
       <c r="A27" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA27" s="24"/>
+        <v>302</v>
+      </c>
+      <c r="AA27" s="20"/>
     </row>
-    <row r="28" s="11" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="W28" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="X28" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="108">
+    <row r="28" s="12" customFormat="1" ht="409.5" spans="1:40">
+      <c r="A28" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="W28" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="X28" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="107">
         <v>36</v>
       </c>
-      <c r="AB28" s="109" t="s">
+      <c r="AB28" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="109" t="s">
+      <c r="AC28" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="110" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE28" s="81">
+      <c r="AD28" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE28" s="78">
         <v>45599</v>
       </c>
       <c r="AF28" s="18"/>
@@ -9313,73 +9464,73 @@
       <c r="AN28" s="18"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="34" t="s">
-        <v>302</v>
+      <c r="A29" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="U29" s="59" t="s">
-        <v>310</v>
+        <v>326</v>
+      </c>
+      <c r="U29" s="57" t="s">
+        <v>327</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="W29" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="X29" s="44" t="s">
-        <v>313</v>
+        <v>328</v>
+      </c>
+      <c r="W29" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="X29" s="41" t="s">
+        <v>330</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="85">
+      <c r="AA29" s="82">
         <v>82</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD29" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE29" s="81">
+        <v>333</v>
+      </c>
+      <c r="AD29" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE29" s="78">
         <v>45599</v>
       </c>
       <c r="AF29" s="18"/>
@@ -9392,384 +9543,384 @@
       <c r="AM29" s="18"/>
       <c r="AN29" s="18"/>
     </row>
-    <row r="30" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A30" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="E30" s="12" t="s">
+    <row r="30" s="7" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A30" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="W30" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="X30" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y30" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="112">
+      <c r="F30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="W30" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="X30" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="92">
         <v>290</v>
       </c>
-      <c r="AB30" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC30" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD30" s="113" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE30" s="114">
+      <c r="AB30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD30" s="111" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE30" s="93">
         <v>45607</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A31" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E31" s="10" t="s">
+    <row r="31" s="11" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A31" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="V31" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="W31" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="X31" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="106">
+      <c r="F31" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="W31" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="X31" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="105">
         <v>41</v>
       </c>
-      <c r="AB31" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="AC31" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD31" s="115" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE31" s="116">
+      <c r="AB31" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC31" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD31" s="112" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE31" s="113">
         <v>45610</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A32" s="34" t="s">
-        <v>354</v>
+      <c r="A32" s="30" t="s">
+        <v>371</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="W32" s="62" t="s">
-        <v>363</v>
-      </c>
-      <c r="X32" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="W32" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="X32" s="60" t="s">
         <v>52</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="89">
+      <c r="AA32" s="86">
         <v>26</v>
       </c>
-      <c r="AB32" s="63" t="s">
+      <c r="AB32" s="60" t="s">
         <v>52</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD32" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="AE32" s="91">
+        <v>381</v>
+      </c>
+      <c r="AD32" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE32" s="88">
         <v>45618</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A33" s="34" t="s">
-        <v>367</v>
+      <c r="A33" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="W33" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="X33" s="64" t="s">
-        <v>380</v>
+        <v>394</v>
+      </c>
+      <c r="W33" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="X33" s="61" t="s">
+        <v>396</v>
       </c>
       <c r="Y33" s="13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="Z33" s="13"/>
-      <c r="AA33" s="117">
+      <c r="AA33" s="114">
         <v>8</v>
       </c>
       <c r="AB33" s="13" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AD33" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE33" s="118">
+        <v>400</v>
+      </c>
+      <c r="AE33" s="115">
         <v>45618</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A34" s="34" t="s">
-        <v>385</v>
+      <c r="A34" s="30" t="s">
+        <v>401</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="V34" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="W34" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="X34" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="W34" s="62" t="s">
+        <v>411</v>
+      </c>
+      <c r="X34" s="63" t="s">
         <v>52</v>
       </c>
       <c r="Y34" s="14" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="Z34" s="14"/>
-      <c r="AA34" s="119">
+      <c r="AA34" s="116">
         <v>37</v>
       </c>
       <c r="AB34" s="14" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="AC34" s="14" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="AD34" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE34" s="120">
+        <v>415</v>
+      </c>
+      <c r="AE34" s="117">
         <v>45618</v>
       </c>
     </row>
@@ -9777,76 +9928,76 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA39" s="24"/>
+      <c r="AA39" s="20"/>
     </row>
     <row r="40" s="15" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="34" t="s">
-        <v>400</v>
+      <c r="A40" s="30" t="s">
+        <v>416</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="W40" s="67" t="s">
-        <v>411</v>
-      </c>
-      <c r="X40" s="67" t="s">
-        <v>412</v>
+        <v>426</v>
+      </c>
+      <c r="W40" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="X40" s="64" t="s">
+        <v>428</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="Z40" s="15"/>
-      <c r="AA40" s="121">
+      <c r="AA40" s="118">
         <v>12188</v>
       </c>
       <c r="AB40" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC40" s="122" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC40" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="123" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE40" s="81">
+      <c r="AD40" s="120" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE40" s="78">
         <v>45599</v>
       </c>
       <c r="AF40" s="18"/>
@@ -9860,73 +10011,73 @@
       <c r="AN40" s="18"/>
     </row>
     <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="34" t="s">
-        <v>416</v>
+      <c r="A41" s="30" t="s">
+        <v>432</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>420</v>
+        <v>435</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>436</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="W41" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="X41" s="68" t="s">
-        <v>427</v>
+        <v>441</v>
+      </c>
+      <c r="W41" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="X41" s="65" t="s">
+        <v>443</v>
       </c>
       <c r="Y41" s="13" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="Z41" s="13"/>
-      <c r="AA41" s="117">
+      <c r="AA41" s="114">
         <v>959</v>
       </c>
       <c r="AB41" s="13" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="AC41" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD41" s="124" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE41" s="81">
+        <v>446</v>
+      </c>
+      <c r="AD41" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE41" s="78">
         <v>45599</v>
       </c>
       <c r="AF41" s="18"/>
@@ -9940,229 +10091,229 @@
       <c r="AN41" s="18"/>
     </row>
     <row r="42" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="34" t="s">
-        <v>432</v>
+      <c r="A42" s="30" t="s">
+        <v>448</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="I42" s="16"/>
       <c r="J42" s="16" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
       <c r="U42" s="16" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="V42" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="W42" s="69" t="s">
-        <v>444</v>
-      </c>
-      <c r="X42" s="69" t="s">
-        <v>445</v>
+        <v>459</v>
+      </c>
+      <c r="W42" s="66" t="s">
+        <v>460</v>
+      </c>
+      <c r="X42" s="66" t="s">
+        <v>461</v>
       </c>
       <c r="Y42" s="16" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="Z42" s="16"/>
-      <c r="AA42" s="125">
+      <c r="AA42" s="122">
         <v>742</v>
       </c>
-      <c r="AB42" s="71" t="s">
+      <c r="AB42" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="71" t="s">
+      <c r="AC42" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="126" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE42" s="127">
+      <c r="AD42" s="123" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE42" s="124">
         <v>45602</v>
       </c>
     </row>
-    <row r="43" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A43" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E43" s="12" t="s">
+    <row r="43" s="7" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A43" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="H43" s="12" t="s">
+      <c r="F43" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="V43" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="W43" s="60" t="s">
-        <v>458</v>
-      </c>
-      <c r="X43" s="60" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y43" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="112">
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="W43" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="X43" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="92">
         <v>1627</v>
       </c>
-      <c r="AB43" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="AC43" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD43" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="AE43" s="114">
+      <c r="AB43" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE43" s="93">
         <v>45607</v>
       </c>
     </row>
     <row r="44" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A44" s="34" t="s">
-        <v>464</v>
+      <c r="A44" s="30" t="s">
+        <v>480</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="16" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
       <c r="U44" s="16" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="W44" s="70" t="s">
-        <v>475</v>
-      </c>
-      <c r="X44" s="71" t="s">
-        <v>476</v>
+        <v>490</v>
+      </c>
+      <c r="W44" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="X44" s="68" t="s">
+        <v>492</v>
       </c>
       <c r="Y44" s="16" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="Z44" s="16"/>
-      <c r="AA44" s="125">
+      <c r="AA44" s="122">
         <v>1314</v>
       </c>
       <c r="AB44" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC44" s="71" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC44" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD44" s="126" t="s">
-        <v>479</v>
-      </c>
-      <c r="AE44" s="127">
+      <c r="AD44" s="123" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE44" s="124">
         <v>45618</v>
       </c>
     </row>
@@ -10170,343 +10321,343 @@
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA47" s="24"/>
+      <c r="AA47" s="20"/>
     </row>
-    <row r="48" s="10" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="E48" s="10" t="s">
+    <row r="48" s="11" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A48" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="P48" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q48" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="V48" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="W48" s="57" t="s">
-        <v>491</v>
-      </c>
-      <c r="X48" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y48" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="106">
+      <c r="G48" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="W48" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="X48" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="105">
         <v>162</v>
       </c>
-      <c r="AB48" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC48" s="107" t="s">
+      <c r="AB48" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC48" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="115" t="s">
-        <v>495</v>
-      </c>
-      <c r="AE48" s="116">
+      <c r="AD48" s="112" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE48" s="113">
         <v>45602</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A49" s="34" t="s">
-        <v>496</v>
+      <c r="A49" s="30" t="s">
+        <v>512</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="W49" s="42" t="s">
-        <v>509</v>
-      </c>
-      <c r="X49" s="42" t="s">
-        <v>510</v>
+        <v>524</v>
+      </c>
+      <c r="W49" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="X49" s="39" t="s">
+        <v>526</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="79">
+      <c r="AA49" s="76">
         <v>1295</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AD49" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="AE49" s="87">
+        <v>529</v>
+      </c>
+      <c r="AD49" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE49" s="84">
         <v>45607</v>
       </c>
     </row>
     <row r="50" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A50" s="34" t="s">
-        <v>515</v>
+      <c r="A50" s="30" t="s">
+        <v>531</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
       <c r="P50" s="16" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
       <c r="U50" s="16" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="V50" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="W50" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="X50" s="70" t="s">
-        <v>527</v>
+        <v>541</v>
+      </c>
+      <c r="W50" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="X50" s="67" t="s">
+        <v>543</v>
       </c>
       <c r="Y50" s="16" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="Z50" s="16"/>
-      <c r="AA50" s="125">
+      <c r="AA50" s="122">
         <v>52</v>
       </c>
       <c r="AB50" s="16" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="AD50" s="126" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE50" s="127">
+        <v>546</v>
+      </c>
+      <c r="AD50" s="123" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE50" s="124">
         <v>45610</v>
       </c>
     </row>
-    <row r="51" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A51" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="E51" s="12" t="s">
+    <row r="51" s="7" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A51" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="H51" s="12" t="s">
+      <c r="F51" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="V51" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="W51" s="72" t="s">
-        <v>541</v>
-      </c>
-      <c r="X51" s="73" t="s">
+      <c r="I51" s="7"/>
+      <c r="J51" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="W51" s="69" t="s">
+        <v>557</v>
+      </c>
+      <c r="X51" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="Y51" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="112">
+      <c r="Y51" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="92">
         <v>84</v>
       </c>
-      <c r="AB51" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC51" s="73" t="s">
+      <c r="AB51" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC51" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AD51" s="113" t="s">
-        <v>544</v>
-      </c>
-      <c r="AE51" s="114">
+      <c r="AD51" s="111" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE51" s="93">
         <v>45610</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:27">
       <c r="A55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA55" s="24"/>
+        <v>216</v>
+      </c>
+      <c r="AA55" s="20"/>
     </row>
     <row r="56" s="17" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A56" s="34" t="s">
-        <v>545</v>
+      <c r="A56" s="30" t="s">
+        <v>561</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="17" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
@@ -10516,121 +10667,121 @@
         <v>97</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
       <c r="U56" s="17" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="V56" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="W56" s="74" t="s">
-        <v>556</v>
-      </c>
-      <c r="X56" s="75" t="s">
+        <v>571</v>
+      </c>
+      <c r="W56" s="71" t="s">
+        <v>572</v>
+      </c>
+      <c r="X56" s="72" t="s">
         <v>52</v>
       </c>
       <c r="Y56" s="17" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="Z56" s="17"/>
-      <c r="AA56" s="128">
+      <c r="AA56" s="125">
         <v>38</v>
       </c>
-      <c r="AB56" s="75" t="s">
+      <c r="AB56" s="72" t="s">
         <v>52</v>
       </c>
       <c r="AC56" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="AD56" s="129" t="s">
-        <v>559</v>
-      </c>
-      <c r="AE56" s="130">
+        <v>574</v>
+      </c>
+      <c r="AD56" s="126" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE56" s="127">
         <v>45607</v>
       </c>
     </row>
-    <row r="57" s="12" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A57" s="34" t="s">
-        <v>560</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12" t="s">
+    <row r="57" s="7" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A57" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="V57" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="W57" s="60" t="s">
-        <v>571</v>
-      </c>
-      <c r="X57" s="60" t="s">
-        <v>572</v>
-      </c>
-      <c r="Y57" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="112">
+      <c r="I57" s="7"/>
+      <c r="J57" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="V57" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="W57" s="46" t="s">
+        <v>587</v>
+      </c>
+      <c r="X57" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="92">
         <v>299</v>
       </c>
-      <c r="AB57" s="73" t="s">
+      <c r="AB57" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AC57" s="73" t="s">
+      <c r="AC57" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AD57" s="113" t="s">
-        <v>574</v>
-      </c>
-      <c r="AE57" s="114">
+      <c r="AD57" s="111" t="s">
+        <v>590</v>
+      </c>
+      <c r="AE57" s="93">
         <v>45610</v>
       </c>
     </row>
     <row r="63" s="18" customFormat="1" ht="15" spans="1:27">
       <c r="A63" s="18" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -10657,421 +10808,433 @@
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
-      <c r="AA63" s="131"/>
+      <c r="AA63" s="128"/>
     </row>
     <row r="64" s="19" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A64" s="34" t="s">
-        <v>575</v>
+      <c r="A64" s="30" t="s">
+        <v>591</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="19" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="L64" s="19"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
       <c r="O64" s="19"/>
       <c r="P64" s="19" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="U64" s="19" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="V64" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="W64" s="76" t="s">
-        <v>586</v>
-      </c>
-      <c r="X64" s="76" t="s">
-        <v>587</v>
+        <v>601</v>
+      </c>
+      <c r="W64" s="73" t="s">
+        <v>602</v>
+      </c>
+      <c r="X64" s="73" t="s">
+        <v>603</v>
       </c>
       <c r="Y64" s="19" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="Z64" s="19"/>
-      <c r="AA64" s="132">
+      <c r="AA64" s="129">
         <v>264</v>
       </c>
-      <c r="AB64" s="133" t="s">
-        <v>589</v>
-      </c>
-      <c r="AC64" s="134" t="s">
+      <c r="AB64" s="130" t="s">
+        <v>605</v>
+      </c>
+      <c r="AC64" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="135" t="s">
-        <v>590</v>
-      </c>
-      <c r="AE64" s="136">
+      <c r="AD64" s="132" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE64" s="133">
         <v>45607</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" ht="360" spans="1:31">
-      <c r="A65" s="34" t="s">
-        <v>591</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="V65" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="W65" s="144" t="s">
-        <v>605</v>
-      </c>
-      <c r="X65" s="144" t="s">
-        <v>606</v>
-      </c>
-      <c r="Y65" s="11" t="s">
+    <row r="65" s="12" customFormat="1" ht="360" spans="1:31">
+      <c r="A65" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="108">
+      <c r="B65" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="V65" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="W65" s="134" t="s">
+        <v>621</v>
+      </c>
+      <c r="X65" s="134" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="107">
         <v>729</v>
       </c>
-      <c r="AB65" s="11" t="s">
+      <c r="AB65" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC65" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="AD65" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="AE65" s="150">
+      <c r="AC65" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AD65" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE65" s="137">
         <v>45618</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
     </row>
-    <row r="73" s="20" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A73" s="137" t="s">
-        <v>611</v>
+    <row r="73" s="5" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A73" s="32" t="s">
+        <v>627</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="E73" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="20" t="s">
-        <v>615</v>
+      <c r="F73" s="5" t="s">
+        <v>631</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="P73" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q73" s="20" t="s">
-        <v>621</v>
+        <v>632</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="W73" s="47" t="s">
-        <v>624</v>
-      </c>
-      <c r="X73" s="47" t="s">
-        <v>625</v>
-      </c>
-      <c r="Y73" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA73" s="151">
+        <v>638</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="W73" s="44" t="s">
+        <v>640</v>
+      </c>
+      <c r="X73" s="44" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y73" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA73" s="86">
         <v>540</v>
       </c>
-      <c r="AB73" s="63" t="s">
+      <c r="AB73" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AC73" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="AD73" s="20" t="s">
-        <v>628</v>
+      <c r="AC73" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="AD73" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE73" s="88">
+        <v>45621</v>
       </c>
     </row>
-    <row r="74" s="21" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A74" s="138" t="s">
-        <v>629</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="C74" s="21" t="s">
+    <row r="74" s="11" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A74" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="U74" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="V74" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="W74" s="58" t="s">
+        <v>658</v>
+      </c>
+      <c r="X74" s="135" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y74" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA74" s="105">
+        <v>8</v>
+      </c>
+      <c r="AB74" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC74" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD74" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE74" s="113">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="75" s="6" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A75" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="U75" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="V75" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="W75" s="50" t="s">
+        <v>674</v>
+      </c>
+      <c r="X75" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y75" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA75" s="89">
+        <v>6</v>
+      </c>
+      <c r="AB75" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD75" s="100" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE75" s="91">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="76" s="5" customFormat="1" ht="409.5" spans="1:31">
+      <c r="A76" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="D74" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="J74" s="142" t="s">
-        <v>637</v>
-      </c>
-      <c r="K74" s="21" t="s">
-        <v>638</v>
-      </c>
-      <c r="P74" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q74" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="U74" s="142" t="s">
-        <v>640</v>
-      </c>
-      <c r="V74" s="21" t="s">
-        <v>641</v>
-      </c>
-      <c r="W74" s="145" t="s">
-        <v>642</v>
-      </c>
-      <c r="X74" s="146" t="s">
-        <v>643</v>
-      </c>
-      <c r="Y74" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="AA74" s="152">
-        <v>8</v>
-      </c>
-      <c r="AB74" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="AC74" s="153" t="s">
+      <c r="G76" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="W76" s="136" t="s">
+        <v>690</v>
+      </c>
+      <c r="X76" s="136" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y76" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA76" s="86">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AD74" s="21" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" s="22" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A75" s="139" t="s">
-        <v>647</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="G75" s="140" t="s">
-        <v>651</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="J75" s="140" t="s">
-        <v>653</v>
-      </c>
-      <c r="K75" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="P75" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q75" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="U75" s="140" t="s">
-        <v>656</v>
-      </c>
-      <c r="V75" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="W75" s="147" t="s">
-        <v>658</v>
-      </c>
-      <c r="X75" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y75" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="AA75" s="154">
-        <v>6</v>
-      </c>
-      <c r="AB75" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC75" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD75" s="155" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="76" s="23" customFormat="1" ht="409.5" spans="1:30">
-      <c r="A76" s="141" t="s">
-        <v>662</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="J76" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="P76" s="143" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q76" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="U76" s="143" t="s">
-        <v>672</v>
-      </c>
-      <c r="V76" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="W76" s="149" t="s">
-        <v>674</v>
-      </c>
-      <c r="X76" s="149" t="s">
-        <v>675</v>
-      </c>
-      <c r="Y76" s="23" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA76" s="156">
-        <v>4</v>
-      </c>
-      <c r="AB76" s="157" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC76" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="AD76" s="23" t="s">
-        <v>678</v>
+      <c r="AC76" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD76" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE76" s="88">
+        <v>45621</v>
       </c>
     </row>
   </sheetData>
@@ -11148,6 +11311,8 @@
     <hyperlink ref="W75" r:id="rId64" display="https://arxiv.org/pdf/2308.06982"/>
     <hyperlink ref="W76" r:id="rId65" display="https://arxiv.org/pdf/2406.01629"/>
     <hyperlink ref="X76" r:id="rId66" display="https://github.com/HKUDS/RecDiff"/>
+    <hyperlink ref="W11" r:id="rId67" display="https://arxiv.org/pdf/2306.02239"/>
+    <hyperlink ref="X11" r:id="rId68" display="https://github.com/CharlieMat/GFN4Rec"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="839">
   <si>
     <t>论文名</t>
   </si>
@@ -35,13 +35,13 @@
     <t>模型名（如有多种可以用+号）</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>所属机构</t>
   </si>
   <si>
     <t>期刊/会议</t>
-  </si>
-  <si>
-    <t>类型</t>
   </si>
   <si>
     <t>任务分类（论文中涉及的任务，有几个写几个）</t>
@@ -6177,6 +6177,1162 @@
     <t>挑战：社交信息中存在无关或虚假社交连接，与用户真实偏好不符，导致用户间虽有社交连接但偏好模式多样；现有去噪方法中手工制作的自监督学习技术在减少社交链接歧义方面帮助有限;
 作者提出 RecDiff 框架，引入有效且高效的隐藏空间扩散范式。通过多步噪声扩散和去除训练，使模型具备强大去噪能力，能有效处理用户间多样社会连接，准确建模用户偏好，产生精确的用户偏好表示。</t>
   </si>
+  <si>
+    <t>多模态</t>
+  </si>
+  <si>
+    <t>DIFFUSIONSAT: A GENERATIVE FOUNDATION MODEL FOR SATELLITE IMAGERY</t>
+  </si>
+  <si>
+    <t>DiffusionSat</t>
+  </si>
+  <si>
+    <t>(1) Stanford University
+(2) Stability AI
+(3) CZ Biohub</t>
+  </si>
+  <si>
+    <t>ICLR 2024</t>
+  </si>
+  <si>
+    <t>(1) fMoW
+(2) Satlas
+(3) SpaceNet
+(4) Texas Housing
+(5) xBD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Satellite images can be multi-spectral, irregularly sampled across time – and existing diffusion models trained on images from the Web do not support them.
+(2) remote sensing data is inherently spatio-temporal, requiring conditional generation tasks not supported by traditional methods based on captions or images
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose a novel generative foundation model(DiffusionSat) for satellite image data with the ability to generate high-resolution satellite imagery from numerical metadata as well as text.
+(2) design a novel 3D-conditioning extension which enables DiffusionSat to demonstrate state-of-the-art performance on super-resolution, temporal generation, and in-painting</t>
+    </r>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2312.03606</t>
+  </si>
+  <si>
+    <t>https://github.com/samar-khanna/DiffusionSat</t>
+  </si>
+  <si>
+    <t>@article{khanna2023diffusionsat,
+  title={Diffusionsat: A generative foundation model for satellite imagery},
+  author={Khanna, Samar and Liu, Patrick and Zhou, Linqi and Meng, Chenlin and Rombach, Robin and Burke, Marshall and Lobell, David and Ermon, Stefano},
+  journal={arXiv preprint arXiv:2312.03606},
+  year={2023}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 NVIDIA A100 GPUs</t>
+  </si>
+  <si>
+    <t>(1) expanding DiffusionSat to even larger and more diverse satellite imagery datasets
+(2) reducing variance in the generated samples from DiffusionSat, which can sometimes hallucinate details when producing outputs for inverse problems
+(3) investigating faster sampling methods or more efficient architectures will enable easier deployment or use of DiffusionSat in resource-constrained settings.</t>
+  </si>
+  <si>
+    <t>Transformer based Conditional GAN for Multimodal Image Fusion</t>
+  </si>
+  <si>
+    <t>Transformer based Conditional GAN（TCGAN）</t>
+  </si>
+  <si>
+    <t>Xidian University</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Multimedia 2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">多模态图像融合
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：红外图像和可见光图像的融合，磁共振成像和正电子发射断层扫描图像的融合</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) TNO Human Factors
+(2) RoadScene
+(3) MRI and PET image pairs which are selected from Harvard medical school website
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: link
+(1) https://figshare.com/articles/dataset/TNO_Image_Fusion_Dataset/1008029
+(2) https://github.com/hanna-xu/RoadScene
+(3) http://www.med.harvard.edu/AANLIB/home.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Visible Image
+(2) Infrared Image
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: 通过小波变换得到Prefused Image，结合了两个源图像(1,2)的信息，经过模型处理后得到的融合图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>融合图像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) adversarial loss
+(2)content loss 
+(3)structural similarity loss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：总损失三者按权重相加</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) 具体表达式见II. METHODOLOGY公式7
+(2)具体表达式见公式8
+(3) 具体表达式见公式10
+总损失见公式6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) existing end-to-end image fusion frameworks ignore a priori knowledge integration and long-distance dependencies across domains
+(2) 
+Most of the existing fusion rules are designed manually, which has limitations such as rigid patterns, difficult implementation, and complex calculation
+(3) Due to the instability training of GAN, existing GAN-based methods inevitably take a long time for the network to converge
+(4) CNN features often lead to long-range correlations missing.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose a multimodal image fusion framework with transformer based CGAN
+(2) embed a priori knowledge based on wavelet prefusion into the GAN model, ensuring stability, richness and scalability.
+(3) develop a CNN-transformer structure that takes full advantage of local and global information for complementary feature integration
+(4) TCGAN can be extended to multi-resolution, multi-bands and various fusion tasks with favorable performance</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) structural similarity index measure, SSIM
+(2) peak signal to noise ratio, PSNR
+(3) correlation coefficient, CC
+(4) spatial frequency, SF
+(5) visual information fidelity, VIF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SJd5Uj8MhQWP78gFsHScdPHcgnmMKp5C/view</t>
+  </si>
+  <si>
+    <t>@article{zhang2023transformer,
+  title={Transformer based conditional GAN for multimodal image fusion},
+  author={Zhang, Jun and Jiao, Licheng and Ma, Wenping and Liu, Fang and Liu, Xu and Li, Lingling and Chen, Puhua and Yang, Shuyuan},
+  journal={IEEE Transactions on Multimedia},
+  volume={25},
+  pages={8988--9001},
+  year={2023},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>a desktop computer with Ubuntu 18.04 operating system. It is equipped with an Intel Core i7-7820X 3.6GHz processor, 32GB physical memory and GTX Titan graphics</t>
+  </si>
+  <si>
+    <t>concise loss functions and easier-to-use evaluation metrics will be adopted for GAN-based image fusion.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gan
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现有的端到端图像融合框架忽略了先验的知识整合和跨域的远距离依赖，给复杂场景下的网络融合和全局图像感知带来了挑战。已有方法的局限性：现有的融合规则大多是手工设计的，存在模式死板、实现困难、计算复杂等缺点；由于GAN训练的不稳定性，现有的基于GAN的方法不可避免地需要较长的网络收敛时间；目前的高性能融合技术大多来自CNN学习局部特征表示，CNN的特写常常导致长期相关性缺失
+作者提出一种基于带变压器的条件生成对抗网络（TCGAN）的融合方法。将基于小波预融合的先验知识嵌入到GAN模型中，保证了模型的稳定性、丰富性和可扩展性；开发了一种CNN-transformer结构，充分利用局部和全局信息进行互补特征集成；TCGAN可以扩展到多分辨率、多波段和各种融合任务，并具有良好的性能</t>
+    </r>
+  </si>
+  <si>
+    <t>Zero-1-to-3: Zero-shot One Image to 3D Object</t>
+  </si>
+  <si>
+    <t>Zero-1-to-3</t>
+  </si>
+  <si>
+    <t>(1) Columbia University
+(2) Toyota Research Institute</t>
+  </si>
+  <si>
+    <t>ICCV 2023</t>
+  </si>
+  <si>
+    <t>单图像 3D 重建</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Objaverse
+(2) Google Scanned Objects, GSO
+(3) RTMV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> PS:后两个数据集用于评估</t>
+    </r>
+  </si>
+  <si>
+    <t>3D模型，图像</t>
+  </si>
+  <si>
+    <t>(1) 单视角RGB图像
+(2) 相机视角变换参数</t>
+  </si>
+  <si>
+    <t>指定视角的合成图像</t>
+  </si>
+  <si>
+    <t>具体表达式见 3.1. Learning to Control Camera Viewpoint，公式(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Novel view synthesis from monocular RGB image is severely under-constrained
+(2) While modern diffusion models excel in 2D image generation, their geometric knowledge is underutilized. Building 3D diffusion models from scratch is costly due to the need for annotated 3D training data.
+(3) Existing approaches often require expensive large-scale 3D annotations or multi-view geometric data for training.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) demonstrate that large diffusion models have learned rich 3D priors about the visual world, even though they are only trained on 2D images. 
+(2) demonstrate state-of-the-art results for novel view synthesis and state-of-the-art results for zeroshot 3D reconstruction of objects, both from a single RGB image</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) PSNR
+(2) SSIM
+(3) LPIPS
+(4) FID
+(5) Chamfer Distance
+(6) Volumetric IoU</t>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/ICCV2023/papers/Liu_Zero-1-to-3_Zero-shot_One_Image_to_3D_Object_ICCV_2023_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/cvlab-columbia/zero123</t>
+  </si>
+  <si>
+    <t>@inproceedings{liu2023zero,
+  title={Zero-1-to-3: Zero-shot one image to 3d object},
+  author={Liu, Ruoshi and Wu, Rundi and Van Hoorick, Basile and Tokmakov, Pavel and Zakharov, Sergey and Vondrick, Carl},
+  booktitle={Proceedings of the IEEE/CVF international conference on computer vision},
+  pages={9298--9309},
+  year={2023}
+}</t>
+  </si>
+  <si>
+    <t>(1) From objects to scenes.
+(2) From scenes to videos
+(3) Combining graphics pipelines with Stable Diffusion.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Diffusion
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单视图3D合成是一个严重欠约束的问题，因为只有一张图片无法提供完整的几何、深度和纹理信息，导致生成另一个视角的图像具有高度的不确定性。大多数现有方法需要昂贵的大规模3D注释数据或多视图几何信息进行训练。当前的扩散模型在2D生成上性能卓越，它们的潜在几何信息利用率较低，而从零开始构建3D扩散模型又需要昂贵的3D训练数据
+作者提出了Zero-1-to-3。证明了大型扩散模型已经学习了丰富的关于视觉世界的3D先验，即使它们只在2D图像上进行了训练；还展示了最先进的新视图合成结果和最先进的物体零拍摄3D重建结果</t>
+    </r>
+  </si>
+  <si>
+    <t>GLIDE: Towards Photorealistic Image Generation and Editing with Text-Guided Diffusion Models</t>
+  </si>
+  <si>
+    <t>GLIDE</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ICML 2022</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2112.10741</t>
+  </si>
+  <si>
+    <t>https://github.com/openai/glide-text2im</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@InProceedings{pmlr-v162-nichol22a,
+  title =   {{GLIDE}: Towards Photorealistic Image Generation and Editing with Text-Guided Diffusion Models},
+  author =       {Nichol, Alexander Quinn and Dhariwal, Prafulla and Ramesh, Aditya and Shyam, Pranav and Mishkin, Pamela and Mcgrew, Bob and Sutskever, Ilya and Chen, Mark},
+  booktitle =   {Proceedings of the 39th International Conference on Machine Learning},
+  pages =   {16784--16804},
+  year =   {2022},
+  editor =   {Chaudhuri, Kamalika and Jegelka, Stefanie and Song, Le and Szepesvari, Csaba and Niu, Gang and Sabato, Sivan},
+  volume =   {162},
+  series =   {Proceedings of Machine Learning Research},
+  month =   {17--23 Jul},
+  publisher =    {PMLR},
+  pdf =   {https://proceedings.mlr.press/v162/nichol22a/nichol22a.pdf},
+  url =   {https://proceedings.mlr.press/v162/nichol22a.html},
+}
+</t>
+  </si>
+  <si>
+    <t>(1) The model sometimes fails to capture certain prompts which describe highly unusual objects or scenarios
+(2) reducing sampling latency for real-time applications</t>
+  </si>
+  <si>
+    <t>DiffUFlow: Robust Fine-grained Urban Flow Inference with Denoising Diffusion Model</t>
+  </si>
+  <si>
+    <t>DiffUFlow</t>
+  </si>
+  <si>
+    <t>(1) Central South University
+(2) The Hong Kong Polytechnic University
+(3) China Academy of Industrial Internet
+(4) JD Intelligent Cities Research</t>
+  </si>
+  <si>
+    <t>(1) BJTaxi 
+(2) NYCTaxi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) upscaling factor N
+(2) historical observations of urban flows
+(3) coarse-grained urban flow spatial map with noisy and incomplete data
+(4) External factors include
+temperature, windspeed, holiday, e.t
+(5) land features
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: (1) 是一个预定义的参数，用于指定模型需要将粗粒度数据放大到细粒度数据的程度</t>
+    </r>
+  </si>
+  <si>
+    <t>the fine-grained urban flow map</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>具体表达式 4.1 Conditional Denoising Diffusion
+Probabilistic Model 公式6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) We for the first time study the fine-grained urban flow inference problem with unreliable data, and propose a denoising diffusion-based generative model DiffUFlow to effectively address it
+(2) A transformer-based model is proposed to effectively extract the complex and dynamic spatial-temporal features which serve as a conditional guidance of the reverse denoising process</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) MAE
+(2) RMSE
+(3) MAPE</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3583780.3614842</t>
+  </si>
+  <si>
+    <t>@inproceedings{zheng2023diffuflow,
+  title={Diffuflow: Robust fine-grained urban flow inference with denoising diffusion model},
+  author={Zheng, Yuhao and Zhong, Lian and Wang, Senzhang and Yang, Yu and Gu, Weixi and Zhang, Junbo and Wang, Jianxin},
+  booktitle={Proceedings of the 32nd ACM International Conference on Information and Knowledge Management},
+  pages={3505--3513},
+  year={2023}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building-GAN: Graph-Conditioned Architectural Volumetric Design Generation
+</t>
+  </si>
+  <si>
+    <t>Building-GAN</t>
+  </si>
+  <si>
+    <t>gan</t>
+  </si>
+  <si>
+    <t>(1) Autodesk Research, United States 
+(2) Obayashi AI Design Lab, Japan</t>
+  </si>
+  <si>
+    <t>ICCV 2021</t>
+  </si>
+  <si>
+    <t>3D volumetric design</t>
+  </si>
+  <si>
+    <t>a synthetic dataset with 120,000 volumetric designs for commercial buildings using parametric models</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) program graph
+(2)  a valid design space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+PS: Program Graph用于展示建筑项目中不同功能区域之间的关系和需求。节点，如洗手间、卧室；边，连接关系，如门、通道；层次和比例，可以反映不同区域的相对重要性和面积需求
+设计空间，建筑规范和限制条件，如尺寸，形状，环境等等</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Volumetric Design
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：3D体量设计，这不仅包括建筑的3D形状，还包括每一层的2D布局设计</t>
+    </r>
+  </si>
+  <si>
+    <t>WGAN-GP的损失函数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Compared to the 2D counterparts, 3D program graphs are not only larger in size, but also more complex with additional inter-story relations.
+(2) The raw rasterized output used in previous works cannot produce clean corners and edges due to the fine discretization of pixels.
+(3) For volumetric images,  it is not computational and memory efficient to use this dense representation for polygonal rooms.Moreover, there are voxels within the regular grid but not in the irregular valid design space that take unneeded memory and computation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose voxel graph, a novel 3D representation that can encode irregular voxel grids with non-uniform space partitioning.
+(2) design a pointer-based cross-modal modules in our generative adversarial graph network
+(3) design an automated pipeline to generate valid volumetric designs through simple interaction
+(4) create a synthetic dataset that contains 120,000 volumetric designs based on realistic building requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) quality
+(2) diversity
+(3) connectivity accuracy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：其中quality和diversity使用Fréchet Inception Distance, FID来衡量
+connectivity accuracy通过从生成的设计和程序图中观察到的程序（房间）连接的数量除以程序图中所有边的数量来衡量的</t>
+    </r>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/ICCV2021/papers/Chang_Building-GAN_Graph-Conditioned_Architectural_Volumetric_Design_Generation_ICCV_2021_paper.pdf</t>
+  </si>
+  <si>
+    <t>@inproceedings{chang2021building,
+  title={Building-GAN: Graph-conditioned architectural volumetric design generation},
+  author={Chang, Kai-Hung and Cheng, Chin-Yi and Luo, Jieliang and Murata, Shingo and Nourbakhsh, Mehdi and Tsuji, Yoshito},
+  booktitle={Proceedings of the IEEE/CVF international conference on computer vision},
+  pages={11956--11965},
+  year={2021}
+}</t>
+  </si>
+  <si>
+    <t>enforcing the constraints, such as connectivity, TPR, and FAR, as well as extending the voxel graph for non-cuboid geometries</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GAN
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虽然单层建筑的二维平面布局生成已经得到了广泛的研究，但对于多层建筑的二维平面布局生成还没有成熟的方法。与2D方法相比，3D程序图不仅尺寸更大，而且由于额外的故事间关系而更加复杂。由于像素的精细离散，在以前的作品中使用的原始栅格化输出无法产生干净的角落和边缘。传统的3D体素表示对于多边形房间来说，既不计算高效也不节省内存
+作者提出了体素图，一种新的三维表示，可以编码不规则体素网格和非均匀空间划分。在生成对抗图网络中设计了一个基于指针的跨模态模块。指针模块不仅可以用于消息传递，还可以作为解码器在一组动态有效程序上输出概率。还与专业建筑师合作创建了一个合成数据集，其中包含基于现实建筑要求的120,000个体积设计。</t>
+    </r>
+  </si>
+  <si>
+    <t>Graphmae: Self-supervised masked graph autoencoders</t>
+  </si>
+  <si>
+    <t>GraphMAE</t>
+  </si>
+  <si>
+    <t>(1) Tsinghua University
+(2) DAMO Academy, Alibaba Group
+(3) BirenTech Research</t>
+  </si>
+  <si>
+    <t>KDD 2022</t>
+  </si>
+  <si>
+    <t>基于自监督图自编码器的图生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Node Classification任务：Cora, Citeseer, PubMed, Ogbn-arxiv, PPI, Reddit
+(2) graph classification任务：MUTAG, IMDB-B, IMDB-M, PROTEINS, COLLAB, REDDIT-B, NCI1
+(3) Transfer Learning任务：ZINC15, BBBP, Tox21, ToxCast, SIDER, ClinTox, MUV, HIV, BACE  </t>
+  </si>
+  <si>
+    <t>重构的节点特征</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Scaled Cosine Error，SCE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: 用SCE代替MSE，做了实验对比两个损失函数</t>
+    </r>
+  </si>
+  <si>
+    <t>具体表达式见3.2 The Design of GraphMAE公式(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1)  Self supervised learning(SSL) has not achieved the expected potential on graph data
+(2) In Graph SSL, contrastive learning  heavily relies on structural data augmentation and complicated training strategies
+(3) Defects of existing GAEs: the structure information may be over-emphasized;  feature reconstruction without corruption may not be robust; the mean square error (MSE) can be sensitive and unstable; the decoder architectures are of little expressiveness.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) resent a masked graph autoencoder GraphMAE for self-supervised graph representation learning
+(2) Masked feature reconstruction
+(3) Scaled cosine error
+(4) Re-mask decoding</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Accuracy
+(2) ROC-AUC scores
+(3) Micro-F1</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3534678.3539321</t>
+  </si>
+  <si>
+    <t>https://github.com/THUDM/GraphMAE</t>
+  </si>
+  <si>
+    <t>@inproceedings{hou2022graphmae,
+  title={Graphmae: Self-supervised masked graph autoencoders},
+  author={Hou, Zhenyu and Liu, Xiao and Cen, Yukuo and Dong, Yuxiao and Yang, Hongxia and Wang, Chunjie and Tang, Jie},
+  booktitle={Proceedings of the 28th ACM SIGKDD Conference on Knowledge Discovery and Data Mining},
+  pages={594--604},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VAE
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自然语言处理和其他人工智能领域取得了成功。但在图数据处理中，使用对比学习——严重依赖于结构数据增强和复杂的训练策略。自监督图自编码器（GAEs）可以很好解决上述问题，但其自身也有局限：结构信息可能被过分强调；没有损坏的特征重构可能不是鲁棒的；均方误差（MSE）可能敏感且不稳定；解码器架构缺乏表达能力。
+作者提出了一个用于自监督图表示学习的掩码图自编码器GraphMAE，具有以下特征：掩模特征重构；缩放余弦误差；Re-mask解码</t>
+    </r>
+  </si>
+  <si>
+    <t>D-VAE: A Variational Autoencoder for Directed Acyclic Graphs</t>
+  </si>
+  <si>
+    <t>D-VAE</t>
+  </si>
+  <si>
+    <t>vae</t>
+  </si>
+  <si>
+    <t>Washington University in St. Louis</t>
+  </si>
+  <si>
+    <t>NeurIPS 2019</t>
+  </si>
+  <si>
+    <t>异步消息传递方案编码 DAG优化</t>
+  </si>
+  <si>
+    <t>(1) Bayesian network dataset contains 200,000 random 8-node Bayesian networks from the bnlearn package [61] in R. For each network
+(2) 19,020 neural architectures from the ENAS software [33]</t>
+  </si>
+  <si>
+    <t>DAG</t>
+  </si>
+  <si>
+    <t>重构图</t>
+  </si>
+  <si>
+    <t>evidence lower bound</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) DAG optimization is a hard problem: evaluation of a DAG' s performance is often timeconsuming; due to the discrete nature of DAGs, state-of-the-art black-box optimization techniques are not directly applicable to DAG optimization; to make Bayesian optimization work for discrete structures, we need a kernel to measure the similarity between discrete structures as well as a method to explore the design space and extrapolate to new points.
+(2) the existing simultaneous message passing scheme is designed to learn local structure features. It might not be suitable for DAGs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) propose D-VAE, a variational autoencoder for DAGs using a novel asynchronous message passing scheme, which is able to injectively encode computations
+(2) Based on D-VAE, we propose a new DAG optimization framework which performs Bayesian optimization in a continuous latent space.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) reconstruction accuracy
+(2) prior validity
+(3) uniqueness 
+(4) novelty
+(5) RMSE 
+(6) Pearson correlation coefficient</t>
+  </si>
+  <si>
+    <t>https://proceedings.neurips.cc/paper_files/paper/2019/file/e205ee2a5de471a70c1fd1b46033a75f-Paper.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/muhanzhang/D-VAE</t>
+  </si>
+  <si>
+    <t>@article{zhang2019d,
+  title={D-vae: A variational autoencoder for directed acyclic graphs},
+  author={Zhang, Muhan and Jiang, Shali and Cui, Zhicheng and Garnett, Roman and Chen, Yixin},
+  journal={Advances in neural information processing systems},
+  volume={32},
+  year={2019}
+}</t>
+  </si>
+  <si>
+    <t>We expect incorporating such semantic meanings of node types to be able to further improve D-VAE’s performance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VAE
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">图结构数据的优化难题：评估 DAG 性能耗时；最先进的黑箱优化技术，如模拟退火和贝叶斯优化主要在连续空间中运行，由于DAG的离散性，因此不能直接适用于DAG优化；为了使贝叶斯优化对离散结构起作用，我们需要一个核来度量离散结构之间的相似性，以及一种探索设计空间并向新点外推的方法。同步消息传递方案是为了学习局部结构特征而设计的，可能不适合DAG
+作者提出了D-VAE，一种用于dag的变分自编码器，它采用了一种新的异步消息传递方案，能够对计算进行内射编码，基于D-VAE，提出了一种新的DAG优化框架，该框架在连续潜在空间中进行贝叶斯优化。
+</t>
+    </r>
+  </si>
+  <si>
+    <t>GraphGAN: Graph Representation Learning with Generative Adversarial Nets</t>
+  </si>
+  <si>
+    <t>GraphGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Shanghai Jiao Tong University 
+(2) Microsoft Research Asia 
+(3) The Hong Kong Polytechnic University 
+(4) Huazhong University of Science and Technology
+</t>
+  </si>
+  <si>
+    <t>AAAI 2018</t>
+  </si>
+  <si>
+    <t>结合生成模型和判别模型的图结构数据特征学习</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) arXiv-AstroPh
+(2) arXiv-GrQc
+(3) BlogCatalog
+(4) Wikipedia
+(5) MovieLens-1M
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: link
+(1) https://snap.stanford.edu/data/ca-AstroPh.html
+(2) https://snap.stanford.edu/data/ca-GrQc.html
+(3) (4) 论文中的链接无效 
+(5) https://grouplens.org/datasets/movielens/1m/</t>
+    </r>
+  </si>
+  <si>
+    <t>图数据</t>
+  </si>
+  <si>
+    <t>低维向量表示</t>
+  </si>
+  <si>
+    <t>Adversarial Loss，标准gan损失</t>
+  </si>
+  <si>
+    <t>具体表达式公式(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(1) Existing graph representation learning methods can be classified into two categories: generative models and discriminative models.Each has its own limitations.
+(2) The traditional softmax function has the problem of time-consuming computation of estimated connection distribution and does not utilize the network topology structure
+(1) propose GraphGAN, an innovative graph representation learning framework unifying generative models and discriminative models, in which the generative model and discriminative model play a game-theoretical minimax game.
+(2) propose a new implementation of generator called Graph Softmax which provides a new definition of connectivity distribution in a graph</t>
+  </si>
+  <si>
+    <t>(1) Accuracy 
+(2) Macro-F1
+(3) Precision@K
+(4) Recall@K</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://ojs.aaai.org/index.php/AAAI/article/download/11872/11731
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS：这是一个下载链接</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/hwwang55/GraphGAN</t>
+  </si>
+  <si>
+    <t>@inproceedings{wang2018graphgan,
+  title={Graphgan: Graph representation learning with generative adversarial nets},
+  author={Wang, Hongwei and Wang, Jia and Wang, Jialin and Zhao, Miao and Zhang, Weinan and Zhang, Fuzheng and Xie, Xing and Guo, Minyi},
+  booktitle={Proceedings of the AAAI conference on artificial intelligence},
+  volume={32},
+  number={1},
+  year={2018}
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gan
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现有的网络表示学习算法可大致分为生成式和判别式两类，它们存在一些局限性。生成式模型假设节点存在潜在的真实分布以表示连接偏好，但难以准确拟合；判别式模型直接学习节点间有边的概率，但未考虑网络结构信息。此外，传统的 softmax 函数在计算预估连接分布时存在耗时大且未利用网络拓扑结构的问题。
+作者提出 GraphGAN 模型，结合生成式和判别式方法，生成器拟合真实连接分布概率以生成相似节点来欺骗判别器；判别器区分真实邻居节点和生成节点，从而更好地捕捉图的特征和结构信息。并改进 softmax 函数，提出 graph softmax，使其满足归一化、利用网络结构信息以及计算高效的特点。</t>
+    </r>
+  </si>
+  <si>
+    <t>Graph transformer gans for graph-constrained house generation</t>
+  </si>
+  <si>
+    <t>GTGAN</t>
+  </si>
+  <si>
+    <t>(1) CVL, ETH Zurich
+(2) Tencent Youtu Lab
+(3) U of Oregon &amp; UIUC &amp; Picsart AI Research
+(4) UCAS-Terminus AI Lab, UCAS
+(5) University of Trento
+(6) University of Wurzburg
+(7) KU Leuven</t>
+  </si>
+  <si>
+    <t>基于transfomer的图形约束房屋生成任务的有效图形节点关系学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) LIFULL HOME’s dataset
+(2) CAD-style roof geometry dataset </t>
+  </si>
+  <si>
+    <t>(1) 气泡图（图结构）</t>
+  </si>
+  <si>
+    <t>房屋布局(轴对齐矩形)</t>
+  </si>
+  <si>
+    <t>(1) Graph-based Cycle-consistency Loss
+(2) node classification loss</t>
+  </si>
+  <si>
+    <t>(1) 具体表达式见3.3. Graph-Based Cycle-Consistency Loss公式(14)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) Existing house generation methods typically rely on building convolutional layers.However, convolutional architectures lack an understanding of longrange dependencies in the input graph since inherent inductive biases exist.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) propose a novel Transformer-based network(GTGAN) which is the first Transformer-based framework, enabling more effective relation reasoning for the challenging graph-constrained house generation task
+(2) propose a novel graph Transformer generator that combines both graph convolutional networks and Transformers to explicitly model global and local correlations across both connected and non-connected nodes simultaneously
+(3) propose a new node classificationbased discriminator to preserve high-level semantic and discriminative features for different types of rooms
+(4) propose a novel graph-based cycle-consistency loss to guide the learning process toward accurate relative spatial distance of graph nodes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) realism
+(2) diversity
+(3) compatibility
+(4) FID  
+(5) the minimum matching distance (RMMD)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: (1,2,3)用于任务House Layout Generation，(4,5) 用于 House Roof Generation</t>
+    </r>
+  </si>
+  <si>
+    <t>https://openaccess.thecvf.com/content/CVPR2023/papers/Tang_Graph_Transformer_GANs_for_Graph-Constrained_House_Generation_CVPR_2023_paper.pdf</t>
+  </si>
+  <si>
+    <t>@inproceedings{tang2023graph,
+  title={Graph transformer gans for graph-constrained house generation},
+  author={Tang, Hao and Zhang, Zhenyu and Shi, Humphrey and Li, Bo and Shao, Ling and Sebe, Nicu and Timofte, Radu and Van Gool, Luc},
+  booktitle={Proceedings of the IEEE/CVF Conference on Computer Vision and Pattern Recognition},
+  pages={2173--2182},
+  year={2023}
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GAN
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习图形约束房屋生成任务的有效图形节点关系具有挑战性，现有的房屋生成方法，通常依赖于构建卷积层。然而，由于固有的归纳偏差存在，卷积架构缺乏对输入图中的长期依赖关系的理解。
+作者提出了一种新Transformer-based的网络（即GTGAN），是第一个基于transformer的框架，能够更有效地进行关系推理，以组合房屋布局和验证邻接约束。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -6188,7 +7344,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6271,13 +7427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="4" tint="-0.25"/>
@@ -6314,14 +7463,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="4" tint="-0.25"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF060607"/>
+      <name val="helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF060607"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -6332,6 +7502,18 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -6455,20 +7637,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF2F75B5"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="4" tint="-0.25"/>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="4"/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -6484,14 +7685,8 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="55">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6602,13 +7797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF333333"/>
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6627,6 +7828,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6958,137 +8165,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7149,19 +8356,46 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7173,39 +8407,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7215,70 +8449,52 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7290,28 +8506,19 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7320,6 +8527,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7335,6 +8545,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7344,12 +8557,18 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7371,22 +8590,22 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7401,6 +8620,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7437,6 +8659,9 @@
     <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7458,10 +8683,19 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7479,7 +8713,7 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7491,16 +8725,142 @@
     <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8044,213 +9404,215 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE76" sqref="AE76"/>
+      <selection pane="bottomLeft" activeCell="AE88" sqref="AE88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="26" width="15.3333333333333" customWidth="1"/>
-    <col min="27" max="27" width="15.3333333333333" style="20" customWidth="1"/>
-    <col min="28" max="16382" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="27" width="15.3333333333333" customWidth="1"/>
+    <col min="28" max="28" width="15.3333333333333" style="30" customWidth="1"/>
+    <col min="29" max="16383" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:30">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:31">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="W1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Y1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AB1" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="75" t="s">
+      <c r="AE1" s="75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="105" spans="1:27">
-      <c r="A2" s="24" t="s">
+    <row r="2" customFormat="1" ht="105" spans="1:28">
+      <c r="A2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F2"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="20"/>
+      <c r="AB2" s="30"/>
     </row>
-    <row r="3" customFormat="1" spans="1:27">
+    <row r="3" customFormat="1" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="20"/>
+      <c r="AB3" s="30"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="405" spans="1:40">
-      <c r="A4" s="29" t="s">
+    <row r="4" s="2" customFormat="1" ht="405" spans="1:41">
+      <c r="A4" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="X4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="Y4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="76">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="76">
         <v>3</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AC4" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AD4" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="77" t="s">
+      <c r="AE4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="78">
+      <c r="AF4" s="79">
         <v>45594</v>
       </c>
-      <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="18"/>
@@ -8259,76 +9621,76 @@
       <c r="AL4" s="18"/>
       <c r="AM4" s="18"/>
       <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="345.6" spans="1:40">
-      <c r="A5" s="30" t="s">
+    <row r="5" s="3" customFormat="1" ht="345.6" spans="1:41">
+      <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="X5" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="40" t="s">
+      <c r="Y5" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="79">
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="80">
         <v>0</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="80" t="s">
+      <c r="AD5" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="81" t="s">
+      <c r="AE5" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="78">
+      <c r="AF5" s="79">
         <v>45594</v>
       </c>
-      <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
@@ -8337,78 +9699,78 @@
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
     </row>
-    <row r="6" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A6" s="30" t="s">
+    <row r="6" s="4" customFormat="1" ht="409.5" spans="1:41">
+      <c r="A6" s="38" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="41" t="s">
+      <c r="X6" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="42" t="s">
+      <c r="Y6" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="82">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="84">
         <v>18</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="83" t="s">
+      <c r="AE6" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="78">
+      <c r="AF6" s="79">
         <v>45599</v>
       </c>
-      <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
@@ -8417,613 +9779,615 @@
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A7" s="30" t="s">
+    <row r="7" s="2" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A7" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="39" t="s">
+      <c r="X7" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="39" t="s">
+      <c r="Y7" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="76">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="76">
         <v>505</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="51" t="s">
+      <c r="AD7" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AE7" s="84">
+      <c r="AF7" s="86">
         <v>45610</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A8" s="30" t="s">
+    <row r="8" s="4" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A8" s="38" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="W8" s="41" t="s">
+      <c r="X8" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="X8" s="43" t="s">
+      <c r="Y8" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="82">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="84">
         <v>14</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AE8" s="85">
+      <c r="AF8" s="88">
         <v>45610</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A9" s="31" t="s">
+    <row r="9" s="5" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A9" s="39" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="X9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="Y9" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Z9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="86">
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="89">
         <v>47</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AC9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AC9" s="60" t="s">
+      <c r="AD9" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="87" t="s">
+      <c r="AE9" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="AE9" s="88">
+      <c r="AF9" s="92">
         <v>45610</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A10" s="30" t="s">
+    <row r="10" s="6" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A10" s="38" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="6"/>
+      <c r="V10" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="W10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="W10" s="45" t="s">
+      <c r="X10" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="X10" s="45" t="s">
+      <c r="Y10" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="Y10" s="6" t="s">
+      <c r="Z10" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="89">
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="93">
         <v>146</v>
       </c>
-      <c r="AB10" s="6" t="s">
+      <c r="AC10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AC10" s="90" t="s">
+      <c r="AD10" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AE10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AE10" s="91">
+      <c r="AF10" s="95">
         <v>45610</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A11" s="32" t="s">
+    <row r="11" s="7" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A11" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="46" t="s">
+      <c r="X11" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="Y11" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AA11" s="92">
+      <c r="AB11" s="96">
         <v>14</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AC11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AD11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AE11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="AE11" s="93">
+      <c r="AF11" s="97">
         <v>45623</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:27">
+    <row r="15" customFormat="1" spans="1:28">
       <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA15" s="20"/>
+      <c r="AB15" s="30"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A16" s="33" t="s">
+    <row r="16" s="3" customFormat="1" ht="409.5" spans="1:41">
+      <c r="A16" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="E16" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="G16" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="H16" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="I16" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="L16" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34" t="s">
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="Q16" s="34" t="s">
+      <c r="R16" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34" t="s">
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="V16" s="34" t="s">
+      <c r="W16" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="W16" s="47" t="s">
+      <c r="X16" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="X16" s="47" t="s">
+      <c r="Y16" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="Y16" s="34" t="s">
+      <c r="Z16" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="94">
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="98">
         <v>609</v>
       </c>
-      <c r="AB16" s="95" t="s">
+      <c r="AC16" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" s="34" t="s">
+      <c r="AD16" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" s="96" t="s">
+      <c r="AE16" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="AE16" s="97">
+      <c r="AF16" s="101">
         <v>45618</v>
       </c>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
     </row>
-    <row r="17" s="8" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A17" s="33" t="s">
+    <row r="17" s="8" customFormat="1" ht="409.5" spans="1:41">
+      <c r="A17" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="E17" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="F17" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="H17" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="I17" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="L17" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35" t="s">
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="Q17" s="35" t="s">
+      <c r="R17" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35" t="s">
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="V17" s="35" t="s">
+      <c r="W17" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="W17" s="48" t="s">
+      <c r="X17" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="X17" s="48" t="s">
+      <c r="Y17" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="Y17" s="35" t="s">
+      <c r="Z17" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="98">
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="102">
         <v>485</v>
       </c>
-      <c r="AB17" s="35" t="s">
+      <c r="AC17" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="AC17" s="35" t="s">
+      <c r="AD17" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="99">
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="103">
         <v>45618</v>
       </c>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
     </row>
-    <row r="18" s="6" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A18" s="30" t="s">
+    <row r="18" s="6" customFormat="1" ht="409.5" spans="1:41">
+      <c r="A18" s="38" t="s">
         <v>212</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="U18" s="49" t="s">
+      <c r="V18" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="W18" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="W18" s="50" t="s">
+      <c r="X18" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="X18" s="50" t="s">
+      <c r="Y18" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="Y18" s="6" t="s">
+      <c r="Z18" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="89">
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="93">
         <v>45</v>
       </c>
-      <c r="AB18" s="90" t="s">
+      <c r="AC18" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AC18" s="6" t="s">
+      <c r="AD18" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AD18" s="100" t="s">
+      <c r="AE18" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="AE18" s="78">
+      <c r="AF18" s="79">
         <v>45599</v>
       </c>
-      <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
       <c r="AH18" s="18"/>
       <c r="AI18" s="18"/>
@@ -9032,88 +10396,88 @@
       <c r="AL18" s="18"/>
       <c r="AM18" s="18"/>
       <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:40">
-      <c r="A19" s="30" t="s">
+    <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:41">
+      <c r="A19" s="38" t="s">
         <v>230</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W19" s="39" t="s">
+      <c r="X19" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="X19" s="51" t="s">
+      <c r="Y19" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="76">
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="76">
         <v>12</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AC19" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AD19" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AD19" s="77" t="s">
+      <c r="AE19" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="AE19" s="78">
+      <c r="AF19" s="79">
         <v>45594</v>
       </c>
-      <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
       <c r="AI19" s="18"/>
@@ -9122,82 +10486,82 @@
       <c r="AL19" s="18"/>
       <c r="AM19" s="18"/>
       <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="360" spans="1:40">
-      <c r="A20" s="30" t="s">
+    <row r="20" s="9" customFormat="1" ht="360" spans="1:41">
+      <c r="A20" s="38" t="s">
         <v>250</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="T20" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9" t="s">
+      <c r="U20" s="9"/>
+      <c r="V20" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="W20" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="W20" s="52" t="s">
+      <c r="X20" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="X20" s="52" t="s">
+      <c r="Y20" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="Y20" s="9" t="s">
+      <c r="Z20" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="101">
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="105">
         <v>417</v>
       </c>
-      <c r="AB20" s="102" t="s">
+      <c r="AC20" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AC20" s="9" t="s">
+      <c r="AD20" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AD20" s="103" t="s">
+      <c r="AE20" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="AE20" s="78">
+      <c r="AF20" s="79">
         <v>45594</v>
       </c>
-      <c r="AF20" s="18"/>
       <c r="AG20" s="18"/>
       <c r="AH20" s="18"/>
       <c r="AI20" s="18"/>
@@ -9206,84 +10570,84 @@
       <c r="AL20" s="18"/>
       <c r="AM20" s="18"/>
       <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
     </row>
-    <row r="21" s="10" customFormat="1" ht="405" spans="1:40">
-      <c r="A21" s="30" t="s">
+    <row r="21" s="10" customFormat="1" ht="405" spans="1:41">
+      <c r="A21" s="38" t="s">
         <v>268</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="10"/>
+      <c r="T21" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="10"/>
+      <c r="V21" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="W21" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="W21" s="53" t="s">
+      <c r="X21" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="X21" s="54" t="s">
+      <c r="Y21" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" s="10" t="s">
+      <c r="Z21" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="104">
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="109">
         <v>1972</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AC21" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AD21" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AE21" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AE21" s="78">
+      <c r="AF21" s="79">
         <v>45594</v>
       </c>
-      <c r="AF21" s="18"/>
       <c r="AG21" s="18"/>
       <c r="AH21" s="18"/>
       <c r="AI21" s="18"/>
@@ -9292,78 +10656,78 @@
       <c r="AL21" s="18"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
     </row>
-    <row r="22" s="11" customFormat="1" ht="330" spans="1:40">
-      <c r="A22" s="30" t="s">
+    <row r="22" s="11" customFormat="1" ht="330" spans="1:41">
+      <c r="A22" s="38" t="s">
         <v>285</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="11"/>
+      <c r="V22" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="W22" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="W22" s="55" t="s">
+      <c r="X22" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="X22" s="55" t="s">
+      <c r="Y22" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="105">
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="110">
         <v>80</v>
       </c>
-      <c r="AB22" s="11" t="s">
+      <c r="AC22" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="AC22" s="106" t="s">
+      <c r="AD22" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="AD22" s="11" t="s">
+      <c r="AE22" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AE22" s="78">
+      <c r="AF22" s="79">
         <v>45594</v>
       </c>
-      <c r="AF22" s="18"/>
       <c r="AG22" s="18"/>
       <c r="AH22" s="18"/>
       <c r="AI22" s="18"/>
@@ -9372,88 +10736,88 @@
       <c r="AL22" s="18"/>
       <c r="AM22" s="18"/>
       <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
     </row>
-    <row r="26" customFormat="1" spans="1:27">
+    <row r="26" customFormat="1" spans="1:28">
       <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AA26" s="20"/>
+      <c r="AB26" s="30"/>
     </row>
-    <row r="27" customFormat="1" spans="1:27">
+    <row r="27" customFormat="1" spans="1:28">
       <c r="A27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AA27" s="20"/>
+      <c r="AB27" s="30"/>
     </row>
-    <row r="28" s="12" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A28" s="30" t="s">
+    <row r="28" s="12" customFormat="1" ht="409.5" spans="1:41">
+      <c r="A28" s="38" t="s">
         <v>303</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L28" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="U28" s="12" t="s">
+      <c r="V28" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="V28" s="12" t="s">
+      <c r="W28" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="W28" s="56" t="s">
+      <c r="X28" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="X28" s="56" t="s">
+      <c r="Y28" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="Y28" s="12" t="s">
+      <c r="Z28" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="107">
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="112">
         <v>36</v>
       </c>
-      <c r="AB28" s="108" t="s">
+      <c r="AC28" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="108" t="s">
+      <c r="AD28" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="109" t="s">
+      <c r="AE28" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="AE28" s="78">
+      <c r="AF28" s="79">
         <v>45599</v>
       </c>
-      <c r="AF28" s="18"/>
       <c r="AG28" s="18"/>
       <c r="AH28" s="18"/>
       <c r="AI28" s="18"/>
@@ -9462,78 +10826,78 @@
       <c r="AL28" s="18"/>
       <c r="AM28" s="18"/>
       <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A29" s="30" t="s">
+    <row r="29" s="4" customFormat="1" ht="409.5" spans="1:41">
+      <c r="A29" s="38" t="s">
         <v>319</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="U29" s="57" t="s">
+      <c r="V29" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="W29" s="41" t="s">
+      <c r="X29" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="X29" s="41" t="s">
+      <c r="Y29" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="Z29" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="82">
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="84">
         <v>82</v>
       </c>
-      <c r="AB29" s="4" t="s">
+      <c r="AC29" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="AC29" s="4" t="s">
+      <c r="AD29" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AD29" s="110" t="s">
+      <c r="AE29" s="115" t="s">
         <v>334</v>
       </c>
-      <c r="AE29" s="78">
+      <c r="AF29" s="79">
         <v>45599</v>
       </c>
-      <c r="AF29" s="18"/>
       <c r="AG29" s="18"/>
       <c r="AH29" s="18"/>
       <c r="AI29" s="18"/>
@@ -9542,465 +10906,465 @@
       <c r="AL29" s="18"/>
       <c r="AM29" s="18"/>
       <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
     </row>
-    <row r="30" s="7" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A30" s="30" t="s">
+    <row r="30" s="7" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A30" s="38" t="s">
         <v>335</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="7" t="s">
+      <c r="U30" s="7"/>
+      <c r="V30" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="W30" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="W30" s="46" t="s">
+      <c r="X30" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="X30" s="46" t="s">
+      <c r="Y30" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="Y30" s="7" t="s">
+      <c r="Z30" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="92">
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="96">
         <v>290</v>
       </c>
-      <c r="AB30" s="7" t="s">
+      <c r="AC30" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="AC30" s="7" t="s">
+      <c r="AD30" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="AD30" s="111" t="s">
+      <c r="AE30" s="116" t="s">
         <v>351</v>
       </c>
-      <c r="AE30" s="93">
+      <c r="AF30" s="97">
         <v>45607</v>
       </c>
     </row>
-    <row r="31" s="11" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A31" s="30" t="s">
+    <row r="31" s="11" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A31" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="R31" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="11" t="s">
+      <c r="U31" s="11"/>
+      <c r="V31" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="W31" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="W31" s="58" t="s">
+      <c r="X31" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="X31" s="58" t="s">
+      <c r="Y31" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="Y31" s="11" t="s">
+      <c r="Z31" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="105">
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="110">
         <v>41</v>
       </c>
-      <c r="AB31" s="11" t="s">
+      <c r="AC31" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AC31" s="11" t="s">
+      <c r="AD31" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AD31" s="112" t="s">
+      <c r="AE31" s="117" t="s">
         <v>370</v>
       </c>
-      <c r="AE31" s="113">
+      <c r="AF31" s="118">
         <v>45610</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A32" s="30" t="s">
+    <row r="32" s="5" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A32" s="38" t="s">
         <v>371</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="L32" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="5"/>
+      <c r="V32" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="V32" s="5" t="s">
+      <c r="W32" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="W32" s="59" t="s">
+      <c r="X32" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="X32" s="60" t="s">
+      <c r="Y32" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="Y32" s="5" t="s">
+      <c r="Z32" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="86">
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="89">
         <v>26</v>
       </c>
-      <c r="AB32" s="60" t="s">
+      <c r="AC32" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="AC32" s="5" t="s">
+      <c r="AD32" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="AD32" s="87" t="s">
+      <c r="AE32" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="AE32" s="88">
+      <c r="AF32" s="92">
         <v>45618</v>
       </c>
     </row>
-    <row r="33" s="13" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A33" s="30" t="s">
+    <row r="33" s="13" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A33" s="38" t="s">
         <v>383</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="13"/>
+      <c r="K33" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="L33" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="R33" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="13" t="s">
+      <c r="U33" s="13"/>
+      <c r="V33" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="V33" s="13" t="s">
+      <c r="W33" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="W33" s="61" t="s">
+      <c r="X33" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="X33" s="61" t="s">
+      <c r="Y33" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="Y33" s="13" t="s">
+      <c r="Z33" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="114">
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="119">
         <v>8</v>
       </c>
-      <c r="AB33" s="13" t="s">
+      <c r="AC33" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="AC33" s="13" t="s">
+      <c r="AD33" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="AD33" s="13" t="s">
+      <c r="AE33" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="AE33" s="115">
+      <c r="AF33" s="120">
         <v>45618</v>
       </c>
     </row>
-    <row r="34" s="14" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A34" s="30" t="s">
+    <row r="34" s="14" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A34" s="38" t="s">
         <v>401</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="F34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="G34" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="H34" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="I34" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="14"/>
+      <c r="K34" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="L34" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="R34" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="14" t="s">
+      <c r="U34" s="14"/>
+      <c r="V34" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="W34" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="W34" s="62" t="s">
+      <c r="X34" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="X34" s="63" t="s">
+      <c r="Y34" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="Y34" s="14" t="s">
+      <c r="Z34" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="116">
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="122">
         <v>37</v>
       </c>
-      <c r="AB34" s="14" t="s">
+      <c r="AC34" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="AC34" s="14" t="s">
+      <c r="AD34" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="AD34" s="14" t="s">
+      <c r="AE34" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="AE34" s="117">
+      <c r="AF34" s="123">
         <v>45618</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:27">
+    <row r="39" customFormat="1" spans="1:28">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA39" s="20"/>
+      <c r="AB39" s="30"/>
     </row>
-    <row r="40" s="15" customFormat="1" ht="409.5" spans="1:40">
-      <c r="A40" s="30" t="s">
+    <row r="40" s="15" customFormat="1" ht="409.5" spans="1:41">
+      <c r="A40" s="38" t="s">
         <v>416</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="E40" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="F40" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="G40" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="H40" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="I40" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15" t="s">
+      <c r="J40" s="15"/>
+      <c r="K40" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="L40" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="15" t="s">
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="U40" s="15" t="s">
+      <c r="V40" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="V40" s="15" t="s">
+      <c r="W40" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="W40" s="64" t="s">
+      <c r="X40" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="X40" s="64" t="s">
+      <c r="Y40" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="Y40" s="15" t="s">
+      <c r="Z40" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="118">
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="124">
         <v>12188</v>
       </c>
-      <c r="AB40" s="15" t="s">
+      <c r="AC40" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="AC40" s="119" t="s">
+      <c r="AD40" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="AD40" s="120" t="s">
+      <c r="AE40" s="126" t="s">
         <v>431</v>
       </c>
-      <c r="AE40" s="78">
+      <c r="AF40" s="79">
         <v>45599</v>
       </c>
-      <c r="AF40" s="18"/>
       <c r="AG40" s="18"/>
       <c r="AH40" s="18"/>
       <c r="AI40" s="18"/>
@@ -10009,78 +11373,78 @@
       <c r="AL40" s="18"/>
       <c r="AM40" s="18"/>
       <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
     </row>
-    <row r="41" s="13" customFormat="1" ht="375" spans="1:40">
-      <c r="A41" s="30" t="s">
+    <row r="41" s="13" customFormat="1" ht="375" spans="1:41">
+      <c r="A41" s="38" t="s">
         <v>432</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="G41" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="H41" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="L41" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="U41" s="13" t="s">
+      <c r="V41" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="V41" s="13" t="s">
+      <c r="W41" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="W41" s="65" t="s">
+      <c r="X41" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="X41" s="65" t="s">
+      <c r="Y41" s="68" t="s">
         <v>443</v>
       </c>
-      <c r="Y41" s="13" t="s">
+      <c r="Z41" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="114">
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="119">
         <v>959</v>
       </c>
-      <c r="AB41" s="13" t="s">
+      <c r="AC41" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="AC41" s="13" t="s">
+      <c r="AD41" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="AD41" s="121" t="s">
+      <c r="AE41" s="127" t="s">
         <v>447</v>
       </c>
-      <c r="AE41" s="78">
+      <c r="AF41" s="79">
         <v>45599</v>
       </c>
-      <c r="AF41" s="18"/>
       <c r="AG41" s="18"/>
       <c r="AH41" s="18"/>
       <c r="AI41" s="18"/>
@@ -10089,874 +11453,851 @@
       <c r="AL41" s="18"/>
       <c r="AM41" s="18"/>
       <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
     </row>
-    <row r="42" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A42" s="30" t="s">
+    <row r="42" s="16" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A42" s="38" t="s">
         <v>448</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="F42" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="G42" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="H42" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="16"/>
+      <c r="K42" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="L42" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="L42" s="16"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
-      <c r="P42" s="16" t="s">
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="Q42" s="16" t="s">
+      <c r="R42" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="R42" s="16"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
-      <c r="U42" s="16" t="s">
+      <c r="U42" s="16"/>
+      <c r="V42" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="V42" s="16" t="s">
+      <c r="W42" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="W42" s="66" t="s">
+      <c r="X42" s="69" t="s">
         <v>460</v>
       </c>
-      <c r="X42" s="66" t="s">
+      <c r="Y42" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="Y42" s="16" t="s">
+      <c r="Z42" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="122">
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="128">
         <v>742</v>
       </c>
-      <c r="AB42" s="68" t="s">
+      <c r="AC42" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="68" t="s">
+      <c r="AD42" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="123" t="s">
+      <c r="AE42" s="130" t="s">
         <v>463</v>
       </c>
-      <c r="AE42" s="124">
+      <c r="AF42" s="131">
         <v>45602</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A43" s="30" t="s">
+    <row r="43" s="7" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A43" s="38" t="s">
         <v>464</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="7"/>
+      <c r="K43" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="7" t="s">
+      <c r="U43" s="7"/>
+      <c r="V43" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="V43" s="7" t="s">
+      <c r="W43" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="W43" s="46" t="s">
+      <c r="X43" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="X43" s="46" t="s">
+      <c r="Y43" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="Y43" s="7" t="s">
+      <c r="Z43" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="92">
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="96">
         <v>1627</v>
       </c>
-      <c r="AB43" s="7" t="s">
+      <c r="AC43" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="AC43" s="7" t="s">
+      <c r="AD43" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="AD43" s="7" t="s">
+      <c r="AE43" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="AE43" s="93">
+      <c r="AF43" s="97">
         <v>45607</v>
       </c>
     </row>
-    <row r="44" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A44" s="30" t="s">
+    <row r="44" s="16" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A44" s="38" t="s">
         <v>480</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="F44" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="H44" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="I44" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="16"/>
+      <c r="K44" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="L44" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="L44" s="16"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="16" t="s">
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="16" t="s">
+      <c r="U44" s="16"/>
+      <c r="V44" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="V44" s="16" t="s">
+      <c r="W44" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="W44" s="67" t="s">
+      <c r="X44" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="X44" s="68" t="s">
+      <c r="Y44" s="129" t="s">
         <v>492</v>
       </c>
-      <c r="Y44" s="16" t="s">
+      <c r="Z44" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="122">
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="128">
         <v>1314</v>
       </c>
-      <c r="AB44" s="16" t="s">
+      <c r="AC44" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="AC44" s="68" t="s">
+      <c r="AD44" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AD44" s="123" t="s">
+      <c r="AE44" s="130" t="s">
         <v>495</v>
       </c>
-      <c r="AE44" s="124">
+      <c r="AF44" s="131">
         <v>45618</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:27">
+    <row r="47" customFormat="1" spans="1:28">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA47" s="20"/>
+      <c r="AB47" s="30"/>
     </row>
-    <row r="48" s="11" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A48" s="30" t="s">
+    <row r="48" s="11" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A48" s="38" t="s">
         <v>496</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="G48" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="L48" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="Q48" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="R48" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="11" t="s">
+      <c r="U48" s="11"/>
+      <c r="V48" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="V48" s="11" t="s">
+      <c r="W48" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="W48" s="55" t="s">
+      <c r="X48" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="X48" s="58" t="s">
+      <c r="Y48" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="Y48" s="11" t="s">
+      <c r="Z48" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="105">
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="110">
         <v>162</v>
       </c>
-      <c r="AB48" s="11" t="s">
+      <c r="AC48" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="AC48" s="106" t="s">
+      <c r="AD48" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="AD48" s="112" t="s">
+      <c r="AE48" s="117" t="s">
         <v>511</v>
       </c>
-      <c r="AE48" s="113">
+      <c r="AF48" s="118">
         <v>45602</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A49" s="30" t="s">
+    <row r="49" s="2" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A49" s="38" t="s">
         <v>512</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2" t="s">
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="W49" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="W49" s="39" t="s">
+      <c r="X49" s="48" t="s">
         <v>525</v>
       </c>
-      <c r="X49" s="39" t="s">
+      <c r="Y49" s="48" t="s">
         <v>526</v>
       </c>
-      <c r="Y49" s="2" t="s">
+      <c r="Z49" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="76">
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="76">
         <v>1295</v>
       </c>
-      <c r="AB49" s="2" t="s">
+      <c r="AC49" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AC49" s="2" t="s">
+      <c r="AD49" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AD49" s="77" t="s">
+      <c r="AE49" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="AE49" s="84">
+      <c r="AF49" s="86">
         <v>45607</v>
       </c>
     </row>
-    <row r="50" s="16" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A50" s="30" t="s">
+    <row r="50" s="16" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A50" s="38" t="s">
         <v>531</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="F50" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="H50" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="I50" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="16"/>
+      <c r="K50" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="L50" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16" t="s">
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="Q50" s="16" t="s">
+      <c r="R50" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="R50" s="16"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
-      <c r="U50" s="16" t="s">
+      <c r="U50" s="16"/>
+      <c r="V50" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="V50" s="16" t="s">
+      <c r="W50" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="W50" s="67" t="s">
+      <c r="X50" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="X50" s="67" t="s">
+      <c r="Y50" s="70" t="s">
         <v>543</v>
       </c>
-      <c r="Y50" s="16" t="s">
+      <c r="Z50" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="122">
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="128">
         <v>52</v>
       </c>
-      <c r="AB50" s="16" t="s">
+      <c r="AC50" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="AC50" s="16" t="s">
+      <c r="AD50" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="AD50" s="123" t="s">
+      <c r="AE50" s="130" t="s">
         <v>547</v>
       </c>
-      <c r="AE50" s="124">
+      <c r="AF50" s="131">
         <v>45610</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A51" s="30" t="s">
+    <row r="51" s="7" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A51" s="38" t="s">
         <v>548</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="7"/>
+      <c r="K51" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
-      <c r="U51" s="7" t="s">
+      <c r="U51" s="7"/>
+      <c r="V51" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="V51" s="7" t="s">
+      <c r="W51" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="W51" s="69" t="s">
+      <c r="X51" s="71" t="s">
         <v>557</v>
       </c>
-      <c r="X51" s="70" t="s">
+      <c r="Y51" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="Y51" s="7" t="s">
+      <c r="Z51" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="92">
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="96">
         <v>84</v>
       </c>
-      <c r="AB51" s="7" t="s">
+      <c r="AC51" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="AC51" s="70" t="s">
+      <c r="AD51" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="AD51" s="111" t="s">
+      <c r="AE51" s="116" t="s">
         <v>560</v>
       </c>
-      <c r="AE51" s="93">
+      <c r="AF51" s="97">
         <v>45610</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:27">
+    <row r="55" customFormat="1" spans="1:28">
       <c r="A55" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AA55" s="20"/>
+      <c r="AB55" s="30"/>
     </row>
-    <row r="56" s="17" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A56" s="30" t="s">
+    <row r="56" s="17" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A56" s="38" t="s">
         <v>561</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="E56" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="F56" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="G56" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="H56" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17" t="s">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="L56" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="17" t="s">
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="Q56" s="17" t="s">
+      <c r="R56" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="R56" s="17"/>
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
-      <c r="U56" s="17" t="s">
+      <c r="U56" s="17"/>
+      <c r="V56" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="V56" s="17" t="s">
+      <c r="W56" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="W56" s="71" t="s">
+      <c r="X56" s="72" t="s">
         <v>572</v>
       </c>
-      <c r="X56" s="72" t="s">
+      <c r="Y56" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="Y56" s="17" t="s">
+      <c r="Z56" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="125">
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="134">
         <v>38</v>
       </c>
-      <c r="AB56" s="72" t="s">
+      <c r="AC56" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="AC56" s="17" t="s">
+      <c r="AD56" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="AD56" s="126" t="s">
+      <c r="AE56" s="135" t="s">
         <v>575</v>
       </c>
-      <c r="AE56" s="127">
+      <c r="AF56" s="136">
         <v>45607</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A57" s="30" t="s">
+    <row r="57" s="7" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A57" s="38" t="s">
         <v>576</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="7"/>
+      <c r="K57" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="7" t="s">
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
-      <c r="U57" s="7" t="s">
+      <c r="U57" s="7"/>
+      <c r="V57" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="V57" s="7" t="s">
+      <c r="W57" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="W57" s="46" t="s">
+      <c r="X57" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="X57" s="46" t="s">
+      <c r="Y57" s="53" t="s">
         <v>588</v>
       </c>
-      <c r="Y57" s="7" t="s">
+      <c r="Z57" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="92">
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="96">
         <v>299</v>
       </c>
-      <c r="AB57" s="70" t="s">
+      <c r="AC57" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="AC57" s="70" t="s">
+      <c r="AD57" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="AD57" s="111" t="s">
+      <c r="AE57" s="116" t="s">
         <v>590</v>
       </c>
-      <c r="AE57" s="93">
+      <c r="AF57" s="97">
         <v>45610</v>
       </c>
     </row>
-    <row r="63" s="18" customFormat="1" ht="15" spans="1:27">
+    <row r="63" s="18" customFormat="1" ht="15" spans="1:28">
       <c r="A63" s="18" t="s">
         <v>289</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="128"/>
+      <c r="AB63" s="137"/>
     </row>
-    <row r="64" s="19" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A64" s="30" t="s">
+    <row r="64" s="19" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A64" s="38" t="s">
         <v>591</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="D64" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="E64" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="F64" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="G64" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="H64" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="I64" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19" t="s">
+      <c r="J64" s="19"/>
+      <c r="K64" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="K64" s="19" t="s">
+      <c r="L64" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="L64" s="19"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
       <c r="O64" s="19"/>
-      <c r="P64" s="19" t="s">
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="U64" s="19" t="s">
+      <c r="V64" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="V64" s="19" t="s">
+      <c r="W64" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="W64" s="73" t="s">
+      <c r="X64" s="73" t="s">
         <v>602</v>
       </c>
-      <c r="X64" s="73" t="s">
+      <c r="Y64" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="Y64" s="19" t="s">
+      <c r="Z64" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="129">
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="138">
         <v>264</v>
       </c>
-      <c r="AB64" s="130" t="s">
+      <c r="AC64" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="AC64" s="131" t="s">
+      <c r="AD64" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="AD64" s="132" t="s">
+      <c r="AE64" s="141" t="s">
         <v>606</v>
       </c>
-      <c r="AE64" s="133">
+      <c r="AF64" s="142">
         <v>45607</v>
       </c>
     </row>
-    <row r="65" s="12" customFormat="1" ht="360" spans="1:31">
-      <c r="A65" s="30" t="s">
+    <row r="65" s="12" customFormat="1" ht="360" spans="1:32">
+      <c r="A65" s="38" t="s">
         <v>607</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="F65" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="G65" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="H65" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="I65" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12" t="s">
+      <c r="J65" s="12"/>
+      <c r="K65" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="K65" s="12" t="s">
+      <c r="L65" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="L65" s="12" t="s">
+      <c r="M65" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="M65" s="12" t="s">
+      <c r="N65" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="N65" s="12"/>
       <c r="O65" s="12"/>
-      <c r="P65" s="12" t="s">
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
-      <c r="U65" s="12" t="s">
+      <c r="U65" s="12"/>
+      <c r="V65" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="V65" s="12" t="s">
+      <c r="W65" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="W65" s="134" t="s">
+      <c r="X65" s="148" t="s">
         <v>621</v>
       </c>
-      <c r="X65" s="134" t="s">
+      <c r="Y65" s="148" t="s">
         <v>622</v>
       </c>
-      <c r="Y65" s="12" t="s">
+      <c r="Z65" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="107">
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="112">
         <v>729</v>
       </c>
-      <c r="AB65" s="12" t="s">
+      <c r="AC65" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC65" s="12" t="s">
+      <c r="AD65" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="AD65" s="12" t="s">
+      <c r="AE65" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="AE65" s="137">
+      <c r="AF65" s="158">
         <v>45618</v>
       </c>
     </row>
@@ -10965,354 +12306,1020 @@
         <v>626</v>
       </c>
     </row>
-    <row r="73" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A73" s="32" t="s">
+    <row r="73" s="5" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A73" s="38" t="s">
         <v>627</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="K73" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="L73" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="P73" s="5" t="s">
+      <c r="Q73" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="Q73" s="5" t="s">
+      <c r="R73" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="U73" s="5" t="s">
+      <c r="V73" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="V73" s="5" t="s">
+      <c r="W73" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="W73" s="44" t="s">
+      <c r="X73" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="X73" s="44" t="s">
+      <c r="Y73" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="Y73" s="5" t="s">
+      <c r="Z73" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="AA73" s="86">
+      <c r="AB73" s="89">
         <v>540</v>
       </c>
-      <c r="AB73" s="60" t="s">
+      <c r="AC73" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="AC73" s="5" t="s">
+      <c r="AD73" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="AD73" s="5" t="s">
+      <c r="AE73" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="AE73" s="88">
+      <c r="AF73" s="92">
         <v>45621</v>
       </c>
     </row>
-    <row r="74" s="11" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A74" s="32" t="s">
+    <row r="74" s="11" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A74" s="38" t="s">
         <v>645</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="I74" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="K74" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="L74" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="Q74" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="R74" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="U74" s="11" t="s">
+      <c r="V74" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="V74" s="11" t="s">
+      <c r="W74" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="W74" s="58" t="s">
+      <c r="X74" s="63" t="s">
         <v>658</v>
       </c>
-      <c r="X74" s="135" t="s">
+      <c r="Y74" s="159" t="s">
         <v>659</v>
       </c>
-      <c r="Y74" s="11" t="s">
+      <c r="Z74" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="AA74" s="105">
+      <c r="AB74" s="110">
         <v>8</v>
       </c>
-      <c r="AB74" s="11" t="s">
+      <c r="AC74" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="AC74" s="106" t="s">
+      <c r="AD74" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="AD74" s="11" t="s">
+      <c r="AE74" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="AE74" s="113">
+      <c r="AF74" s="118">
         <v>45621</v>
       </c>
     </row>
-    <row r="75" s="6" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A75" s="32" t="s">
+    <row r="75" s="6" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A75" s="38" t="s">
         <v>663</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="I75" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="K75" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="L75" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="Q75" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="Q75" s="6" t="s">
+      <c r="R75" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="U75" s="6" t="s">
+      <c r="V75" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="V75" s="6" t="s">
+      <c r="W75" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="W75" s="50" t="s">
+      <c r="X75" s="57" t="s">
         <v>674</v>
       </c>
-      <c r="X75" s="90" t="s">
+      <c r="Y75" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="Y75" s="6" t="s">
+      <c r="Z75" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="AA75" s="89">
+      <c r="AB75" s="93">
         <v>6</v>
       </c>
-      <c r="AB75" s="90" t="s">
+      <c r="AC75" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AC75" s="6" t="s">
+      <c r="AD75" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AD75" s="100" t="s">
+      <c r="AE75" s="104" t="s">
         <v>677</v>
       </c>
-      <c r="AE75" s="91">
+      <c r="AF75" s="95">
         <v>45621</v>
       </c>
     </row>
-    <row r="76" s="5" customFormat="1" ht="409.5" spans="1:31">
-      <c r="A76" s="32" t="s">
+    <row r="76" s="5" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A76" s="38" t="s">
         <v>678</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="K76" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="L76" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="P76" s="5" t="s">
+      <c r="Q76" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="R76" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="U76" s="5" t="s">
+      <c r="V76" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="V76" s="5" t="s">
+      <c r="W76" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="W76" s="136" t="s">
+      <c r="X76" s="149" t="s">
         <v>690</v>
       </c>
-      <c r="X76" s="136" t="s">
+      <c r="Y76" s="149" t="s">
         <v>691</v>
       </c>
-      <c r="Y76" s="5" t="s">
+      <c r="Z76" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="AA76" s="86">
+      <c r="AB76" s="89">
         <v>4</v>
       </c>
-      <c r="AB76" s="60" t="s">
+      <c r="AC76" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="AC76" s="5" t="s">
+      <c r="AD76" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AD76" s="5" t="s">
+      <c r="AE76" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AE76" s="88">
+      <c r="AF76" s="92">
         <v>45621</v>
       </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="84" s="15" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A84" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="V84" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="X84" s="150" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y84" s="150" t="s">
+        <v>703</v>
+      </c>
+      <c r="Z84" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB84" s="124">
+        <v>37</v>
+      </c>
+      <c r="AC84" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD84" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85" s="20" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A85" s="143" t="s">
+        <v>707</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="L85" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q85" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="R85" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="V85" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="W85" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="X85" s="151" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y85" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z85" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB85" s="161">
+        <v>34</v>
+      </c>
+      <c r="AC85" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="AD85" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="AE85" s="162" t="s">
+        <v>723</v>
+      </c>
+      <c r="AF85" s="163">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="86" s="21" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A86" s="144" t="s">
+        <v>724</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q86" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="R86" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="V86" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="W86" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="X86" s="152" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y86" s="152" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z86" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB86" s="164">
+        <v>736</v>
+      </c>
+      <c r="AC86" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD86" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE86" s="166" t="s">
+        <v>740</v>
+      </c>
+      <c r="AF86" s="167">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="87" s="22" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A87" s="145" t="s">
+        <v>741</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="X87" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y87" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="Z87" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB87" s="168">
+        <v>3159</v>
+      </c>
+      <c r="AC87" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD87" s="22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="88" s="23" customFormat="1" ht="409.5" spans="1:30">
+      <c r="A88" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q88" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="R88" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="V88" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="W88" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="X88" s="71" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y88" s="170" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z88" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB88" s="171">
+        <v>7</v>
+      </c>
+      <c r="AC88" s="170" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD88" s="170" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" s="24" customFormat="1" spans="28:28">
+      <c r="AB89" s="172"/>
+    </row>
+    <row r="90" s="24" customFormat="1" spans="28:28">
+      <c r="AB90" s="172"/>
+    </row>
+    <row r="91" s="24" customFormat="1" spans="28:28">
+      <c r="AB91" s="172"/>
+    </row>
+    <row r="92" s="24" customFormat="1" spans="28:28">
+      <c r="AB92" s="172"/>
+    </row>
+    <row r="93" s="24" customFormat="1" spans="28:28">
+      <c r="AB93" s="172"/>
+    </row>
+    <row r="94" s="24" customFormat="1" spans="28:28">
+      <c r="AB94" s="172"/>
+    </row>
+    <row r="95" s="24" customFormat="1" spans="28:28">
+      <c r="AB95" s="172"/>
+    </row>
+    <row r="96" s="24" customFormat="1" spans="1:28">
+      <c r="A96" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB96" s="172"/>
+    </row>
+    <row r="97" s="25" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A97" s="144" t="s">
+        <v>761</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="K97" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="L97" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q97" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="V97" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="W97" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="X97" s="53" t="s">
+        <v>773</v>
+      </c>
+      <c r="Y97" s="170" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z97" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB97" s="173">
+        <v>52</v>
+      </c>
+      <c r="AC97" s="170" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD97" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE97" s="174" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF97" s="175">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="98" s="26" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A98" s="144" t="s">
+        <v>777</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="K98" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="L98" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q98" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="R98" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="V98" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="W98" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="X98" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y98" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="Z98" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB98" s="176">
+        <v>510</v>
+      </c>
+      <c r="AC98" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD98" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE98" s="177" t="s">
+        <v>791</v>
+      </c>
+      <c r="AF98" s="178">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="99" s="27" customFormat="1" ht="408" customHeight="1" spans="1:32">
+      <c r="A99" s="146" t="s">
+        <v>792</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="H99" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="I99" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="K99" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="L99" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q99" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="R99" s="27"/>
+      <c r="V99" s="153" t="s">
+        <v>802</v>
+      </c>
+      <c r="W99" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="X99" s="154" t="s">
+        <v>804</v>
+      </c>
+      <c r="Y99" s="154" t="s">
+        <v>805</v>
+      </c>
+      <c r="Z99" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB99" s="179">
+        <v>210</v>
+      </c>
+      <c r="AC99" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD99" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE99" s="181" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF99" s="182">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="100" s="28" customFormat="1" ht="409.5" spans="1:32">
+      <c r="A100" s="146" t="s">
+        <v>809</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="K100" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="L100" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q100" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="R100" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="V100" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="W100" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="X100" s="155" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y100" s="152" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z100" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB100" s="183">
+        <v>783</v>
+      </c>
+      <c r="AC100" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD100" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE100" s="166" t="s">
+        <v>824</v>
+      </c>
+      <c r="AF100" s="184">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="101" s="29" customFormat="1" ht="408" customHeight="1" spans="1:32">
+      <c r="A101" s="146" t="s">
+        <v>825</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C101" s="147" t="s">
+        <v>763</v>
+      </c>
+      <c r="D101" s="147" t="s">
+        <v>827</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="K101" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="L101" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q101" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="R101" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="V101" s="156" t="s">
+        <v>834</v>
+      </c>
+      <c r="W101" s="156" t="s">
+        <v>835</v>
+      </c>
+      <c r="X101" s="157" t="s">
+        <v>836</v>
+      </c>
+      <c r="Y101" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z101" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="AB101" s="186">
+        <v>24</v>
+      </c>
+      <c r="AC101" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD101" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE101" s="187" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF101" s="188">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="102" s="24" customFormat="1" spans="28:28">
+      <c r="AB102" s="172"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2">
       <formula1>"GAN,VAE,diffusion,LLM,FLow"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="W18" r:id="rId1" display="https://arxiv.org/pdf/2212.01842" tooltip="https://arxiv.org/pdf/2212.01842"/>
-    <hyperlink ref="X18" r:id="rId2" display="https://github.com/GRAPH-0/GraphGDP" tooltip="https://github.com/GRAPH-0/GraphGDP"/>
-    <hyperlink ref="W19" r:id="rId3" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
-    <hyperlink ref="X20" r:id="rId4" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
-    <hyperlink ref="W20" r:id="rId5" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
-    <hyperlink ref="W4" r:id="rId6" display="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf"/>
-    <hyperlink ref="X4" r:id="rId7" display="https://github.com/liyuantsao/BFSR" tooltip="https://github.com/liyuantsao/BFSR"/>
-    <hyperlink ref="W5" r:id="rId8" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
-    <hyperlink ref="X5" r:id="rId9" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
-    <hyperlink ref="W21" r:id="rId10" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
-    <hyperlink ref="W22" r:id="rId11" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
-    <hyperlink ref="X22" r:id="rId12" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
-    <hyperlink ref="W28" r:id="rId13" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
-    <hyperlink ref="X28" r:id="rId14" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
-    <hyperlink ref="W40" r:id="rId15" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
-    <hyperlink ref="X40" r:id="rId16" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
-    <hyperlink ref="W41" r:id="rId17" display="https://arxiv.org/pdf/2206.00927" tooltip="https://arxiv.org/pdf/2206.00927"/>
-    <hyperlink ref="X41" r:id="rId18" display="https://github.com/LuChengTHU/dpm-solver" tooltip="https://github.com/LuChengTHU/dpm-solver"/>
-    <hyperlink ref="W29" r:id="rId19" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
-    <hyperlink ref="X29" r:id="rId20" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
-    <hyperlink ref="W6" r:id="rId21" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
-    <hyperlink ref="X6" r:id="rId22" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
-    <hyperlink ref="W7" r:id="rId23" display="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf" tooltip="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf"/>
-    <hyperlink ref="X7" r:id="rId24" display="https://github.com/aravindsrinivas/flowpp" tooltip="https://github.com/aravindsrinivas/flowpp"/>
-    <hyperlink ref="W8" r:id="rId25" display="https://doi.org/10.1016/j.neunet.2020.03.010" tooltip="https://doi.org/10.1016/j.neunet.2020.03.010"/>
-    <hyperlink ref="W48" r:id="rId26" display="https://arxiv.org/pdf/2207.06389" tooltip="https://arxiv.org/pdf/2207.06389"/>
-    <hyperlink ref="X48" r:id="rId27" display="https://github.com/rongjiehuang/prodiff" tooltip="https://github.com/rongjiehuang/prodiff"/>
-    <hyperlink ref="W42" r:id="rId28" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Gu_Vector_Quantized_Diffusion_Model_for_Text-to-Image_Synthesis_CVPR_2022_paper.pdf"/>
-    <hyperlink ref="X42" r:id="rId29" display="https://github.com/cientgu/VQ-Diffusion" tooltip="https://github.com/cientgu/VQ-Diffusion"/>
-    <hyperlink ref="W49" r:id="rId30" display="https://arxiv.org/pdf/2009.09761" tooltip="https://arxiv.org/pdf/2009.09761"/>
-    <hyperlink ref="X49" r:id="rId31" display="https://github.com/lmnt-com/diffwave" tooltip="https://github.com/lmnt-com/diffwave"/>
-    <hyperlink ref="W30" r:id="rId32" display="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf" tooltip="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf"/>
-    <hyperlink ref="X30" r:id="rId33" display="https://github.com/zalandoresearch/pytorch-ts" tooltip="https://github.com/zalandoresearch/pytorch-ts"/>
-    <hyperlink ref="W56" r:id="rId34" display="https://proceedings.mlr.press/v202/kong23b/kong23b.pdf"/>
-    <hyperlink ref="W64" r:id="rId35" display="https://arxiv.org/pdf/2210.08933" tooltip="https://arxiv.org/pdf/2210.08933"/>
-    <hyperlink ref="X64" r:id="rId36" display="https://github.com/Shark-NLP/DiffuSeq"/>
-    <hyperlink ref="W43" r:id="rId37" display="https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9887996"/>
-    <hyperlink ref="X43" r:id="rId38" display="https://github.com/Janspiry/Image-Super-Resolution-via-Iterative-Refinement?tab=readme-ov-file"/>
-    <hyperlink ref="W9" r:id="rId39" display="https://openaccess.thecvf.com/content_ICCV_2019/papers/Sun_DUAL-GLOW_Conditional_Flow-Based_Generative_Model_for_Modality_Transfer_ICCV_2019_paper.pdf"/>
-    <hyperlink ref="X9" r:id="rId40" display="https://github.com/haolsun/dual-glow"/>
-    <hyperlink ref="W10" r:id="rId41" display="https://proceedings.mlr.press/v119/ping20a/ping20a.pdf"/>
-    <hyperlink ref="X10" r:id="rId42" display="https://github.com/PaddlePaddle/Parakeet/tree/develop/examples/waveflow"/>
-    <hyperlink ref="W57" r:id="rId43" display="https://arxiv.org/pdf/2209.14734"/>
-    <hyperlink ref="X57" r:id="rId44" display="https://github.com/cvignac/DiGress"/>
-    <hyperlink ref="W50" r:id="rId45" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/95f03faf3763e1b1ce2c3de62da8f090-Paper-Conference.pdf"/>
-    <hyperlink ref="X50" r:id="rId46" display="https://github.com/microsoft/NeuralSpeech/tree/master/BinauralGrad"/>
-    <hyperlink ref="W51" r:id="rId47" display="https://proceedings.mlr.press/v162/kim22d/kim22d.pdf"/>
-    <hyperlink ref="W31" r:id="rId48" display="https://arxiv.org/pdf/2302.09746"/>
-    <hyperlink ref="X31" r:id="rId49" display="https://github.com/LMZZML/PriSTI"/>
-    <hyperlink ref="W65" r:id="rId50" display="https://openreview.net/pdf?id=h7-XixPCAL"/>
-    <hyperlink ref="X65" r:id="rId51" display="https://github.com/google-research/google-research/tree/master/d3pm"/>
-    <hyperlink ref="W44" r:id="rId52" display="https://dl.acm.org/doi/pdf/10.1145/3528233.3530757"/>
-    <hyperlink ref="W32" r:id="rId53" display="http://home.ustc.edu.cn/~pengkun/files/Publications/KDD2023_1.pdf"/>
-    <hyperlink ref="W33" r:id="rId54" display="https://arxiv.org/pdf/2308.09857"/>
-    <hyperlink ref="X33" r:id="rId55" display="https://github.com/LSY-Cython/DiffCharge"/>
-    <hyperlink ref="W34" r:id="rId56" display="https://proceedings.mlr.press/v202/shen23d/shen23d.pdfNon-autoregressive conditional diffusion models for time series prediction" tooltip="https://proceedings.mlr.press/v202/shen23d/shen23d.pdfNon-autoregressive conditional diffusion models for time series prediction"/>
-    <hyperlink ref="W16" r:id="rId57" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf"/>
-    <hyperlink ref="X16" r:id="rId58" display="https://github.com/XiangLi1999/Diffusion-LM" tooltip="https://github.com/XiangLi1999/Diffusion-LM"/>
-    <hyperlink ref="W17" r:id="rId59" display="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf" tooltip="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf"/>
-    <hyperlink ref="X17" r:id="rId60" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
-    <hyperlink ref="W73" r:id="rId61" display="https://arxiv.org/pdf/1904.10322"/>
-    <hyperlink ref="X73" r:id="rId62" display="https://github.com/PeiJieSun/diffnet"/>
-    <hyperlink ref="W74" r:id="rId63" display="https://arxiv.org/pdf/2308.11131" tooltip="https://arxiv.org/pdf/2308.11131"/>
-    <hyperlink ref="W75" r:id="rId64" display="https://arxiv.org/pdf/2308.06982"/>
-    <hyperlink ref="W76" r:id="rId65" display="https://arxiv.org/pdf/2406.01629"/>
-    <hyperlink ref="X76" r:id="rId66" display="https://github.com/HKUDS/RecDiff"/>
-    <hyperlink ref="W11" r:id="rId67" display="https://arxiv.org/pdf/2306.02239"/>
-    <hyperlink ref="X11" r:id="rId68" display="https://github.com/CharlieMat/GFN4Rec"/>
+    <hyperlink ref="X18" r:id="rId1" display="https://arxiv.org/pdf/2212.01842" tooltip="https://arxiv.org/pdf/2212.01842"/>
+    <hyperlink ref="Y18" r:id="rId2" display="https://github.com/GRAPH-0/GraphGDP" tooltip="https://github.com/GRAPH-0/GraphGDP"/>
+    <hyperlink ref="X19" r:id="rId3" display="https://arxiv.org/pdf/2403.12034" tooltip="https://arxiv.org/pdf/2403.12034"/>
+    <hyperlink ref="Y20" r:id="rId4" display="https://github.com/ermongroup/CSDI" tooltip="https://github.com/ermongroup/CSDI"/>
+    <hyperlink ref="X20" r:id="rId5" display="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2021/file/cfe8504bda37b575c70ee1a8276f3486-Paper.pdf"/>
+    <hyperlink ref="X4" r:id="rId6" display="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2024/papers/Tsao_Boosting_Flow-based_Generative_Super-Resolution_Models_via_Learned_Prior_CVPR_2024_paper.pdf"/>
+    <hyperlink ref="Y4" r:id="rId7" display="https://github.com/liyuantsao/BFSR" tooltip="https://github.com/liyuantsao/BFSR"/>
+    <hyperlink ref="X5" r:id="rId8" display="https://wkui.github.io/Infocom2024-FlowTM.pdf" tooltip="https://wkui.github.io/Infocom2024-FlowTM.pdf"/>
+    <hyperlink ref="Y5" r:id="rId9" display="https://github.com/duoduoqiao/FlowTM" tooltip="https://github.com/duoduoqiao/FlowTM"/>
+    <hyperlink ref="X21" r:id="rId10" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2023/papers/Ruiz_DreamBooth_Fine_Tuning_Text-to-Image_Diffusion_Models_for_Subject-Driven_Generation_CVPR_2023_paper.pdf"/>
+    <hyperlink ref="X22" r:id="rId11" display="https://arxiv.org/pdf/2211.15029" tooltip="https://arxiv.org/pdf/2211.15029"/>
+    <hyperlink ref="Y22" r:id="rId12" display="https://github.com/Hzfinfdu/Diffusion-BERT" tooltip="https://github.com/Hzfinfdu/Diffusion-BERT"/>
+    <hyperlink ref="X28" r:id="rId13" display="https://arxiv.org/pdf/2309.12858" tooltip="https://arxiv.org/pdf/2309.12858"/>
+    <hyperlink ref="Y28" r:id="rId14" display="https://github.com/liuqidong07/DiffuASR" tooltip="https://github.com/liuqidong07/DiffuASR"/>
+    <hyperlink ref="X40" r:id="rId15" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf" tooltip="https://openaccess.thecvf.com/content/CVPR2022/papers/Rombach_High-Resolution_Image_Synthesis_With_Latent_Diffusion_Models_CVPR_2022_paper.pdf"/>
+    <hyperlink ref="Y40" r:id="rId16" display="https://github.com/CompVis/latent-diffusion" tooltip="https://github.com/CompVis/latent-diffusion"/>
+    <hyperlink ref="X41" r:id="rId17" display="https://arxiv.org/pdf/2206.00927" tooltip="https://arxiv.org/pdf/2206.00927"/>
+    <hyperlink ref="Y41" r:id="rId18" display="https://github.com/LuChengTHU/dpm-solver" tooltip="https://github.com/LuChengTHU/dpm-solver"/>
+    <hyperlink ref="X29" r:id="rId19" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/91a85f3fb8f570e6be52b333b5ab017a-Paper-Conference.pdf"/>
+    <hyperlink ref="Y29" r:id="rId20" display="https://github.com/PaddlePaddle/PaddleSpatial/tree/main/research/D3VAE"/>
+    <hyperlink ref="X6" r:id="rId21" display="https://arxiv.org/pdf/2211.11220" tooltip="https://arxiv.org/pdf/2211.11220"/>
+    <hyperlink ref="Y6" r:id="rId22" display="not mentioned" tooltip="https://github.com/nihaomiao/CVPR23_LFDM"/>
+    <hyperlink ref="X7" r:id="rId23" display="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf" tooltip="https://proceedings.mlr.press/v97/ho19a/ho19a.pdf"/>
+    <hyperlink ref="Y7" r:id="rId24" display="https://github.com/aravindsrinivas/flowpp" tooltip="https://github.com/aravindsrinivas/flowpp"/>
+    <hyperlink ref="X8" r:id="rId25" display="https://doi.org/10.1016/j.neunet.2020.03.010" tooltip="https://doi.org/10.1016/j.neunet.2020.03.010"/>
+    <hyperlink ref="X48" r:id="rId26" display="https://arxiv.org/pdf/2207.06389" tooltip="https://arxiv.org/pdf/2207.06389"/>
+    <hyperlink ref="Y48" r:id="rId27" display="https://github.com/rongjiehuang/prodiff" tooltip="https://github.com/rongjiehuang/prodiff"/>
+    <hyperlink ref="X42" r:id="rId28" display="https://openaccess.thecvf.com/content/CVPR2022/papers/Gu_Vector_Quantized_Diffusion_Model_for_Text-to-Image_Synthesis_CVPR_2022_paper.pdf"/>
+    <hyperlink ref="Y42" r:id="rId29" display="https://github.com/cientgu/VQ-Diffusion" tooltip="https://github.com/cientgu/VQ-Diffusion"/>
+    <hyperlink ref="X49" r:id="rId30" display="https://arxiv.org/pdf/2009.09761" tooltip="https://arxiv.org/pdf/2009.09761"/>
+    <hyperlink ref="Y49" r:id="rId31" display="https://github.com/lmnt-com/diffwave" tooltip="https://github.com/lmnt-com/diffwave"/>
+    <hyperlink ref="X30" r:id="rId32" display="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf" tooltip="https://proceedings.mlr.press/v139/rasul21a/rasul21a.pdf"/>
+    <hyperlink ref="Y30" r:id="rId33" display="https://github.com/zalandoresearch/pytorch-ts" tooltip="https://github.com/zalandoresearch/pytorch-ts"/>
+    <hyperlink ref="X56" r:id="rId34" display="https://proceedings.mlr.press/v202/kong23b/kong23b.pdf"/>
+    <hyperlink ref="X64" r:id="rId35" display="https://arxiv.org/pdf/2210.08933" tooltip="https://arxiv.org/pdf/2210.08933"/>
+    <hyperlink ref="Y64" r:id="rId36" display="https://github.com/Shark-NLP/DiffuSeq"/>
+    <hyperlink ref="X43" r:id="rId37" display="https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9887996"/>
+    <hyperlink ref="Y43" r:id="rId38" display="https://github.com/Janspiry/Image-Super-Resolution-via-Iterative-Refinement?tab=readme-ov-file"/>
+    <hyperlink ref="X9" r:id="rId39" display="https://openaccess.thecvf.com/content_ICCV_2019/papers/Sun_DUAL-GLOW_Conditional_Flow-Based_Generative_Model_for_Modality_Transfer_ICCV_2019_paper.pdf"/>
+    <hyperlink ref="Y9" r:id="rId40" display="https://github.com/haolsun/dual-glow"/>
+    <hyperlink ref="X10" r:id="rId41" display="https://proceedings.mlr.press/v119/ping20a/ping20a.pdf"/>
+    <hyperlink ref="Y10" r:id="rId42" display="https://github.com/PaddlePaddle/Parakeet/tree/develop/examples/waveflow"/>
+    <hyperlink ref="X57" r:id="rId43" display="https://arxiv.org/pdf/2209.14734"/>
+    <hyperlink ref="Y57" r:id="rId44" display="https://github.com/cvignac/DiGress"/>
+    <hyperlink ref="X50" r:id="rId45" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/95f03faf3763e1b1ce2c3de62da8f090-Paper-Conference.pdf"/>
+    <hyperlink ref="Y50" r:id="rId46" display="https://github.com/microsoft/NeuralSpeech/tree/master/BinauralGrad"/>
+    <hyperlink ref="X51" r:id="rId47" display="https://proceedings.mlr.press/v162/kim22d/kim22d.pdf"/>
+    <hyperlink ref="X31" r:id="rId48" display="https://arxiv.org/pdf/2302.09746"/>
+    <hyperlink ref="Y31" r:id="rId49" display="https://github.com/LMZZML/PriSTI"/>
+    <hyperlink ref="X65" r:id="rId50" display="https://openreview.net/pdf?id=h7-XixPCAL"/>
+    <hyperlink ref="Y65" r:id="rId51" display="https://github.com/google-research/google-research/tree/master/d3pm"/>
+    <hyperlink ref="X44" r:id="rId52" display="https://dl.acm.org/doi/pdf/10.1145/3528233.3530757"/>
+    <hyperlink ref="X32" r:id="rId53" display="http://home.ustc.edu.cn/~pengkun/files/Publications/KDD2023_1.pdf"/>
+    <hyperlink ref="X33" r:id="rId54" display="https://arxiv.org/pdf/2308.09857"/>
+    <hyperlink ref="Y33" r:id="rId55" display="https://github.com/LSY-Cython/DiffCharge"/>
+    <hyperlink ref="X34" r:id="rId56" display="https://proceedings.mlr.press/v202/shen23d/shen23d.pdfNon-autoregressive conditional diffusion models for time series prediction" tooltip="https://proceedings.mlr.press/v202/shen23d/shen23d.pdfNon-autoregressive conditional diffusion models for time series prediction"/>
+    <hyperlink ref="X16" r:id="rId57" display="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf" tooltip="https://proceedings.neurips.cc/paper_files/paper/2022/file/1be5bc25d50895ee656b8c2d9eb89d6a-Paper-Conference.pdf"/>
+    <hyperlink ref="Y16" r:id="rId58" display="https://github.com/XiangLi1999/Diffusion-LM" tooltip="https://github.com/XiangLi1999/Diffusion-LM"/>
+    <hyperlink ref="X17" r:id="rId59" display="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf" tooltip="https://proceedings.mlr.press/v139/popov21a/popov21a.pdf"/>
+    <hyperlink ref="Y17" r:id="rId60" display="https://github.com/huawei-noah/speech-backbones" tooltip="https://github.com/huawei-noah/speech-backbones"/>
+    <hyperlink ref="X73" r:id="rId61" display="https://arxiv.org/pdf/1904.10322"/>
+    <hyperlink ref="Y73" r:id="rId62" display="https://github.com/PeiJieSun/diffnet"/>
+    <hyperlink ref="X74" r:id="rId63" display="https://arxiv.org/pdf/2308.11131" tooltip="https://arxiv.org/pdf/2308.11131"/>
+    <hyperlink ref="X75" r:id="rId64" display="https://arxiv.org/pdf/2308.06982"/>
+    <hyperlink ref="X76" r:id="rId65" display="https://arxiv.org/pdf/2406.01629"/>
+    <hyperlink ref="Y76" r:id="rId66" display="https://github.com/HKUDS/RecDiff"/>
+    <hyperlink ref="X11" r:id="rId67" display="https://arxiv.org/pdf/2306.02239"/>
+    <hyperlink ref="Y11" r:id="rId68" display="https://github.com/CharlieMat/GFN4Rec"/>
+    <hyperlink ref="X84" r:id="rId69" display="https://arxiv.org/pdf/2312.03606"/>
+    <hyperlink ref="Y84" r:id="rId70" display="https://github.com/samar-khanna/DiffusionSat"/>
+    <hyperlink ref="X97" r:id="rId71" display="https://openaccess.thecvf.com/content/ICCV2021/papers/Chang_Building-GAN_Graph-Conditioned_Architectural_Volumetric_Design_Generation_ICCV_2021_paper.pdf"/>
+    <hyperlink ref="X98" r:id="rId72" display="https://dl.acm.org/doi/pdf/10.1145/3534678.3539321"/>
+    <hyperlink ref="Y98" r:id="rId73" display="https://github.com/THUDM/GraphMAE"/>
+    <hyperlink ref="X85" r:id="rId74" display="https://drive.google.com/file/d/1SJd5Uj8MhQWP78gFsHScdPHcgnmMKp5C/view"/>
+    <hyperlink ref="X86" r:id="rId75" display="https://openaccess.thecvf.com/content/ICCV2023/papers/Liu_Zero-1-to-3_Zero-shot_One_Image_to_3D_Object_ICCV_2023_paper.pdf"/>
+    <hyperlink ref="Y86" r:id="rId76" display="https://github.com/cvlab-columbia/zero123"/>
+    <hyperlink ref="X87" r:id="rId77" display="https://arxiv.org/pdf/2112.10741"/>
+    <hyperlink ref="Y87" r:id="rId78" display="https://github.com/openai/glide-text2im"/>
+    <hyperlink ref="X99" r:id="rId79" display="https://proceedings.neurips.cc/paper_files/paper/2019/file/e205ee2a5de471a70c1fd1b46033a75f-Paper.pdf"/>
+    <hyperlink ref="Y99" r:id="rId80" display="https://github.com/muhanzhang/D-VAE"/>
+    <hyperlink ref="X101" r:id="rId81" display="https://openaccess.thecvf.com/content/CVPR2023/papers/Tang_Graph_Transformer_GANs_for_Graph-Constrained_House_Generation_CVPR_2023_paper.pdf"/>
+    <hyperlink ref="Y100" r:id="rId82" display="https://github.com/hwwang55/GraphGAN"/>
+    <hyperlink ref="X100" r:id="rId83" display="https://ojs.aaai.org/index.php/AAAI/article/download/11872/11731&#10;&#10;PS：这是一个下载链接"/>
+    <hyperlink ref="X88" r:id="rId84" display="https://dl.acm.org/doi/pdf/10.1145/3583780.3614842" tooltip="https://dl.acm.org/doi/pdf/10.1145/3583780.3614842"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/调研任务.xlsx
+++ b/调研任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="韩旭涛" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="900">
   <si>
     <t>论文名</t>
   </si>
@@ -6668,6 +6668,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -6863,6 +6869,9 @@
   </si>
   <si>
     <t>GraphMAE</t>
+  </si>
+  <si>
+    <t>VAE</t>
   </si>
   <si>
     <t>(1) Tsinghua University
@@ -7331,6 +7340,485 @@
       </rPr>
       <t>学习图形约束房屋生成任务的有效图形节点关系具有挑战性，现有的房屋生成方法，通常依赖于构建卷积层。然而，由于固有的归纳偏差存在，卷积架构缺乏对输入图中的长期依赖关系的理解。
 作者提出了一种新Transformer-based的网络（即GTGAN），是第一个基于transformer的框架，能够更有效地进行关系推理，以组合房屋布局和验证邻接约束。</t>
+    </r>
+  </si>
+  <si>
+    <t>FlowGEN: A Generative Model for Flow Graphs</t>
+  </si>
+  <si>
+    <t>FlowGEN</t>
+  </si>
+  <si>
+    <t>(1) University of California, Santa Barbara, CA, USA
+(2) Rice University, Houston, TX, USA</t>
+  </si>
+  <si>
+    <t>流图生成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Power
+(2) Water
+(3) Taxi Trips
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: 
+(1) European power transmission graphs [24] 
+(2) 1000 directed barbell graphs with 20 nodes and 10-40%
+of edges inside the communities removed uniformly at random.
+(3) Real flow graphs with nodes and edges representing taxi zones in Manhattan, NYC, and routes between zones, respectively</t>
+    </r>
+  </si>
+  <si>
+    <t>训练阶段：随机向量
+生成阶段：随机向量</t>
+  </si>
+  <si>
+    <t>训练阶段：生成器输出根据随机向量生成流图，并和从数据集提取的真实流图比较，判别器评估生成的流图与真实流图之间的差异
+生成阶段：生成器生成流图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasserstein GAN objective with gradient penalty </t>
+  </si>
+  <si>
+    <t>未给出表达式
+用 Wasserstein GAN objective（WGAN 目标）与 gradient penalty（梯度惩罚）进行联合训练</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) the recent generative approaches are primarily focused on reproducing undirected graph topologies observed in simple graph structures
+(2) existing graph generative models are unable to learn the joint relationship between graph structure and flows in an end-to-end fashion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) introduce FlowGEN, an implicit generative model for flow graphs, that learns how to jointly generate graph topologies and flows with diverse dynamics directly from data using a novel (flow) graph neural network.
+(2) </t>
+    </r>
+  </si>
+  <si>
+    <t>(1) in/out degree distributions
+(2) edge flow distributions,
+(3) node divergence distributions
+(4) number of directed k-cycles (k ∈ {3, 4})</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3534678.3539406</t>
+  </si>
+  <si>
+    <t>@inproceedings{kocayusufoglu2022flowgen,
+  title={Flowgen: A generative model for flow graphs},
+  author={Kocayusufoglu, Furkan and Silva, Arlei and Singh, Ambuj K},
+  booktitle={Proceedings of the 28th ACM SIGKDD Conference on Knowledge Discovery and Data Mining},
+  pages={813--823},
+  year={2022}
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gan
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由于复杂的动力学通常受特定领域的物理定律或模式的支配，流图的捕获对现有的生成模型构成了巨大的挑战。现有的图生成模型主要集中于生成无向图拓扑结构，在模拟真实世界应用中节点间的复杂连接模式存在不足。通过将现有无向图生成模型与可学习的流生成函数相结合的两步法，虽然灵活且能与多种模型集成，但无法端到端地学习图结构与流之间的联合关系，难以有效捕捉流图中拓扑结构与流分布之间的内在耦合关系。
+作者提出了FlowGEN，这是一种流图的隐式生成模型，它学习如何使用新型（流）图神经网络直接从数据中联合生成具有不同动态的图拓扑和流。</t>
+    </r>
+  </si>
+  <si>
+    <t>Graphaf: a flow-based autoregressive model for molecular graph generation</t>
+  </si>
+  <si>
+    <t>Graphaf</t>
+  </si>
+  <si>
+    <t>(1) Department of Computer Science, Peking University, China
+(2) Shanghai Jiao Tong University, China
+(3) Mila - Quebec AI Institute, Canada
+(4) Universite de Montreal, Canada 
+(5) HEC Montreal, Canada 
+(6) CIFAR AI Research Chair</t>
+  </si>
+  <si>
+    <t>ICLR 2020</t>
+  </si>
+  <si>
+    <t>分子图生成</t>
+  </si>
+  <si>
+    <t>(1) ZINC250k molecular dataset
+(2) QM9 
+(3) MOSES 
+(4) COMMUNITY-SMALL
+(5) EGO-SMALL</t>
+  </si>
+  <si>
+    <t>训练阶段：分子图结构
+生成阶段：采样随机变量</t>
+  </si>
+  <si>
+    <t>训练阶段：分子图结构
+生成阶段：分子图结构</t>
+  </si>
+  <si>
+    <t>负对数似然损失函数</t>
+  </si>
+  <si>
+    <t>未给出表达式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) Molecular graph generation is a fundamental problem for drug discovery and is is challenging since it requires not only generating chemically valid molecular structures but also optimizing their chemical properties in the meantime
+(2) Designing novel molecular structures with desired properties is a fundamental problem and is challenging, since the chemical space is discrete by nature, and the entire search space is huge
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) propose a flow-based autoregressive model for graph generation called GraphAF with advantages of high model flexibility for data density estimation, efficient parallel computation for training and an iterative sampling process.
+(2) further fine-tune the generation process with reinforcement learning to optimize the chemical properties of generated molecules
+</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Density Modeling and Generation: Validity, Uniqueness, Novelty and Reconstruction
+(2) Property Optimization Scores: penalized logP and QED
+(3) Constrained Property Optimization: penalized logP and Tanimoto similarity</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2001.09382</t>
+  </si>
+  <si>
+    <t>https://github.com/DeepGraphLearning/GraphAF</t>
+  </si>
+  <si>
+    <t>@inproceedings{DBLP:conf/iclr/ShiXZZZT20,
+  author       = {Chence Shi and
+                  Minkai Xu and
+                  Zhaocheng Zhu and
+                  Weinan Zhang and
+                  Ming Zhang and
+                  Jian Tang},
+  title        = {GraphAF: a Flow-based Autoregressive Model for Molecular Graph Generation},
+  booktitle    = {8th International Conference on Learning Representations, {ICLR} 2020,
+                  Addis Ababa, Ethiopia, April 26-30, 2020},
+  publisher    = {OpenReview.net},
+  year         = {2020},
+  url          = {https://openreview.net/forum?id=S1esMkHYPr},
+  timestamp    = {Mon, 26 Oct 2020 17:57:17 +0100},
+  biburl       = {https://dblp.org/rec/conf/iclr/ShiXZZZT20.bib},
+  bibsource    = {dblp computer science bibliography, https://dblp.org}
+}</t>
+  </si>
+  <si>
+    <t>1 Tesla V100 GPU and 32 CPU cores</t>
+  </si>
+  <si>
+    <t>In the future, we plan to train our GraphAF model on larger datasets and also extend it to generate other types of graph structures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flow-based
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分子图生成在药物发现中是一个关键问题，但极具挑战性，因为它不仅需要产生化学上有效的分子结构，还需要同时优化它们的化学性质。设计具有所需性质的新型分子结构是药物发现和材料科学等各种应用中的一个关键问题。这个问题非常具有挑战性，因为化学空间本质上是离散的，整个搜索空间巨大。
+作者提出了一种基于流的自回归模型用于图生成，GraphAF，结合了自回归和基于流的方法的优点具有：（1）数据密度估计的高模型灵活性；（2） 用于训练的高效并行计算；（3） 迭代采样过程，允许利用化学领域知识进行化合价检查。</t>
+    </r>
+  </si>
+  <si>
+    <t>Fast Graph Generation via Spectral Diffusion</t>
+  </si>
+  <si>
+    <t>Graph Spectral Diffusion Model (GSDM)</t>
+  </si>
+  <si>
+    <t>Nanyang Technological University, Singapore</t>
+  </si>
+  <si>
+    <t>Ieee Transactions on Pattern Analysis And Machine Intelligence 2024</t>
+  </si>
+  <si>
+    <t>图结构生成</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Community-small 
+(2) Enzymes
+(3) Grid
+(4) QM9 
+(5) ZINC250K
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS：前三个用于Generic Graph Generation任务，后面两个用于Molecules Generation任务</t>
+    </r>
+  </si>
+  <si>
+    <t>denoising score matching objective</t>
+  </si>
+  <si>
+    <t>具体表达式 3.2 Score-based Generative Diffusion Model
+公式(4)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) most likelihood-based generative models suffer from either limited quality of modeling graph structures, or considerable computational burden
+(2) running full-rank diffusion SDEs on the whole graph adjacency matrix space hinders diffusion models from learning graph topology generation, and hence significantly deteriorates the quality of generated graph data
+(3) graph adjacency matrices can be highly sparse, which makes isotropic Gaussian noise insertion incompatible with graph structural data. In these circumstances
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) propose a novel Graph Spectral Diffusion Model (GSDM) for fast and quality graph generation, which overcomes the limitations of existing graph diffusion models by leveraging diffusion SDEs on both the node feature and graph spectrum spaces
+(2) prove
+that GSDM enjoys a substantially stronger performance guarantee than the standard graph diffusion
+model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(1) maximum mean discrepancy , MMD
+(2) Frechet ChemNet Distance, FCD
+(3) Neighborhood subgraph pairwise distance kernel (NSPDK) MMD
+(4) validity w/o correction
+(5) generation time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PS: 第一个用于Generic Graph Generation任务，后面四个用于Molecules Generation任务</t>
+    </r>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2211.08892</t>
+  </si>
+  <si>
+    <t>@article{luo2023fast,
+  title={Fast graph generation via spectral diffusion},
+  author={Luo, Tianze and Mo, Zhanfeng and Pan, Sinno Jialin},
+  journal={IEEE Transactions on Pattern Analysis and Machine Intelligence},
+  year={2023},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>Diffusion 
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成图结构数据是一个具有挑战性的问题，需要学习图的底层分布。作者认为在整个图邻接矩阵空间上运行全秩扩散SDE会阻碍扩散模型学习图拓扑生成，从而显著降低生成图数据的质量。大多数基于可能性的生成模型要么存在建模图结构质量有限的问题，要么存在相当大的计算负担。对于扩散模型，图邻接矩阵可以是高度稀疏的，这使得各向同性高斯噪声插入与图结构数据不兼容，直接将扩散模型应用于图拓扑生成是不可取
+作者提出了一种新的图谱扩散模型（GSDM），用于快速生成高质量的图。通过在节点特征和图谱空间上利用扩散SDE克服了现有图扩散模型的局限性。通过随机分析的视角，作者证明GSDM比标准图扩散模型具有更强的性能保证</t>
+    </r>
+  </si>
+  <si>
+    <t>MoVAE: A Variational AutoEncoder for Molecular Graph Generation</t>
+  </si>
+  <si>
+    <t>MoVAE</t>
+  </si>
+  <si>
+    <t>(1) Shenzhen University,
+(2) University of Electronic Science and Technology of China,
+(3) Tencent AI Lab</t>
+  </si>
+  <si>
+    <t>SIAM 2023</t>
+  </si>
+  <si>
+    <t>分子生成</t>
+  </si>
+  <si>
+    <t>(1) QM9
+(2) ZINC</t>
+  </si>
+  <si>
+    <t>由无向图表示的分子</t>
+  </si>
+  <si>
+    <t>分子图</t>
+  </si>
+  <si>
+    <t>(1) 编码器损失
+(2) 解码器损失</t>
+  </si>
+  <si>
+    <t>具体表达式见公式(3.14)和(3.15)
+(1) 构成：重构损失误差（reconstruction loss）、属性约束损失（ property constraint loss）、化合价直方图约束损失（the valence histogram loss）
+(2) 构成：与(1) 相同，但是各个组成部分的参数不同</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) molecule designs were mainly based on expert manual design and enumeration in traditional methods , which not only rely on the domain knowledge and intuition of human experts, but are also timeconsuming and labor-intensive
+(2) most of the existing VAE-based models require tedious graph matching operations during training, and tend to generate invalid molecules
+(3) sequential generation-based models may accumulate errors during the generation processes and ignore the overall correlation of molecular graph
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1) adversarially train the model by treating the encoder and decoder as the discriminator and generator, respectively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2) The one-to-one correspondence generation method of node-to-node and edge-to-edge is adopted to ensure the isomorphic invariance of the generated molecular graphs and avoid complicated graph matching
+(3) Additional constraints on drug properties and valence histogram are added to generate drug molecular graphs with specific properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>(1) Validity
+(2) Uniqueness
+(3) Novelty
+(4) G-mean
+(5) Diversity
+(6) Synthetic Accessibility Score, SAS
+(7) Quantitative Estimation Drug-likeness, QED</t>
+  </si>
+  <si>
+    <t>https://epubs.siam.org/doi/pdf/10.1137/1.9781611977653.ch58</t>
+  </si>
+  <si>
+    <t>@inproceedings{lin2023movae,
+  title={MoVAE: a variational AutoEncoder for molecular graph generation},
+  author={Lin, Zerun and Zhang, Yuhan and Duan, Lixin and Ou-Yang, Le and Zhao, Peilin},
+  booktitle={Proceedings of the 2023 SIAM International Conference on Data Mining (SDM)},
+  pages={514--522},
+  year={2023},
+  organization={SIAM}
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>VAE
+挑战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">分子生成在加速药物发现中起着重要作用。分子设计主要基于传统方法中的专家手动设计和枚举，这不仅依赖于人类专家的领域知识和直觉，而且耗时耗力。现有的基于图的分子生成方法大致可分为基于顺序生成的方法和基于完整图生成的方法。然而，基于顺序生成的模型可能会在生成过程中积累误差，忽略分子图的整体相关性。因此，已经开发出完整的基于图生成的方法来生成分子图，但是已经设计的模型也存在一定问题。大多数现有的基于VAE的模型在训练过程中都需要繁琐的图匹配操作，并且往往会产生无效分子。
+作者提出了一种用于分子生成的新型分子图变分自动编码器（MoVAE），结合了VAE和GAN模型的优点。通过将编码器和解码器分别视为鉴别器和生成器来对抗性地训练模型。采用节点到节点和边到边的一一对应生成方法，以确保生成的分子图的同构不变性，避免复杂的图匹配。添加了对药物性质和化合价直方图的额外约束，以生成具有特定性质的药物分子图
+</t>
     </r>
   </si>
 </sst>
@@ -7637,6 +8125,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
@@ -7644,19 +8138,25 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF2F75B5"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="4"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7668,21 +8168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="4" tint="-0.25"/>
+      <sz val="10"/>
+      <color rgb="FF2F75B5"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -8295,7 +8783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8386,6 +8874,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8740,6 +9234,12 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8768,6 +9268,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8861,6 +9364,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9404,141 +9925,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO102"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE88" sqref="AE88"/>
+      <selection pane="bottomLeft" activeCell="AG105" sqref="AG105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="27" width="15.3333333333333" customWidth="1"/>
-    <col min="28" max="28" width="15.3333333333333" style="30" customWidth="1"/>
+    <col min="28" max="28" width="15.3333333333333" style="32" customWidth="1"/>
     <col min="29" max="16383" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.2" spans="1:31">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="74" t="s">
+      <c r="AB1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="47" t="s">
+      <c r="AC1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="75" t="s">
+      <c r="AE1" s="77" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="105" spans="1:28">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="37" t="s">
         <v>31</v>
       </c>
       <c r="G2"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="46" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="30"/>
+      <c r="AB2" s="32"/>
     </row>
     <row r="3" customFormat="1" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="30"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="405" spans="1:41">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -9588,29 +10109,29 @@
       <c r="W4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="50" t="s">
         <v>50</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="76">
+      <c r="AB4" s="78">
         <v>3</v>
       </c>
-      <c r="AC4" s="77" t="s">
+      <c r="AC4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="77" t="s">
+      <c r="AD4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="78" t="s">
+      <c r="AE4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="79">
+      <c r="AF4" s="81">
         <v>45594</v>
       </c>
       <c r="AG4" s="18"/>
@@ -9624,7 +10145,7 @@
       <c r="AO4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="345.6" spans="1:41">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -9666,29 +10187,29 @@
       <c r="W5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="49" t="s">
+      <c r="X5" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="49" t="s">
+      <c r="Y5" s="51" t="s">
         <v>67</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="80">
+      <c r="AB5" s="82">
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD5" s="81" t="s">
+      <c r="AD5" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AE5" s="82" t="s">
+      <c r="AE5" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="79">
+      <c r="AF5" s="81">
         <v>45594</v>
       </c>
       <c r="AG5" s="18"/>
@@ -9702,7 +10223,7 @@
       <c r="AO5" s="18"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="409.5" spans="1:41">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9746,17 +10267,17 @@
       <c r="W6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="X6" s="50" t="s">
+      <c r="X6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="83" t="s">
+      <c r="Y6" s="85" t="s">
         <v>52</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>84</v>
       </c>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="84">
+      <c r="AB6" s="86">
         <v>18</v>
       </c>
       <c r="AC6" s="4" t="s">
@@ -9765,10 +10286,10 @@
       <c r="AD6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AE6" s="85" t="s">
+      <c r="AE6" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="AF6" s="79">
+      <c r="AF6" s="81">
         <v>45599</v>
       </c>
       <c r="AG6" s="18"/>
@@ -9782,7 +10303,7 @@
       <c r="AO6" s="18"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -9830,34 +10351,34 @@
       <c r="W7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="X7" s="48" t="s">
+      <c r="X7" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="48" t="s">
+      <c r="Y7" s="50" t="s">
         <v>101</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="76">
+      <c r="AB7" s="78">
         <v>505</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AD7" s="77" t="s">
+      <c r="AD7" s="79" t="s">
         <v>52</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AF7" s="86">
+      <c r="AF7" s="88">
         <v>45610</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -9897,17 +10418,17 @@
       <c r="W8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="X8" s="50" t="s">
+      <c r="X8" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="87" t="s">
+      <c r="Y8" s="89" t="s">
         <v>52</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>117</v>
       </c>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="84">
+      <c r="AB8" s="86">
         <v>14</v>
       </c>
       <c r="AC8" s="4" t="s">
@@ -9919,12 +10440,12 @@
       <c r="AE8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AF8" s="88">
+      <c r="AF8" s="90">
         <v>45610</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -9974,34 +10495,34 @@
       <c r="W9" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="Y9" s="51" t="s">
+      <c r="Y9" s="53" t="s">
         <v>134</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>135</v>
       </c>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="89">
+      <c r="AB9" s="91">
         <v>47</v>
       </c>
       <c r="AC9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AD9" s="90" t="s">
+      <c r="AD9" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AE9" s="91" t="s">
+      <c r="AE9" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="AF9" s="92">
+      <c r="AF9" s="94">
         <v>45610</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -10049,34 +10570,34 @@
       <c r="W10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="X10" s="52" t="s">
+      <c r="X10" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="Y10" s="52" t="s">
+      <c r="Y10" s="54" t="s">
         <v>152</v>
       </c>
       <c r="Z10" s="6" t="s">
         <v>153</v>
       </c>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="93">
+      <c r="AB10" s="95">
         <v>146</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="94" t="s">
+      <c r="AD10" s="96" t="s">
         <v>52</v>
       </c>
       <c r="AE10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AF10" s="95">
+      <c r="AF10" s="97">
         <v>45610</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -10115,16 +10636,16 @@
       <c r="W11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="X11" s="53" t="s">
+      <c r="X11" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="55" t="s">
         <v>168</v>
       </c>
       <c r="Z11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AB11" s="96">
+      <c r="AB11" s="98">
         <v>14</v>
       </c>
       <c r="AC11" s="7" t="s">
@@ -10136,7 +10657,7 @@
       <c r="AE11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="AF11" s="97">
+      <c r="AF11" s="99">
         <v>45623</v>
       </c>
     </row>
@@ -10144,182 +10665,182 @@
       <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AB15" s="30"/>
+      <c r="AB15" s="32"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="409.5" spans="1:41">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41" t="s">
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41" t="s">
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="W16" s="41" t="s">
+      <c r="W16" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="X16" s="54" t="s">
+      <c r="X16" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="Y16" s="54" t="s">
+      <c r="Y16" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="Z16" s="41" t="s">
+      <c r="Z16" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="98">
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="100">
         <v>609</v>
       </c>
-      <c r="AC16" s="99" t="s">
+      <c r="AC16" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="AD16" s="41" t="s">
+      <c r="AD16" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" s="100" t="s">
+      <c r="AE16" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" s="101">
+      <c r="AF16" s="103">
         <v>45618</v>
       </c>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
     </row>
     <row r="17" s="8" customFormat="1" ht="409.5" spans="1:41">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42" t="s">
+      <c r="J17" s="44"/>
+      <c r="K17" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42" t="s">
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42" t="s">
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="W17" s="42" t="s">
+      <c r="W17" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="X17" s="55" t="s">
+      <c r="X17" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="Y17" s="55" t="s">
+      <c r="Y17" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="Z17" s="42" t="s">
+      <c r="Z17" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="102">
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="104">
         <v>485</v>
       </c>
-      <c r="AC17" s="42" t="s">
+      <c r="AC17" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="AD17" s="42" t="s">
+      <c r="AD17" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="103">
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="105">
         <v>45618</v>
       </c>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="409.5" spans="1:41">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="40" t="s">
         <v>212</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -10357,35 +10878,35 @@
       <c r="Q18" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="V18" s="56" t="s">
+      <c r="V18" s="58" t="s">
         <v>223</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="X18" s="57" t="s">
+      <c r="X18" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="Y18" s="57" t="s">
+      <c r="Y18" s="59" t="s">
         <v>226</v>
       </c>
       <c r="Z18" s="6" t="s">
         <v>227</v>
       </c>
       <c r="AA18" s="6"/>
-      <c r="AB18" s="93">
+      <c r="AB18" s="95">
         <v>45</v>
       </c>
-      <c r="AC18" s="94" t="s">
+      <c r="AC18" s="96" t="s">
         <v>52</v>
       </c>
       <c r="AD18" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AE18" s="104" t="s">
+      <c r="AE18" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="AF18" s="79">
+      <c r="AF18" s="81">
         <v>45599</v>
       </c>
       <c r="AG18" s="18"/>
@@ -10399,7 +10920,7 @@
       <c r="AO18" s="18"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="408" customHeight="1" spans="1:41">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="40" t="s">
         <v>230</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -10453,17 +10974,17 @@
       <c r="W19" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="X19" s="48" t="s">
+      <c r="X19" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="Y19" s="77" t="s">
+      <c r="Y19" s="79" t="s">
         <v>52</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>246</v>
       </c>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="76">
+      <c r="AB19" s="78">
         <v>12</v>
       </c>
       <c r="AC19" s="2" t="s">
@@ -10472,10 +10993,10 @@
       <c r="AD19" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AE19" s="78" t="s">
+      <c r="AE19" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="AF19" s="79">
+      <c r="AF19" s="81">
         <v>45594</v>
       </c>
       <c r="AG19" s="18"/>
@@ -10489,7 +11010,7 @@
       <c r="AO19" s="18"/>
     </row>
     <row r="20" s="9" customFormat="1" ht="360" spans="1:41">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="40" t="s">
         <v>250</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -10537,29 +11058,29 @@
       <c r="W20" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="X20" s="58" t="s">
+      <c r="X20" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="Y20" s="58" t="s">
+      <c r="Y20" s="60" t="s">
         <v>264</v>
       </c>
       <c r="Z20" s="9" t="s">
         <v>265</v>
       </c>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="105">
+      <c r="AB20" s="107">
         <v>417</v>
       </c>
-      <c r="AC20" s="106" t="s">
+      <c r="AC20" s="108" t="s">
         <v>52</v>
       </c>
       <c r="AD20" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AE20" s="107" t="s">
+      <c r="AE20" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="AF20" s="79">
+      <c r="AF20" s="81">
         <v>45594</v>
       </c>
       <c r="AG20" s="18"/>
@@ -10573,7 +11094,7 @@
       <c r="AO20" s="18"/>
     </row>
     <row r="21" s="10" customFormat="1" ht="405" spans="1:41">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="40" t="s">
         <v>268</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -10623,17 +11144,17 @@
       <c r="W21" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="X21" s="59" t="s">
+      <c r="X21" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="Y21" s="108" t="s">
+      <c r="Y21" s="110" t="s">
         <v>52</v>
       </c>
       <c r="Z21" s="10" t="s">
         <v>281</v>
       </c>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="109">
+      <c r="AB21" s="111">
         <v>1972</v>
       </c>
       <c r="AC21" s="10" t="s">
@@ -10645,7 +11166,7 @@
       <c r="AE21" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AF21" s="79">
+      <c r="AF21" s="81">
         <v>45594</v>
       </c>
       <c r="AG21" s="18"/>
@@ -10659,7 +11180,7 @@
       <c r="AO21" s="18"/>
     </row>
     <row r="22" s="11" customFormat="1" ht="330" spans="1:41">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="40" t="s">
         <v>285</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -10703,29 +11224,29 @@
       <c r="W22" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="X22" s="60" t="s">
+      <c r="X22" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="Y22" s="60" t="s">
+      <c r="Y22" s="62" t="s">
         <v>297</v>
       </c>
       <c r="Z22" s="11" t="s">
         <v>298</v>
       </c>
       <c r="AA22" s="11"/>
-      <c r="AB22" s="110">
+      <c r="AB22" s="112">
         <v>80</v>
       </c>
       <c r="AC22" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="AD22" s="111" t="s">
+      <c r="AD22" s="113" t="s">
         <v>52</v>
       </c>
       <c r="AE22" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AF22" s="79">
+      <c r="AF22" s="81">
         <v>45594</v>
       </c>
       <c r="AG22" s="18"/>
@@ -10742,16 +11263,16 @@
       <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AB26" s="30"/>
+      <c r="AB26" s="32"/>
     </row>
     <row r="27" customFormat="1" spans="1:28">
       <c r="A27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB27" s="30"/>
+      <c r="AB27" s="32"/>
     </row>
     <row r="28" s="12" customFormat="1" ht="409.5" spans="1:41">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="40" t="s">
         <v>303</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -10793,29 +11314,29 @@
       <c r="W28" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="X28" s="61" t="s">
+      <c r="X28" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="Y28" s="61" t="s">
+      <c r="Y28" s="63" t="s">
         <v>316</v>
       </c>
       <c r="Z28" s="12" t="s">
         <v>317</v>
       </c>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="112">
+      <c r="AB28" s="114">
         <v>36</v>
       </c>
-      <c r="AC28" s="113" t="s">
+      <c r="AC28" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="113" t="s">
+      <c r="AD28" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="AE28" s="114" t="s">
+      <c r="AE28" s="116" t="s">
         <v>318</v>
       </c>
-      <c r="AF28" s="79">
+      <c r="AF28" s="81">
         <v>45599</v>
       </c>
       <c r="AG28" s="18"/>
@@ -10829,7 +11350,7 @@
       <c r="AO28" s="18"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="409.5" spans="1:41">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="40" t="s">
         <v>319</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -10867,23 +11388,23 @@
       <c r="Q29" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="V29" s="62" t="s">
+      <c r="V29" s="64" t="s">
         <v>327</v>
       </c>
       <c r="W29" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="X29" s="50" t="s">
+      <c r="X29" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="Y29" s="50" t="s">
+      <c r="Y29" s="52" t="s">
         <v>330</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>331</v>
       </c>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="84">
+      <c r="AB29" s="86">
         <v>82</v>
       </c>
       <c r="AC29" s="4" t="s">
@@ -10892,10 +11413,10 @@
       <c r="AD29" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AE29" s="115" t="s">
+      <c r="AE29" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="AF29" s="79">
+      <c r="AF29" s="81">
         <v>45599</v>
       </c>
       <c r="AG29" s="18"/>
@@ -10909,7 +11430,7 @@
       <c r="AO29" s="18"/>
     </row>
     <row r="30" s="7" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="40" t="s">
         <v>335</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -10957,17 +11478,17 @@
       <c r="W30" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="X30" s="53" t="s">
+      <c r="X30" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="Y30" s="53" t="s">
+      <c r="Y30" s="55" t="s">
         <v>347</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>348</v>
       </c>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="96">
+      <c r="AB30" s="98">
         <v>290</v>
       </c>
       <c r="AC30" s="7" t="s">
@@ -10976,15 +11497,15 @@
       <c r="AD30" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="AE30" s="116" t="s">
+      <c r="AE30" s="118" t="s">
         <v>351</v>
       </c>
-      <c r="AF30" s="97">
+      <c r="AF30" s="99">
         <v>45607</v>
       </c>
     </row>
     <row r="31" s="11" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="40" t="s">
         <v>352</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -11034,17 +11555,17 @@
       <c r="W31" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="X31" s="63" t="s">
+      <c r="X31" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="Y31" s="63" t="s">
+      <c r="Y31" s="65" t="s">
         <v>366</v>
       </c>
       <c r="Z31" s="11" t="s">
         <v>367</v>
       </c>
       <c r="AA31" s="11"/>
-      <c r="AB31" s="110">
+      <c r="AB31" s="112">
         <v>41</v>
       </c>
       <c r="AC31" s="11" t="s">
@@ -11053,15 +11574,15 @@
       <c r="AD31" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AE31" s="117" t="s">
+      <c r="AE31" s="119" t="s">
         <v>370</v>
       </c>
-      <c r="AF31" s="118">
+      <c r="AF31" s="120">
         <v>45610</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="40" t="s">
         <v>371</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -11109,34 +11630,34 @@
       <c r="W32" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="X32" s="64" t="s">
+      <c r="X32" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="Y32" s="90" t="s">
+      <c r="Y32" s="92" t="s">
         <v>52</v>
       </c>
       <c r="Z32" s="5" t="s">
         <v>380</v>
       </c>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="89">
+      <c r="AB32" s="91">
         <v>26</v>
       </c>
-      <c r="AC32" s="90" t="s">
+      <c r="AC32" s="92" t="s">
         <v>52</v>
       </c>
       <c r="AD32" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="AE32" s="91" t="s">
+      <c r="AE32" s="93" t="s">
         <v>382</v>
       </c>
-      <c r="AF32" s="92">
+      <c r="AF32" s="94">
         <v>45618</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="40" t="s">
         <v>383</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -11186,17 +11707,17 @@
       <c r="W33" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="X33" s="65" t="s">
+      <c r="X33" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="Y33" s="65" t="s">
+      <c r="Y33" s="67" t="s">
         <v>396</v>
       </c>
       <c r="Z33" s="13" t="s">
         <v>397</v>
       </c>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="119">
+      <c r="AB33" s="121">
         <v>8</v>
       </c>
       <c r="AC33" s="13" t="s">
@@ -11208,12 +11729,12 @@
       <c r="AE33" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="AF33" s="120">
+      <c r="AF33" s="122">
         <v>45618</v>
       </c>
     </row>
     <row r="34" s="14" customFormat="1" ht="409.5" spans="1:32">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="40" t="s">
         <v>401</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -11263,17 +11784,17 @@
       <c r="W34" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="X34" s="66" t="s">
+      <c r="X34" s="68" t="s">
         <v>411</v>
       </c>
-      <c r="Y34" s="121" t="s">
+      <c r="Y34" s="123" t="s">
         <v>52</v>
       </c>
       <c r="Z34" s="14" t="s">
         <v>412</v>
       </c>
       <c r="AA34" s="14"/>
-      <c r="AB34" s="122">
+      <c r="AB34" s="124">
         <v>37</v>
       </c>
       <c r="AC34" s="14" t="s">
@@ -11285,7 +11806,7 @@
       <c r="AE34" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="AF34" s="123">
+      <c r="AF34" s="125">
    